--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8917AF61-2BDA-4043-9ECC-79530079874B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5E2EC-6A20-417C-9E06-A852FE700760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="591">
   <si>
     <t>Zone</t>
   </si>
@@ -1790,18 +1790,12 @@
     <t>!M_15_NOC_X_Spouse_X_Drive_Media_X104X</t>
   </si>
   <si>
-    <t>Violation</t>
-  </si>
-  <si>
     <t xml:space="preserve">TCS </t>
   </si>
   <si>
     <t>Bridge</t>
   </si>
   <si>
-    <t>Violation RCA</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -1812,6 +1806,12 @@
   </si>
   <si>
     <t>X- EF- X-33-X - EM-X</t>
+  </si>
+  <si>
+    <t>France24 F</t>
+  </si>
+  <si>
+    <t>ViolationRCA</t>
   </si>
 </sst>
 </file>
@@ -3398,7 +3398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="728">
+  <cellXfs count="723">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4637,568 +4637,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5213,23 +4654,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5237,7 +4712,6 @@
     <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5247,6 +4721,517 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5592,10 +5577,10 @@
       <c r="I2" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="527" t="s">
+      <c r="J2" s="535" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="528"/>
+      <c r="K2" s="536"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5605,13 +5590,13 @@
       <c r="N2" s="386" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="529" t="s">
+      <c r="O2" s="537" t="s">
         <v>385</v>
       </c>
-      <c r="P2" s="530"/>
-      <c r="Q2" s="530"/>
-      <c r="R2" s="530"/>
-      <c r="S2" s="531" t="s">
+      <c r="P2" s="538"/>
+      <c r="Q2" s="538"/>
+      <c r="R2" s="538"/>
+      <c r="S2" s="539" t="s">
         <v>386</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -5625,7 +5610,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="524"/>
+      <c r="D3" s="532"/>
       <c r="E3" s="374"/>
       <c r="F3" s="281" t="s">
         <v>69</v>
@@ -5650,7 +5635,7 @@
       </c>
       <c r="O3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="532"/>
+      <c r="S3" s="540"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -5659,7 +5644,7 @@
       <c r="C4" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="525"/>
+      <c r="D4" s="533"/>
       <c r="E4" s="61"/>
       <c r="F4" s="396" t="s">
         <v>42</v>
@@ -5676,7 +5661,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="532"/>
+      <c r="S4" s="540"/>
     </row>
     <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -5685,7 +5670,7 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="526"/>
+      <c r="D5" s="534"/>
       <c r="F5" s="401" t="s">
         <v>42</v>
       </c>
@@ -5709,7 +5694,7 @@
       <c r="Q5" s="19">
         <v>5100</v>
       </c>
-      <c r="S5" s="532"/>
+      <c r="S5" s="540"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -5741,7 +5726,7 @@
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="6"/>
-      <c r="S6" s="532"/>
+      <c r="S6" s="540"/>
     </row>
     <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="219" t="s">
@@ -5771,7 +5756,7 @@
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="6"/>
-      <c r="S7" s="532"/>
+      <c r="S7" s="540"/>
     </row>
     <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -5799,7 +5784,7 @@
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="6"/>
-      <c r="S8" s="532"/>
+      <c r="S8" s="540"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -5832,7 +5817,7 @@
       <c r="O9" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="532"/>
+      <c r="S9" s="540"/>
     </row>
     <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -5867,7 +5852,7 @@
       <c r="Q10" s="64">
         <v>85</v>
       </c>
-      <c r="S10" s="532"/>
+      <c r="S10" s="540"/>
     </row>
     <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -5901,7 +5886,7 @@
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="142"/>
-      <c r="S11" s="532"/>
+      <c r="S11" s="540"/>
       <c r="T11" s="23"/>
     </row>
     <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5928,7 +5913,7 @@
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="142"/>
-      <c r="S12" s="532"/>
+      <c r="S12" s="540"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="271" t="s">
@@ -5962,10 +5947,10 @@
       <c r="N13" s="404" t="s">
         <v>522</v>
       </c>
-      <c r="S13" s="532"/>
+      <c r="S13" s="540"/>
     </row>
     <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S14" s="532"/>
+      <c r="S14" s="540"/>
     </row>
     <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -5991,17 +5976,17 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="536">
+      <c r="M15" s="544">
         <v>45275</v>
       </c>
-      <c r="N15" s="524" t="s">
+      <c r="N15" s="532" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="256" t="s">
         <v>44</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="532"/>
+      <c r="S15" s="540"/>
     </row>
     <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="514" t="s">
@@ -6027,9 +6012,9 @@
       <c r="L16" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="537"/>
-      <c r="N16" s="525"/>
-      <c r="S16" s="532"/>
+      <c r="M16" s="545"/>
+      <c r="N16" s="533"/>
+      <c r="S16" s="540"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -6057,15 +6042,15 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="538"/>
-      <c r="N17" s="526"/>
+      <c r="M17" s="546"/>
+      <c r="N17" s="534"/>
       <c r="O17" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S17" s="532"/>
+      <c r="S17" s="540"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S18" s="532"/>
+      <c r="S18" s="540"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6093,13 +6078,13 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="536">
+      <c r="M19" s="544">
         <v>45275</v>
       </c>
       <c r="N19" s="442" t="s">
         <v>522</v>
       </c>
-      <c r="S19" s="532"/>
+      <c r="S19" s="540"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="254" t="s">
@@ -6125,11 +6110,11 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="537"/>
+      <c r="M20" s="545"/>
       <c r="N20" s="431" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="532"/>
+      <c r="S20" s="540"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="254" t="s">
@@ -6155,15 +6140,15 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="537"/>
+      <c r="M21" s="545"/>
       <c r="N21" s="431" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="534" t="s">
+      <c r="P21" s="542" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="535"/>
-      <c r="S21" s="532"/>
+      <c r="Q21" s="543"/>
+      <c r="S21" s="540"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="288" t="s">
@@ -6189,11 +6174,11 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="537"/>
+      <c r="M22" s="545"/>
       <c r="N22" s="410" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="532"/>
+      <c r="S22" s="540"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6219,11 +6204,11 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="537"/>
+      <c r="M23" s="545"/>
       <c r="N23" s="61" t="s">
         <v>523</v>
       </c>
-      <c r="S23" s="532"/>
+      <c r="S23" s="540"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -6249,7 +6234,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="537"/>
+      <c r="M24" s="545"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6257,7 +6242,7 @@
         <v>44</v>
       </c>
       <c r="R24" s="16"/>
-      <c r="S24" s="532"/>
+      <c r="S24" s="540"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6283,11 +6268,11 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="537"/>
+      <c r="M25" s="545"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="532"/>
+      <c r="S25" s="540"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -6313,11 +6298,11 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="537"/>
+      <c r="M26" s="545"/>
       <c r="N26" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="S26" s="532"/>
+      <c r="S26" s="540"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="271" t="s">
@@ -6339,9 +6324,9 @@
       <c r="J27" s="439"/>
       <c r="K27" s="440"/>
       <c r="L27" s="441"/>
-      <c r="M27" s="537"/>
+      <c r="M27" s="545"/>
       <c r="N27" s="61"/>
-      <c r="S27" s="532"/>
+      <c r="S27" s="540"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="271" t="s">
@@ -6369,12 +6354,12 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="538"/>
+      <c r="M28" s="546"/>
       <c r="N28" s="61" t="s">
         <v>524</v>
       </c>
       <c r="R28" s="16"/>
-      <c r="S28" s="533"/>
+      <c r="S28" s="541"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6395,8 +6380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6451,7 +6436,7 @@
       <c r="P1" s="450" t="s">
         <v>408</v>
       </c>
-      <c r="Q1" s="722" t="s">
+      <c r="Q1" s="547" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -6462,32 +6447,32 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="547">
+      <c r="A2" s="560">
         <f ca="1">TODAY()</f>
         <v>45276</v>
       </c>
-      <c r="B2" s="549" t="s">
+      <c r="B2" s="562" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="561" t="s">
+      <c r="C2" s="574" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="551" t="s">
+      <c r="D2" s="564" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="553" t="s">
+      <c r="E2" s="566" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="559" t="s">
+      <c r="G2" s="572" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="541" t="s">
+      <c r="I2" s="554" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="448" t="s">
@@ -6511,7 +6496,7 @@
       <c r="P2" s="451">
         <v>40</v>
       </c>
-      <c r="Q2" s="723"/>
+      <c r="Q2" s="548"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
         <v>7</v>
@@ -6524,21 +6509,21 @@
       <c r="X2" s="56"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="548"/>
-      <c r="B3" s="550"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="552"/>
-      <c r="E3" s="554"/>
-      <c r="G3" s="560"/>
+      <c r="A3" s="561"/>
+      <c r="B3" s="563"/>
+      <c r="C3" s="575"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="567"/>
+      <c r="G3" s="573"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="542"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
       <c r="N3" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="Q3" s="720">
+      <c r="Q3" s="530">
         <f>SUM(X24:X30)</f>
         <v>3</v>
       </c>
@@ -6550,12 +6535,12 @@
         <v>390</v>
       </c>
       <c r="B4" s="257"/>
-      <c r="C4" s="555" t="s">
+      <c r="C4" s="568" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="542"/>
-      <c r="R4" s="720" t="s">
-        <v>587</v>
+      <c r="I4" s="555"/>
+      <c r="R4" s="530" t="s">
+        <v>585</v>
       </c>
       <c r="T4" s="20">
         <f>IF((R7-SUM(V2:V10)&lt;0),R7-SUM(V2:V10),0)</f>
@@ -6571,7 +6556,7 @@
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="556"/>
+      <c r="C5" s="569"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6581,13 +6566,13 @@
       <c r="F5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="524" t="s">
+      <c r="G5" s="532" t="s">
         <v>276</v>
       </c>
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="542"/>
+      <c r="I5" s="555"/>
       <c r="J5" s="449" t="s">
         <v>273</v>
       </c>
@@ -6603,36 +6588,36 @@
       <c r="N5" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="S5" s="720" t="s">
-        <v>587</v>
-      </c>
-      <c r="T5" s="721">
+      <c r="S5" s="530" t="s">
+        <v>585</v>
+      </c>
+      <c r="T5" s="20">
         <f>IF((S7-SUM(X2:X10))&lt;0,S7-SUM(X2:X10),0)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="712"/>
+      <c r="V5" s="525"/>
       <c r="W5" s="6"/>
       <c r="X5" s="232">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="544" t="s">
+      <c r="A6" s="557" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="557"/>
-      <c r="D6" s="558"/>
+      <c r="C6" s="570"/>
+      <c r="D6" s="571"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="525"/>
-      <c r="I6" s="542"/>
+      <c r="G6" s="533"/>
+      <c r="I6" s="555"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="545"/>
+      <c r="A7" s="558"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6642,8 +6627,8 @@
       <c r="D7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="525"/>
-      <c r="I7" s="542"/>
+      <c r="G7" s="533"/>
+      <c r="I7" s="555"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6670,7 +6655,7 @@
       <c r="U7" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="V7" s="713">
+      <c r="V7" s="526">
         <v>1</v>
       </c>
       <c r="W7" s="6" t="s">
@@ -6681,7 +6666,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="546"/>
+      <c r="A8" s="559"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6689,13 +6674,13 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="525"/>
-      <c r="I8" s="542"/>
+      <c r="G8" s="533"/>
+      <c r="I8" s="555"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="V8" s="714">
+      <c r="V8" s="527">
         <v>1</v>
       </c>
       <c r="W8" s="6"/>
@@ -6714,9 +6699,9 @@
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="525"/>
+      <c r="G9" s="533"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="542"/>
+      <c r="I9" s="555"/>
       <c r="M9" s="19" t="s">
         <v>548</v>
       </c>
@@ -6724,7 +6709,7 @@
       <c r="U9" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="V9" s="714">
+      <c r="V9" s="527">
         <v>1</v>
       </c>
       <c r="X9" s="109"/>
@@ -6740,10 +6725,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!S8</f>
-        <v>45</v>
-      </c>
-      <c r="G10" s="525"/>
-      <c r="I10" s="542"/>
+        <v>44</v>
+      </c>
+      <c r="G10" s="533"/>
+      <c r="I10" s="555"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6761,7 +6746,7 @@
       <c r="A11" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="524" t="s">
+      <c r="B11" s="532" t="s">
         <v>392</v>
       </c>
       <c r="C11" s="176" t="s">
@@ -6770,8 +6755,8 @@
       <c r="D11" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="525"/>
-      <c r="I11" s="542"/>
+      <c r="G11" s="533"/>
+      <c r="I11" s="555"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6797,23 +6782,23 @@
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="725" t="s">
-        <v>590</v>
-      </c>
-      <c r="V11" s="726"/>
-      <c r="W11" s="726"/>
-      <c r="X11" s="727"/>
+      <c r="U11" s="549" t="s">
+        <v>588</v>
+      </c>
+      <c r="V11" s="550"/>
+      <c r="W11" s="550"/>
+      <c r="X11" s="551"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="526"/>
+      <c r="B12" s="534"/>
       <c r="E12" s="242">
         <v>3</v>
       </c>
-      <c r="G12" s="525"/>
-      <c r="I12" s="542"/>
+      <c r="G12" s="533"/>
+      <c r="I12" s="555"/>
       <c r="J12" s="24" t="s">
         <v>539</v>
       </c>
@@ -6841,12 +6826,12 @@
       <c r="B13" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="524" t="s">
+      <c r="C13" s="532" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="525"/>
-      <c r="I13" s="542"/>
+      <c r="G13" s="533"/>
+      <c r="I13" s="555"/>
       <c r="J13" s="108" t="s">
         <v>577</v>
       </c>
@@ -6873,7 +6858,7 @@
       <c r="B14" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="526"/>
+      <c r="C14" s="534"/>
       <c r="D14" s="214" t="s">
         <v>154</v>
       </c>
@@ -6883,11 +6868,11 @@
       <c r="F14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="526"/>
+      <c r="G14" s="534"/>
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="542"/>
+      <c r="I14" s="555"/>
       <c r="U14" s="6"/>
       <c r="V14" s="112"/>
       <c r="W14" s="6"/>
@@ -6905,7 +6890,7 @@
       <c r="H15" s="289">
         <v>0</v>
       </c>
-      <c r="I15" s="542"/>
+      <c r="I15" s="555"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -6918,8 +6903,8 @@
       <c r="M15" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="R15" s="720" t="s">
-        <v>587</v>
+      <c r="R15" s="530" t="s">
+        <v>585</v>
       </c>
       <c r="T15" s="20">
         <f>IF((R18-SUM(V18:V22))&lt;0,R18-SUM(V18:V22),0)</f>
@@ -6936,13 +6921,13 @@
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="542"/>
+      <c r="I16" s="555"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="S16" s="720" t="s">
-        <v>587</v>
+      <c r="S16" s="530" t="s">
+        <v>585</v>
       </c>
       <c r="T16" s="20">
         <f>IF((S18-SUM(X18:X22))&lt;0,S18-SUM(X18:X22),0)</f>
@@ -6970,7 +6955,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="542"/>
+      <c r="I17" s="555"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -6982,13 +6967,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="542"/>
+      <c r="I18" s="555"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="539" t="s">
+      <c r="O18" s="552" t="s">
         <v>540</v>
       </c>
-      <c r="P18" s="540"/>
+      <c r="P18" s="553"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -7003,7 +6988,7 @@
       <c r="U18" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="V18" s="713">
+      <c r="V18" s="526">
         <v>1</v>
       </c>
       <c r="W18" s="6" t="s">
@@ -7014,7 +6999,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="542"/>
+      <c r="I19" s="555"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -7046,7 +7031,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="542"/>
+      <c r="I20" s="555"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -7059,12 +7044,14 @@
       <c r="U20" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="V20" s="24"/>
+      <c r="V20" s="24">
+        <v>1</v>
+      </c>
       <c r="W20" s="6"/>
       <c r="X20" s="109"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="542"/>
+      <c r="I21" s="555"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -7098,8 +7085,13 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="542"/>
-      <c r="V22" s="522"/>
+      <c r="I22" s="555"/>
+      <c r="U22" s="722" t="s">
+        <v>589</v>
+      </c>
+      <c r="V22" s="525">
+        <v>1</v>
+      </c>
       <c r="W22" s="6" t="s">
         <v>235</v>
       </c>
@@ -7117,14 +7109,14 @@
       <c r="E23" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="542"/>
+      <c r="I23" s="555"/>
       <c r="V23" s="112"/>
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="542"/>
+      <c r="I24" s="555"/>
       <c r="U24" s="379"/>
-      <c r="V24" s="715">
+      <c r="V24" s="528">
         <v>0</v>
       </c>
       <c r="W24" s="278" t="s">
@@ -7150,7 +7142,7 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="542"/>
+      <c r="I25" s="555"/>
       <c r="J25" s="449" t="s">
         <v>274</v>
       </c>
@@ -7164,9 +7156,7 @@
         <v>1</v>
       </c>
       <c r="U25" s="35"/>
-      <c r="V25" s="716"/>
-      <c r="W25" s="709"/>
-      <c r="X25" s="710"/>
+      <c r="X25" s="523"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -7189,7 +7179,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="542"/>
+      <c r="I26" s="555"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -7210,10 +7200,10 @@
         <v>2</v>
       </c>
       <c r="T26" s="61" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="U26" s="35"/>
-      <c r="V26" s="717">
+      <c r="V26" s="112">
         <v>-1</v>
       </c>
       <c r="W26" s="19" t="s">
@@ -7224,7 +7214,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="542"/>
+      <c r="I27" s="555"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -7234,7 +7224,7 @@
       <c r="R27" s="112"/>
       <c r="S27" s="112"/>
       <c r="U27" s="467"/>
-      <c r="V27" s="717">
+      <c r="V27" s="112">
         <v>-1</v>
       </c>
       <c r="W27" s="19" t="s">
@@ -7251,12 +7241,12 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="542"/>
+      <c r="I28" s="555"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
       <c r="U28" s="35"/>
-      <c r="V28" s="717">
+      <c r="V28" s="112">
         <v>0</v>
       </c>
       <c r="W28" s="19" t="s">
@@ -7273,7 +7263,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="543"/>
+      <c r="I29" s="556"/>
       <c r="J29" s="358"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7285,7 +7275,7 @@
       <c r="S29" s="112"/>
       <c r="T29" s="80"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="718">
+      <c r="V29" s="112">
         <v>-1</v>
       </c>
       <c r="W29" s="19" t="s">
@@ -7302,20 +7292,15 @@
       <c r="B30" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="U30" s="724" t="s">
-        <v>589</v>
-      </c>
-      <c r="V30" s="719"/>
+      <c r="U30" s="531" t="s">
+        <v>587</v>
+      </c>
+      <c r="V30" s="529"/>
       <c r="W30" s="466"/>
-      <c r="X30" s="711"/>
+      <c r="X30" s="524"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -7327,6 +7312,11 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7402,7 +7392,7 @@
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="559" t="s">
+      <c r="I1" s="572" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7438,7 +7428,7 @@
       <c r="X1" s="482" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="605" t="s">
+      <c r="Y1" s="618" t="s">
         <v>555</v>
       </c>
       <c r="Z1" s="458">
@@ -7463,7 +7453,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="454"/>
-      <c r="AN1" s="587"/>
+      <c r="AN1" s="603"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7472,23 +7462,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="569">
+      <c r="A2" s="627">
         <f ca="1">TODAY()</f>
         <v>45276</v>
       </c>
-      <c r="B2" s="571" t="s">
+      <c r="B2" s="629" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="561" t="s">
+      <c r="C2" s="574" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="573" t="s">
+      <c r="D2" s="631" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="617" t="s">
+      <c r="E2" s="576" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="592" t="s">
+      <c r="F2" s="584" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="445" t="s">
@@ -7497,31 +7487,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="560"/>
+      <c r="I2" s="573"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="619" t="s">
+      <c r="K2" s="578" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="620"/>
-      <c r="M2" s="592" t="s">
+      <c r="L2" s="579"/>
+      <c r="M2" s="584" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="596" t="s">
+      <c r="O2" s="610" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="561" t="s">
+      <c r="Q2" s="574" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="524"/>
-      <c r="S2" s="609" t="s">
+      <c r="R2" s="532"/>
+      <c r="S2" s="597" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7531,7 +7521,7 @@
       <c r="X2" s="483" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="606"/>
+      <c r="Y2" s="619"/>
       <c r="Z2" s="459">
         <v>1</v>
       </c>
@@ -7554,15 +7544,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="480"/>
-      <c r="AN2" s="588"/>
+      <c r="AN2" s="604"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="570"/>
-      <c r="B3" s="572"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="574"/>
-      <c r="E3" s="618"/>
-      <c r="F3" s="593"/>
+      <c r="A3" s="628"/>
+      <c r="B3" s="630"/>
+      <c r="C3" s="575"/>
+      <c r="D3" s="632"/>
+      <c r="E3" s="577"/>
+      <c r="F3" s="585"/>
       <c r="G3" s="446" t="s">
         <v>28</v>
       </c>
@@ -7581,17 +7571,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="593"/>
+      <c r="M3" s="585"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="597"/>
+      <c r="O3" s="611"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="562"/>
-      <c r="R3" s="526"/>
-      <c r="S3" s="610"/>
+      <c r="Q3" s="575"/>
+      <c r="R3" s="534"/>
+      <c r="S3" s="599"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7599,7 +7589,7 @@
       <c r="X3" s="483" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="606"/>
+      <c r="Y3" s="619"/>
       <c r="Z3" s="460">
         <v>1</v>
       </c>
@@ -7608,7 +7598,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="608" t="s">
+      <c r="AD3" s="594" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7620,16 +7610,16 @@
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="480"/>
-      <c r="AN3" s="588"/>
+      <c r="AN3" s="604"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="585" t="s">
+      <c r="B4" s="643" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="561" t="s">
+      <c r="C4" s="574" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="384" t="s">
@@ -7638,7 +7628,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="593"/>
+      <c r="F4" s="585"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7655,11 +7645,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="593"/>
+      <c r="M4" s="585"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="597"/>
+      <c r="O4" s="611"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7681,12 +7671,12 @@
       <c r="X4" s="483" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="606"/>
+      <c r="Y4" s="619"/>
       <c r="Z4" s="461"/>
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="608"/>
+      <c r="AD4" s="594"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7696,37 +7686,37 @@
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="480"/>
-      <c r="AN4" s="588"/>
+      <c r="AN4" s="604"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="559" t="s">
+      <c r="A5" s="572" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="586"/>
-      <c r="C5" s="562"/>
+      <c r="B5" s="644"/>
+      <c r="C5" s="575"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="593"/>
-      <c r="G5" s="577" t="s">
+      <c r="F5" s="585"/>
+      <c r="G5" s="635" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="577"/>
-      <c r="I5" s="577"/>
-      <c r="J5" s="577"/>
-      <c r="K5" s="577"/>
-      <c r="L5" s="578"/>
-      <c r="M5" s="593"/>
+      <c r="H5" s="635"/>
+      <c r="I5" s="635"/>
+      <c r="J5" s="635"/>
+      <c r="K5" s="635"/>
+      <c r="L5" s="636"/>
+      <c r="M5" s="585"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="597"/>
+      <c r="O5" s="611"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7734,7 +7724,7 @@
       <c r="X5" s="483" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="606"/>
+      <c r="Y5" s="619"/>
       <c r="Z5" s="461">
         <v>1</v>
       </c>
@@ -7757,24 +7747,24 @@
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="480"/>
-      <c r="AN5" s="588"/>
+      <c r="AN5" s="604"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="560"/>
-      <c r="B6" s="583" t="s">
+      <c r="A6" s="573"/>
+      <c r="B6" s="641" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="557"/>
-      <c r="D6" s="558"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="579"/>
-      <c r="J6" s="579"/>
-      <c r="K6" s="579"/>
-      <c r="L6" s="580"/>
-      <c r="M6" s="593"/>
-      <c r="O6" s="597"/>
+      <c r="C6" s="570"/>
+      <c r="D6" s="571"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="637"/>
+      <c r="H6" s="637"/>
+      <c r="I6" s="637"/>
+      <c r="J6" s="637"/>
+      <c r="K6" s="637"/>
+      <c r="L6" s="638"/>
+      <c r="M6" s="585"/>
+      <c r="O6" s="611"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7784,7 +7774,7 @@
       <c r="X6" s="483" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="606"/>
+      <c r="Y6" s="619"/>
       <c r="Z6" s="459">
         <v>1</v>
       </c>
@@ -7798,16 +7788,16 @@
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="602"/>
+      <c r="AI6" s="593"/>
       <c r="AJ6" s="493" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="602" t="s">
+      <c r="AK6" s="593" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
       <c r="AM6" s="480"/>
-      <c r="AN6" s="588"/>
+      <c r="AN6" s="604"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
@@ -7816,7 +7806,7 @@
       <c r="A7" s="245" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="584"/>
+      <c r="B7" s="642"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7826,7 +7816,7 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="593"/>
+      <c r="F7" s="585"/>
       <c r="G7" s="447">
         <v>0</v>
       </c>
@@ -7839,14 +7829,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="524">
+      <c r="K7" s="532">
         <v>1</v>
       </c>
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="593"/>
-      <c r="O7" s="597"/>
+      <c r="M7" s="585"/>
+      <c r="O7" s="611"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7860,7 +7850,7 @@
       <c r="X7" s="483" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="606"/>
+      <c r="Y7" s="619"/>
       <c r="Z7" s="459">
         <v>1</v>
       </c>
@@ -7870,18 +7860,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="608" t="s">
+      <c r="AG7" s="594" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="602"/>
+      <c r="AI7" s="593"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="602"/>
+      <c r="AK7" s="593"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="480"/>
-      <c r="AN7" s="588"/>
+      <c r="AN7" s="604"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7898,25 +7888,25 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="593"/>
-      <c r="G8" s="578">
-        <v>0</v>
-      </c>
-      <c r="H8" s="575" t="s">
+      <c r="F8" s="585"/>
+      <c r="G8" s="636">
+        <v>0</v>
+      </c>
+      <c r="H8" s="633" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="524"/>
-      <c r="J8" s="575" t="s">
+      <c r="I8" s="532"/>
+      <c r="J8" s="633" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="581"/>
-      <c r="L8" s="611"/>
-      <c r="M8" s="594"/>
-      <c r="N8" s="614">
+      <c r="K8" s="639"/>
+      <c r="L8" s="595"/>
+      <c r="M8" s="608"/>
+      <c r="N8" s="600">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="597"/>
+      <c r="O8" s="611"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7926,7 +7916,7 @@
       <c r="X8" s="483" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="606"/>
+      <c r="Y8" s="619"/>
       <c r="Z8" s="461"/>
       <c r="AA8" s="325"/>
       <c r="AB8" s="219"/>
@@ -7934,14 +7924,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="608"/>
+      <c r="AG8" s="594"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="602"/>
+      <c r="AI8" s="593"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
       <c r="AM8" s="480"/>
-      <c r="AN8" s="588"/>
+      <c r="AN8" s="604"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -7956,17 +7946,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="593"/>
-      <c r="G9" s="580"/>
-      <c r="H9" s="576"/>
-      <c r="I9" s="526"/>
-      <c r="J9" s="576"/>
-      <c r="K9" s="582"/>
-      <c r="L9" s="612"/>
-      <c r="M9" s="595"/>
-      <c r="N9" s="615"/>
-      <c r="O9" s="598"/>
-      <c r="S9" s="609" t="s">
+      <c r="F9" s="585"/>
+      <c r="G9" s="638"/>
+      <c r="H9" s="634"/>
+      <c r="I9" s="534"/>
+      <c r="J9" s="634"/>
+      <c r="K9" s="640"/>
+      <c r="L9" s="596"/>
+      <c r="M9" s="609"/>
+      <c r="N9" s="601"/>
+      <c r="O9" s="612"/>
+      <c r="S9" s="597" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7978,7 +7968,7 @@
       <c r="X9" s="483" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="606"/>
+      <c r="Y9" s="619"/>
       <c r="Z9" s="462"/>
       <c r="AA9" s="325"/>
       <c r="AB9" s="219"/>
@@ -7988,16 +7978,16 @@
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="608"/>
+      <c r="AG9" s="594"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="602"/>
+      <c r="AI9" s="593"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="602" t="s">
+      <c r="AK9" s="593" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
       <c r="AM9" s="480"/>
-      <c r="AN9" s="588"/>
+      <c r="AN9" s="604"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -8012,22 +8002,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="250">
         <f>Boat!S8</f>
-        <v>45</v>
-      </c>
-      <c r="F10" s="593"/>
+        <v>44</v>
+      </c>
+      <c r="F10" s="585"/>
       <c r="N10" s="470" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="626" t="s">
+      <c r="O10" s="587" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="599" t="s">
+      <c r="P10" s="613" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="613"/>
+      <c r="S10" s="598"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8039,7 +8029,7 @@
       <c r="X10" s="483" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="606"/>
+      <c r="Y10" s="619"/>
       <c r="Z10" s="461">
         <v>0</v>
       </c>
@@ -8057,16 +8047,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="608"/>
+      <c r="AG10" s="594"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="602"/>
+      <c r="AI10" s="593"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="602"/>
+      <c r="AK10" s="593"/>
       <c r="AL10" s="272"/>
       <c r="AM10" s="494" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="588"/>
+      <c r="AN10" s="604"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -8075,7 +8065,7 @@
       <c r="A11" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="524" t="s">
+      <c r="B11" s="532" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="509" t="s">
@@ -8084,18 +8074,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="593"/>
+      <c r="F11" s="585"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="627"/>
-      <c r="P11" s="600"/>
+      <c r="O11" s="588"/>
+      <c r="P11" s="614"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="613"/>
+      <c r="S11" s="598"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -8105,7 +8095,7 @@
       <c r="X11" s="483" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="606"/>
+      <c r="Y11" s="619"/>
       <c r="Z11" s="461"/>
       <c r="AA11" s="325">
         <v>1</v>
@@ -8119,14 +8109,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="608"/>
+      <c r="AG11" s="594"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
       <c r="AM11" s="480"/>
-      <c r="AN11" s="588"/>
+      <c r="AN11" s="604"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -8135,7 +8125,7 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="526"/>
+      <c r="B12" s="534"/>
       <c r="C12" s="510" t="s">
         <v>394</v>
       </c>
@@ -8145,25 +8135,25 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="593"/>
+      <c r="F12" s="585"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
-      <c r="H12" s="529" t="s">
+      <c r="H12" s="537" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="530"/>
-      <c r="J12" s="530"/>
-      <c r="K12" s="631"/>
+      <c r="I12" s="538"/>
+      <c r="J12" s="538"/>
+      <c r="K12" s="592"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="627"/>
-      <c r="P12" s="600"/>
+      <c r="O12" s="588"/>
+      <c r="P12" s="614"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="610"/>
+      <c r="S12" s="599"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -8173,7 +8163,7 @@
       <c r="X12" s="483" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="606"/>
+      <c r="Y12" s="619"/>
       <c r="Z12" s="459">
         <v>1</v>
       </c>
@@ -8184,16 +8174,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="616" t="s">
+      <c r="AD12" s="602" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="493" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="608" t="s">
+      <c r="AF12" s="594" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="608"/>
+      <c r="AG12" s="594"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -8203,10 +8193,10 @@
       <c r="AJ12" s="272"/>
       <c r="AK12" s="272"/>
       <c r="AL12" s="272"/>
-      <c r="AM12" s="603" t="s">
+      <c r="AM12" s="616" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="588"/>
+      <c r="AN12" s="604"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
@@ -8218,17 +8208,17 @@
       <c r="E13" s="500">
         <v>-3</v>
       </c>
-      <c r="F13" s="593"/>
-      <c r="G13" s="530" t="s">
+      <c r="F13" s="585"/>
+      <c r="G13" s="538" t="s">
         <v>448</v>
       </c>
-      <c r="H13" s="530"/>
-      <c r="I13" s="530"/>
-      <c r="J13" s="631"/>
+      <c r="H13" s="538"/>
+      <c r="I13" s="538"/>
+      <c r="J13" s="592"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="627"/>
-      <c r="P13" s="601"/>
+      <c r="O13" s="588"/>
+      <c r="P13" s="615"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8238,7 +8228,7 @@
       <c r="X13" s="483" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="606"/>
+      <c r="Y13" s="619"/>
       <c r="Z13" s="459">
         <v>1</v>
       </c>
@@ -8249,8 +8239,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="616"/>
-      <c r="AF13" s="608"/>
+      <c r="AD13" s="602"/>
+      <c r="AF13" s="594"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8261,8 +8251,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
-      <c r="AM13" s="603"/>
-      <c r="AN13" s="588"/>
+      <c r="AM13" s="616"/>
+      <c r="AN13" s="604"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="502"/>
@@ -8270,18 +8260,18 @@
       <c r="C14" s="511"/>
       <c r="D14" s="504"/>
       <c r="E14" s="505"/>
-      <c r="F14" s="593"/>
-      <c r="G14" s="530" t="s">
+      <c r="F14" s="585"/>
+      <c r="G14" s="538" t="s">
         <v>447</v>
       </c>
-      <c r="H14" s="530"/>
-      <c r="I14" s="530"/>
-      <c r="J14" s="631"/>
+      <c r="H14" s="538"/>
+      <c r="I14" s="538"/>
+      <c r="J14" s="592"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="627"/>
+      <c r="O14" s="588"/>
       <c r="Q14" s="61" t="s">
         <v>559</v>
       </c>
@@ -8295,34 +8285,34 @@
       <c r="X14" s="483" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="606"/>
+      <c r="Y14" s="619"/>
       <c r="Z14" s="459">
         <v>1</v>
       </c>
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="616"/>
+      <c r="AD14" s="602"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="608"/>
+      <c r="AF14" s="594"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="272"/>
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
-      <c r="AM14" s="603"/>
-      <c r="AN14" s="588"/>
+      <c r="AM14" s="616"/>
+      <c r="AN14" s="604"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="501" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="524" t="s">
+      <c r="C15" s="532" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="593"/>
-      <c r="O15" s="627"/>
+      <c r="F15" s="585"/>
+      <c r="O15" s="588"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8335,7 +8325,7 @@
       <c r="X15" s="483" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="606"/>
+      <c r="Y15" s="619"/>
       <c r="Z15" s="461">
         <v>1</v>
       </c>
@@ -8344,8 +8334,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="616"/>
-      <c r="AF15" s="608"/>
+      <c r="AD15" s="602"/>
+      <c r="AF15" s="594"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8358,8 +8348,8 @@
       </c>
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
-      <c r="AM15" s="603"/>
-      <c r="AN15" s="588"/>
+      <c r="AM15" s="616"/>
+      <c r="AN15" s="604"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8374,20 +8364,20 @@
       <c r="B16" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="526"/>
+      <c r="C16" s="534"/>
       <c r="D16" s="61" t="s">
         <v>511</v>
       </c>
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="593"/>
+      <c r="F16" s="585"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="627"/>
+      <c r="O16" s="588"/>
       <c r="R16" s="487" t="s">
         <v>185</v>
       </c>
@@ -8398,7 +8388,7 @@
       <c r="X16" s="483" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="606"/>
+      <c r="Y16" s="619"/>
       <c r="Z16" s="459">
         <v>1</v>
       </c>
@@ -8419,18 +8409,18 @@
       <c r="AM16" s="480" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="588"/>
+      <c r="AN16" s="604"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="593"/>
+      <c r="F17" s="585"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="627"/>
+      <c r="O17" s="588"/>
       <c r="Q17" s="21" t="s">
         <v>557</v>
       </c>
@@ -8450,7 +8440,7 @@
       <c r="X17" s="483" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="606"/>
+      <c r="Y17" s="619"/>
       <c r="Z17" s="461"/>
       <c r="AA17" s="325"/>
       <c r="AB17" s="219"/>
@@ -8475,7 +8465,7 @@
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="480"/>
-      <c r="AN17" s="588"/>
+      <c r="AN17" s="604"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8499,21 +8489,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="593"/>
+      <c r="F18" s="585"/>
       <c r="G18" s="374" t="s">
         <v>554</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="627"/>
+      <c r="O18" s="588"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="621" t="s">
+      <c r="R18" s="580" t="s">
         <v>562</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="566" t="s">
+      <c r="U18" s="624" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8523,7 +8513,7 @@
       <c r="X18" s="483" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="606"/>
+      <c r="Y18" s="619"/>
       <c r="Z18" s="461">
         <v>1</v>
       </c>
@@ -8534,37 +8524,37 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="602" t="s">
+      <c r="AF18" s="593" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="604" t="s">
+      <c r="AJ18" s="617" t="s">
         <v>322</v>
       </c>
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="480"/>
-      <c r="AN18" s="588"/>
+      <c r="AN18" s="604"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="593"/>
-      <c r="O19" s="627"/>
-      <c r="R19" s="622"/>
+      <c r="F19" s="585"/>
+      <c r="O19" s="588"/>
+      <c r="R19" s="581"/>
       <c r="S19" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="U19" s="567"/>
+      <c r="U19" s="625"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="483" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="606"/>
+      <c r="Y19" s="619"/>
       <c r="Z19" s="459">
         <v>1</v>
       </c>
@@ -8573,17 +8563,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="602"/>
+      <c r="AF19" s="593"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="604"/>
+      <c r="AJ19" s="617"/>
       <c r="AK19" s="512" t="s">
         <v>256</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="480"/>
-      <c r="AN19" s="588"/>
+      <c r="AN19" s="604"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8604,23 +8594,23 @@
       <c r="E20" s="489">
         <v>-1</v>
       </c>
-      <c r="F20" s="593"/>
+      <c r="F20" s="585"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="627"/>
-      <c r="Q20" s="629" t="s">
+      <c r="O20" s="588"/>
+      <c r="Q20" s="590" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="456" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="568"/>
+      <c r="U20" s="626"/>
       <c r="W20" s="457"/>
       <c r="X20" s="484" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="606"/>
+      <c r="Y20" s="619"/>
       <c r="Z20" s="463">
         <v>1</v>
       </c>
@@ -8645,7 +8635,7 @@
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="588"/>
+      <c r="AN20" s="604"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8669,19 +8659,19 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="593"/>
-      <c r="O21" s="627"/>
-      <c r="Q21" s="630"/>
+      <c r="F21" s="585"/>
+      <c r="O21" s="588"/>
+      <c r="Q21" s="591"/>
       <c r="T21" s="474"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="563"/>
+      <c r="V21" s="621"/>
       <c r="W21" s="478" t="s">
         <v>176</v>
       </c>
       <c r="X21" s="481" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="606"/>
+      <c r="Y21" s="619"/>
       <c r="Z21" s="497">
         <v>3</v>
       </c>
@@ -8712,14 +8702,14 @@
       <c r="AM21" s="480" t="s">
         <v>572</v>
       </c>
-      <c r="AN21" s="588"/>
+      <c r="AN21" s="604"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="593"/>
+      <c r="F22" s="585"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="627"/>
+      <c r="O22" s="588"/>
       <c r="R22" s="486" t="s">
         <v>44</v>
       </c>
@@ -8727,14 +8717,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="564"/>
+      <c r="V22" s="622"/>
       <c r="W22" s="478" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="481" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="606"/>
+      <c r="Y22" s="619"/>
       <c r="Z22" s="467"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="467"/>
@@ -8745,7 +8735,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="602" t="s">
+      <c r="AJ22" s="593" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8753,7 +8743,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="588"/>
+      <c r="AN22" s="604"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8771,21 +8761,21 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="593"/>
-      <c r="O23" s="627"/>
-      <c r="Q23" s="629" t="s">
+      <c r="F23" s="585"/>
+      <c r="O23" s="588"/>
+      <c r="Q23" s="590" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="472" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="564"/>
+      <c r="V23" s="622"/>
       <c r="W23" s="148"/>
       <c r="X23" s="481" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="606"/>
+      <c r="Y23" s="619"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="467"/>
@@ -8796,13 +8786,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="602"/>
+      <c r="AJ23" s="593"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="588"/>
+      <c r="AN23" s="604"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="492" t="s">
@@ -8820,22 +8810,22 @@
       <c r="E24" s="488">
         <v>1</v>
       </c>
-      <c r="F24" s="593"/>
+      <c r="F24" s="585"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="627"/>
-      <c r="Q24" s="630"/>
+      <c r="O24" s="588"/>
+      <c r="Q24" s="591"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="564"/>
+      <c r="V24" s="622"/>
       <c r="W24" s="148"/>
       <c r="X24" s="481" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="606"/>
+      <c r="Y24" s="619"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="467"/>
@@ -8854,11 +8844,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="588"/>
+      <c r="AN24" s="604"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="593"/>
-      <c r="O25" s="627"/>
+      <c r="F25" s="585"/>
+      <c r="O25" s="588"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -8871,12 +8861,12 @@
       <c r="U25" s="452" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="565"/>
+      <c r="V25" s="623"/>
       <c r="W25" s="148"/>
       <c r="X25" s="481" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="606"/>
+      <c r="Y25" s="619"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="467"/>
@@ -8893,7 +8883,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="588"/>
+      <c r="AN25" s="604"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8911,16 +8901,16 @@
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="593"/>
+      <c r="F26" s="585"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="627"/>
-      <c r="P26" s="590" t="s">
+      <c r="O26" s="588"/>
+      <c r="P26" s="606" t="s">
         <v>549</v>
       </c>
-      <c r="Q26" s="591"/>
-      <c r="R26" s="623" t="s">
+      <c r="Q26" s="607"/>
+      <c r="R26" s="582" t="s">
         <v>561</v>
       </c>
       <c r="T26" s="183"/>
@@ -8932,7 +8922,7 @@
       <c r="X26" s="481" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="606"/>
+      <c r="Y26" s="619"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="467"/>
@@ -8959,7 +8949,7 @@
       <c r="AM26" s="494" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="588"/>
+      <c r="AN26" s="604"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8971,12 +8961,12 @@
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="625"/>
+      <c r="F27" s="586"/>
       <c r="G27" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="O27" s="628"/>
-      <c r="R27" s="624"/>
+      <c r="O27" s="589"/>
+      <c r="R27" s="583"/>
       <c r="S27" s="473" t="s">
         <v>54</v>
       </c>
@@ -8989,7 +8979,7 @@
       <c r="X27" s="481" t="s">
         <v>556</v>
       </c>
-      <c r="Y27" s="607"/>
+      <c r="Y27" s="620"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="468"/>
@@ -9006,32 +8996,26 @@
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="589"/>
+      <c r="AN27" s="605"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -9048,22 +9032,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9073,8 +9063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L18" workbookViewId="0">
-      <selection activeCell="AL35" sqref="AL35"/>
+    <sheetView tabSelected="1" topLeftCell="P8" workbookViewId="0">
+      <selection activeCell="AN24" sqref="AN24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9111,7 +9101,7 @@
     <col min="37" max="37" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9161,16 +9151,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="559" t="s">
+      <c r="T1" s="572" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="647" t="s">
+      <c r="U1" s="649" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="649" t="s">
+      <c r="V1" s="651" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="650"/>
+      <c r="W1" s="652"/>
       <c r="X1" s="324">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -9186,40 +9176,40 @@
       <c r="AB1" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="651" t="s">
+      <c r="AC1" s="653" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="652"/>
-      <c r="AE1" s="653"/>
-      <c r="AF1" s="654" t="s">
+      <c r="AD1" s="654"/>
+      <c r="AE1" s="655"/>
+      <c r="AF1" s="656" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="655"/>
-      <c r="AH1" s="656"/>
-      <c r="AI1" s="643" t="s">
+      <c r="AG1" s="657"/>
+      <c r="AH1" s="658"/>
+      <c r="AI1" s="645" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="644"/>
-      <c r="AK1" s="645"/>
+      <c r="AJ1" s="646"/>
+      <c r="AK1" s="647"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="635">
+      <c r="J2" s="659">
         <f>SUM(J5:J30)</f>
         <v>2</v>
       </c>
-      <c r="K2" s="637">
+      <c r="K2" s="661">
         <f>SUM(K4:K29)</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="639">
+        <v>3</v>
+      </c>
+      <c r="L2" s="663">
         <f>SUM(L4:L29)</f>
-        <v>4</v>
-      </c>
-      <c r="M2" s="614">
+        <v>5</v>
+      </c>
+      <c r="M2" s="600">
         <f>SUM(K30:K37)* (-1)</f>
         <v>3</v>
       </c>
@@ -9238,11 +9228,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="641" t="s">
+      <c r="S2" s="665" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="646"/>
-      <c r="U2" s="648"/>
+      <c r="T2" s="648"/>
+      <c r="U2" s="650"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9302,10 +9292,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="636"/>
-      <c r="K3" s="638"/>
-      <c r="L3" s="640"/>
-      <c r="M3" s="615"/>
+      <c r="J3" s="660"/>
+      <c r="K3" s="662"/>
+      <c r="L3" s="664"/>
+      <c r="M3" s="601"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9319,10 +9309,10 @@
       </c>
       <c r="R3" s="159">
         <f>SUM(R4:R29)</f>
-        <v>45</v>
-      </c>
-      <c r="S3" s="642"/>
-      <c r="T3" s="560"/>
+        <v>44</v>
+      </c>
+      <c r="S3" s="666"/>
+      <c r="T3" s="573"/>
       <c r="U3" s="331">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9333,7 +9323,7 @@
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9341,23 +9331,23 @@
       </c>
       <c r="Y3" s="66">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" ref="AB3:AK3" si="1">SUM(AB4:AB29)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" si="1"/>
@@ -9369,11 +9359,11 @@
       </c>
       <c r="AF3" s="66">
         <f>SUM(AF4:AF29)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="412">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH3" s="100">
         <f t="shared" si="1"/>
@@ -9381,15 +9371,15 @@
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ3" s="329">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK3" s="330">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN3" s="112"/>
     </row>
@@ -9423,7 +9413,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="632" t="s">
+      <c r="M4" s="667" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9490,10 +9480,10 @@
         <v>204</v>
       </c>
       <c r="AM4" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN4" s="112" t="s">
         <v>583</v>
-      </c>
-      <c r="AN4" s="112" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9506,7 +9496,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="633"/>
+      <c r="M5" s="668"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9594,7 +9584,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="633"/>
+      <c r="M6" s="668"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9684,7 +9674,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="633"/>
+      <c r="M7" s="668"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9788,7 +9778,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="633"/>
+      <c r="M8" s="668"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9806,7 +9796,7 @@
       </c>
       <c r="S8" s="340">
         <f>R3</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="348"/>
@@ -9874,7 +9864,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="633"/>
+      <c r="M9" s="668"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -9972,7 +9962,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M10" s="633"/>
+      <c r="M10" s="668"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -10051,7 +10041,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="633"/>
+      <c r="M11" s="668"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -10113,7 +10103,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="578" t="s">
+      <c r="A12" s="636" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10122,7 +10112,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="629" t="s">
+      <c r="E12" s="590" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
@@ -10142,7 +10132,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="633"/>
+      <c r="M12" s="668"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10216,14 +10206,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="580"/>
+      <c r="A13" s="638"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="630"/>
+      <c r="E13" s="591"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10244,7 +10234,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="633"/>
+      <c r="M13" s="668"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10313,13 +10303,13 @@
       <c r="I14" s="430"/>
       <c r="J14" s="363"/>
       <c r="K14" s="309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="311">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="633"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="668"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10331,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="338">
         <v>-1</v>
@@ -10341,42 +10331,51 @@
       <c r="V14" s="346"/>
       <c r="W14" s="190">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="314"/>
       <c r="Y14" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="308">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="308"/>
+        <v>2</v>
+      </c>
+      <c r="AA14" s="308">
+        <v>1</v>
+      </c>
       <c r="AB14" s="308">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="312"/>
+        <v>-1</v>
+      </c>
+      <c r="AC14" s="312">
+        <v>2</v>
+      </c>
       <c r="AD14" s="318"/>
       <c r="AE14" s="314"/>
       <c r="AF14" s="314">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="373"/>
+        <v>1</v>
+      </c>
+      <c r="AG14" s="373">
+        <v>1</v>
+      </c>
       <c r="AH14" s="158"/>
       <c r="AI14" s="326">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="327">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="328">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL14" s="6" t="s">
+        <v>589</v>
       </c>
       <c r="AN14" s="112"/>
     </row>
@@ -10402,7 +10401,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="633"/>
+      <c r="M15" s="668"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10487,7 +10486,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="633"/>
+      <c r="M16" s="668"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10558,9 +10557,9 @@
         <v>235</v>
       </c>
       <c r="AM16" s="68" t="s">
-        <v>585</v>
-      </c>
-      <c r="AN16" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="AN16" s="112" t="s">
         <v>513</v>
       </c>
     </row>
@@ -10583,7 +10582,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="633"/>
+      <c r="M17" s="668"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10666,7 +10665,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="633"/>
+      <c r="M18" s="668"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10753,7 +10752,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="633"/>
+      <c r="M19" s="668"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10848,11 +10847,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="634"/>
-      <c r="N20" s="529" t="s">
+      <c r="M20" s="669"/>
+      <c r="N20" s="537" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="631"/>
+      <c r="O20" s="592"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
@@ -11095,7 +11094,7 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="585" t="s">
+      <c r="E23" s="643" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -11181,7 +11180,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="586"/>
+      <c r="E24" s="644"/>
       <c r="F24" s="177"/>
       <c r="I24" s="430" t="s">
         <v>301</v>
@@ -11196,10 +11195,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N24" s="529" t="s">
+      <c r="N24" s="537" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="631"/>
+      <c r="O24" s="592"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
@@ -11439,10 +11438,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="523"/>
-      <c r="AM26" s="19" t="s">
-        <v>586</v>
-      </c>
+      <c r="AL26" s="522"/>
+      <c r="AM26" s="19"/>
       <c r="AN26" s="112"/>
     </row>
     <row r="27" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12276,23 +12273,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="M4:M20"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="M4:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12326,15 +12323,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="529" t="s">
+      <c r="B1" s="537" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="631"/>
+      <c r="C1" s="592"/>
       <c r="D1" s="214"/>
-      <c r="J1" s="529" t="s">
+      <c r="J1" s="537" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="631"/>
+      <c r="K1" s="592"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12372,13 +12369,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="206"/>
-      <c r="M2" s="657"/>
+      <c r="M2" s="670"/>
       <c r="N2" s="154">
         <v>2</v>
       </c>
       <c r="O2" s="155"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="660" t="s">
+      <c r="Q2" s="673" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -12401,13 +12398,13 @@
       <c r="K3" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="M3" s="658"/>
+      <c r="M3" s="671"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="661"/>
+      <c r="Q3" s="674"/>
       <c r="R3" s="231"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12426,13 +12423,13 @@
       <c r="K4" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="658"/>
+      <c r="M4" s="671"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="661"/>
+      <c r="Q4" s="674"/>
       <c r="R4" s="231"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12452,13 +12449,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="206"/>
-      <c r="M5" s="658"/>
+      <c r="M5" s="671"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="661"/>
+      <c r="Q5" s="674"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -12479,13 +12476,13 @@
       <c r="K6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="658"/>
+      <c r="M6" s="671"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="661"/>
+      <c r="Q6" s="674"/>
       <c r="R6" s="231"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12505,13 +12502,13 @@
         <v>334</v>
       </c>
       <c r="L7" s="208"/>
-      <c r="M7" s="658"/>
+      <c r="M7" s="671"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="661"/>
+      <c r="Q7" s="674"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -12532,13 +12529,13 @@
       <c r="K8" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M8" s="658"/>
+      <c r="M8" s="671"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="661"/>
+      <c r="Q8" s="674"/>
       <c r="R8" s="231"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12558,13 +12555,13 @@
         <v>336</v>
       </c>
       <c r="L9" s="186"/>
-      <c r="M9" s="659"/>
+      <c r="M9" s="672"/>
       <c r="N9" s="163"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="662"/>
+      <c r="Q9" s="675"/>
       <c r="R9" s="232"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -12722,10 +12719,10 @@
         <f ca="1">TODAY()</f>
         <v>45276</v>
       </c>
-      <c r="V1" s="529" t="s">
+      <c r="V1" s="537" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="631"/>
+      <c r="W1" s="592"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12744,7 +12741,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="677" t="s">
+      <c r="AD1" s="683" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12761,10 +12758,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="708" t="s">
+      <c r="F2" s="682" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="665" t="s">
+      <c r="G2" s="710" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12792,10 +12789,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="649" t="s">
+      <c r="V2" s="651" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="650"/>
+      <c r="W2" s="652"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12814,7 +12811,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="678"/>
+      <c r="AD2" s="684"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12833,8 +12830,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="582"/>
-      <c r="G3" s="666"/>
+      <c r="F3" s="640"/>
+      <c r="G3" s="711"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12845,13 +12842,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="675" t="s">
+      <c r="O3" s="720" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="696" t="s">
+      <c r="P3" s="702" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="697"/>
+      <c r="Q3" s="703"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12861,15 +12858,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="678"/>
+      <c r="AD3" s="684"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="666"/>
+      <c r="G4" s="711"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="660" t="s">
+      <c r="L4" s="673" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="676"/>
+      <c r="O4" s="721"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12879,12 +12876,12 @@
       <c r="X4" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="529" t="s">
+      <c r="Y4" s="537" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" s="530"/>
-      <c r="AA4" s="631"/>
-      <c r="AD4" s="678"/>
+      <c r="Z4" s="538"/>
+      <c r="AA4" s="592"/>
+      <c r="AD4" s="684"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12899,21 +12896,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="666"/>
+      <c r="G5" s="711"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="683" t="s">
+      <c r="K5" s="689" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="698"/>
+      <c r="L5" s="704"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="676"/>
+      <c r="O5" s="721"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -12929,11 +12926,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="686" t="s">
+      <c r="Y5" s="692" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="687"/>
-      <c r="AD5" s="678"/>
+      <c r="Z5" s="693"/>
+      <c r="AD5" s="684"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12943,16 +12940,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="666"/>
+      <c r="G6" s="711"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="684"/>
-      <c r="L6" s="698"/>
-      <c r="O6" s="676"/>
+      <c r="K6" s="690"/>
+      <c r="L6" s="704"/>
+      <c r="O6" s="721"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -12962,20 +12959,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="678"/>
+      <c r="AD6" s="684"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="666"/>
+      <c r="G7" s="711"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="684"/>
-      <c r="L7" s="698"/>
+      <c r="K7" s="690"/>
+      <c r="L7" s="704"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="676"/>
+      <c r="O7" s="721"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="678"/>
+      <c r="AD7" s="684"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -12988,7 +12985,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="666"/>
+      <c r="G8" s="711"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -12998,41 +12995,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="684"/>
-      <c r="L8" s="698"/>
-      <c r="O8" s="676"/>
+      <c r="K8" s="690"/>
+      <c r="L8" s="704"/>
+      <c r="O8" s="721"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="680" t="s">
+      <c r="S8" s="686" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="681"/>
-      <c r="U8" s="681"/>
-      <c r="V8" s="681"/>
-      <c r="W8" s="681"/>
-      <c r="X8" s="681"/>
-      <c r="Y8" s="681"/>
-      <c r="Z8" s="681"/>
-      <c r="AA8" s="681"/>
-      <c r="AB8" s="681"/>
-      <c r="AC8" s="682"/>
-      <c r="AD8" s="678"/>
+      <c r="T8" s="687"/>
+      <c r="U8" s="687"/>
+      <c r="V8" s="687"/>
+      <c r="W8" s="687"/>
+      <c r="X8" s="687"/>
+      <c r="Y8" s="687"/>
+      <c r="Z8" s="687"/>
+      <c r="AA8" s="687"/>
+      <c r="AB8" s="687"/>
+      <c r="AC8" s="688"/>
+      <c r="AD8" s="684"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="702"/>
-      <c r="G9" s="666"/>
+      <c r="C9" s="676"/>
+      <c r="G9" s="711"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="684"/>
-      <c r="L9" s="669" t="s">
+      <c r="K9" s="690"/>
+      <c r="L9" s="714" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="670"/>
-      <c r="N9" s="671"/>
-      <c r="O9" s="676"/>
+      <c r="M9" s="715"/>
+      <c r="N9" s="716"/>
+      <c r="O9" s="721"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="678"/>
+      <c r="AD9" s="684"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="703"/>
+      <c r="C10" s="677"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13040,7 +13037,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="666"/>
+      <c r="G10" s="711"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13048,33 +13045,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="684"/>
-      <c r="M10" s="705" t="s">
+      <c r="K10" s="690"/>
+      <c r="M10" s="679" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="706"/>
-      <c r="O10" s="706"/>
-      <c r="P10" s="706"/>
-      <c r="Q10" s="706"/>
-      <c r="R10" s="706"/>
-      <c r="S10" s="706"/>
-      <c r="T10" s="706"/>
-      <c r="U10" s="706"/>
-      <c r="V10" s="706"/>
-      <c r="W10" s="706"/>
-      <c r="X10" s="706"/>
-      <c r="Y10" s="706"/>
-      <c r="Z10" s="706"/>
-      <c r="AA10" s="706"/>
-      <c r="AB10" s="706"/>
-      <c r="AC10" s="707"/>
-      <c r="AD10" s="678"/>
+      <c r="N10" s="680"/>
+      <c r="O10" s="680"/>
+      <c r="P10" s="680"/>
+      <c r="Q10" s="680"/>
+      <c r="R10" s="680"/>
+      <c r="S10" s="680"/>
+      <c r="T10" s="680"/>
+      <c r="U10" s="680"/>
+      <c r="V10" s="680"/>
+      <c r="W10" s="680"/>
+      <c r="X10" s="680"/>
+      <c r="Y10" s="680"/>
+      <c r="Z10" s="680"/>
+      <c r="AA10" s="680"/>
+      <c r="AB10" s="680"/>
+      <c r="AC10" s="681"/>
+      <c r="AD10" s="684"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="704"/>
-      <c r="G11" s="666"/>
+      <c r="C11" s="678"/>
+      <c r="G11" s="711"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="684"/>
+      <c r="K11" s="690"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13085,17 +13082,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="694" t="s">
+      <c r="Z11" s="700" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="695"/>
+      <c r="AA11" s="701"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="678"/>
+      <c r="AD11" s="684"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13108,7 +13105,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="666"/>
+      <c r="G12" s="711"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13116,8 +13113,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="684"/>
-      <c r="L12" s="699" t="s">
+      <c r="K12" s="690"/>
+      <c r="L12" s="705" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13132,7 +13129,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="524" t="s">
+      <c r="S12" s="532" t="s">
         <v>107</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -13148,26 +13145,26 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="688" t="s">
+      <c r="AA12" s="694" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="689"/>
+      <c r="AB12" s="695"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="678"/>
+      <c r="AD12" s="684"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="702"/>
-      <c r="G13" s="666"/>
-      <c r="K13" s="684"/>
-      <c r="L13" s="700"/>
+      <c r="C13" s="676"/>
+      <c r="G13" s="711"/>
+      <c r="K13" s="690"/>
+      <c r="L13" s="706"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="668" t="s">
+      <c r="Q13" s="713" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="591"/>
-      <c r="S13" s="525"/>
+      <c r="R13" s="607"/>
+      <c r="S13" s="533"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>132</v>
@@ -13175,17 +13172,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="690"/>
-      <c r="AB13" s="691"/>
-      <c r="AD13" s="678"/>
+      <c r="AA13" s="696"/>
+      <c r="AB13" s="697"/>
+      <c r="AD13" s="684"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="704"/>
+      <c r="C14" s="678"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="666"/>
+      <c r="G14" s="711"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13193,8 +13190,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="684"/>
-      <c r="L14" s="700"/>
+      <c r="K14" s="690"/>
+      <c r="L14" s="706"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13204,7 +13201,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="525"/>
+      <c r="S14" s="533"/>
       <c r="T14" s="77" t="s">
         <v>130</v>
       </c>
@@ -13215,9 +13212,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="690"/>
-      <c r="AB14" s="691"/>
-      <c r="AD14" s="678"/>
+      <c r="AA14" s="696"/>
+      <c r="AB14" s="697"/>
+      <c r="AD14" s="684"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13232,20 +13229,20 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="666"/>
+      <c r="G15" s="711"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="684"/>
-      <c r="L15" s="701"/>
-      <c r="Q15" s="668" t="s">
+      <c r="K15" s="690"/>
+      <c r="L15" s="707"/>
+      <c r="Q15" s="713" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="591"/>
-      <c r="S15" s="525"/>
+      <c r="R15" s="607"/>
+      <c r="S15" s="533"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -13253,14 +13250,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="690"/>
-      <c r="AB15" s="691"/>
-      <c r="AD15" s="678"/>
+      <c r="AA15" s="696"/>
+      <c r="AB15" s="697"/>
+      <c r="AD15" s="684"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="666"/>
-      <c r="K16" s="684"/>
+      <c r="G16" s="711"/>
+      <c r="K16" s="690"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13268,7 +13265,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="525"/>
+      <c r="S16" s="533"/>
       <c r="T16" s="76" t="s">
         <v>129</v>
       </c>
@@ -13279,34 +13276,34 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="690"/>
-      <c r="AB16" s="691"/>
-      <c r="AD16" s="678"/>
+      <c r="AA16" s="696"/>
+      <c r="AB16" s="697"/>
+      <c r="AD16" s="684"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="663" t="s">
+      <c r="F17" s="708" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="666"/>
+      <c r="G17" s="711"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="684"/>
-      <c r="S17" s="525"/>
+      <c r="K17" s="690"/>
+      <c r="S17" s="533"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="690"/>
-      <c r="AB17" s="691"/>
-      <c r="AD17" s="678"/>
+      <c r="AA17" s="696"/>
+      <c r="AB17" s="697"/>
+      <c r="AD17" s="684"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13316,58 +13313,61 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="664"/>
-      <c r="G18" s="666"/>
+      <c r="F18" s="709"/>
+      <c r="G18" s="711"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="684"/>
+      <c r="K18" s="690"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="525"/>
+      <c r="S18" s="533"/>
       <c r="U18" s="76" t="s">
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="692"/>
-      <c r="AB18" s="693"/>
-      <c r="AD18" s="678"/>
+      <c r="AA18" s="698"/>
+      <c r="AB18" s="699"/>
+      <c r="AD18" s="684"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="667"/>
-      <c r="K19" s="685"/>
+      <c r="G19" s="712"/>
+      <c r="K19" s="691"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="672" t="s">
+      <c r="R19" s="717" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="673"/>
-      <c r="T19" s="674"/>
+      <c r="S19" s="718"/>
+      <c r="T19" s="719"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="679"/>
+      <c r="AD19" s="685"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13379,14 +13379,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5E2EC-6A20-417C-9E06-A852FE700760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90522D02-5693-49CA-A7D8-F97D714BBD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="591">
   <si>
     <t>Zone</t>
   </si>
@@ -3398,7 +3398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="723">
+  <cellXfs count="722">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4706,6 +4706,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4736,62 +4793,167 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4817,12 +4979,6 @@
     <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4844,161 +5000,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5042,39 +5075,6 @@
     <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5093,25 +5093,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5189,49 +5210,27 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6436,7 +6435,7 @@
       <c r="P1" s="450" t="s">
         <v>408</v>
       </c>
-      <c r="Q1" s="547" t="s">
+      <c r="Q1" s="566" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -6447,32 +6446,32 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="560">
+      <c r="A2" s="550">
         <f ca="1">TODAY()</f>
         <v>45276</v>
       </c>
-      <c r="B2" s="562" t="s">
+      <c r="B2" s="552" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="574" t="s">
+      <c r="C2" s="564" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="564" t="s">
+      <c r="D2" s="554" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="566" t="s">
+      <c r="E2" s="556" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="572" t="s">
+      <c r="G2" s="562" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="554" t="s">
+      <c r="I2" s="573" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="448" t="s">
@@ -6496,7 +6495,7 @@
       <c r="P2" s="451">
         <v>40</v>
       </c>
-      <c r="Q2" s="548"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
         <v>7</v>
@@ -6509,14 +6508,14 @@
       <c r="X2" s="56"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="561"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="567"/>
-      <c r="G3" s="573"/>
+      <c r="A3" s="551"/>
+      <c r="B3" s="553"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="555"/>
+      <c r="E3" s="557"/>
+      <c r="G3" s="563"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="555"/>
+      <c r="I3" s="574"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -6535,10 +6534,10 @@
         <v>390</v>
       </c>
       <c r="B4" s="257"/>
-      <c r="C4" s="568" t="s">
+      <c r="C4" s="558" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="555"/>
+      <c r="I4" s="574"/>
       <c r="R4" s="530" t="s">
         <v>585</v>
       </c>
@@ -6556,7 +6555,7 @@
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="569"/>
+      <c r="C5" s="559"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6572,7 +6571,7 @@
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="555"/>
+      <c r="I5" s="574"/>
       <c r="J5" s="449" t="s">
         <v>273</v>
       </c>
@@ -6602,22 +6601,22 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="557" t="s">
+      <c r="A6" s="547" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="570"/>
-      <c r="D6" s="571"/>
+      <c r="C6" s="560"/>
+      <c r="D6" s="561"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="533"/>
-      <c r="I6" s="555"/>
+      <c r="I6" s="574"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="558"/>
+      <c r="A7" s="548"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>136</v>
       </c>
       <c r="G7" s="533"/>
-      <c r="I7" s="555"/>
+      <c r="I7" s="574"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6666,7 +6665,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="559"/>
+      <c r="A8" s="549"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="533"/>
-      <c r="I8" s="555"/>
+      <c r="I8" s="574"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
@@ -6701,7 +6700,7 @@
       </c>
       <c r="G9" s="533"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="555"/>
+      <c r="I9" s="574"/>
       <c r="M9" s="19" t="s">
         <v>548</v>
       </c>
@@ -6728,7 +6727,7 @@
         <v>44</v>
       </c>
       <c r="G10" s="533"/>
-      <c r="I10" s="555"/>
+      <c r="I10" s="574"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>270</v>
       </c>
       <c r="G11" s="533"/>
-      <c r="I11" s="555"/>
+      <c r="I11" s="574"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6782,12 +6781,12 @@
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="549" t="s">
+      <c r="U11" s="568" t="s">
         <v>588</v>
       </c>
-      <c r="V11" s="550"/>
-      <c r="W11" s="550"/>
-      <c r="X11" s="551"/>
+      <c r="V11" s="569"/>
+      <c r="W11" s="569"/>
+      <c r="X11" s="570"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
@@ -6798,7 +6797,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="533"/>
-      <c r="I12" s="555"/>
+      <c r="I12" s="574"/>
       <c r="J12" s="24" t="s">
         <v>539</v>
       </c>
@@ -6831,7 +6830,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="533"/>
-      <c r="I13" s="555"/>
+      <c r="I13" s="574"/>
       <c r="J13" s="108" t="s">
         <v>577</v>
       </c>
@@ -6872,7 +6871,7 @@
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="555"/>
+      <c r="I14" s="574"/>
       <c r="U14" s="6"/>
       <c r="V14" s="112"/>
       <c r="W14" s="6"/>
@@ -6890,7 +6889,7 @@
       <c r="H15" s="289">
         <v>0</v>
       </c>
-      <c r="I15" s="555"/>
+      <c r="I15" s="574"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -6921,7 +6920,7 @@
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="555"/>
+      <c r="I16" s="574"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -6955,7 +6954,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="555"/>
+      <c r="I17" s="574"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -6967,13 +6966,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="555"/>
+      <c r="I18" s="574"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="552" t="s">
+      <c r="O18" s="571" t="s">
         <v>540</v>
       </c>
-      <c r="P18" s="553"/>
+      <c r="P18" s="572"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -6999,7 +6998,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="555"/>
+      <c r="I19" s="574"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -7031,7 +7030,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="555"/>
+      <c r="I20" s="574"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -7051,7 +7050,7 @@
       <c r="X20" s="109"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="555"/>
+      <c r="I21" s="574"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -7085,8 +7084,8 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="555"/>
-      <c r="U22" s="722" t="s">
+      <c r="I22" s="574"/>
+      <c r="U22" s="6" t="s">
         <v>589</v>
       </c>
       <c r="V22" s="525">
@@ -7109,12 +7108,12 @@
       <c r="E23" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="555"/>
+      <c r="I23" s="574"/>
       <c r="V23" s="112"/>
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="555"/>
+      <c r="I24" s="574"/>
       <c r="U24" s="379"/>
       <c r="V24" s="528">
         <v>0</v>
@@ -7142,7 +7141,7 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="555"/>
+      <c r="I25" s="574"/>
       <c r="J25" s="449" t="s">
         <v>274</v>
       </c>
@@ -7179,7 +7178,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="555"/>
+      <c r="I26" s="574"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -7214,7 +7213,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="555"/>
+      <c r="I27" s="574"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -7241,7 +7240,7 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="555"/>
+      <c r="I28" s="574"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -7263,7 +7262,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="556"/>
+      <c r="I29" s="575"/>
       <c r="J29" s="358"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7301,6 +7300,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -7312,11 +7316,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7392,7 +7391,7 @@
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="572" t="s">
+      <c r="I1" s="562" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7453,7 +7452,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="454"/>
-      <c r="AN1" s="603"/>
+      <c r="AN1" s="600"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7462,23 +7461,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="627">
+      <c r="A2" s="582">
         <f ca="1">TODAY()</f>
         <v>45276</v>
       </c>
-      <c r="B2" s="629" t="s">
+      <c r="B2" s="584" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="574" t="s">
+      <c r="C2" s="564" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="631" t="s">
+      <c r="D2" s="586" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="576" t="s">
+      <c r="E2" s="630" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="584" t="s">
+      <c r="F2" s="605" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="445" t="s">
@@ -7487,31 +7486,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="573"/>
+      <c r="I2" s="563"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="578" t="s">
+      <c r="K2" s="632" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="579"/>
-      <c r="M2" s="584" t="s">
+      <c r="L2" s="633"/>
+      <c r="M2" s="605" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="610" t="s">
+      <c r="O2" s="609" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="574" t="s">
+      <c r="Q2" s="564" t="s">
         <v>144</v>
       </c>
       <c r="R2" s="532"/>
-      <c r="S2" s="597" t="s">
+      <c r="S2" s="622" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7544,15 +7543,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="480"/>
-      <c r="AN2" s="604"/>
+      <c r="AN2" s="601"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="628"/>
-      <c r="B3" s="630"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="632"/>
-      <c r="E3" s="577"/>
-      <c r="F3" s="585"/>
+      <c r="A3" s="583"/>
+      <c r="B3" s="585"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="631"/>
+      <c r="F3" s="606"/>
       <c r="G3" s="446" t="s">
         <v>28</v>
       </c>
@@ -7571,17 +7570,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="585"/>
+      <c r="M3" s="606"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="611"/>
+      <c r="O3" s="610"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="575"/>
+      <c r="Q3" s="565"/>
       <c r="R3" s="534"/>
-      <c r="S3" s="599"/>
+      <c r="S3" s="623"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7598,7 +7597,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="594" t="s">
+      <c r="AD3" s="621" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7610,16 +7609,16 @@
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="480"/>
-      <c r="AN3" s="604"/>
+      <c r="AN3" s="601"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="643" t="s">
+      <c r="B4" s="598" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="574" t="s">
+      <c r="C4" s="564" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="384" t="s">
@@ -7628,7 +7627,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="585"/>
+      <c r="F4" s="606"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7645,11 +7644,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="585"/>
+      <c r="M4" s="606"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="611"/>
+      <c r="O4" s="610"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7676,7 +7675,7 @@
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="594"/>
+      <c r="AD4" s="621"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7686,37 +7685,37 @@
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="480"/>
-      <c r="AN4" s="604"/>
+      <c r="AN4" s="601"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="572" t="s">
+      <c r="A5" s="562" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="644"/>
-      <c r="C5" s="575"/>
+      <c r="B5" s="599"/>
+      <c r="C5" s="565"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="585"/>
-      <c r="G5" s="635" t="s">
+      <c r="F5" s="606"/>
+      <c r="G5" s="590" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="635"/>
-      <c r="I5" s="635"/>
-      <c r="J5" s="635"/>
-      <c r="K5" s="635"/>
-      <c r="L5" s="636"/>
-      <c r="M5" s="585"/>
+      <c r="H5" s="590"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="590"/>
+      <c r="L5" s="591"/>
+      <c r="M5" s="606"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="611"/>
+      <c r="O5" s="610"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7747,24 +7746,24 @@
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="480"/>
-      <c r="AN5" s="604"/>
+      <c r="AN5" s="601"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="573"/>
-      <c r="B6" s="641" t="s">
+      <c r="A6" s="563"/>
+      <c r="B6" s="596" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="570"/>
-      <c r="D6" s="571"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="637"/>
-      <c r="H6" s="637"/>
-      <c r="I6" s="637"/>
-      <c r="J6" s="637"/>
-      <c r="K6" s="637"/>
-      <c r="L6" s="638"/>
-      <c r="M6" s="585"/>
-      <c r="O6" s="611"/>
+      <c r="C6" s="560"/>
+      <c r="D6" s="561"/>
+      <c r="F6" s="606"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="593"/>
+      <c r="M6" s="606"/>
+      <c r="O6" s="610"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7788,16 +7787,16 @@
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="593"/>
+      <c r="AI6" s="615"/>
       <c r="AJ6" s="493" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="593" t="s">
+      <c r="AK6" s="615" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
       <c r="AM6" s="480"/>
-      <c r="AN6" s="604"/>
+      <c r="AN6" s="601"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
@@ -7806,7 +7805,7 @@
       <c r="A7" s="245" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="642"/>
+      <c r="B7" s="597"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7816,7 +7815,7 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="585"/>
+      <c r="F7" s="606"/>
       <c r="G7" s="447">
         <v>0</v>
       </c>
@@ -7835,8 +7834,8 @@
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="585"/>
-      <c r="O7" s="611"/>
+      <c r="M7" s="606"/>
+      <c r="O7" s="610"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7860,18 +7859,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="594" t="s">
+      <c r="AG7" s="621" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="593"/>
+      <c r="AI7" s="615"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="593"/>
+      <c r="AK7" s="615"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="480"/>
-      <c r="AN7" s="604"/>
+      <c r="AN7" s="601"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7888,25 +7887,25 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="585"/>
-      <c r="G8" s="636">
-        <v>0</v>
-      </c>
-      <c r="H8" s="633" t="s">
+      <c r="F8" s="606"/>
+      <c r="G8" s="591">
+        <v>0</v>
+      </c>
+      <c r="H8" s="588" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="532"/>
-      <c r="J8" s="633" t="s">
+      <c r="J8" s="588" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="639"/>
-      <c r="L8" s="595"/>
-      <c r="M8" s="608"/>
-      <c r="N8" s="600">
+      <c r="K8" s="594"/>
+      <c r="L8" s="624"/>
+      <c r="M8" s="607"/>
+      <c r="N8" s="627">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="611"/>
+      <c r="O8" s="610"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7924,14 +7923,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="594"/>
+      <c r="AG8" s="621"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="593"/>
+      <c r="AI8" s="615"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
       <c r="AM8" s="480"/>
-      <c r="AN8" s="604"/>
+      <c r="AN8" s="601"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -7946,17 +7945,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="585"/>
-      <c r="G9" s="638"/>
-      <c r="H9" s="634"/>
+      <c r="F9" s="606"/>
+      <c r="G9" s="593"/>
+      <c r="H9" s="589"/>
       <c r="I9" s="534"/>
-      <c r="J9" s="634"/>
-      <c r="K9" s="640"/>
-      <c r="L9" s="596"/>
-      <c r="M9" s="609"/>
-      <c r="N9" s="601"/>
-      <c r="O9" s="612"/>
-      <c r="S9" s="597" t="s">
+      <c r="J9" s="589"/>
+      <c r="K9" s="595"/>
+      <c r="L9" s="625"/>
+      <c r="M9" s="608"/>
+      <c r="N9" s="628"/>
+      <c r="O9" s="611"/>
+      <c r="S9" s="622" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7978,16 +7977,16 @@
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="594"/>
+      <c r="AG9" s="621"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="593"/>
+      <c r="AI9" s="615"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="593" t="s">
+      <c r="AK9" s="615" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
       <c r="AM9" s="480"/>
-      <c r="AN9" s="604"/>
+      <c r="AN9" s="601"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -8004,20 +8003,20 @@
         <f>Boat!S8</f>
         <v>44</v>
       </c>
-      <c r="F10" s="585"/>
+      <c r="F10" s="606"/>
       <c r="N10" s="470" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="587" t="s">
+      <c r="O10" s="639" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="613" t="s">
+      <c r="P10" s="612" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="598"/>
+      <c r="S10" s="626"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8047,16 +8046,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="594"/>
+      <c r="AG10" s="621"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="593"/>
+      <c r="AI10" s="615"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="593"/>
+      <c r="AK10" s="615"/>
       <c r="AL10" s="272"/>
       <c r="AM10" s="494" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="604"/>
+      <c r="AN10" s="601"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -8074,18 +8073,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="585"/>
+      <c r="F11" s="606"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="588"/>
-      <c r="P11" s="614"/>
+      <c r="O11" s="640"/>
+      <c r="P11" s="613"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="598"/>
+      <c r="S11" s="626"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -8109,14 +8108,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="594"/>
+      <c r="AG11" s="621"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
       <c r="AM11" s="480"/>
-      <c r="AN11" s="604"/>
+      <c r="AN11" s="601"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -8135,7 +8134,7 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="585"/>
+      <c r="F12" s="606"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
@@ -8144,16 +8143,16 @@
       </c>
       <c r="I12" s="538"/>
       <c r="J12" s="538"/>
-      <c r="K12" s="592"/>
+      <c r="K12" s="644"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="588"/>
-      <c r="P12" s="614"/>
+      <c r="O12" s="640"/>
+      <c r="P12" s="613"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="599"/>
+      <c r="S12" s="623"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -8174,16 +8173,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="602" t="s">
+      <c r="AD12" s="629" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="493" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="594" t="s">
+      <c r="AF12" s="621" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="594"/>
+      <c r="AG12" s="621"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -8196,7 +8195,7 @@
       <c r="AM12" s="616" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="604"/>
+      <c r="AN12" s="601"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
@@ -8208,17 +8207,17 @@
       <c r="E13" s="500">
         <v>-3</v>
       </c>
-      <c r="F13" s="585"/>
+      <c r="F13" s="606"/>
       <c r="G13" s="538" t="s">
         <v>448</v>
       </c>
       <c r="H13" s="538"/>
       <c r="I13" s="538"/>
-      <c r="J13" s="592"/>
+      <c r="J13" s="644"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="588"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="640"/>
+      <c r="P13" s="614"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8239,8 +8238,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="602"/>
-      <c r="AF13" s="594"/>
+      <c r="AD13" s="629"/>
+      <c r="AF13" s="621"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8252,7 +8251,7 @@
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
       <c r="AM13" s="616"/>
-      <c r="AN13" s="604"/>
+      <c r="AN13" s="601"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="502"/>
@@ -8260,18 +8259,18 @@
       <c r="C14" s="511"/>
       <c r="D14" s="504"/>
       <c r="E14" s="505"/>
-      <c r="F14" s="585"/>
+      <c r="F14" s="606"/>
       <c r="G14" s="538" t="s">
         <v>447</v>
       </c>
       <c r="H14" s="538"/>
       <c r="I14" s="538"/>
-      <c r="J14" s="592"/>
+      <c r="J14" s="644"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="588"/>
+      <c r="O14" s="640"/>
       <c r="Q14" s="61" t="s">
         <v>559</v>
       </c>
@@ -8292,9 +8291,9 @@
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="602"/>
+      <c r="AD14" s="629"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="594"/>
+      <c r="AF14" s="621"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
@@ -8302,7 +8301,7 @@
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
       <c r="AM14" s="616"/>
-      <c r="AN14" s="604"/>
+      <c r="AN14" s="601"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="501" t="s">
@@ -8311,8 +8310,8 @@
       <c r="C15" s="532" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="585"/>
-      <c r="O15" s="588"/>
+      <c r="F15" s="606"/>
+      <c r="O15" s="640"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8334,8 +8333,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="602"/>
-      <c r="AF15" s="594"/>
+      <c r="AD15" s="629"/>
+      <c r="AF15" s="621"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8349,7 +8348,7 @@
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
       <c r="AM15" s="616"/>
-      <c r="AN15" s="604"/>
+      <c r="AN15" s="601"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8371,13 +8370,13 @@
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="585"/>
+      <c r="F16" s="606"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="588"/>
+      <c r="O16" s="640"/>
       <c r="R16" s="487" t="s">
         <v>185</v>
       </c>
@@ -8409,18 +8408,18 @@
       <c r="AM16" s="480" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="604"/>
+      <c r="AN16" s="601"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="585"/>
+      <c r="F17" s="606"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="588"/>
+      <c r="O17" s="640"/>
       <c r="Q17" s="21" t="s">
         <v>557</v>
       </c>
@@ -8465,7 +8464,7 @@
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="480"/>
-      <c r="AN17" s="604"/>
+      <c r="AN17" s="601"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8489,21 +8488,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="585"/>
+      <c r="F18" s="606"/>
       <c r="G18" s="374" t="s">
         <v>554</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="588"/>
+      <c r="O18" s="640"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="580" t="s">
+      <c r="R18" s="634" t="s">
         <v>562</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="624" t="s">
+      <c r="U18" s="579" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8524,7 +8523,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="593" t="s">
+      <c r="AF18" s="615" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
@@ -8536,19 +8535,19 @@
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="480"/>
-      <c r="AN18" s="604"/>
+      <c r="AN18" s="601"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="585"/>
-      <c r="O19" s="588"/>
-      <c r="R19" s="581"/>
+      <c r="F19" s="606"/>
+      <c r="O19" s="640"/>
+      <c r="R19" s="635"/>
       <c r="S19" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="U19" s="625"/>
+      <c r="U19" s="580"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="483" t="s">
@@ -8563,7 +8562,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="593"/>
+      <c r="AF19" s="615"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
@@ -8573,7 +8572,7 @@
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="480"/>
-      <c r="AN19" s="604"/>
+      <c r="AN19" s="601"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8594,18 +8593,18 @@
       <c r="E20" s="489">
         <v>-1</v>
       </c>
-      <c r="F20" s="585"/>
+      <c r="F20" s="606"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="588"/>
-      <c r="Q20" s="590" t="s">
+      <c r="O20" s="640"/>
+      <c r="Q20" s="642" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="456" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="626"/>
+      <c r="U20" s="581"/>
       <c r="W20" s="457"/>
       <c r="X20" s="484" t="s">
         <v>175</v>
@@ -8635,7 +8634,7 @@
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="604"/>
+      <c r="AN20" s="601"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8659,12 +8658,12 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="585"/>
-      <c r="O21" s="588"/>
-      <c r="Q21" s="591"/>
+      <c r="F21" s="606"/>
+      <c r="O21" s="640"/>
+      <c r="Q21" s="643"/>
       <c r="T21" s="474"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="621"/>
+      <c r="V21" s="576"/>
       <c r="W21" s="478" t="s">
         <v>176</v>
       </c>
@@ -8702,14 +8701,14 @@
       <c r="AM21" s="480" t="s">
         <v>572</v>
       </c>
-      <c r="AN21" s="604"/>
+      <c r="AN21" s="601"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="585"/>
+      <c r="F22" s="606"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="588"/>
+      <c r="O22" s="640"/>
       <c r="R22" s="486" t="s">
         <v>44</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="622"/>
+      <c r="V22" s="577"/>
       <c r="W22" s="478" t="s">
         <v>176</v>
       </c>
@@ -8735,7 +8734,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="593" t="s">
+      <c r="AJ22" s="615" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8743,7 +8742,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="604"/>
+      <c r="AN22" s="601"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8761,16 +8760,16 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="585"/>
-      <c r="O23" s="588"/>
-      <c r="Q23" s="590" t="s">
+      <c r="F23" s="606"/>
+      <c r="O23" s="640"/>
+      <c r="Q23" s="642" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="472" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="622"/>
+      <c r="V23" s="577"/>
       <c r="W23" s="148"/>
       <c r="X23" s="481" t="s">
         <v>189</v>
@@ -8786,13 +8785,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="593"/>
+      <c r="AJ23" s="615"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="604"/>
+      <c r="AN23" s="601"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="492" t="s">
@@ -8810,17 +8809,17 @@
       <c r="E24" s="488">
         <v>1</v>
       </c>
-      <c r="F24" s="585"/>
+      <c r="F24" s="606"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="588"/>
-      <c r="Q24" s="591"/>
+      <c r="O24" s="640"/>
+      <c r="Q24" s="643"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="622"/>
+      <c r="V24" s="577"/>
       <c r="W24" s="148"/>
       <c r="X24" s="481" t="s">
         <v>186</v>
@@ -8844,11 +8843,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="604"/>
+      <c r="AN24" s="601"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="585"/>
-      <c r="O25" s="588"/>
+      <c r="F25" s="606"/>
+      <c r="O25" s="640"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -8861,7 +8860,7 @@
       <c r="U25" s="452" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="623"/>
+      <c r="V25" s="578"/>
       <c r="W25" s="148"/>
       <c r="X25" s="481" t="s">
         <v>190</v>
@@ -8883,7 +8882,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="604"/>
+      <c r="AN25" s="601"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8901,16 +8900,16 @@
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="585"/>
+      <c r="F26" s="606"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="588"/>
-      <c r="P26" s="606" t="s">
+      <c r="O26" s="640"/>
+      <c r="P26" s="603" t="s">
         <v>549</v>
       </c>
-      <c r="Q26" s="607"/>
-      <c r="R26" s="582" t="s">
+      <c r="Q26" s="604"/>
+      <c r="R26" s="636" t="s">
         <v>561</v>
       </c>
       <c r="T26" s="183"/>
@@ -8949,7 +8948,7 @@
       <c r="AM26" s="494" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="604"/>
+      <c r="AN26" s="601"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8961,12 +8960,12 @@
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="586"/>
+      <c r="F27" s="638"/>
       <c r="G27" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="O27" s="589"/>
-      <c r="R27" s="583"/>
+      <c r="O27" s="641"/>
+      <c r="R27" s="637"/>
       <c r="S27" s="473" t="s">
         <v>54</v>
       </c>
@@ -8996,10 +8995,48 @@
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="605"/>
+      <c r="AN27" s="602"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -9016,44 +9053,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9063,8 +9062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P8" workbookViewId="0">
-      <selection activeCell="AN24" sqref="AN24"/>
+    <sheetView tabSelected="1" topLeftCell="P18" workbookViewId="0">
+      <selection activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9151,16 +9150,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="572" t="s">
+      <c r="T1" s="562" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="649" t="s">
+      <c r="U1" s="660" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="651" t="s">
+      <c r="V1" s="662" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="652"/>
+      <c r="W1" s="663"/>
       <c r="X1" s="324">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -9176,40 +9175,40 @@
       <c r="AB1" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="653" t="s">
+      <c r="AC1" s="664" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="654"/>
-      <c r="AE1" s="655"/>
-      <c r="AF1" s="656" t="s">
+      <c r="AD1" s="665"/>
+      <c r="AE1" s="666"/>
+      <c r="AF1" s="667" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="657"/>
-      <c r="AH1" s="658"/>
-      <c r="AI1" s="645" t="s">
+      <c r="AG1" s="668"/>
+      <c r="AH1" s="669"/>
+      <c r="AI1" s="656" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="646"/>
-      <c r="AK1" s="647"/>
+      <c r="AJ1" s="657"/>
+      <c r="AK1" s="658"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="659">
+      <c r="J2" s="648">
         <f>SUM(J5:J30)</f>
         <v>2</v>
       </c>
-      <c r="K2" s="661">
+      <c r="K2" s="650">
         <f>SUM(K4:K29)</f>
         <v>3</v>
       </c>
-      <c r="L2" s="663">
+      <c r="L2" s="652">
         <f>SUM(L4:L29)</f>
         <v>5</v>
       </c>
-      <c r="M2" s="600">
+      <c r="M2" s="627">
         <f>SUM(K30:K37)* (-1)</f>
         <v>3</v>
       </c>
@@ -9228,11 +9227,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="665" t="s">
+      <c r="S2" s="654" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="648"/>
-      <c r="U2" s="650"/>
+      <c r="T2" s="659"/>
+      <c r="U2" s="661"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9292,10 +9291,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="660"/>
-      <c r="K3" s="662"/>
-      <c r="L3" s="664"/>
-      <c r="M3" s="601"/>
+      <c r="J3" s="649"/>
+      <c r="K3" s="651"/>
+      <c r="L3" s="653"/>
+      <c r="M3" s="628"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9311,8 +9310,8 @@
         <f>SUM(R4:R29)</f>
         <v>44</v>
       </c>
-      <c r="S3" s="666"/>
-      <c r="T3" s="573"/>
+      <c r="S3" s="655"/>
+      <c r="T3" s="563"/>
       <c r="U3" s="331">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9413,7 +9412,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="667" t="s">
+      <c r="M4" s="645" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9496,7 +9495,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="668"/>
+      <c r="M5" s="646"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9584,7 +9583,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="668"/>
+      <c r="M6" s="646"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9674,7 +9673,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="668"/>
+      <c r="M7" s="646"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9778,7 +9777,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="668"/>
+      <c r="M8" s="646"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9864,7 +9863,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="668"/>
+      <c r="M9" s="646"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -9962,7 +9961,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M10" s="668"/>
+      <c r="M10" s="646"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -10041,7 +10040,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="668"/>
+      <c r="M11" s="646"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -10103,7 +10102,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="636" t="s">
+      <c r="A12" s="591" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10112,7 +10111,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="590" t="s">
+      <c r="E12" s="642" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
@@ -10132,7 +10131,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="668"/>
+      <c r="M12" s="646"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10206,14 +10205,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="638"/>
+      <c r="A13" s="593"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="591"/>
+      <c r="E13" s="643"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10234,7 +10233,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="668"/>
+      <c r="M13" s="646"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10309,7 +10308,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M14" s="668"/>
+      <c r="M14" s="646"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10377,7 +10376,9 @@
       <c r="AL14" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="AN14" s="112"/>
+      <c r="AN14" s="112" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="15" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
@@ -10401,7 +10402,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="668"/>
+      <c r="M15" s="646"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10486,7 +10487,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="668"/>
+      <c r="M16" s="646"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10582,7 +10583,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="668"/>
+      <c r="M17" s="646"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10665,7 +10666,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="668"/>
+      <c r="M18" s="646"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10752,7 +10753,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="668"/>
+      <c r="M19" s="646"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10847,11 +10848,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="669"/>
+      <c r="M20" s="647"/>
       <c r="N20" s="537" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="592"/>
+      <c r="O20" s="644"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
@@ -11094,7 +11095,7 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="643" t="s">
+      <c r="E23" s="598" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -11180,7 +11181,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="644"/>
+      <c r="E24" s="599"/>
       <c r="F24" s="177"/>
       <c r="I24" s="430" t="s">
         <v>301</v>
@@ -11198,7 +11199,7 @@
       <c r="N24" s="537" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="592"/>
+      <c r="O24" s="644"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
@@ -11269,7 +11270,9 @@
         <v>528</v>
       </c>
       <c r="AM24" s="19"/>
-      <c r="AN24" s="112"/>
+      <c r="AN24" s="6" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="25" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="359"/>
@@ -12273,23 +12276,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="M4:M20"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12326,12 +12329,12 @@
       <c r="B1" s="537" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="592"/>
+      <c r="C1" s="644"/>
       <c r="D1" s="214"/>
       <c r="J1" s="537" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="592"/>
+      <c r="K1" s="644"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12722,7 +12725,7 @@
       <c r="V1" s="537" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="592"/>
+      <c r="W1" s="644"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12741,7 +12744,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="683" t="s">
+      <c r="AD1" s="690" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12758,10 +12761,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="682" t="s">
+      <c r="F2" s="721" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="710" t="s">
+      <c r="G2" s="678" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12789,10 +12792,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="651" t="s">
+      <c r="V2" s="662" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="652"/>
+      <c r="W2" s="663"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12811,7 +12814,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="684"/>
+      <c r="AD2" s="691"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12830,8 +12833,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="640"/>
-      <c r="G3" s="711"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="679"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12842,13 +12845,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="720" t="s">
+      <c r="O3" s="688" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="702" t="s">
+      <c r="P3" s="709" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="703"/>
+      <c r="Q3" s="710"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12858,15 +12861,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="684"/>
+      <c r="AD3" s="691"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="711"/>
+      <c r="G4" s="679"/>
       <c r="H4" s="6"/>
       <c r="L4" s="673" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="721"/>
+      <c r="O4" s="689"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12880,8 +12883,8 @@
         <v>195</v>
       </c>
       <c r="Z4" s="538"/>
-      <c r="AA4" s="592"/>
-      <c r="AD4" s="684"/>
+      <c r="AA4" s="644"/>
+      <c r="AD4" s="691"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12896,21 +12899,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="711"/>
+      <c r="G5" s="679"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="689" t="s">
+      <c r="K5" s="696" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="704"/>
+      <c r="L5" s="711"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="721"/>
+      <c r="O5" s="689"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -12926,11 +12929,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="692" t="s">
+      <c r="Y5" s="699" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="693"/>
-      <c r="AD5" s="684"/>
+      <c r="Z5" s="700"/>
+      <c r="AD5" s="691"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12940,16 +12943,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="711"/>
+      <c r="G6" s="679"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="690"/>
-      <c r="L6" s="704"/>
-      <c r="O6" s="721"/>
+      <c r="K6" s="697"/>
+      <c r="L6" s="711"/>
+      <c r="O6" s="689"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -12959,20 +12962,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="684"/>
+      <c r="AD6" s="691"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="711"/>
+      <c r="G7" s="679"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="690"/>
-      <c r="L7" s="704"/>
+      <c r="K7" s="697"/>
+      <c r="L7" s="711"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="721"/>
+      <c r="O7" s="689"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="684"/>
+      <c r="AD7" s="691"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -12985,7 +12988,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="711"/>
+      <c r="G8" s="679"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -12995,41 +12998,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="690"/>
-      <c r="L8" s="704"/>
-      <c r="O8" s="721"/>
+      <c r="K8" s="697"/>
+      <c r="L8" s="711"/>
+      <c r="O8" s="689"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="686" t="s">
+      <c r="S8" s="693" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="687"/>
-      <c r="U8" s="687"/>
-      <c r="V8" s="687"/>
-      <c r="W8" s="687"/>
-      <c r="X8" s="687"/>
-      <c r="Y8" s="687"/>
-      <c r="Z8" s="687"/>
-      <c r="AA8" s="687"/>
-      <c r="AB8" s="687"/>
-      <c r="AC8" s="688"/>
-      <c r="AD8" s="684"/>
+      <c r="T8" s="694"/>
+      <c r="U8" s="694"/>
+      <c r="V8" s="694"/>
+      <c r="W8" s="694"/>
+      <c r="X8" s="694"/>
+      <c r="Y8" s="694"/>
+      <c r="Z8" s="694"/>
+      <c r="AA8" s="694"/>
+      <c r="AB8" s="694"/>
+      <c r="AC8" s="695"/>
+      <c r="AD8" s="691"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="676"/>
-      <c r="G9" s="711"/>
+      <c r="C9" s="715"/>
+      <c r="G9" s="679"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="690"/>
-      <c r="L9" s="714" t="s">
+      <c r="K9" s="697"/>
+      <c r="L9" s="682" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="715"/>
-      <c r="N9" s="716"/>
-      <c r="O9" s="721"/>
+      <c r="M9" s="683"/>
+      <c r="N9" s="684"/>
+      <c r="O9" s="689"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="684"/>
+      <c r="AD9" s="691"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="677"/>
+      <c r="C10" s="716"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13037,7 +13040,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="711"/>
+      <c r="G10" s="679"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13045,33 +13048,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="690"/>
-      <c r="M10" s="679" t="s">
+      <c r="K10" s="697"/>
+      <c r="M10" s="718" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="680"/>
-      <c r="O10" s="680"/>
-      <c r="P10" s="680"/>
-      <c r="Q10" s="680"/>
-      <c r="R10" s="680"/>
-      <c r="S10" s="680"/>
-      <c r="T10" s="680"/>
-      <c r="U10" s="680"/>
-      <c r="V10" s="680"/>
-      <c r="W10" s="680"/>
-      <c r="X10" s="680"/>
-      <c r="Y10" s="680"/>
-      <c r="Z10" s="680"/>
-      <c r="AA10" s="680"/>
-      <c r="AB10" s="680"/>
-      <c r="AC10" s="681"/>
-      <c r="AD10" s="684"/>
+      <c r="N10" s="719"/>
+      <c r="O10" s="719"/>
+      <c r="P10" s="719"/>
+      <c r="Q10" s="719"/>
+      <c r="R10" s="719"/>
+      <c r="S10" s="719"/>
+      <c r="T10" s="719"/>
+      <c r="U10" s="719"/>
+      <c r="V10" s="719"/>
+      <c r="W10" s="719"/>
+      <c r="X10" s="719"/>
+      <c r="Y10" s="719"/>
+      <c r="Z10" s="719"/>
+      <c r="AA10" s="719"/>
+      <c r="AB10" s="719"/>
+      <c r="AC10" s="720"/>
+      <c r="AD10" s="691"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="678"/>
-      <c r="G11" s="711"/>
+      <c r="C11" s="717"/>
+      <c r="G11" s="679"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="690"/>
+      <c r="K11" s="697"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13082,17 +13085,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="700" t="s">
+      <c r="Z11" s="707" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="701"/>
+      <c r="AA11" s="708"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="684"/>
+      <c r="AD11" s="691"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13105,7 +13108,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="711"/>
+      <c r="G12" s="679"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13113,8 +13116,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="690"/>
-      <c r="L12" s="705" t="s">
+      <c r="K12" s="697"/>
+      <c r="L12" s="712" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13145,25 +13148,25 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="694" t="s">
+      <c r="AA12" s="701" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="695"/>
+      <c r="AB12" s="702"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="684"/>
+      <c r="AD12" s="691"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="676"/>
-      <c r="G13" s="711"/>
-      <c r="K13" s="690"/>
-      <c r="L13" s="706"/>
+      <c r="C13" s="715"/>
+      <c r="G13" s="679"/>
+      <c r="K13" s="697"/>
+      <c r="L13" s="713"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="713" t="s">
+      <c r="Q13" s="681" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="607"/>
+      <c r="R13" s="604"/>
       <c r="S13" s="533"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -13172,17 +13175,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="696"/>
-      <c r="AB13" s="697"/>
-      <c r="AD13" s="684"/>
+      <c r="AA13" s="703"/>
+      <c r="AB13" s="704"/>
+      <c r="AD13" s="691"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="678"/>
+      <c r="C14" s="717"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="711"/>
+      <c r="G14" s="679"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13190,8 +13193,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="690"/>
-      <c r="L14" s="706"/>
+      <c r="K14" s="697"/>
+      <c r="L14" s="713"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13212,9 +13215,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="696"/>
-      <c r="AB14" s="697"/>
-      <c r="AD14" s="684"/>
+      <c r="AA14" s="703"/>
+      <c r="AB14" s="704"/>
+      <c r="AD14" s="691"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13229,19 +13232,19 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="711"/>
+      <c r="G15" s="679"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="690"/>
-      <c r="L15" s="707"/>
-      <c r="Q15" s="713" t="s">
+      <c r="K15" s="697"/>
+      <c r="L15" s="714"/>
+      <c r="Q15" s="681" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="607"/>
+      <c r="R15" s="604"/>
       <c r="S15" s="533"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -13250,14 +13253,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="696"/>
-      <c r="AB15" s="697"/>
-      <c r="AD15" s="684"/>
+      <c r="AA15" s="703"/>
+      <c r="AB15" s="704"/>
+      <c r="AD15" s="691"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="711"/>
-      <c r="K16" s="690"/>
+      <c r="G16" s="679"/>
+      <c r="K16" s="697"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13276,24 +13279,24 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="696"/>
-      <c r="AB16" s="697"/>
-      <c r="AD16" s="684"/>
+      <c r="AA16" s="703"/>
+      <c r="AB16" s="704"/>
+      <c r="AD16" s="691"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="708" t="s">
+      <c r="F17" s="676" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="711"/>
+      <c r="G17" s="679"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="690"/>
+      <c r="K17" s="697"/>
       <c r="S17" s="533"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -13301,9 +13304,9 @@
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="696"/>
-      <c r="AB17" s="697"/>
-      <c r="AD17" s="684"/>
+      <c r="AA17" s="703"/>
+      <c r="AB17" s="704"/>
+      <c r="AD17" s="691"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13313,15 +13316,15 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="709"/>
-      <c r="G18" s="711"/>
+      <c r="F18" s="677"/>
+      <c r="G18" s="679"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="690"/>
+      <c r="K18" s="697"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
@@ -13332,42 +13335,39 @@
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="698"/>
-      <c r="AB18" s="699"/>
-      <c r="AD18" s="684"/>
+      <c r="AA18" s="705"/>
+      <c r="AB18" s="706"/>
+      <c r="AD18" s="691"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="712"/>
-      <c r="K19" s="691"/>
+      <c r="G19" s="680"/>
+      <c r="K19" s="698"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="717" t="s">
+      <c r="R19" s="685" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="718"/>
-      <c r="T19" s="719"/>
+      <c r="S19" s="686"/>
+      <c r="T19" s="687"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="685"/>
+      <c r="AD19" s="692"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13379,11 +13379,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90522D02-5693-49CA-A7D8-F97D714BBD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C85CE7-EB1D-45BE-A89B-CA1573BD264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -4654,9 +4654,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4706,6 +4703,36 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4763,34 +4790,139 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4865,140 +4997,71 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -5009,130 +5072,43 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5210,26 +5186,50 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5576,10 +5576,10 @@
       <c r="I2" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="535" t="s">
+      <c r="J2" s="534" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="536"/>
+      <c r="K2" s="535"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5589,13 +5589,13 @@
       <c r="N2" s="386" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="537" t="s">
+      <c r="O2" s="536" t="s">
         <v>385</v>
       </c>
-      <c r="P2" s="538"/>
-      <c r="Q2" s="538"/>
-      <c r="R2" s="538"/>
-      <c r="S2" s="539" t="s">
+      <c r="P2" s="537"/>
+      <c r="Q2" s="537"/>
+      <c r="R2" s="537"/>
+      <c r="S2" s="538" t="s">
         <v>386</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -5609,7 +5609,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="532"/>
+      <c r="D3" s="531"/>
       <c r="E3" s="374"/>
       <c r="F3" s="281" t="s">
         <v>69</v>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="O3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="540"/>
+      <c r="S3" s="539"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -5643,7 +5643,7 @@
       <c r="C4" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="533"/>
+      <c r="D4" s="532"/>
       <c r="E4" s="61"/>
       <c r="F4" s="396" t="s">
         <v>42</v>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="540"/>
+      <c r="S4" s="539"/>
     </row>
     <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -5669,7 +5669,7 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="534"/>
+      <c r="D5" s="533"/>
       <c r="F5" s="401" t="s">
         <v>42</v>
       </c>
@@ -5693,7 +5693,7 @@
       <c r="Q5" s="19">
         <v>5100</v>
       </c>
-      <c r="S5" s="540"/>
+      <c r="S5" s="539"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="6"/>
-      <c r="S6" s="540"/>
+      <c r="S6" s="539"/>
     </row>
     <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="219" t="s">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="6"/>
-      <c r="S7" s="540"/>
+      <c r="S7" s="539"/>
     </row>
     <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="6"/>
-      <c r="S8" s="540"/>
+      <c r="S8" s="539"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -5816,7 +5816,7 @@
       <c r="O9" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="540"/>
+      <c r="S9" s="539"/>
     </row>
     <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -5851,7 +5851,7 @@
       <c r="Q10" s="64">
         <v>85</v>
       </c>
-      <c r="S10" s="540"/>
+      <c r="S10" s="539"/>
     </row>
     <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="142"/>
-      <c r="S11" s="540"/>
+      <c r="S11" s="539"/>
       <c r="T11" s="23"/>
     </row>
     <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="142"/>
-      <c r="S12" s="540"/>
+      <c r="S12" s="539"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="271" t="s">
@@ -5946,10 +5946,10 @@
       <c r="N13" s="404" t="s">
         <v>522</v>
       </c>
-      <c r="S13" s="540"/>
+      <c r="S13" s="539"/>
     </row>
     <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S14" s="540"/>
+      <c r="S14" s="539"/>
     </row>
     <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -5975,17 +5975,17 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="544">
+      <c r="M15" s="543">
         <v>45275</v>
       </c>
-      <c r="N15" s="532" t="s">
+      <c r="N15" s="531" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="256" t="s">
         <v>44</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="540"/>
+      <c r="S15" s="539"/>
     </row>
     <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="514" t="s">
@@ -6011,9 +6011,9 @@
       <c r="L16" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="545"/>
-      <c r="N16" s="533"/>
-      <c r="S16" s="540"/>
+      <c r="M16" s="544"/>
+      <c r="N16" s="532"/>
+      <c r="S16" s="539"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -6041,15 +6041,15 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="546"/>
-      <c r="N17" s="534"/>
+      <c r="M17" s="545"/>
+      <c r="N17" s="533"/>
       <c r="O17" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S17" s="540"/>
+      <c r="S17" s="539"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S18" s="540"/>
+      <c r="S18" s="539"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6077,13 +6077,13 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="544">
+      <c r="M19" s="543">
         <v>45275</v>
       </c>
       <c r="N19" s="442" t="s">
         <v>522</v>
       </c>
-      <c r="S19" s="540"/>
+      <c r="S19" s="539"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="254" t="s">
@@ -6109,11 +6109,11 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="545"/>
+      <c r="M20" s="544"/>
       <c r="N20" s="431" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="540"/>
+      <c r="S20" s="539"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="254" t="s">
@@ -6139,15 +6139,15 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="545"/>
+      <c r="M21" s="544"/>
       <c r="N21" s="431" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="542" t="s">
+      <c r="P21" s="541" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="543"/>
-      <c r="S21" s="540"/>
+      <c r="Q21" s="542"/>
+      <c r="S21" s="539"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="288" t="s">
@@ -6173,11 +6173,11 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="545"/>
+      <c r="M22" s="544"/>
       <c r="N22" s="410" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="540"/>
+      <c r="S22" s="539"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6203,11 +6203,11 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="545"/>
+      <c r="M23" s="544"/>
       <c r="N23" s="61" t="s">
         <v>523</v>
       </c>
-      <c r="S23" s="540"/>
+      <c r="S23" s="539"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -6233,7 +6233,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="545"/>
+      <c r="M24" s="544"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>44</v>
       </c>
       <c r="R24" s="16"/>
-      <c r="S24" s="540"/>
+      <c r="S24" s="539"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6267,11 +6267,11 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="545"/>
+      <c r="M25" s="544"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="540"/>
+      <c r="S25" s="539"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -6297,11 +6297,11 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="545"/>
+      <c r="M26" s="544"/>
       <c r="N26" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="S26" s="540"/>
+      <c r="S26" s="539"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="271" t="s">
@@ -6323,9 +6323,9 @@
       <c r="J27" s="439"/>
       <c r="K27" s="440"/>
       <c r="L27" s="441"/>
-      <c r="M27" s="545"/>
+      <c r="M27" s="544"/>
       <c r="N27" s="61"/>
-      <c r="S27" s="540"/>
+      <c r="S27" s="539"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="271" t="s">
@@ -6353,12 +6353,12 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="546"/>
+      <c r="M28" s="545"/>
       <c r="N28" s="61" t="s">
         <v>524</v>
       </c>
       <c r="R28" s="16"/>
-      <c r="S28" s="541"/>
+      <c r="S28" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6379,8 +6379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="M11" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6435,7 +6435,7 @@
       <c r="P1" s="450" t="s">
         <v>408</v>
       </c>
-      <c r="Q1" s="566" t="s">
+      <c r="Q1" s="546" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -6446,32 +6446,32 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="550">
+      <c r="A2" s="559">
         <f ca="1">TODAY()</f>
         <v>45276</v>
       </c>
-      <c r="B2" s="552" t="s">
+      <c r="B2" s="561" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="564" t="s">
+      <c r="C2" s="573" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="554" t="s">
+      <c r="D2" s="563" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="556" t="s">
+      <c r="E2" s="565" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="562" t="s">
+      <c r="G2" s="571" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="573" t="s">
+      <c r="I2" s="553" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="448" t="s">
@@ -6495,7 +6495,7 @@
       <c r="P2" s="451">
         <v>40</v>
       </c>
-      <c r="Q2" s="567"/>
+      <c r="Q2" s="547"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
         <v>7</v>
@@ -6508,23 +6508,23 @@
       <c r="X2" s="56"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="551"/>
-      <c r="B3" s="553"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="555"/>
-      <c r="E3" s="557"/>
-      <c r="G3" s="563"/>
+      <c r="A3" s="560"/>
+      <c r="B3" s="562"/>
+      <c r="C3" s="574"/>
+      <c r="D3" s="564"/>
+      <c r="E3" s="566"/>
+      <c r="G3" s="572"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="574"/>
+      <c r="I3" s="554"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
       <c r="N3" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="Q3" s="530">
+      <c r="Q3" s="529">
         <f>SUM(X24:X30)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" s="521"/>
       <c r="X3" s="231"/>
@@ -6534,11 +6534,11 @@
         <v>390</v>
       </c>
       <c r="B4" s="257"/>
-      <c r="C4" s="558" t="s">
+      <c r="C4" s="567" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="574"/>
-      <c r="R4" s="530" t="s">
+      <c r="I4" s="554"/>
+      <c r="R4" s="529" t="s">
         <v>585</v>
       </c>
       <c r="T4" s="20">
@@ -6555,7 +6555,7 @@
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="559"/>
+      <c r="C5" s="568"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6565,13 +6565,13 @@
       <c r="F5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="532" t="s">
+      <c r="G5" s="531" t="s">
         <v>276</v>
       </c>
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="574"/>
+      <c r="I5" s="554"/>
       <c r="J5" s="449" t="s">
         <v>273</v>
       </c>
@@ -6587,7 +6587,7 @@
       <c r="N5" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="S5" s="530" t="s">
+      <c r="S5" s="529" t="s">
         <v>585</v>
       </c>
       <c r="T5" s="20">
@@ -6601,22 +6601,22 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="547" t="s">
+      <c r="A6" s="556" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="560"/>
-      <c r="D6" s="561"/>
+      <c r="C6" s="569"/>
+      <c r="D6" s="570"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="533"/>
-      <c r="I6" s="574"/>
+      <c r="G6" s="532"/>
+      <c r="I6" s="554"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="548"/>
+      <c r="A7" s="557"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6626,8 +6626,8 @@
       <c r="D7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="533"/>
-      <c r="I7" s="574"/>
+      <c r="G7" s="532"/>
+      <c r="I7" s="554"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6665,7 +6665,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="549"/>
+      <c r="A8" s="558"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6673,8 +6673,8 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="533"/>
-      <c r="I8" s="574"/>
+      <c r="G8" s="532"/>
+      <c r="I8" s="554"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
@@ -6698,9 +6698,9 @@
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="533"/>
+      <c r="G9" s="532"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="574"/>
+      <c r="I9" s="554"/>
       <c r="M9" s="19" t="s">
         <v>548</v>
       </c>
@@ -6726,8 +6726,8 @@
         <f>Boat!S8</f>
         <v>44</v>
       </c>
-      <c r="G10" s="533"/>
-      <c r="I10" s="574"/>
+      <c r="G10" s="532"/>
+      <c r="I10" s="554"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="A11" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="532" t="s">
+      <c r="B11" s="531" t="s">
         <v>392</v>
       </c>
       <c r="C11" s="176" t="s">
@@ -6754,8 +6754,8 @@
       <c r="D11" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="533"/>
-      <c r="I11" s="574"/>
+      <c r="G11" s="532"/>
+      <c r="I11" s="554"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6781,23 +6781,23 @@
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="568" t="s">
+      <c r="U11" s="548" t="s">
         <v>588</v>
       </c>
-      <c r="V11" s="569"/>
-      <c r="W11" s="569"/>
-      <c r="X11" s="570"/>
+      <c r="V11" s="549"/>
+      <c r="W11" s="549"/>
+      <c r="X11" s="550"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="534"/>
+      <c r="B12" s="533"/>
       <c r="E12" s="242">
         <v>3</v>
       </c>
-      <c r="G12" s="533"/>
-      <c r="I12" s="574"/>
+      <c r="G12" s="532"/>
+      <c r="I12" s="554"/>
       <c r="J12" s="24" t="s">
         <v>539</v>
       </c>
@@ -6825,12 +6825,12 @@
       <c r="B13" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="532" t="s">
+      <c r="C13" s="531" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="533"/>
-      <c r="I13" s="574"/>
+      <c r="G13" s="532"/>
+      <c r="I13" s="554"/>
       <c r="J13" s="108" t="s">
         <v>577</v>
       </c>
@@ -6857,7 +6857,7 @@
       <c r="B14" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="534"/>
+      <c r="C14" s="533"/>
       <c r="D14" s="214" t="s">
         <v>154</v>
       </c>
@@ -6867,11 +6867,11 @@
       <c r="F14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="534"/>
+      <c r="G14" s="533"/>
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="574"/>
+      <c r="I14" s="554"/>
       <c r="U14" s="6"/>
       <c r="V14" s="112"/>
       <c r="W14" s="6"/>
@@ -6889,7 +6889,7 @@
       <c r="H15" s="289">
         <v>0</v>
       </c>
-      <c r="I15" s="574"/>
+      <c r="I15" s="554"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="M15" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="R15" s="530" t="s">
+      <c r="R15" s="529" t="s">
         <v>585</v>
       </c>
       <c r="T15" s="20">
@@ -6920,12 +6920,12 @@
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="574"/>
+      <c r="I16" s="554"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="S16" s="530" t="s">
+      <c r="S16" s="529" t="s">
         <v>585</v>
       </c>
       <c r="T16" s="20">
@@ -6954,7 +6954,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="574"/>
+      <c r="I17" s="554"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -6966,13 +6966,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="574"/>
+      <c r="I18" s="554"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="571" t="s">
+      <c r="O18" s="551" t="s">
         <v>540</v>
       </c>
-      <c r="P18" s="572"/>
+      <c r="P18" s="552"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -6998,7 +6998,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="574"/>
+      <c r="I19" s="554"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="574"/>
+      <c r="I20" s="554"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -7050,7 +7050,7 @@
       <c r="X20" s="109"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="574"/>
+      <c r="I21" s="554"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -7084,7 +7084,7 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="574"/>
+      <c r="I22" s="554"/>
       <c r="U22" s="6" t="s">
         <v>589</v>
       </c>
@@ -7108,17 +7108,17 @@
       <c r="E23" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="574"/>
+      <c r="I23" s="554"/>
       <c r="V23" s="112"/>
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="574"/>
+      <c r="I24" s="554"/>
       <c r="U24" s="379"/>
       <c r="V24" s="528">
         <v>0</v>
       </c>
-      <c r="W24" s="278" t="s">
+      <c r="W24" s="19" t="s">
         <v>513</v>
       </c>
       <c r="X24" s="19">
@@ -7141,7 +7141,7 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="574"/>
+      <c r="I25" s="554"/>
       <c r="J25" s="449" t="s">
         <v>274</v>
       </c>
@@ -7155,6 +7155,7 @@
         <v>1</v>
       </c>
       <c r="U25" s="35"/>
+      <c r="W25" s="19"/>
       <c r="X25" s="523"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7178,7 +7179,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="574"/>
+      <c r="I26" s="554"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -7213,7 +7214,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="574"/>
+      <c r="I27" s="554"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -7240,7 +7241,7 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="574"/>
+      <c r="I28" s="554"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -7262,7 +7263,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="575"/>
+      <c r="I29" s="555"/>
       <c r="J29" s="358"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7275,13 +7276,13 @@
       <c r="T29" s="80"/>
       <c r="U29" s="35"/>
       <c r="V29" s="112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="19" t="s">
         <v>88</v>
       </c>
       <c r="X29" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7291,20 +7292,21 @@
       <c r="B30" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="U30" s="531" t="s">
+      <c r="U30" s="530" t="s">
         <v>587</v>
       </c>
-      <c r="V30" s="529"/>
-      <c r="W30" s="466"/>
-      <c r="X30" s="524"/>
+      <c r="V30" s="721">
+        <v>0</v>
+      </c>
+      <c r="W30" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="X30" s="524">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -7316,6 +7318,11 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7325,7 +7332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFE6D2-5300-4D31-9A66-EC93F2A54B69}">
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AF1" workbookViewId="0">
       <selection activeCell="AQ15" sqref="AQ15"/>
     </sheetView>
   </sheetViews>
@@ -7391,7 +7398,7 @@
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="562" t="s">
+      <c r="I1" s="571" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7427,7 +7434,7 @@
       <c r="X1" s="482" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="618" t="s">
+      <c r="Y1" s="617" t="s">
         <v>555</v>
       </c>
       <c r="Z1" s="458">
@@ -7452,7 +7459,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="454"/>
-      <c r="AN1" s="600"/>
+      <c r="AN1" s="602"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7461,23 +7468,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="582">
+      <c r="A2" s="626">
         <f ca="1">TODAY()</f>
         <v>45276</v>
       </c>
-      <c r="B2" s="584" t="s">
+      <c r="B2" s="628" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="564" t="s">
+      <c r="C2" s="573" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="586" t="s">
+      <c r="D2" s="630" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="630" t="s">
+      <c r="E2" s="575" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="605" t="s">
+      <c r="F2" s="583" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="445" t="s">
@@ -7486,15 +7493,15 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="563"/>
+      <c r="I2" s="572"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="632" t="s">
+      <c r="K2" s="577" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="633"/>
-      <c r="M2" s="605" t="s">
+      <c r="L2" s="578"/>
+      <c r="M2" s="583" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
@@ -7506,11 +7513,11 @@
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="564" t="s">
+      <c r="Q2" s="573" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="532"/>
-      <c r="S2" s="622" t="s">
+      <c r="R2" s="531"/>
+      <c r="S2" s="596" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7520,7 +7527,7 @@
       <c r="X2" s="483" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="619"/>
+      <c r="Y2" s="618"/>
       <c r="Z2" s="459">
         <v>1</v>
       </c>
@@ -7543,15 +7550,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="480"/>
-      <c r="AN2" s="601"/>
+      <c r="AN2" s="603"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="583"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="631"/>
-      <c r="F3" s="606"/>
+      <c r="A3" s="627"/>
+      <c r="B3" s="629"/>
+      <c r="C3" s="574"/>
+      <c r="D3" s="631"/>
+      <c r="E3" s="576"/>
+      <c r="F3" s="584"/>
       <c r="G3" s="446" t="s">
         <v>28</v>
       </c>
@@ -7570,7 +7577,7 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="606"/>
+      <c r="M3" s="584"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
@@ -7578,9 +7585,9 @@
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="565"/>
-      <c r="R3" s="534"/>
-      <c r="S3" s="623"/>
+      <c r="Q3" s="574"/>
+      <c r="R3" s="533"/>
+      <c r="S3" s="598"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7588,7 +7595,7 @@
       <c r="X3" s="483" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="619"/>
+      <c r="Y3" s="618"/>
       <c r="Z3" s="460">
         <v>1</v>
       </c>
@@ -7597,7 +7604,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="621" t="s">
+      <c r="AD3" s="593" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7609,16 +7616,16 @@
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="480"/>
-      <c r="AN3" s="601"/>
+      <c r="AN3" s="603"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="598" t="s">
+      <c r="B4" s="642" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="564" t="s">
+      <c r="C4" s="573" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="384" t="s">
@@ -7627,7 +7634,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="606"/>
+      <c r="F4" s="584"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7644,7 +7651,7 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="606"/>
+      <c r="M4" s="584"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
@@ -7670,12 +7677,12 @@
       <c r="X4" s="483" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="619"/>
+      <c r="Y4" s="618"/>
       <c r="Z4" s="461"/>
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="621"/>
+      <c r="AD4" s="593"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7685,33 +7692,33 @@
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="480"/>
-      <c r="AN4" s="601"/>
+      <c r="AN4" s="603"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="562" t="s">
+      <c r="A5" s="571" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="599"/>
-      <c r="C5" s="565"/>
+      <c r="B5" s="643"/>
+      <c r="C5" s="574"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="606"/>
-      <c r="G5" s="590" t="s">
+      <c r="F5" s="584"/>
+      <c r="G5" s="634" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="590"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="590"/>
-      <c r="L5" s="591"/>
-      <c r="M5" s="606"/>
+      <c r="H5" s="634"/>
+      <c r="I5" s="634"/>
+      <c r="J5" s="634"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="635"/>
+      <c r="M5" s="584"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
@@ -7723,7 +7730,7 @@
       <c r="X5" s="483" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="619"/>
+      <c r="Y5" s="618"/>
       <c r="Z5" s="461">
         <v>1</v>
       </c>
@@ -7746,23 +7753,23 @@
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="480"/>
-      <c r="AN5" s="601"/>
+      <c r="AN5" s="603"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="563"/>
-      <c r="B6" s="596" t="s">
+      <c r="A6" s="572"/>
+      <c r="B6" s="640" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="560"/>
-      <c r="D6" s="561"/>
-      <c r="F6" s="606"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="592"/>
-      <c r="L6" s="593"/>
-      <c r="M6" s="606"/>
+      <c r="C6" s="569"/>
+      <c r="D6" s="570"/>
+      <c r="F6" s="584"/>
+      <c r="G6" s="636"/>
+      <c r="H6" s="636"/>
+      <c r="I6" s="636"/>
+      <c r="J6" s="636"/>
+      <c r="K6" s="636"/>
+      <c r="L6" s="637"/>
+      <c r="M6" s="584"/>
       <c r="O6" s="610"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
@@ -7773,7 +7780,7 @@
       <c r="X6" s="483" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="619"/>
+      <c r="Y6" s="618"/>
       <c r="Z6" s="459">
         <v>1</v>
       </c>
@@ -7787,16 +7794,16 @@
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="615"/>
+      <c r="AI6" s="592"/>
       <c r="AJ6" s="493" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="615" t="s">
+      <c r="AK6" s="592" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
       <c r="AM6" s="480"/>
-      <c r="AN6" s="601"/>
+      <c r="AN6" s="603"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
@@ -7805,7 +7812,7 @@
       <c r="A7" s="245" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="597"/>
+      <c r="B7" s="641"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7815,7 +7822,7 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="606"/>
+      <c r="F7" s="584"/>
       <c r="G7" s="447">
         <v>0</v>
       </c>
@@ -7828,13 +7835,13 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="532">
+      <c r="K7" s="531">
         <v>1</v>
       </c>
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="606"/>
+      <c r="M7" s="584"/>
       <c r="O7" s="610"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
@@ -7849,7 +7856,7 @@
       <c r="X7" s="483" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="619"/>
+      <c r="Y7" s="618"/>
       <c r="Z7" s="459">
         <v>1</v>
       </c>
@@ -7859,18 +7866,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="621" t="s">
+      <c r="AG7" s="593" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="615"/>
+      <c r="AI7" s="592"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="615"/>
+      <c r="AK7" s="592"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="480"/>
-      <c r="AN7" s="601"/>
+      <c r="AN7" s="603"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7887,21 +7894,21 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="606"/>
-      <c r="G8" s="591">
-        <v>0</v>
-      </c>
-      <c r="H8" s="588" t="s">
+      <c r="F8" s="584"/>
+      <c r="G8" s="635">
+        <v>0</v>
+      </c>
+      <c r="H8" s="632" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="532"/>
-      <c r="J8" s="588" t="s">
+      <c r="I8" s="531"/>
+      <c r="J8" s="632" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="594"/>
-      <c r="L8" s="624"/>
+      <c r="K8" s="638"/>
+      <c r="L8" s="594"/>
       <c r="M8" s="607"/>
-      <c r="N8" s="627">
+      <c r="N8" s="599">
         <f>N5+N11</f>
         <v>15</v>
       </c>
@@ -7915,7 +7922,7 @@
       <c r="X8" s="483" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="619"/>
+      <c r="Y8" s="618"/>
       <c r="Z8" s="461"/>
       <c r="AA8" s="325"/>
       <c r="AB8" s="219"/>
@@ -7923,14 +7930,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="621"/>
+      <c r="AG8" s="593"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="615"/>
+      <c r="AI8" s="592"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
       <c r="AM8" s="480"/>
-      <c r="AN8" s="601"/>
+      <c r="AN8" s="603"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -7945,17 +7952,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="606"/>
-      <c r="G9" s="593"/>
-      <c r="H9" s="589"/>
-      <c r="I9" s="534"/>
-      <c r="J9" s="589"/>
-      <c r="K9" s="595"/>
-      <c r="L9" s="625"/>
+      <c r="F9" s="584"/>
+      <c r="G9" s="637"/>
+      <c r="H9" s="633"/>
+      <c r="I9" s="533"/>
+      <c r="J9" s="633"/>
+      <c r="K9" s="639"/>
+      <c r="L9" s="595"/>
       <c r="M9" s="608"/>
-      <c r="N9" s="628"/>
+      <c r="N9" s="600"/>
       <c r="O9" s="611"/>
-      <c r="S9" s="622" t="s">
+      <c r="S9" s="596" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7967,7 +7974,7 @@
       <c r="X9" s="483" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="619"/>
+      <c r="Y9" s="618"/>
       <c r="Z9" s="462"/>
       <c r="AA9" s="325"/>
       <c r="AB9" s="219"/>
@@ -7977,16 +7984,16 @@
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="621"/>
+      <c r="AG9" s="593"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="615"/>
+      <c r="AI9" s="592"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="615" t="s">
+      <c r="AK9" s="592" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
       <c r="AM9" s="480"/>
-      <c r="AN9" s="601"/>
+      <c r="AN9" s="603"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -8003,11 +8010,11 @@
         <f>Boat!S8</f>
         <v>44</v>
       </c>
-      <c r="F10" s="606"/>
+      <c r="F10" s="584"/>
       <c r="N10" s="470" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="639" t="s">
+      <c r="O10" s="586" t="s">
         <v>103</v>
       </c>
       <c r="P10" s="612" t="s">
@@ -8016,7 +8023,7 @@
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="626"/>
+      <c r="S10" s="597"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8028,7 +8035,7 @@
       <c r="X10" s="483" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="619"/>
+      <c r="Y10" s="618"/>
       <c r="Z10" s="461">
         <v>0</v>
       </c>
@@ -8046,16 +8053,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="621"/>
+      <c r="AG10" s="593"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="615"/>
+      <c r="AI10" s="592"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="615"/>
+      <c r="AK10" s="592"/>
       <c r="AL10" s="272"/>
       <c r="AM10" s="494" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="601"/>
+      <c r="AN10" s="603"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -8064,7 +8071,7 @@
       <c r="A11" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="532" t="s">
+      <c r="B11" s="531" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="509" t="s">
@@ -8073,18 +8080,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="606"/>
+      <c r="F11" s="584"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="640"/>
+      <c r="O11" s="587"/>
       <c r="P11" s="613"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="626"/>
+      <c r="S11" s="597"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -8094,7 +8101,7 @@
       <c r="X11" s="483" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="619"/>
+      <c r="Y11" s="618"/>
       <c r="Z11" s="461"/>
       <c r="AA11" s="325">
         <v>1</v>
@@ -8108,14 +8115,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="621"/>
+      <c r="AG11" s="593"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
       <c r="AM11" s="480"/>
-      <c r="AN11" s="601"/>
+      <c r="AN11" s="603"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -8124,7 +8131,7 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="534"/>
+      <c r="B12" s="533"/>
       <c r="C12" s="510" t="s">
         <v>394</v>
       </c>
@@ -8134,25 +8141,25 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="606"/>
+      <c r="F12" s="584"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
-      <c r="H12" s="537" t="s">
+      <c r="H12" s="536" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="538"/>
-      <c r="J12" s="538"/>
-      <c r="K12" s="644"/>
+      <c r="I12" s="537"/>
+      <c r="J12" s="537"/>
+      <c r="K12" s="591"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="640"/>
+      <c r="O12" s="587"/>
       <c r="P12" s="613"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="623"/>
+      <c r="S12" s="598"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -8162,7 +8169,7 @@
       <c r="X12" s="483" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="619"/>
+      <c r="Y12" s="618"/>
       <c r="Z12" s="459">
         <v>1</v>
       </c>
@@ -8173,16 +8180,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="629" t="s">
+      <c r="AD12" s="601" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="493" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="621" t="s">
+      <c r="AF12" s="593" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="621"/>
+      <c r="AG12" s="593"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -8192,10 +8199,10 @@
       <c r="AJ12" s="272"/>
       <c r="AK12" s="272"/>
       <c r="AL12" s="272"/>
-      <c r="AM12" s="616" t="s">
+      <c r="AM12" s="615" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="601"/>
+      <c r="AN12" s="603"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
@@ -8207,16 +8214,16 @@
       <c r="E13" s="500">
         <v>-3</v>
       </c>
-      <c r="F13" s="606"/>
-      <c r="G13" s="538" t="s">
+      <c r="F13" s="584"/>
+      <c r="G13" s="537" t="s">
         <v>448</v>
       </c>
-      <c r="H13" s="538"/>
-      <c r="I13" s="538"/>
-      <c r="J13" s="644"/>
+      <c r="H13" s="537"/>
+      <c r="I13" s="537"/>
+      <c r="J13" s="591"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="640"/>
+      <c r="O13" s="587"/>
       <c r="P13" s="614"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
@@ -8227,7 +8234,7 @@
       <c r="X13" s="483" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="619"/>
+      <c r="Y13" s="618"/>
       <c r="Z13" s="459">
         <v>1</v>
       </c>
@@ -8238,8 +8245,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="629"/>
-      <c r="AF13" s="621"/>
+      <c r="AD13" s="601"/>
+      <c r="AF13" s="593"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8250,8 +8257,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
-      <c r="AM13" s="616"/>
-      <c r="AN13" s="601"/>
+      <c r="AM13" s="615"/>
+      <c r="AN13" s="603"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="502"/>
@@ -8259,18 +8266,18 @@
       <c r="C14" s="511"/>
       <c r="D14" s="504"/>
       <c r="E14" s="505"/>
-      <c r="F14" s="606"/>
-      <c r="G14" s="538" t="s">
+      <c r="F14" s="584"/>
+      <c r="G14" s="537" t="s">
         <v>447</v>
       </c>
-      <c r="H14" s="538"/>
-      <c r="I14" s="538"/>
-      <c r="J14" s="644"/>
+      <c r="H14" s="537"/>
+      <c r="I14" s="537"/>
+      <c r="J14" s="591"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="640"/>
+      <c r="O14" s="587"/>
       <c r="Q14" s="61" t="s">
         <v>559</v>
       </c>
@@ -8284,34 +8291,34 @@
       <c r="X14" s="483" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="619"/>
+      <c r="Y14" s="618"/>
       <c r="Z14" s="459">
         <v>1</v>
       </c>
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="629"/>
+      <c r="AD14" s="601"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="621"/>
+      <c r="AF14" s="593"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="272"/>
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
-      <c r="AM14" s="616"/>
-      <c r="AN14" s="601"/>
+      <c r="AM14" s="615"/>
+      <c r="AN14" s="603"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="501" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="532" t="s">
+      <c r="C15" s="531" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="606"/>
-      <c r="O15" s="640"/>
+      <c r="F15" s="584"/>
+      <c r="O15" s="587"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8324,7 +8331,7 @@
       <c r="X15" s="483" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="619"/>
+      <c r="Y15" s="618"/>
       <c r="Z15" s="461">
         <v>1</v>
       </c>
@@ -8333,8 +8340,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="629"/>
-      <c r="AF15" s="621"/>
+      <c r="AD15" s="601"/>
+      <c r="AF15" s="593"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8347,8 +8354,8 @@
       </c>
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
-      <c r="AM15" s="616"/>
-      <c r="AN15" s="601"/>
+      <c r="AM15" s="615"/>
+      <c r="AN15" s="603"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8363,20 +8370,20 @@
       <c r="B16" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="534"/>
+      <c r="C16" s="533"/>
       <c r="D16" s="61" t="s">
         <v>511</v>
       </c>
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="606"/>
+      <c r="F16" s="584"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="640"/>
+      <c r="O16" s="587"/>
       <c r="R16" s="487" t="s">
         <v>185</v>
       </c>
@@ -8387,7 +8394,7 @@
       <c r="X16" s="483" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="619"/>
+      <c r="Y16" s="618"/>
       <c r="Z16" s="459">
         <v>1</v>
       </c>
@@ -8408,18 +8415,18 @@
       <c r="AM16" s="480" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="601"/>
+      <c r="AN16" s="603"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="606"/>
+      <c r="F17" s="584"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="640"/>
+      <c r="O17" s="587"/>
       <c r="Q17" s="21" t="s">
         <v>557</v>
       </c>
@@ -8439,7 +8446,7 @@
       <c r="X17" s="483" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="619"/>
+      <c r="Y17" s="618"/>
       <c r="Z17" s="461"/>
       <c r="AA17" s="325"/>
       <c r="AB17" s="219"/>
@@ -8464,7 +8471,7 @@
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="480"/>
-      <c r="AN17" s="601"/>
+      <c r="AN17" s="603"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8488,21 +8495,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="606"/>
+      <c r="F18" s="584"/>
       <c r="G18" s="374" t="s">
         <v>554</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="640"/>
+      <c r="O18" s="587"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="634" t="s">
+      <c r="R18" s="579" t="s">
         <v>562</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="579" t="s">
+      <c r="U18" s="623" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8512,7 +8519,7 @@
       <c r="X18" s="483" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="619"/>
+      <c r="Y18" s="618"/>
       <c r="Z18" s="461">
         <v>1</v>
       </c>
@@ -8523,37 +8530,37 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="615" t="s">
+      <c r="AF18" s="592" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="617" t="s">
+      <c r="AJ18" s="616" t="s">
         <v>322</v>
       </c>
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="480"/>
-      <c r="AN18" s="601"/>
+      <c r="AN18" s="603"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="606"/>
-      <c r="O19" s="640"/>
-      <c r="R19" s="635"/>
+      <c r="F19" s="584"/>
+      <c r="O19" s="587"/>
+      <c r="R19" s="580"/>
       <c r="S19" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="U19" s="580"/>
+      <c r="U19" s="624"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="483" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="619"/>
+      <c r="Y19" s="618"/>
       <c r="Z19" s="459">
         <v>1</v>
       </c>
@@ -8562,17 +8569,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="615"/>
+      <c r="AF19" s="592"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="617"/>
+      <c r="AJ19" s="616"/>
       <c r="AK19" s="512" t="s">
         <v>256</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="480"/>
-      <c r="AN19" s="601"/>
+      <c r="AN19" s="603"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8593,23 +8600,23 @@
       <c r="E20" s="489">
         <v>-1</v>
       </c>
-      <c r="F20" s="606"/>
+      <c r="F20" s="584"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="640"/>
-      <c r="Q20" s="642" t="s">
+      <c r="O20" s="587"/>
+      <c r="Q20" s="589" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="456" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="581"/>
+      <c r="U20" s="625"/>
       <c r="W20" s="457"/>
       <c r="X20" s="484" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="619"/>
+      <c r="Y20" s="618"/>
       <c r="Z20" s="463">
         <v>1</v>
       </c>
@@ -8634,7 +8641,7 @@
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="601"/>
+      <c r="AN20" s="603"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8658,19 +8665,19 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="606"/>
-      <c r="O21" s="640"/>
-      <c r="Q21" s="643"/>
+      <c r="F21" s="584"/>
+      <c r="O21" s="587"/>
+      <c r="Q21" s="590"/>
       <c r="T21" s="474"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="576"/>
+      <c r="V21" s="620"/>
       <c r="W21" s="478" t="s">
         <v>176</v>
       </c>
       <c r="X21" s="481" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="619"/>
+      <c r="Y21" s="618"/>
       <c r="Z21" s="497">
         <v>3</v>
       </c>
@@ -8701,14 +8708,14 @@
       <c r="AM21" s="480" t="s">
         <v>572</v>
       </c>
-      <c r="AN21" s="601"/>
+      <c r="AN21" s="603"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="606"/>
+      <c r="F22" s="584"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="640"/>
+      <c r="O22" s="587"/>
       <c r="R22" s="486" t="s">
         <v>44</v>
       </c>
@@ -8716,14 +8723,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="577"/>
+      <c r="V22" s="621"/>
       <c r="W22" s="478" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="481" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="619"/>
+      <c r="Y22" s="618"/>
       <c r="Z22" s="467"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="467"/>
@@ -8734,7 +8741,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="615" t="s">
+      <c r="AJ22" s="592" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8742,7 +8749,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="601"/>
+      <c r="AN22" s="603"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8760,21 +8767,21 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="606"/>
-      <c r="O23" s="640"/>
-      <c r="Q23" s="642" t="s">
+      <c r="F23" s="584"/>
+      <c r="O23" s="587"/>
+      <c r="Q23" s="589" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="472" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="577"/>
+      <c r="V23" s="621"/>
       <c r="W23" s="148"/>
       <c r="X23" s="481" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="619"/>
+      <c r="Y23" s="618"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="467"/>
@@ -8785,13 +8792,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="615"/>
+      <c r="AJ23" s="592"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="601"/>
+      <c r="AN23" s="603"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="492" t="s">
@@ -8809,22 +8816,22 @@
       <c r="E24" s="488">
         <v>1</v>
       </c>
-      <c r="F24" s="606"/>
+      <c r="F24" s="584"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="640"/>
-      <c r="Q24" s="643"/>
+      <c r="O24" s="587"/>
+      <c r="Q24" s="590"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="577"/>
+      <c r="V24" s="621"/>
       <c r="W24" s="148"/>
       <c r="X24" s="481" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="619"/>
+      <c r="Y24" s="618"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="467"/>
@@ -8843,11 +8850,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="601"/>
+      <c r="AN24" s="603"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="606"/>
-      <c r="O25" s="640"/>
+      <c r="F25" s="584"/>
+      <c r="O25" s="587"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -8860,12 +8867,12 @@
       <c r="U25" s="452" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="578"/>
+      <c r="V25" s="622"/>
       <c r="W25" s="148"/>
       <c r="X25" s="481" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="619"/>
+      <c r="Y25" s="618"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="467"/>
@@ -8882,7 +8889,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="601"/>
+      <c r="AN25" s="603"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8900,16 +8907,16 @@
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="606"/>
+      <c r="F26" s="584"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="640"/>
-      <c r="P26" s="603" t="s">
+      <c r="O26" s="587"/>
+      <c r="P26" s="605" t="s">
         <v>549</v>
       </c>
-      <c r="Q26" s="604"/>
-      <c r="R26" s="636" t="s">
+      <c r="Q26" s="606"/>
+      <c r="R26" s="581" t="s">
         <v>561</v>
       </c>
       <c r="T26" s="183"/>
@@ -8921,7 +8928,7 @@
       <c r="X26" s="481" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="619"/>
+      <c r="Y26" s="618"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="467"/>
@@ -8948,7 +8955,7 @@
       <c r="AM26" s="494" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="601"/>
+      <c r="AN26" s="603"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8960,12 +8967,12 @@
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="638"/>
+      <c r="F27" s="585"/>
       <c r="G27" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="O27" s="641"/>
-      <c r="R27" s="637"/>
+      <c r="O27" s="588"/>
+      <c r="R27" s="582"/>
       <c r="S27" s="473" t="s">
         <v>54</v>
       </c>
@@ -8978,7 +8985,7 @@
       <c r="X27" s="481" t="s">
         <v>556</v>
       </c>
-      <c r="Y27" s="620"/>
+      <c r="Y27" s="619"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="468"/>
@@ -8995,32 +9002,26 @@
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="602"/>
+      <c r="AN27" s="604"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -9037,22 +9038,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9062,8 +9069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P18" workbookViewId="0">
-      <selection activeCell="AL28" sqref="AL28"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9150,16 +9157,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="562" t="s">
+      <c r="T1" s="571" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="660" t="s">
+      <c r="U1" s="648" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="662" t="s">
+      <c r="V1" s="650" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="663"/>
+      <c r="W1" s="651"/>
       <c r="X1" s="324">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -9175,40 +9182,40 @@
       <c r="AB1" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="664" t="s">
+      <c r="AC1" s="652" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="665"/>
-      <c r="AE1" s="666"/>
-      <c r="AF1" s="667" t="s">
+      <c r="AD1" s="653"/>
+      <c r="AE1" s="654"/>
+      <c r="AF1" s="655" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="668"/>
-      <c r="AH1" s="669"/>
-      <c r="AI1" s="656" t="s">
+      <c r="AG1" s="656"/>
+      <c r="AH1" s="657"/>
+      <c r="AI1" s="644" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="657"/>
-      <c r="AK1" s="658"/>
+      <c r="AJ1" s="645"/>
+      <c r="AK1" s="646"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="648">
+      <c r="J2" s="658">
         <f>SUM(J5:J30)</f>
         <v>2</v>
       </c>
-      <c r="K2" s="650">
+      <c r="K2" s="660">
         <f>SUM(K4:K29)</f>
         <v>3</v>
       </c>
-      <c r="L2" s="652">
+      <c r="L2" s="662">
         <f>SUM(L4:L29)</f>
-        <v>5</v>
-      </c>
-      <c r="M2" s="627">
+        <v>6</v>
+      </c>
+      <c r="M2" s="599">
         <f>SUM(K30:K37)* (-1)</f>
         <v>3</v>
       </c>
@@ -9227,11 +9234,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="654" t="s">
+      <c r="S2" s="664" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="659"/>
-      <c r="U2" s="661"/>
+      <c r="T2" s="647"/>
+      <c r="U2" s="649"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9291,10 +9298,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="649"/>
-      <c r="K3" s="651"/>
-      <c r="L3" s="653"/>
-      <c r="M3" s="628"/>
+      <c r="J3" s="659"/>
+      <c r="K3" s="661"/>
+      <c r="L3" s="663"/>
+      <c r="M3" s="600"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9310,8 +9317,8 @@
         <f>SUM(R4:R29)</f>
         <v>44</v>
       </c>
-      <c r="S3" s="655"/>
-      <c r="T3" s="563"/>
+      <c r="S3" s="665"/>
+      <c r="T3" s="572"/>
       <c r="U3" s="331">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9330,15 +9337,15 @@
       </c>
       <c r="Y3" s="66">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" ref="AB3:AK3" si="1">SUM(AB4:AB29)</f>
@@ -9346,7 +9353,7 @@
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" si="1"/>
@@ -9358,11 +9365,11 @@
       </c>
       <c r="AF3" s="66">
         <f>SUM(AF4:AF29)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG3" s="412">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH3" s="100">
         <f t="shared" si="1"/>
@@ -9370,15 +9377,15 @@
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ3" s="329">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="330">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN3" s="112"/>
     </row>
@@ -9412,7 +9419,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="645" t="s">
+      <c r="M4" s="666" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9495,7 +9502,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="646"/>
+      <c r="M5" s="667"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9583,7 +9590,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="646"/>
+      <c r="M6" s="667"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9673,7 +9680,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="646"/>
+      <c r="M7" s="667"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9777,7 +9784,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="646"/>
+      <c r="M8" s="667"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9863,7 +9870,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="646"/>
+      <c r="M9" s="667"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -9961,7 +9968,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M10" s="646"/>
+      <c r="M10" s="667"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -10040,7 +10047,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="646"/>
+      <c r="M11" s="667"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -10102,7 +10109,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="591" t="s">
+      <c r="A12" s="635" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10111,7 +10118,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="642" t="s">
+      <c r="E12" s="589" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
@@ -10131,7 +10138,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="646"/>
+      <c r="M12" s="667"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10205,14 +10212,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="593"/>
+      <c r="A13" s="637"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="643"/>
+      <c r="E13" s="590"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10233,7 +10240,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="646"/>
+      <c r="M13" s="667"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10308,7 +10315,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M14" s="646"/>
+      <c r="M14" s="667"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10376,8 +10383,9 @@
       <c r="AL14" s="6" t="s">
         <v>589</v>
       </c>
+      <c r="AM14" s="19"/>
       <c r="AN14" s="112" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10402,7 +10410,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="646"/>
+      <c r="M15" s="667"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10487,7 +10495,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="646"/>
+      <c r="M16" s="667"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10583,7 +10591,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="646"/>
+      <c r="M17" s="667"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10666,7 +10674,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="646"/>
+      <c r="M18" s="667"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10731,9 +10739,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL18" s="6" t="s">
-        <v>520</v>
-      </c>
+      <c r="AL18" s="6"/>
       <c r="AN18" s="112"/>
     </row>
     <row r="19" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10753,7 +10759,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="646"/>
+      <c r="M19" s="667"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10846,13 +10852,13 @@
       </c>
       <c r="L20" s="311">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="647"/>
-      <c r="N20" s="537" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="668"/>
+      <c r="N20" s="536" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="644"/>
+      <c r="O20" s="591"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
@@ -10873,43 +10879,45 @@
       <c r="X20" s="314"/>
       <c r="Y20" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="308">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="308"/>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="308">
+        <v>1</v>
+      </c>
       <c r="AB20" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC20" s="312">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="318"/>
       <c r="AE20" s="314"/>
       <c r="AF20" s="314">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="158">
         <v>1</v>
       </c>
       <c r="AI20" s="326">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ20" s="327">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" s="328">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="6" t="s">
         <v>88</v>
@@ -11095,7 +11103,7 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="598" t="s">
+      <c r="E23" s="642" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -11181,7 +11189,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="599"/>
+      <c r="E24" s="643"/>
       <c r="F24" s="177"/>
       <c r="I24" s="430" t="s">
         <v>301</v>
@@ -11196,10 +11204,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N24" s="537" t="s">
+      <c r="N24" s="536" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="644"/>
+      <c r="O24" s="591"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
@@ -12276,23 +12284,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="M4:M20"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="M4:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12326,15 +12334,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="537" t="s">
+      <c r="B1" s="536" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="644"/>
+      <c r="C1" s="591"/>
       <c r="D1" s="214"/>
-      <c r="J1" s="537" t="s">
+      <c r="J1" s="536" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="644"/>
+      <c r="K1" s="591"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12372,13 +12380,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="206"/>
-      <c r="M2" s="670"/>
+      <c r="M2" s="669"/>
       <c r="N2" s="154">
         <v>2</v>
       </c>
       <c r="O2" s="155"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="673" t="s">
+      <c r="Q2" s="672" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -12401,13 +12409,13 @@
       <c r="K3" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="M3" s="671"/>
+      <c r="M3" s="670"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="674"/>
+      <c r="Q3" s="673"/>
       <c r="R3" s="231"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12426,13 +12434,13 @@
       <c r="K4" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="671"/>
+      <c r="M4" s="670"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="674"/>
+      <c r="Q4" s="673"/>
       <c r="R4" s="231"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12452,13 +12460,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="206"/>
-      <c r="M5" s="671"/>
+      <c r="M5" s="670"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="674"/>
+      <c r="Q5" s="673"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -12479,13 +12487,13 @@
       <c r="K6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="671"/>
+      <c r="M6" s="670"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="674"/>
+      <c r="Q6" s="673"/>
       <c r="R6" s="231"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12505,13 +12513,13 @@
         <v>334</v>
       </c>
       <c r="L7" s="208"/>
-      <c r="M7" s="671"/>
+      <c r="M7" s="670"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="674"/>
+      <c r="Q7" s="673"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -12532,13 +12540,13 @@
       <c r="K8" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M8" s="671"/>
+      <c r="M8" s="670"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="674"/>
+      <c r="Q8" s="673"/>
       <c r="R8" s="231"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12558,13 +12566,13 @@
         <v>336</v>
       </c>
       <c r="L9" s="186"/>
-      <c r="M9" s="672"/>
+      <c r="M9" s="671"/>
       <c r="N9" s="163"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="675"/>
+      <c r="Q9" s="674"/>
       <c r="R9" s="232"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -12722,10 +12730,10 @@
         <f ca="1">TODAY()</f>
         <v>45276</v>
       </c>
-      <c r="V1" s="537" t="s">
+      <c r="V1" s="536" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="644"/>
+      <c r="W1" s="591"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12744,7 +12752,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="690" t="s">
+      <c r="AD1" s="682" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12761,10 +12769,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="721" t="s">
+      <c r="F2" s="681" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="678" t="s">
+      <c r="G2" s="709" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12792,10 +12800,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="662" t="s">
+      <c r="V2" s="650" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="663"/>
+      <c r="W2" s="651"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12814,7 +12822,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="691"/>
+      <c r="AD2" s="683"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12833,8 +12841,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="679"/>
+      <c r="F3" s="639"/>
+      <c r="G3" s="710"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12845,13 +12853,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="688" t="s">
+      <c r="O3" s="719" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="709" t="s">
+      <c r="P3" s="701" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="710"/>
+      <c r="Q3" s="702"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12861,15 +12869,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="691"/>
+      <c r="AD3" s="683"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="679"/>
+      <c r="G4" s="710"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="673" t="s">
+      <c r="L4" s="672" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="689"/>
+      <c r="O4" s="720"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12879,12 +12887,12 @@
       <c r="X4" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="537" t="s">
+      <c r="Y4" s="536" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" s="538"/>
-      <c r="AA4" s="644"/>
-      <c r="AD4" s="691"/>
+      <c r="Z4" s="537"/>
+      <c r="AA4" s="591"/>
+      <c r="AD4" s="683"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12899,21 +12907,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="679"/>
+      <c r="G5" s="710"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="696" t="s">
+      <c r="K5" s="688" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="711"/>
+      <c r="L5" s="703"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="689"/>
+      <c r="O5" s="720"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -12929,11 +12937,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="699" t="s">
+      <c r="Y5" s="691" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="700"/>
-      <c r="AD5" s="691"/>
+      <c r="Z5" s="692"/>
+      <c r="AD5" s="683"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12943,16 +12951,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="679"/>
+      <c r="G6" s="710"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="697"/>
-      <c r="L6" s="711"/>
-      <c r="O6" s="689"/>
+      <c r="K6" s="689"/>
+      <c r="L6" s="703"/>
+      <c r="O6" s="720"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -12962,20 +12970,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="691"/>
+      <c r="AD6" s="683"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="679"/>
+      <c r="G7" s="710"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="697"/>
-      <c r="L7" s="711"/>
+      <c r="K7" s="689"/>
+      <c r="L7" s="703"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="689"/>
+      <c r="O7" s="720"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="691"/>
+      <c r="AD7" s="683"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -12988,7 +12996,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="679"/>
+      <c r="G8" s="710"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -12998,41 +13006,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="697"/>
-      <c r="L8" s="711"/>
-      <c r="O8" s="689"/>
+      <c r="K8" s="689"/>
+      <c r="L8" s="703"/>
+      <c r="O8" s="720"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="693" t="s">
+      <c r="S8" s="685" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="694"/>
-      <c r="U8" s="694"/>
-      <c r="V8" s="694"/>
-      <c r="W8" s="694"/>
-      <c r="X8" s="694"/>
-      <c r="Y8" s="694"/>
-      <c r="Z8" s="694"/>
-      <c r="AA8" s="694"/>
-      <c r="AB8" s="694"/>
-      <c r="AC8" s="695"/>
-      <c r="AD8" s="691"/>
+      <c r="T8" s="686"/>
+      <c r="U8" s="686"/>
+      <c r="V8" s="686"/>
+      <c r="W8" s="686"/>
+      <c r="X8" s="686"/>
+      <c r="Y8" s="686"/>
+      <c r="Z8" s="686"/>
+      <c r="AA8" s="686"/>
+      <c r="AB8" s="686"/>
+      <c r="AC8" s="687"/>
+      <c r="AD8" s="683"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="715"/>
-      <c r="G9" s="679"/>
+      <c r="C9" s="675"/>
+      <c r="G9" s="710"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="697"/>
-      <c r="L9" s="682" t="s">
+      <c r="K9" s="689"/>
+      <c r="L9" s="713" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="683"/>
-      <c r="N9" s="684"/>
-      <c r="O9" s="689"/>
+      <c r="M9" s="714"/>
+      <c r="N9" s="715"/>
+      <c r="O9" s="720"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="691"/>
+      <c r="AD9" s="683"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="716"/>
+      <c r="C10" s="676"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13040,7 +13048,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="679"/>
+      <c r="G10" s="710"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13048,33 +13056,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="697"/>
-      <c r="M10" s="718" t="s">
+      <c r="K10" s="689"/>
+      <c r="M10" s="678" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="719"/>
-      <c r="O10" s="719"/>
-      <c r="P10" s="719"/>
-      <c r="Q10" s="719"/>
-      <c r="R10" s="719"/>
-      <c r="S10" s="719"/>
-      <c r="T10" s="719"/>
-      <c r="U10" s="719"/>
-      <c r="V10" s="719"/>
-      <c r="W10" s="719"/>
-      <c r="X10" s="719"/>
-      <c r="Y10" s="719"/>
-      <c r="Z10" s="719"/>
-      <c r="AA10" s="719"/>
-      <c r="AB10" s="719"/>
-      <c r="AC10" s="720"/>
-      <c r="AD10" s="691"/>
+      <c r="N10" s="679"/>
+      <c r="O10" s="679"/>
+      <c r="P10" s="679"/>
+      <c r="Q10" s="679"/>
+      <c r="R10" s="679"/>
+      <c r="S10" s="679"/>
+      <c r="T10" s="679"/>
+      <c r="U10" s="679"/>
+      <c r="V10" s="679"/>
+      <c r="W10" s="679"/>
+      <c r="X10" s="679"/>
+      <c r="Y10" s="679"/>
+      <c r="Z10" s="679"/>
+      <c r="AA10" s="679"/>
+      <c r="AB10" s="679"/>
+      <c r="AC10" s="680"/>
+      <c r="AD10" s="683"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="717"/>
-      <c r="G11" s="679"/>
+      <c r="C11" s="677"/>
+      <c r="G11" s="710"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="697"/>
+      <c r="K11" s="689"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13085,17 +13093,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="707" t="s">
+      <c r="Z11" s="699" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="708"/>
+      <c r="AA11" s="700"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="691"/>
+      <c r="AD11" s="683"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13108,7 +13116,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="679"/>
+      <c r="G12" s="710"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13116,8 +13124,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="697"/>
-      <c r="L12" s="712" t="s">
+      <c r="K12" s="689"/>
+      <c r="L12" s="704" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13132,7 +13140,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="532" t="s">
+      <c r="S12" s="531" t="s">
         <v>107</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -13148,26 +13156,26 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="701" t="s">
+      <c r="AA12" s="693" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="702"/>
+      <c r="AB12" s="694"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="691"/>
+      <c r="AD12" s="683"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="715"/>
-      <c r="G13" s="679"/>
-      <c r="K13" s="697"/>
-      <c r="L13" s="713"/>
+      <c r="C13" s="675"/>
+      <c r="G13" s="710"/>
+      <c r="K13" s="689"/>
+      <c r="L13" s="705"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="681" t="s">
+      <c r="Q13" s="712" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="604"/>
-      <c r="S13" s="533"/>
+      <c r="R13" s="606"/>
+      <c r="S13" s="532"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>132</v>
@@ -13175,17 +13183,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="703"/>
-      <c r="AB13" s="704"/>
-      <c r="AD13" s="691"/>
+      <c r="AA13" s="695"/>
+      <c r="AB13" s="696"/>
+      <c r="AD13" s="683"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="717"/>
+      <c r="C14" s="677"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="679"/>
+      <c r="G14" s="710"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13193,8 +13201,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="697"/>
-      <c r="L14" s="713"/>
+      <c r="K14" s="689"/>
+      <c r="L14" s="705"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13204,7 +13212,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="533"/>
+      <c r="S14" s="532"/>
       <c r="T14" s="77" t="s">
         <v>130</v>
       </c>
@@ -13215,9 +13223,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="703"/>
-      <c r="AB14" s="704"/>
-      <c r="AD14" s="691"/>
+      <c r="AA14" s="695"/>
+      <c r="AB14" s="696"/>
+      <c r="AD14" s="683"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13232,20 +13240,20 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="679"/>
+      <c r="G15" s="710"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="697"/>
-      <c r="L15" s="714"/>
-      <c r="Q15" s="681" t="s">
+      <c r="K15" s="689"/>
+      <c r="L15" s="706"/>
+      <c r="Q15" s="712" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="604"/>
-      <c r="S15" s="533"/>
+      <c r="R15" s="606"/>
+      <c r="S15" s="532"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -13253,14 +13261,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="703"/>
-      <c r="AB15" s="704"/>
-      <c r="AD15" s="691"/>
+      <c r="AA15" s="695"/>
+      <c r="AB15" s="696"/>
+      <c r="AD15" s="683"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="679"/>
-      <c r="K16" s="697"/>
+      <c r="G16" s="710"/>
+      <c r="K16" s="689"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13268,7 +13276,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="533"/>
+      <c r="S16" s="532"/>
       <c r="T16" s="76" t="s">
         <v>129</v>
       </c>
@@ -13279,34 +13287,34 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="703"/>
-      <c r="AB16" s="704"/>
-      <c r="AD16" s="691"/>
+      <c r="AA16" s="695"/>
+      <c r="AB16" s="696"/>
+      <c r="AD16" s="683"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="676" t="s">
+      <c r="F17" s="707" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="679"/>
+      <c r="G17" s="710"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="697"/>
-      <c r="S17" s="533"/>
+      <c r="K17" s="689"/>
+      <c r="S17" s="532"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="703"/>
-      <c r="AB17" s="704"/>
-      <c r="AD17" s="691"/>
+      <c r="AA17" s="695"/>
+      <c r="AB17" s="696"/>
+      <c r="AD17" s="683"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13316,58 +13324,61 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="677"/>
-      <c r="G18" s="679"/>
+      <c r="F18" s="708"/>
+      <c r="G18" s="710"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="697"/>
+      <c r="K18" s="689"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="533"/>
+      <c r="S18" s="532"/>
       <c r="U18" s="76" t="s">
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="705"/>
-      <c r="AB18" s="706"/>
-      <c r="AD18" s="691"/>
+      <c r="AA18" s="697"/>
+      <c r="AB18" s="698"/>
+      <c r="AD18" s="683"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="680"/>
-      <c r="K19" s="698"/>
+      <c r="G19" s="711"/>
+      <c r="K19" s="690"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="685" t="s">
+      <c r="R19" s="716" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="686"/>
-      <c r="T19" s="687"/>
+      <c r="S19" s="717"/>
+      <c r="T19" s="718"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="692"/>
+      <c r="AD19" s="684"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13379,14 +13390,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C85CE7-EB1D-45BE-A89B-CA1573BD264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C3B729-CB65-494E-89AD-39B493A0ED53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="592">
   <si>
     <t>Zone</t>
   </si>
@@ -1812,6 +1812,9 @@
   </si>
   <si>
     <t>ViolationRCA</t>
+  </si>
+  <si>
+    <t>FishW</t>
   </si>
 </sst>
 </file>
@@ -4640,7 +4643,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4658,6 +4660,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5228,7 +5233,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5523,7 +5528,7 @@
   <dimension ref="B1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5691,7 +5696,7 @@
         <v>228</v>
       </c>
       <c r="Q5" s="19">
-        <v>5100</v>
+        <v>5280</v>
       </c>
       <c r="S5" s="539"/>
     </row>
@@ -5849,7 +5854,7 @@
         <v>227</v>
       </c>
       <c r="Q10" s="64">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S10" s="539"/>
     </row>
@@ -6377,10 +6382,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M11" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView topLeftCell="M11" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6448,7 +6453,7 @@
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="559">
         <f ca="1">TODAY()</f>
-        <v>45276</v>
+        <v>45277</v>
       </c>
       <c r="B2" s="561" t="s">
         <v>389</v>
@@ -6498,7 +6503,7 @@
       <c r="Q2" s="547"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S18</f>
@@ -6522,7 +6527,7 @@
       <c r="N3" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="Q3" s="529">
+      <c r="Q3" s="528">
         <f>SUM(X24:X30)</f>
         <v>5</v>
       </c>
@@ -6538,7 +6543,7 @@
         <v>178</v>
       </c>
       <c r="I4" s="554"/>
-      <c r="R4" s="529" t="s">
+      <c r="R4" s="528" t="s">
         <v>585</v>
       </c>
       <c r="T4" s="20">
@@ -6587,14 +6592,14 @@
       <c r="N5" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="S5" s="529" t="s">
+      <c r="S5" s="528" t="s">
         <v>585</v>
       </c>
       <c r="T5" s="20">
         <f>IF((S7-SUM(X2:X10))&lt;0,S7-SUM(X2:X10),0)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="525"/>
+      <c r="V5" s="524"/>
       <c r="W5" s="6"/>
       <c r="X5" s="232">
         <v>0</v>
@@ -6654,7 +6659,7 @@
       <c r="U7" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="V7" s="526">
+      <c r="V7" s="525">
         <v>1</v>
       </c>
       <c r="W7" s="6" t="s">
@@ -6679,7 +6684,7 @@
       <c r="U8" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="V8" s="527">
+      <c r="V8" s="526">
         <v>1</v>
       </c>
       <c r="W8" s="6"/>
@@ -6708,7 +6713,7 @@
       <c r="U9" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="V9" s="527">
+      <c r="V9" s="526">
         <v>1</v>
       </c>
       <c r="X9" s="109"/>
@@ -6724,7 +6729,7 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!S8</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="532"/>
       <c r="I10" s="554"/>
@@ -6902,11 +6907,11 @@
       <c r="M15" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="R15" s="529" t="s">
+      <c r="R15" s="528" t="s">
         <v>585</v>
       </c>
       <c r="T15" s="20">
-        <f>IF((R18-SUM(V18:V22))&lt;0,R18-SUM(V18:V22),0)</f>
+        <f>IF((R18-SUM(V18:V23))&lt;0,R18-SUM(V18:V23),0)</f>
         <v>0</v>
       </c>
       <c r="U15" s="6"/>
@@ -6925,7 +6930,7 @@
         <v>44</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="S16" s="529" t="s">
+      <c r="S16" s="528" t="s">
         <v>585</v>
       </c>
       <c r="T16" s="20">
@@ -6935,7 +6940,7 @@
       <c r="U16" s="6"/>
       <c r="V16" s="112"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="244" t="s">
         <v>525</v>
       </c>
@@ -6964,7 +6969,7 @@
       <c r="U17" s="6"/>
       <c r="V17" s="112"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
       <c r="I18" s="554"/>
       <c r="L18" s="16"/>
@@ -6978,7 +6983,7 @@
       </c>
       <c r="R18" s="24">
         <f>5-R26</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" s="24">
         <f>5-S26</f>
@@ -6987,7 +6992,7 @@
       <c r="U18" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="V18" s="526">
+      <c r="V18" s="525">
         <v>1</v>
       </c>
       <c r="W18" s="6" t="s">
@@ -6997,7 +7002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" s="554"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
@@ -7011,7 +7016,7 @@
       <c r="W19" s="6"/>
       <c r="X19" s="109"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
         <v>566</v>
       </c>
@@ -7048,8 +7053,9 @@
       </c>
       <c r="W20" s="6"/>
       <c r="X20" s="109"/>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="554"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
@@ -7065,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="244" t="s">
         <v>503</v>
       </c>
@@ -7088,7 +7094,7 @@
       <c r="U22" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="V22" s="525">
+      <c r="V22" s="524">
         <v>1</v>
       </c>
       <c r="W22" s="6" t="s">
@@ -7098,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>579</v>
       </c>
@@ -7109,13 +7115,18 @@
         <v>44</v>
       </c>
       <c r="I23" s="554"/>
-      <c r="V23" s="112"/>
+      <c r="U23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="V23" s="24">
+        <v>1</v>
+      </c>
       <c r="W23" s="6"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="554"/>
       <c r="U24" s="379"/>
-      <c r="V24" s="528">
+      <c r="V24" s="527">
         <v>0</v>
       </c>
       <c r="W24" s="19" t="s">
@@ -7125,7 +7136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="174" t="s">
         <v>142</v>
       </c>
@@ -7156,9 +7167,11 @@
       </c>
       <c r="U25" s="35"/>
       <c r="W25" s="19"/>
-      <c r="X25" s="523"/>
-    </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X25" s="721" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
         <v>582</v>
       </c>
@@ -7194,7 +7207,7 @@
         <v>44</v>
       </c>
       <c r="R26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="24">
         <v>2</v>
@@ -7213,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I27" s="554"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
@@ -7234,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="176" t="s">
         <v>178</v>
       </c>
@@ -7256,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="241" t="s">
         <v>136</v>
       </c>
@@ -7285,23 +7298,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="246" t="s">
         <v>388</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="U30" s="530" t="s">
+      <c r="U30" s="529" t="s">
         <v>587</v>
       </c>
-      <c r="V30" s="721">
+      <c r="V30" s="530">
         <v>0</v>
       </c>
       <c r="W30" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="X30" s="524">
+      <c r="X30" s="523">
         <v>1</v>
       </c>
     </row>
@@ -7470,7 +7483,7 @@
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="626">
         <f ca="1">TODAY()</f>
-        <v>45276</v>
+        <v>45277</v>
       </c>
       <c r="B2" s="628" t="s">
         <v>379</v>
@@ -8008,7 +8021,7 @@
       <c r="D10" s="142"/>
       <c r="E10" s="250">
         <f>Boat!S8</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="584"/>
       <c r="N10" s="470" t="s">
@@ -9069,8 +9082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9152,7 +9165,7 @@
       </c>
       <c r="P1" s="151">
         <f ca="1">TODAY()</f>
-        <v>45276</v>
+        <v>45277</v>
       </c>
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
@@ -9209,11 +9222,11 @@
       </c>
       <c r="K2" s="660">
         <f>SUM(K4:K29)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="662">
         <f>SUM(L4:L29)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M2" s="599">
         <f>SUM(K30:K37)* (-1)</f>
@@ -9255,7 +9268,7 @@
         <v>457</v>
       </c>
       <c r="AA2" s="323" t="s">
-        <v>260</v>
+        <v>591</v>
       </c>
       <c r="AB2" s="72" t="s">
         <v>455</v>
@@ -9315,7 +9328,7 @@
       </c>
       <c r="R3" s="159">
         <f>SUM(R4:R29)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S3" s="665"/>
       <c r="T3" s="572"/>
@@ -9329,7 +9342,7 @@
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9337,15 +9350,15 @@
       </c>
       <c r="Y3" s="66">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" ref="AB3:AK3" si="1">SUM(AB4:AB29)</f>
@@ -9353,7 +9366,7 @@
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" si="1"/>
@@ -9365,7 +9378,7 @@
       </c>
       <c r="AF3" s="66">
         <f>SUM(AF4:AF29)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG3" s="412">
         <f t="shared" si="1"/>
@@ -9377,15 +9390,15 @@
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ3" s="329">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK3" s="330">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN3" s="112"/>
     </row>
@@ -9802,7 +9815,7 @@
       </c>
       <c r="S8" s="340">
         <f>R3</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="348"/>
@@ -9962,11 +9975,11 @@
       </c>
       <c r="J10" s="363"/>
       <c r="K10" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="311">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="667"/>
       <c r="N10" s="20"/>
@@ -9980,7 +9993,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" s="338">
         <v>-2</v>
@@ -9990,46 +10003,46 @@
       <c r="V10" s="346"/>
       <c r="W10" s="190">
         <f>SUM(J10:K10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="314"/>
       <c r="Y10" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="308">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10" s="308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC10" s="312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="318"/>
       <c r="AE10" s="314"/>
       <c r="AF10" s="314">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="373"/>
       <c r="AH10" s="158"/>
       <c r="AI10" s="326">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="327">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="328">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="6"/>
       <c r="AM10" s="231"/>
@@ -12728,7 +12741,7 @@
       <c r="P1" s="38"/>
       <c r="S1" s="58">
         <f ca="1">TODAY()</f>
-        <v>45276</v>
+        <v>45277</v>
       </c>
       <c r="V1" s="536" t="s">
         <v>71</v>

--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C3B729-CB65-494E-89AD-39B493A0ED53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F42D1CD-DECC-4A17-9D54-B5586F9507AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="593">
   <si>
     <t>Zone</t>
   </si>
@@ -1815,6 +1815,9 @@
   </si>
   <si>
     <t>FishW</t>
+  </si>
+  <si>
+    <t>Africa 15 - G 639</t>
   </si>
 </sst>
 </file>
@@ -3401,7 +3404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="722">
+  <cellXfs count="724">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4643,7 +4646,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4663,6 +4665,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4708,6 +4716,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4738,62 +4803,167 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4819,12 +4989,6 @@
     <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4846,161 +5010,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5044,39 +5085,6 @@
     <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5095,25 +5103,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5191,51 +5220,31 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5581,10 +5590,10 @@
       <c r="I2" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="534" t="s">
+      <c r="J2" s="535" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="535"/>
+      <c r="K2" s="536"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5594,13 +5603,13 @@
       <c r="N2" s="386" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="536" t="s">
+      <c r="O2" s="537" t="s">
         <v>385</v>
       </c>
-      <c r="P2" s="537"/>
-      <c r="Q2" s="537"/>
-      <c r="R2" s="537"/>
-      <c r="S2" s="538" t="s">
+      <c r="P2" s="538"/>
+      <c r="Q2" s="538"/>
+      <c r="R2" s="538"/>
+      <c r="S2" s="539" t="s">
         <v>386</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -5614,7 +5623,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="531"/>
+      <c r="D3" s="532"/>
       <c r="E3" s="374"/>
       <c r="F3" s="281" t="s">
         <v>69</v>
@@ -5639,7 +5648,7 @@
       </c>
       <c r="O3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="539"/>
+      <c r="S3" s="540"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -5648,7 +5657,7 @@
       <c r="C4" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="532"/>
+      <c r="D4" s="533"/>
       <c r="E4" s="61"/>
       <c r="F4" s="396" t="s">
         <v>42</v>
@@ -5665,7 +5674,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="539"/>
+      <c r="S4" s="540"/>
     </row>
     <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -5674,7 +5683,7 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="533"/>
+      <c r="D5" s="534"/>
       <c r="F5" s="401" t="s">
         <v>42</v>
       </c>
@@ -5698,7 +5707,7 @@
       <c r="Q5" s="19">
         <v>5280</v>
       </c>
-      <c r="S5" s="539"/>
+      <c r="S5" s="540"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -5730,7 +5739,7 @@
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="6"/>
-      <c r="S6" s="539"/>
+      <c r="S6" s="540"/>
     </row>
     <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="219" t="s">
@@ -5760,7 +5769,7 @@
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="6"/>
-      <c r="S7" s="539"/>
+      <c r="S7" s="540"/>
     </row>
     <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -5788,7 +5797,7 @@
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="6"/>
-      <c r="S8" s="539"/>
+      <c r="S8" s="540"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -5821,7 +5830,7 @@
       <c r="O9" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="539"/>
+      <c r="S9" s="540"/>
     </row>
     <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -5856,7 +5865,7 @@
       <c r="Q10" s="64">
         <v>88</v>
       </c>
-      <c r="S10" s="539"/>
+      <c r="S10" s="540"/>
     </row>
     <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -5890,7 +5899,7 @@
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="142"/>
-      <c r="S11" s="539"/>
+      <c r="S11" s="540"/>
       <c r="T11" s="23"/>
     </row>
     <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5917,7 +5926,7 @@
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="142"/>
-      <c r="S12" s="539"/>
+      <c r="S12" s="540"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="271" t="s">
@@ -5951,10 +5960,10 @@
       <c r="N13" s="404" t="s">
         <v>522</v>
       </c>
-      <c r="S13" s="539"/>
+      <c r="S13" s="540"/>
     </row>
     <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S14" s="539"/>
+      <c r="S14" s="540"/>
     </row>
     <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -5980,17 +5989,17 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="543">
+      <c r="M15" s="544">
         <v>45275</v>
       </c>
-      <c r="N15" s="531" t="s">
+      <c r="N15" s="532" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="256" t="s">
         <v>44</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="539"/>
+      <c r="S15" s="540"/>
     </row>
     <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="514" t="s">
@@ -6016,9 +6025,9 @@
       <c r="L16" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="544"/>
-      <c r="N16" s="532"/>
-      <c r="S16" s="539"/>
+      <c r="M16" s="545"/>
+      <c r="N16" s="533"/>
+      <c r="S16" s="540"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -6046,15 +6055,15 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="545"/>
-      <c r="N17" s="533"/>
+      <c r="M17" s="546"/>
+      <c r="N17" s="534"/>
       <c r="O17" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S17" s="539"/>
+      <c r="S17" s="540"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S18" s="539"/>
+      <c r="S18" s="540"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6082,13 +6091,13 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="543">
+      <c r="M19" s="544">
         <v>45275</v>
       </c>
       <c r="N19" s="442" t="s">
         <v>522</v>
       </c>
-      <c r="S19" s="539"/>
+      <c r="S19" s="540"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="254" t="s">
@@ -6114,11 +6123,11 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="544"/>
+      <c r="M20" s="545"/>
       <c r="N20" s="431" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="539"/>
+      <c r="S20" s="540"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="254" t="s">
@@ -6144,15 +6153,15 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="544"/>
+      <c r="M21" s="545"/>
       <c r="N21" s="431" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="541" t="s">
+      <c r="P21" s="542" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="542"/>
-      <c r="S21" s="539"/>
+      <c r="Q21" s="543"/>
+      <c r="S21" s="540"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="288" t="s">
@@ -6178,11 +6187,11 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="544"/>
+      <c r="M22" s="545"/>
       <c r="N22" s="410" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="539"/>
+      <c r="S22" s="540"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6208,11 +6217,11 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="544"/>
+      <c r="M23" s="545"/>
       <c r="N23" s="61" t="s">
         <v>523</v>
       </c>
-      <c r="S23" s="539"/>
+      <c r="S23" s="540"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -6238,7 +6247,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="544"/>
+      <c r="M24" s="545"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6246,7 +6255,7 @@
         <v>44</v>
       </c>
       <c r="R24" s="16"/>
-      <c r="S24" s="539"/>
+      <c r="S24" s="540"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6272,11 +6281,11 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="544"/>
+      <c r="M25" s="545"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="539"/>
+      <c r="S25" s="540"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -6302,11 +6311,11 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="544"/>
+      <c r="M26" s="545"/>
       <c r="N26" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="S26" s="539"/>
+      <c r="S26" s="540"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="271" t="s">
@@ -6328,9 +6337,9 @@
       <c r="J27" s="439"/>
       <c r="K27" s="440"/>
       <c r="L27" s="441"/>
-      <c r="M27" s="544"/>
+      <c r="M27" s="545"/>
       <c r="N27" s="61"/>
-      <c r="S27" s="539"/>
+      <c r="S27" s="540"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="271" t="s">
@@ -6358,12 +6367,12 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="545"/>
+      <c r="M28" s="546"/>
       <c r="N28" s="61" t="s">
         <v>524</v>
       </c>
       <c r="R28" s="16"/>
-      <c r="S28" s="540"/>
+      <c r="S28" s="541"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6385,7 +6394,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView topLeftCell="M11" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6412,7 +6421,7 @@
     <col min="20" max="20" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.7109375" style="20" customWidth="1"/>
     <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.85546875" customWidth="1"/>
+    <col min="24" max="24" width="3.85546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6440,7 +6449,7 @@
       <c r="P1" s="450" t="s">
         <v>408</v>
       </c>
-      <c r="Q1" s="546" t="s">
+      <c r="Q1" s="566" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -6451,32 +6460,32 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="559">
+      <c r="A2" s="550">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="561" t="s">
+      <c r="B2" s="552" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="573" t="s">
+      <c r="C2" s="564" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="563" t="s">
+      <c r="D2" s="554" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="565" t="s">
+      <c r="E2" s="556" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="571" t="s">
+      <c r="G2" s="562" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="553" t="s">
+      <c r="I2" s="573" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="448" t="s">
@@ -6500,7 +6509,7 @@
       <c r="P2" s="451">
         <v>40</v>
       </c>
-      <c r="Q2" s="547"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
         <v>8</v>
@@ -6510,40 +6519,40 @@
         <v>4</v>
       </c>
       <c r="V2" s="520"/>
-      <c r="X2" s="56"/>
+      <c r="X2" s="524"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="560"/>
-      <c r="B3" s="562"/>
-      <c r="C3" s="574"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="566"/>
-      <c r="G3" s="572"/>
+      <c r="A3" s="551"/>
+      <c r="B3" s="553"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="555"/>
+      <c r="E3" s="557"/>
+      <c r="G3" s="563"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="554"/>
+      <c r="I3" s="574"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
       <c r="N3" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="Q3" s="528">
+      <c r="Q3" s="527">
         <f>SUM(X24:X30)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V3" s="521"/>
-      <c r="X3" s="231"/>
+      <c r="X3" s="525"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="249" t="s">
         <v>390</v>
       </c>
       <c r="B4" s="257"/>
-      <c r="C4" s="567" t="s">
+      <c r="C4" s="558" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="554"/>
-      <c r="R4" s="528" t="s">
+      <c r="I4" s="574"/>
+      <c r="R4" s="527" t="s">
         <v>585</v>
       </c>
       <c r="T4" s="20">
@@ -6551,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="521"/>
-      <c r="X4" s="231"/>
+      <c r="X4" s="525"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="234" t="s">
@@ -6560,7 +6569,7 @@
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="568"/>
+      <c r="C5" s="559"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6570,13 +6579,13 @@
       <c r="F5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="531" t="s">
+      <c r="G5" s="532" t="s">
         <v>276</v>
       </c>
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="554"/>
+      <c r="I5" s="574"/>
       <c r="J5" s="449" t="s">
         <v>273</v>
       </c>
@@ -6592,36 +6601,36 @@
       <c r="N5" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="S5" s="528" t="s">
+      <c r="S5" s="527" t="s">
         <v>585</v>
       </c>
       <c r="T5" s="20">
         <f>IF((S7-SUM(X2:X10))&lt;0,S7-SUM(X2:X10),0)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="524"/>
+      <c r="V5" s="523"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="232">
+      <c r="X5" s="523">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="556" t="s">
+      <c r="A6" s="547" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="569"/>
-      <c r="D6" s="570"/>
+      <c r="C6" s="560"/>
+      <c r="D6" s="561"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="532"/>
-      <c r="I6" s="554"/>
+      <c r="G6" s="533"/>
+      <c r="I6" s="574"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="557"/>
+      <c r="A7" s="548"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6631,8 +6640,8 @@
       <c r="D7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="532"/>
-      <c r="I7" s="554"/>
+      <c r="G7" s="533"/>
+      <c r="I7" s="574"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6659,18 +6668,18 @@
       <c r="U7" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="V7" s="525">
+      <c r="V7" s="524">
         <v>1</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="X7" s="56">
+      <c r="X7" s="524">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="558"/>
+      <c r="A8" s="549"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6678,17 +6687,17 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="532"/>
-      <c r="I8" s="554"/>
+      <c r="G8" s="533"/>
+      <c r="I8" s="574"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="V8" s="526">
+      <c r="V8" s="525">
         <v>1</v>
       </c>
       <c r="W8" s="6"/>
-      <c r="X8" s="109"/>
+      <c r="X8" s="521"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="244" t="s">
@@ -6703,9 +6712,9 @@
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="532"/>
+      <c r="G9" s="533"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="554"/>
+      <c r="I9" s="574"/>
       <c r="M9" s="19" t="s">
         <v>548</v>
       </c>
@@ -6713,10 +6722,10 @@
       <c r="U9" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="V9" s="526">
-        <v>1</v>
-      </c>
-      <c r="X9" s="109"/>
+      <c r="V9" s="525">
+        <v>1</v>
+      </c>
+      <c r="X9" s="521"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
@@ -6731,8 +6740,8 @@
         <f>Boat!S8</f>
         <v>43</v>
       </c>
-      <c r="G10" s="532"/>
-      <c r="I10" s="554"/>
+      <c r="G10" s="533"/>
+      <c r="I10" s="574"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6744,13 +6753,13 @@
       </c>
       <c r="N10" s="80"/>
       <c r="V10" s="521"/>
-      <c r="X10" s="109"/>
+      <c r="X10" s="521"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="531" t="s">
+      <c r="B11" s="532" t="s">
         <v>392</v>
       </c>
       <c r="C11" s="176" t="s">
@@ -6759,8 +6768,8 @@
       <c r="D11" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="532"/>
-      <c r="I11" s="554"/>
+      <c r="G11" s="533"/>
+      <c r="I11" s="574"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6786,23 +6795,23 @@
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="548" t="s">
+      <c r="U11" s="568" t="s">
         <v>588</v>
       </c>
-      <c r="V11" s="549"/>
-      <c r="W11" s="549"/>
-      <c r="X11" s="550"/>
+      <c r="V11" s="569"/>
+      <c r="W11" s="569"/>
+      <c r="X11" s="570"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="533"/>
+      <c r="B12" s="534"/>
       <c r="E12" s="242">
         <v>3</v>
       </c>
-      <c r="G12" s="532"/>
-      <c r="I12" s="554"/>
+      <c r="G12" s="533"/>
+      <c r="I12" s="574"/>
       <c r="J12" s="24" t="s">
         <v>539</v>
       </c>
@@ -6830,12 +6839,12 @@
       <c r="B13" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="531" t="s">
+      <c r="C13" s="532" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="532"/>
-      <c r="I13" s="554"/>
+      <c r="G13" s="533"/>
+      <c r="I13" s="574"/>
       <c r="J13" s="108" t="s">
         <v>577</v>
       </c>
@@ -6862,7 +6871,7 @@
       <c r="B14" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="533"/>
+      <c r="C14" s="534"/>
       <c r="D14" s="214" t="s">
         <v>154</v>
       </c>
@@ -6872,11 +6881,11 @@
       <c r="F14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="533"/>
+      <c r="G14" s="534"/>
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="554"/>
+      <c r="I14" s="574"/>
       <c r="U14" s="6"/>
       <c r="V14" s="112"/>
       <c r="W14" s="6"/>
@@ -6894,7 +6903,7 @@
       <c r="H15" s="289">
         <v>0</v>
       </c>
-      <c r="I15" s="554"/>
+      <c r="I15" s="574"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -6907,10 +6916,10 @@
       <c r="M15" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="R15" s="528" t="s">
+      <c r="R15" s="527" t="s">
         <v>585</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="24">
         <f>IF((R18-SUM(V18:V23))&lt;0,R18-SUM(V18:V23),0)</f>
         <v>0</v>
       </c>
@@ -6925,15 +6934,15 @@
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="554"/>
+      <c r="I16" s="574"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="S16" s="528" t="s">
+      <c r="S16" s="527" t="s">
         <v>585</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="24">
         <f>IF((S18-SUM(X18:X22))&lt;0,S18-SUM(X18:X22),0)</f>
         <v>0</v>
       </c>
@@ -6959,7 +6968,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="554"/>
+      <c r="I17" s="574"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -6971,13 +6980,13 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="554"/>
+      <c r="I18" s="574"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="551" t="s">
+      <c r="O18" s="571" t="s">
         <v>540</v>
       </c>
-      <c r="P18" s="552"/>
+      <c r="P18" s="572"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -6992,18 +7001,18 @@
       <c r="U18" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="V18" s="525">
+      <c r="V18" s="524">
         <v>1</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="X18" s="132">
+      <c r="X18" s="520">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="554"/>
+      <c r="I19" s="574"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -7014,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="6"/>
-      <c r="X19" s="109"/>
+      <c r="X19" s="521"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
@@ -7035,7 +7044,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="554"/>
+      <c r="I20" s="574"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -7051,12 +7060,16 @@
       <c r="V20" s="24">
         <v>1</v>
       </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="109"/>
+      <c r="W20" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="X20" s="521">
+        <v>1</v>
+      </c>
       <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="554"/>
+      <c r="I21" s="574"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -7067,9 +7080,7 @@
       <c r="W21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="X21" s="109">
-        <v>1</v>
-      </c>
+      <c r="X21" s="521"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="244" t="s">
@@ -7090,17 +7101,17 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="554"/>
+      <c r="I22" s="574"/>
       <c r="U22" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="V22" s="524">
+      <c r="V22" s="523">
         <v>1</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="X22" s="110">
+      <c r="X22" s="530">
         <v>1</v>
       </c>
     </row>
@@ -7114,7 +7125,7 @@
       <c r="E23" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="554"/>
+      <c r="I23" s="574"/>
       <c r="U23" s="6" t="s">
         <v>74</v>
       </c>
@@ -7124,16 +7135,16 @@
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="554"/>
+      <c r="I24" s="574"/>
       <c r="U24" s="379"/>
-      <c r="V24" s="527">
-        <v>0</v>
+      <c r="V24" s="526">
+        <v>-1</v>
       </c>
       <c r="W24" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="X24" s="19">
-        <v>2</v>
+      <c r="X24" s="24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7152,7 +7163,7 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="554"/>
+      <c r="I25" s="574"/>
       <c r="J25" s="449" t="s">
         <v>274</v>
       </c>
@@ -7167,7 +7178,7 @@
       </c>
       <c r="U25" s="35"/>
       <c r="W25" s="19"/>
-      <c r="X25" s="721" t="s">
+      <c r="X25" s="531" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7192,7 +7203,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="554"/>
+      <c r="I26" s="574"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -7222,12 +7233,12 @@
       <c r="W26" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="X26" s="19">
+      <c r="X26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="554"/>
+      <c r="I27" s="574"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -7243,7 +7254,7 @@
       <c r="W27" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="X27" s="19">
+      <c r="X27" s="24">
         <v>0</v>
       </c>
     </row>
@@ -7254,7 +7265,7 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="554"/>
+      <c r="I28" s="574"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -7265,7 +7276,7 @@
       <c r="W28" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="X28" s="19">
+      <c r="X28" s="24">
         <v>1</v>
       </c>
     </row>
@@ -7276,7 +7287,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="555"/>
+      <c r="I29" s="575"/>
       <c r="J29" s="358"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7289,13 +7300,13 @@
       <c r="T29" s="80"/>
       <c r="U29" s="35"/>
       <c r="V29" s="112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W29" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="X29" s="23">
-        <v>1</v>
+      <c r="X29" s="177">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7305,21 +7316,26 @@
       <c r="B30" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="U30" s="529" t="s">
+      <c r="U30" s="528" t="s">
         <v>587</v>
       </c>
-      <c r="V30" s="530">
+      <c r="V30" s="529">
         <v>0</v>
       </c>
       <c r="W30" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="X30" s="523">
+      <c r="X30" s="722">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -7331,11 +7347,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7411,7 +7422,7 @@
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="571" t="s">
+      <c r="I1" s="562" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7447,7 +7458,7 @@
       <c r="X1" s="482" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="617" t="s">
+      <c r="Y1" s="618" t="s">
         <v>555</v>
       </c>
       <c r="Z1" s="458">
@@ -7472,7 +7483,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="454"/>
-      <c r="AN1" s="602"/>
+      <c r="AN1" s="600"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7481,23 +7492,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="626">
+      <c r="A2" s="582">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="628" t="s">
+      <c r="B2" s="584" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="573" t="s">
+      <c r="C2" s="564" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="630" t="s">
+      <c r="D2" s="586" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="575" t="s">
+      <c r="E2" s="630" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="583" t="s">
+      <c r="F2" s="605" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="445" t="s">
@@ -7506,15 +7517,15 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="572"/>
+      <c r="I2" s="563"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="577" t="s">
+      <c r="K2" s="632" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="578"/>
-      <c r="M2" s="583" t="s">
+      <c r="L2" s="633"/>
+      <c r="M2" s="605" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
@@ -7526,11 +7537,11 @@
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="573" t="s">
+      <c r="Q2" s="564" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="531"/>
-      <c r="S2" s="596" t="s">
+      <c r="R2" s="532"/>
+      <c r="S2" s="622" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7540,7 +7551,7 @@
       <c r="X2" s="483" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="618"/>
+      <c r="Y2" s="619"/>
       <c r="Z2" s="459">
         <v>1</v>
       </c>
@@ -7563,15 +7574,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="480"/>
-      <c r="AN2" s="603"/>
+      <c r="AN2" s="601"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="627"/>
-      <c r="B3" s="629"/>
-      <c r="C3" s="574"/>
-      <c r="D3" s="631"/>
-      <c r="E3" s="576"/>
-      <c r="F3" s="584"/>
+      <c r="A3" s="583"/>
+      <c r="B3" s="585"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="631"/>
+      <c r="F3" s="606"/>
       <c r="G3" s="446" t="s">
         <v>28</v>
       </c>
@@ -7590,7 +7601,7 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="584"/>
+      <c r="M3" s="606"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
@@ -7598,9 +7609,9 @@
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="574"/>
-      <c r="R3" s="533"/>
-      <c r="S3" s="598"/>
+      <c r="Q3" s="565"/>
+      <c r="R3" s="534"/>
+      <c r="S3" s="623"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7608,7 +7619,7 @@
       <c r="X3" s="483" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="618"/>
+      <c r="Y3" s="619"/>
       <c r="Z3" s="460">
         <v>1</v>
       </c>
@@ -7617,7 +7628,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="593" t="s">
+      <c r="AD3" s="621" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7629,16 +7640,16 @@
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="480"/>
-      <c r="AN3" s="603"/>
+      <c r="AN3" s="601"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="642" t="s">
+      <c r="B4" s="598" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="573" t="s">
+      <c r="C4" s="564" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="384" t="s">
@@ -7647,7 +7658,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="584"/>
+      <c r="F4" s="606"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7664,7 +7675,7 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="584"/>
+      <c r="M4" s="606"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
@@ -7690,12 +7701,12 @@
       <c r="X4" s="483" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="618"/>
+      <c r="Y4" s="619"/>
       <c r="Z4" s="461"/>
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="593"/>
+      <c r="AD4" s="621"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7705,33 +7716,33 @@
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="480"/>
-      <c r="AN4" s="603"/>
+      <c r="AN4" s="601"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="571" t="s">
+      <c r="A5" s="562" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="643"/>
-      <c r="C5" s="574"/>
+      <c r="B5" s="599"/>
+      <c r="C5" s="565"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="584"/>
-      <c r="G5" s="634" t="s">
+      <c r="F5" s="606"/>
+      <c r="G5" s="590" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="634"/>
-      <c r="I5" s="634"/>
-      <c r="J5" s="634"/>
-      <c r="K5" s="634"/>
-      <c r="L5" s="635"/>
-      <c r="M5" s="584"/>
+      <c r="H5" s="590"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="590"/>
+      <c r="L5" s="591"/>
+      <c r="M5" s="606"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
@@ -7743,7 +7754,7 @@
       <c r="X5" s="483" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="618"/>
+      <c r="Y5" s="619"/>
       <c r="Z5" s="461">
         <v>1</v>
       </c>
@@ -7766,23 +7777,23 @@
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="480"/>
-      <c r="AN5" s="603"/>
+      <c r="AN5" s="601"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="572"/>
-      <c r="B6" s="640" t="s">
+      <c r="A6" s="563"/>
+      <c r="B6" s="596" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="569"/>
-      <c r="D6" s="570"/>
-      <c r="F6" s="584"/>
-      <c r="G6" s="636"/>
-      <c r="H6" s="636"/>
-      <c r="I6" s="636"/>
-      <c r="J6" s="636"/>
-      <c r="K6" s="636"/>
-      <c r="L6" s="637"/>
-      <c r="M6" s="584"/>
+      <c r="C6" s="560"/>
+      <c r="D6" s="561"/>
+      <c r="F6" s="606"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="592"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="593"/>
+      <c r="M6" s="606"/>
       <c r="O6" s="610"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
@@ -7793,7 +7804,7 @@
       <c r="X6" s="483" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="618"/>
+      <c r="Y6" s="619"/>
       <c r="Z6" s="459">
         <v>1</v>
       </c>
@@ -7807,16 +7818,16 @@
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="592"/>
+      <c r="AI6" s="615"/>
       <c r="AJ6" s="493" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="592" t="s">
+      <c r="AK6" s="615" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
       <c r="AM6" s="480"/>
-      <c r="AN6" s="603"/>
+      <c r="AN6" s="601"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
@@ -7825,7 +7836,7 @@
       <c r="A7" s="245" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="641"/>
+      <c r="B7" s="597"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7835,7 +7846,7 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="584"/>
+      <c r="F7" s="606"/>
       <c r="G7" s="447">
         <v>0</v>
       </c>
@@ -7848,13 +7859,13 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="531">
+      <c r="K7" s="532">
         <v>1</v>
       </c>
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="584"/>
+      <c r="M7" s="606"/>
       <c r="O7" s="610"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
@@ -7869,7 +7880,7 @@
       <c r="X7" s="483" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="618"/>
+      <c r="Y7" s="619"/>
       <c r="Z7" s="459">
         <v>1</v>
       </c>
@@ -7879,18 +7890,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="593" t="s">
+      <c r="AG7" s="621" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="592"/>
+      <c r="AI7" s="615"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="592"/>
+      <c r="AK7" s="615"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="480"/>
-      <c r="AN7" s="603"/>
+      <c r="AN7" s="601"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7907,21 +7918,21 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="584"/>
-      <c r="G8" s="635">
-        <v>0</v>
-      </c>
-      <c r="H8" s="632" t="s">
+      <c r="F8" s="606"/>
+      <c r="G8" s="591">
+        <v>0</v>
+      </c>
+      <c r="H8" s="588" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="531"/>
-      <c r="J8" s="632" t="s">
+      <c r="I8" s="532"/>
+      <c r="J8" s="588" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="638"/>
-      <c r="L8" s="594"/>
+      <c r="K8" s="594"/>
+      <c r="L8" s="624"/>
       <c r="M8" s="607"/>
-      <c r="N8" s="599">
+      <c r="N8" s="627">
         <f>N5+N11</f>
         <v>15</v>
       </c>
@@ -7935,7 +7946,7 @@
       <c r="X8" s="483" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="618"/>
+      <c r="Y8" s="619"/>
       <c r="Z8" s="461"/>
       <c r="AA8" s="325"/>
       <c r="AB8" s="219"/>
@@ -7943,14 +7954,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="593"/>
+      <c r="AG8" s="621"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="592"/>
+      <c r="AI8" s="615"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
       <c r="AM8" s="480"/>
-      <c r="AN8" s="603"/>
+      <c r="AN8" s="601"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -7965,17 +7976,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="584"/>
-      <c r="G9" s="637"/>
-      <c r="H9" s="633"/>
-      <c r="I9" s="533"/>
-      <c r="J9" s="633"/>
-      <c r="K9" s="639"/>
-      <c r="L9" s="595"/>
+      <c r="F9" s="606"/>
+      <c r="G9" s="593"/>
+      <c r="H9" s="589"/>
+      <c r="I9" s="534"/>
+      <c r="J9" s="589"/>
+      <c r="K9" s="595"/>
+      <c r="L9" s="625"/>
       <c r="M9" s="608"/>
-      <c r="N9" s="600"/>
+      <c r="N9" s="628"/>
       <c r="O9" s="611"/>
-      <c r="S9" s="596" t="s">
+      <c r="S9" s="622" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7987,7 +7998,7 @@
       <c r="X9" s="483" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="618"/>
+      <c r="Y9" s="619"/>
       <c r="Z9" s="462"/>
       <c r="AA9" s="325"/>
       <c r="AB9" s="219"/>
@@ -7997,16 +8008,16 @@
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="593"/>
+      <c r="AG9" s="621"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="592"/>
+      <c r="AI9" s="615"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="592" t="s">
+      <c r="AK9" s="615" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
       <c r="AM9" s="480"/>
-      <c r="AN9" s="603"/>
+      <c r="AN9" s="601"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -8023,11 +8034,11 @@
         <f>Boat!S8</f>
         <v>43</v>
       </c>
-      <c r="F10" s="584"/>
+      <c r="F10" s="606"/>
       <c r="N10" s="470" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="586" t="s">
+      <c r="O10" s="639" t="s">
         <v>103</v>
       </c>
       <c r="P10" s="612" t="s">
@@ -8036,7 +8047,7 @@
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="597"/>
+      <c r="S10" s="626"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8048,7 +8059,7 @@
       <c r="X10" s="483" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="618"/>
+      <c r="Y10" s="619"/>
       <c r="Z10" s="461">
         <v>0</v>
       </c>
@@ -8066,16 +8077,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="593"/>
+      <c r="AG10" s="621"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="592"/>
+      <c r="AI10" s="615"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="592"/>
+      <c r="AK10" s="615"/>
       <c r="AL10" s="272"/>
       <c r="AM10" s="494" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="603"/>
+      <c r="AN10" s="601"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -8084,7 +8095,7 @@
       <c r="A11" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="531" t="s">
+      <c r="B11" s="532" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="509" t="s">
@@ -8093,18 +8104,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="584"/>
+      <c r="F11" s="606"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="587"/>
+      <c r="O11" s="640"/>
       <c r="P11" s="613"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="597"/>
+      <c r="S11" s="626"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -8114,7 +8125,7 @@
       <c r="X11" s="483" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="618"/>
+      <c r="Y11" s="619"/>
       <c r="Z11" s="461"/>
       <c r="AA11" s="325">
         <v>1</v>
@@ -8128,14 +8139,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="593"/>
+      <c r="AG11" s="621"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
       <c r="AM11" s="480"/>
-      <c r="AN11" s="603"/>
+      <c r="AN11" s="601"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -8144,7 +8155,7 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="533"/>
+      <c r="B12" s="534"/>
       <c r="C12" s="510" t="s">
         <v>394</v>
       </c>
@@ -8154,25 +8165,25 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="584"/>
+      <c r="F12" s="606"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
-      <c r="H12" s="536" t="s">
+      <c r="H12" s="537" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="537"/>
-      <c r="J12" s="537"/>
-      <c r="K12" s="591"/>
+      <c r="I12" s="538"/>
+      <c r="J12" s="538"/>
+      <c r="K12" s="644"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="587"/>
+      <c r="O12" s="640"/>
       <c r="P12" s="613"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="598"/>
+      <c r="S12" s="623"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -8182,7 +8193,7 @@
       <c r="X12" s="483" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="618"/>
+      <c r="Y12" s="619"/>
       <c r="Z12" s="459">
         <v>1</v>
       </c>
@@ -8193,16 +8204,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="601" t="s">
+      <c r="AD12" s="629" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="493" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="593" t="s">
+      <c r="AF12" s="621" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="593"/>
+      <c r="AG12" s="621"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -8212,10 +8223,10 @@
       <c r="AJ12" s="272"/>
       <c r="AK12" s="272"/>
       <c r="AL12" s="272"/>
-      <c r="AM12" s="615" t="s">
+      <c r="AM12" s="616" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="603"/>
+      <c r="AN12" s="601"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
@@ -8227,16 +8238,16 @@
       <c r="E13" s="500">
         <v>-3</v>
       </c>
-      <c r="F13" s="584"/>
-      <c r="G13" s="537" t="s">
+      <c r="F13" s="606"/>
+      <c r="G13" s="538" t="s">
         <v>448</v>
       </c>
-      <c r="H13" s="537"/>
-      <c r="I13" s="537"/>
-      <c r="J13" s="591"/>
+      <c r="H13" s="538"/>
+      <c r="I13" s="538"/>
+      <c r="J13" s="644"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="587"/>
+      <c r="O13" s="640"/>
       <c r="P13" s="614"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
@@ -8247,7 +8258,7 @@
       <c r="X13" s="483" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="618"/>
+      <c r="Y13" s="619"/>
       <c r="Z13" s="459">
         <v>1</v>
       </c>
@@ -8258,8 +8269,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="601"/>
-      <c r="AF13" s="593"/>
+      <c r="AD13" s="629"/>
+      <c r="AF13" s="621"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8270,8 +8281,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
-      <c r="AM13" s="615"/>
-      <c r="AN13" s="603"/>
+      <c r="AM13" s="616"/>
+      <c r="AN13" s="601"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="502"/>
@@ -8279,18 +8290,18 @@
       <c r="C14" s="511"/>
       <c r="D14" s="504"/>
       <c r="E14" s="505"/>
-      <c r="F14" s="584"/>
-      <c r="G14" s="537" t="s">
+      <c r="F14" s="606"/>
+      <c r="G14" s="538" t="s">
         <v>447</v>
       </c>
-      <c r="H14" s="537"/>
-      <c r="I14" s="537"/>
-      <c r="J14" s="591"/>
+      <c r="H14" s="538"/>
+      <c r="I14" s="538"/>
+      <c r="J14" s="644"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="587"/>
+      <c r="O14" s="640"/>
       <c r="Q14" s="61" t="s">
         <v>559</v>
       </c>
@@ -8304,34 +8315,34 @@
       <c r="X14" s="483" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="618"/>
+      <c r="Y14" s="619"/>
       <c r="Z14" s="459">
         <v>1</v>
       </c>
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="601"/>
+      <c r="AD14" s="629"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="593"/>
+      <c r="AF14" s="621"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="272"/>
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
-      <c r="AM14" s="615"/>
-      <c r="AN14" s="603"/>
+      <c r="AM14" s="616"/>
+      <c r="AN14" s="601"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="501" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="531" t="s">
+      <c r="C15" s="532" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="584"/>
-      <c r="O15" s="587"/>
+      <c r="F15" s="606"/>
+      <c r="O15" s="640"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8344,7 +8355,7 @@
       <c r="X15" s="483" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="618"/>
+      <c r="Y15" s="619"/>
       <c r="Z15" s="461">
         <v>1</v>
       </c>
@@ -8353,8 +8364,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="601"/>
-      <c r="AF15" s="593"/>
+      <c r="AD15" s="629"/>
+      <c r="AF15" s="621"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8367,8 +8378,8 @@
       </c>
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
-      <c r="AM15" s="615"/>
-      <c r="AN15" s="603"/>
+      <c r="AM15" s="616"/>
+      <c r="AN15" s="601"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8383,20 +8394,20 @@
       <c r="B16" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="533"/>
+      <c r="C16" s="534"/>
       <c r="D16" s="61" t="s">
         <v>511</v>
       </c>
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="584"/>
+      <c r="F16" s="606"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="587"/>
+      <c r="O16" s="640"/>
       <c r="R16" s="487" t="s">
         <v>185</v>
       </c>
@@ -8407,7 +8418,7 @@
       <c r="X16" s="483" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="618"/>
+      <c r="Y16" s="619"/>
       <c r="Z16" s="459">
         <v>1</v>
       </c>
@@ -8428,18 +8439,18 @@
       <c r="AM16" s="480" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="603"/>
+      <c r="AN16" s="601"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="584"/>
+      <c r="F17" s="606"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="587"/>
+      <c r="O17" s="640"/>
       <c r="Q17" s="21" t="s">
         <v>557</v>
       </c>
@@ -8459,7 +8470,7 @@
       <c r="X17" s="483" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="618"/>
+      <c r="Y17" s="619"/>
       <c r="Z17" s="461"/>
       <c r="AA17" s="325"/>
       <c r="AB17" s="219"/>
@@ -8484,7 +8495,7 @@
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="480"/>
-      <c r="AN17" s="603"/>
+      <c r="AN17" s="601"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8508,21 +8519,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="584"/>
+      <c r="F18" s="606"/>
       <c r="G18" s="374" t="s">
         <v>554</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="587"/>
+      <c r="O18" s="640"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="579" t="s">
+      <c r="R18" s="634" t="s">
         <v>562</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="623" t="s">
+      <c r="U18" s="579" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8532,7 +8543,7 @@
       <c r="X18" s="483" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="618"/>
+      <c r="Y18" s="619"/>
       <c r="Z18" s="461">
         <v>1</v>
       </c>
@@ -8543,37 +8554,37 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="592" t="s">
+      <c r="AF18" s="615" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="616" t="s">
+      <c r="AJ18" s="617" t="s">
         <v>322</v>
       </c>
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="480"/>
-      <c r="AN18" s="603"/>
+      <c r="AN18" s="601"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="584"/>
-      <c r="O19" s="587"/>
-      <c r="R19" s="580"/>
+      <c r="F19" s="606"/>
+      <c r="O19" s="640"/>
+      <c r="R19" s="635"/>
       <c r="S19" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="U19" s="624"/>
+      <c r="U19" s="580"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="483" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="618"/>
+      <c r="Y19" s="619"/>
       <c r="Z19" s="459">
         <v>1</v>
       </c>
@@ -8582,17 +8593,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="592"/>
+      <c r="AF19" s="615"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="616"/>
+      <c r="AJ19" s="617"/>
       <c r="AK19" s="512" t="s">
         <v>256</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="480"/>
-      <c r="AN19" s="603"/>
+      <c r="AN19" s="601"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8613,23 +8624,23 @@
       <c r="E20" s="489">
         <v>-1</v>
       </c>
-      <c r="F20" s="584"/>
+      <c r="F20" s="606"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="587"/>
-      <c r="Q20" s="589" t="s">
+      <c r="O20" s="640"/>
+      <c r="Q20" s="642" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="456" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="625"/>
+      <c r="U20" s="581"/>
       <c r="W20" s="457"/>
       <c r="X20" s="484" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="618"/>
+      <c r="Y20" s="619"/>
       <c r="Z20" s="463">
         <v>1</v>
       </c>
@@ -8654,7 +8665,7 @@
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="603"/>
+      <c r="AN20" s="601"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8678,19 +8689,19 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="584"/>
-      <c r="O21" s="587"/>
-      <c r="Q21" s="590"/>
+      <c r="F21" s="606"/>
+      <c r="O21" s="640"/>
+      <c r="Q21" s="643"/>
       <c r="T21" s="474"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="620"/>
+      <c r="V21" s="576"/>
       <c r="W21" s="478" t="s">
         <v>176</v>
       </c>
       <c r="X21" s="481" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="618"/>
+      <c r="Y21" s="619"/>
       <c r="Z21" s="497">
         <v>3</v>
       </c>
@@ -8721,14 +8732,14 @@
       <c r="AM21" s="480" t="s">
         <v>572</v>
       </c>
-      <c r="AN21" s="603"/>
+      <c r="AN21" s="601"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="584"/>
+      <c r="F22" s="606"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="587"/>
+      <c r="O22" s="640"/>
       <c r="R22" s="486" t="s">
         <v>44</v>
       </c>
@@ -8736,14 +8747,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="621"/>
+      <c r="V22" s="577"/>
       <c r="W22" s="478" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="481" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="618"/>
+      <c r="Y22" s="619"/>
       <c r="Z22" s="467"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="467"/>
@@ -8754,7 +8765,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="592" t="s">
+      <c r="AJ22" s="615" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8762,7 +8773,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="603"/>
+      <c r="AN22" s="601"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8780,21 +8791,21 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="584"/>
-      <c r="O23" s="587"/>
-      <c r="Q23" s="589" t="s">
+      <c r="F23" s="606"/>
+      <c r="O23" s="640"/>
+      <c r="Q23" s="642" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="472" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="621"/>
+      <c r="V23" s="577"/>
       <c r="W23" s="148"/>
       <c r="X23" s="481" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="618"/>
+      <c r="Y23" s="619"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="467"/>
@@ -8805,13 +8816,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="592"/>
+      <c r="AJ23" s="615"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="603"/>
+      <c r="AN23" s="601"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="492" t="s">
@@ -8829,22 +8840,22 @@
       <c r="E24" s="488">
         <v>1</v>
       </c>
-      <c r="F24" s="584"/>
+      <c r="F24" s="606"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="587"/>
-      <c r="Q24" s="590"/>
+      <c r="O24" s="640"/>
+      <c r="Q24" s="643"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="621"/>
+      <c r="V24" s="577"/>
       <c r="W24" s="148"/>
       <c r="X24" s="481" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="618"/>
+      <c r="Y24" s="619"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="467"/>
@@ -8863,11 +8874,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="603"/>
+      <c r="AN24" s="601"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="584"/>
-      <c r="O25" s="587"/>
+      <c r="F25" s="606"/>
+      <c r="O25" s="640"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -8880,12 +8891,12 @@
       <c r="U25" s="452" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="622"/>
+      <c r="V25" s="578"/>
       <c r="W25" s="148"/>
       <c r="X25" s="481" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="618"/>
+      <c r="Y25" s="619"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="467"/>
@@ -8902,7 +8913,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="603"/>
+      <c r="AN25" s="601"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8920,16 +8931,16 @@
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="584"/>
+      <c r="F26" s="606"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="587"/>
-      <c r="P26" s="605" t="s">
+      <c r="O26" s="640"/>
+      <c r="P26" s="603" t="s">
         <v>549</v>
       </c>
-      <c r="Q26" s="606"/>
-      <c r="R26" s="581" t="s">
+      <c r="Q26" s="604"/>
+      <c r="R26" s="636" t="s">
         <v>561</v>
       </c>
       <c r="T26" s="183"/>
@@ -8941,7 +8952,7 @@
       <c r="X26" s="481" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="618"/>
+      <c r="Y26" s="619"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="467"/>
@@ -8968,7 +8979,7 @@
       <c r="AM26" s="494" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="603"/>
+      <c r="AN26" s="601"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8980,12 +8991,12 @@
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="585"/>
+      <c r="F27" s="638"/>
       <c r="G27" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="O27" s="588"/>
-      <c r="R27" s="582"/>
+      <c r="O27" s="641"/>
+      <c r="R27" s="637"/>
       <c r="S27" s="473" t="s">
         <v>54</v>
       </c>
@@ -8998,7 +9009,7 @@
       <c r="X27" s="481" t="s">
         <v>556</v>
       </c>
-      <c r="Y27" s="619"/>
+      <c r="Y27" s="620"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="468"/>
@@ -9015,10 +9026,48 @@
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="604"/>
+      <c r="AN27" s="602"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -9035,44 +9084,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9082,8 +9093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="P9" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9119,7 +9130,7 @@
     <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9170,16 +9181,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="571" t="s">
+      <c r="T1" s="562" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="648" t="s">
+      <c r="U1" s="660" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="650" t="s">
+      <c r="V1" s="662" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="651"/>
+      <c r="W1" s="663"/>
       <c r="X1" s="324">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -9195,40 +9206,40 @@
       <c r="AB1" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="652" t="s">
+      <c r="AC1" s="664" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="653"/>
-      <c r="AE1" s="654"/>
-      <c r="AF1" s="655" t="s">
+      <c r="AD1" s="665"/>
+      <c r="AE1" s="666"/>
+      <c r="AF1" s="667" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="656"/>
-      <c r="AH1" s="657"/>
-      <c r="AI1" s="644" t="s">
+      <c r="AG1" s="668"/>
+      <c r="AH1" s="669"/>
+      <c r="AI1" s="656" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="645"/>
-      <c r="AK1" s="646"/>
+      <c r="AJ1" s="657"/>
+      <c r="AK1" s="658"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="658">
+      <c r="J2" s="648">
         <f>SUM(J5:J30)</f>
         <v>2</v>
       </c>
-      <c r="K2" s="660">
+      <c r="K2" s="650">
         <f>SUM(K4:K29)</f>
         <v>4</v>
       </c>
-      <c r="L2" s="662">
+      <c r="L2" s="652">
         <f>SUM(L4:L29)</f>
         <v>7</v>
       </c>
-      <c r="M2" s="599">
+      <c r="M2" s="627">
         <f>SUM(K30:K37)* (-1)</f>
         <v>3</v>
       </c>
@@ -9247,11 +9258,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="664" t="s">
+      <c r="S2" s="654" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="647"/>
-      <c r="U2" s="649"/>
+      <c r="T2" s="659"/>
+      <c r="U2" s="661"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9311,10 +9322,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="659"/>
-      <c r="K3" s="661"/>
-      <c r="L3" s="663"/>
-      <c r="M3" s="600"/>
+      <c r="J3" s="649"/>
+      <c r="K3" s="651"/>
+      <c r="L3" s="653"/>
+      <c r="M3" s="628"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9330,8 +9341,8 @@
         <f>SUM(R4:R29)</f>
         <v>43</v>
       </c>
-      <c r="S3" s="665"/>
-      <c r="T3" s="572"/>
+      <c r="S3" s="655"/>
+      <c r="T3" s="563"/>
       <c r="U3" s="331">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9432,7 +9443,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="666" t="s">
+      <c r="M4" s="645" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9515,7 +9526,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="667"/>
+      <c r="M5" s="646"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9603,7 +9614,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="667"/>
+      <c r="M6" s="646"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9693,7 +9704,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="667"/>
+      <c r="M7" s="646"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9797,7 +9808,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="667"/>
+      <c r="M8" s="646"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9883,7 +9894,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="667"/>
+      <c r="M9" s="646"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -9981,7 +9992,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M10" s="667"/>
+      <c r="M10" s="646"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -10060,7 +10071,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="667"/>
+      <c r="M11" s="646"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -10122,7 +10133,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="635" t="s">
+      <c r="A12" s="591" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10131,7 +10142,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="589" t="s">
+      <c r="E12" s="642" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
@@ -10151,7 +10162,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="667"/>
+      <c r="M12" s="646"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10225,14 +10236,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="637"/>
+      <c r="A13" s="593"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="590"/>
+      <c r="E13" s="643"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10253,7 +10264,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="667"/>
+      <c r="M13" s="646"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10328,7 +10339,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M14" s="667"/>
+      <c r="M14" s="646"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10396,7 +10407,9 @@
       <c r="AL14" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="AM14" s="19"/>
+      <c r="AM14" s="723" t="s">
+        <v>592</v>
+      </c>
       <c r="AN14" s="112" t="s">
         <v>516</v>
       </c>
@@ -10423,7 +10436,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="667"/>
+      <c r="M15" s="646"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10508,7 +10521,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="667"/>
+      <c r="M16" s="646"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10604,7 +10617,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="667"/>
+      <c r="M17" s="646"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10687,7 +10700,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="667"/>
+      <c r="M18" s="646"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10772,7 +10785,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="667"/>
+      <c r="M19" s="646"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10867,11 +10880,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M20" s="668"/>
-      <c r="N20" s="536" t="s">
+      <c r="M20" s="647"/>
+      <c r="N20" s="537" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="591"/>
+      <c r="O20" s="644"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
@@ -11116,7 +11129,7 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="642" t="s">
+      <c r="E23" s="598" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -11202,7 +11215,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="643"/>
+      <c r="E24" s="599"/>
       <c r="F24" s="177"/>
       <c r="I24" s="430" t="s">
         <v>301</v>
@@ -11217,10 +11230,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N24" s="536" t="s">
+      <c r="N24" s="537" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="591"/>
+      <c r="O24" s="644"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
@@ -12297,23 +12310,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="M4:M20"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12347,15 +12360,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="536" t="s">
+      <c r="B1" s="537" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="591"/>
+      <c r="C1" s="644"/>
       <c r="D1" s="214"/>
-      <c r="J1" s="536" t="s">
+      <c r="J1" s="537" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="591"/>
+      <c r="K1" s="644"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12393,13 +12406,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="206"/>
-      <c r="M2" s="669"/>
+      <c r="M2" s="670"/>
       <c r="N2" s="154">
         <v>2</v>
       </c>
       <c r="O2" s="155"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="672" t="s">
+      <c r="Q2" s="673" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -12422,13 +12435,13 @@
       <c r="K3" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="M3" s="670"/>
+      <c r="M3" s="671"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="673"/>
+      <c r="Q3" s="674"/>
       <c r="R3" s="231"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12447,13 +12460,13 @@
       <c r="K4" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="670"/>
+      <c r="M4" s="671"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="673"/>
+      <c r="Q4" s="674"/>
       <c r="R4" s="231"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12473,13 +12486,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="206"/>
-      <c r="M5" s="670"/>
+      <c r="M5" s="671"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="673"/>
+      <c r="Q5" s="674"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -12500,13 +12513,13 @@
       <c r="K6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="670"/>
+      <c r="M6" s="671"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="673"/>
+      <c r="Q6" s="674"/>
       <c r="R6" s="231"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12526,13 +12539,13 @@
         <v>334</v>
       </c>
       <c r="L7" s="208"/>
-      <c r="M7" s="670"/>
+      <c r="M7" s="671"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="673"/>
+      <c r="Q7" s="674"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -12553,13 +12566,13 @@
       <c r="K8" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M8" s="670"/>
+      <c r="M8" s="671"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="673"/>
+      <c r="Q8" s="674"/>
       <c r="R8" s="231"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12579,13 +12592,13 @@
         <v>336</v>
       </c>
       <c r="L9" s="186"/>
-      <c r="M9" s="671"/>
+      <c r="M9" s="672"/>
       <c r="N9" s="163"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="674"/>
+      <c r="Q9" s="675"/>
       <c r="R9" s="232"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -12743,10 +12756,10 @@
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="V1" s="536" t="s">
+      <c r="V1" s="537" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="591"/>
+      <c r="W1" s="644"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12765,7 +12778,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="682" t="s">
+      <c r="AD1" s="690" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12782,10 +12795,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="681" t="s">
+      <c r="F2" s="721" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="709" t="s">
+      <c r="G2" s="678" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12813,10 +12826,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="650" t="s">
+      <c r="V2" s="662" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="651"/>
+      <c r="W2" s="663"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12835,7 +12848,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="683"/>
+      <c r="AD2" s="691"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12854,8 +12867,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="639"/>
-      <c r="G3" s="710"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="679"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12866,13 +12879,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="719" t="s">
+      <c r="O3" s="688" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="701" t="s">
+      <c r="P3" s="709" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="702"/>
+      <c r="Q3" s="710"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12882,15 +12895,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="683"/>
+      <c r="AD3" s="691"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="710"/>
+      <c r="G4" s="679"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="672" t="s">
+      <c r="L4" s="673" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="720"/>
+      <c r="O4" s="689"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12900,12 +12913,12 @@
       <c r="X4" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="536" t="s">
+      <c r="Y4" s="537" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" s="537"/>
-      <c r="AA4" s="591"/>
-      <c r="AD4" s="683"/>
+      <c r="Z4" s="538"/>
+      <c r="AA4" s="644"/>
+      <c r="AD4" s="691"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12920,21 +12933,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="710"/>
+      <c r="G5" s="679"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="688" t="s">
+      <c r="K5" s="696" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="703"/>
+      <c r="L5" s="711"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="720"/>
+      <c r="O5" s="689"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -12950,11 +12963,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="691" t="s">
+      <c r="Y5" s="699" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="692"/>
-      <c r="AD5" s="683"/>
+      <c r="Z5" s="700"/>
+      <c r="AD5" s="691"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12964,16 +12977,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="710"/>
+      <c r="G6" s="679"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="689"/>
-      <c r="L6" s="703"/>
-      <c r="O6" s="720"/>
+      <c r="K6" s="697"/>
+      <c r="L6" s="711"/>
+      <c r="O6" s="689"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -12983,20 +12996,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="683"/>
+      <c r="AD6" s="691"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="710"/>
+      <c r="G7" s="679"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="689"/>
-      <c r="L7" s="703"/>
+      <c r="K7" s="697"/>
+      <c r="L7" s="711"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="720"/>
+      <c r="O7" s="689"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="683"/>
+      <c r="AD7" s="691"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -13009,7 +13022,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="710"/>
+      <c r="G8" s="679"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -13019,41 +13032,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="689"/>
-      <c r="L8" s="703"/>
-      <c r="O8" s="720"/>
+      <c r="K8" s="697"/>
+      <c r="L8" s="711"/>
+      <c r="O8" s="689"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="685" t="s">
+      <c r="S8" s="693" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="686"/>
-      <c r="U8" s="686"/>
-      <c r="V8" s="686"/>
-      <c r="W8" s="686"/>
-      <c r="X8" s="686"/>
-      <c r="Y8" s="686"/>
-      <c r="Z8" s="686"/>
-      <c r="AA8" s="686"/>
-      <c r="AB8" s="686"/>
-      <c r="AC8" s="687"/>
-      <c r="AD8" s="683"/>
+      <c r="T8" s="694"/>
+      <c r="U8" s="694"/>
+      <c r="V8" s="694"/>
+      <c r="W8" s="694"/>
+      <c r="X8" s="694"/>
+      <c r="Y8" s="694"/>
+      <c r="Z8" s="694"/>
+      <c r="AA8" s="694"/>
+      <c r="AB8" s="694"/>
+      <c r="AC8" s="695"/>
+      <c r="AD8" s="691"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="675"/>
-      <c r="G9" s="710"/>
+      <c r="C9" s="715"/>
+      <c r="G9" s="679"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="689"/>
-      <c r="L9" s="713" t="s">
+      <c r="K9" s="697"/>
+      <c r="L9" s="682" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="714"/>
-      <c r="N9" s="715"/>
-      <c r="O9" s="720"/>
+      <c r="M9" s="683"/>
+      <c r="N9" s="684"/>
+      <c r="O9" s="689"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="683"/>
+      <c r="AD9" s="691"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="676"/>
+      <c r="C10" s="716"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13061,7 +13074,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="710"/>
+      <c r="G10" s="679"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13069,33 +13082,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="689"/>
-      <c r="M10" s="678" t="s">
+      <c r="K10" s="697"/>
+      <c r="M10" s="718" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="679"/>
-      <c r="O10" s="679"/>
-      <c r="P10" s="679"/>
-      <c r="Q10" s="679"/>
-      <c r="R10" s="679"/>
-      <c r="S10" s="679"/>
-      <c r="T10" s="679"/>
-      <c r="U10" s="679"/>
-      <c r="V10" s="679"/>
-      <c r="W10" s="679"/>
-      <c r="X10" s="679"/>
-      <c r="Y10" s="679"/>
-      <c r="Z10" s="679"/>
-      <c r="AA10" s="679"/>
-      <c r="AB10" s="679"/>
-      <c r="AC10" s="680"/>
-      <c r="AD10" s="683"/>
+      <c r="N10" s="719"/>
+      <c r="O10" s="719"/>
+      <c r="P10" s="719"/>
+      <c r="Q10" s="719"/>
+      <c r="R10" s="719"/>
+      <c r="S10" s="719"/>
+      <c r="T10" s="719"/>
+      <c r="U10" s="719"/>
+      <c r="V10" s="719"/>
+      <c r="W10" s="719"/>
+      <c r="X10" s="719"/>
+      <c r="Y10" s="719"/>
+      <c r="Z10" s="719"/>
+      <c r="AA10" s="719"/>
+      <c r="AB10" s="719"/>
+      <c r="AC10" s="720"/>
+      <c r="AD10" s="691"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="677"/>
-      <c r="G11" s="710"/>
+      <c r="C11" s="717"/>
+      <c r="G11" s="679"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="689"/>
+      <c r="K11" s="697"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13106,17 +13119,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="699" t="s">
+      <c r="Z11" s="707" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="700"/>
+      <c r="AA11" s="708"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="683"/>
+      <c r="AD11" s="691"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13129,7 +13142,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="710"/>
+      <c r="G12" s="679"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13137,8 +13150,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="689"/>
-      <c r="L12" s="704" t="s">
+      <c r="K12" s="697"/>
+      <c r="L12" s="712" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13153,7 +13166,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="531" t="s">
+      <c r="S12" s="532" t="s">
         <v>107</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -13169,26 +13182,26 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="693" t="s">
+      <c r="AA12" s="701" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="694"/>
+      <c r="AB12" s="702"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="683"/>
+      <c r="AD12" s="691"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="675"/>
-      <c r="G13" s="710"/>
-      <c r="K13" s="689"/>
-      <c r="L13" s="705"/>
+      <c r="C13" s="715"/>
+      <c r="G13" s="679"/>
+      <c r="K13" s="697"/>
+      <c r="L13" s="713"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="712" t="s">
+      <c r="Q13" s="681" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="606"/>
-      <c r="S13" s="532"/>
+      <c r="R13" s="604"/>
+      <c r="S13" s="533"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>132</v>
@@ -13196,17 +13209,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="695"/>
-      <c r="AB13" s="696"/>
-      <c r="AD13" s="683"/>
+      <c r="AA13" s="703"/>
+      <c r="AB13" s="704"/>
+      <c r="AD13" s="691"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="677"/>
+      <c r="C14" s="717"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="710"/>
+      <c r="G14" s="679"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13214,8 +13227,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="689"/>
-      <c r="L14" s="705"/>
+      <c r="K14" s="697"/>
+      <c r="L14" s="713"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13225,7 +13238,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="532"/>
+      <c r="S14" s="533"/>
       <c r="T14" s="77" t="s">
         <v>130</v>
       </c>
@@ -13236,9 +13249,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="695"/>
-      <c r="AB14" s="696"/>
-      <c r="AD14" s="683"/>
+      <c r="AA14" s="703"/>
+      <c r="AB14" s="704"/>
+      <c r="AD14" s="691"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13253,20 +13266,20 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="710"/>
+      <c r="G15" s="679"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="689"/>
-      <c r="L15" s="706"/>
-      <c r="Q15" s="712" t="s">
+      <c r="K15" s="697"/>
+      <c r="L15" s="714"/>
+      <c r="Q15" s="681" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="606"/>
-      <c r="S15" s="532"/>
+      <c r="R15" s="604"/>
+      <c r="S15" s="533"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -13274,14 +13287,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="695"/>
-      <c r="AB15" s="696"/>
-      <c r="AD15" s="683"/>
+      <c r="AA15" s="703"/>
+      <c r="AB15" s="704"/>
+      <c r="AD15" s="691"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="710"/>
-      <c r="K16" s="689"/>
+      <c r="G16" s="679"/>
+      <c r="K16" s="697"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13289,7 +13302,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="532"/>
+      <c r="S16" s="533"/>
       <c r="T16" s="76" t="s">
         <v>129</v>
       </c>
@@ -13300,34 +13313,34 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="695"/>
-      <c r="AB16" s="696"/>
-      <c r="AD16" s="683"/>
+      <c r="AA16" s="703"/>
+      <c r="AB16" s="704"/>
+      <c r="AD16" s="691"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="707" t="s">
+      <c r="F17" s="676" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="710"/>
+      <c r="G17" s="679"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="689"/>
-      <c r="S17" s="532"/>
+      <c r="K17" s="697"/>
+      <c r="S17" s="533"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="695"/>
-      <c r="AB17" s="696"/>
-      <c r="AD17" s="683"/>
+      <c r="AA17" s="703"/>
+      <c r="AB17" s="704"/>
+      <c r="AD17" s="691"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13337,61 +13350,58 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="708"/>
-      <c r="G18" s="710"/>
+      <c r="F18" s="677"/>
+      <c r="G18" s="679"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="689"/>
+      <c r="K18" s="697"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="532"/>
+      <c r="S18" s="533"/>
       <c r="U18" s="76" t="s">
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="697"/>
-      <c r="AB18" s="698"/>
-      <c r="AD18" s="683"/>
+      <c r="AA18" s="705"/>
+      <c r="AB18" s="706"/>
+      <c r="AD18" s="691"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="711"/>
-      <c r="K19" s="690"/>
+      <c r="G19" s="680"/>
+      <c r="K19" s="698"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="716" t="s">
+      <c r="R19" s="685" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="717"/>
-      <c r="T19" s="718"/>
+      <c r="S19" s="686"/>
+      <c r="T19" s="687"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="684"/>
+      <c r="AD19" s="692"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13403,11 +13413,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F42D1CD-DECC-4A17-9D54-B5586F9507AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D366D-3E67-47A3-ADBC-C8F9DD032A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="595">
   <si>
     <t>Zone</t>
   </si>
@@ -1818,6 +1818,12 @@
   </si>
   <si>
     <t>Africa 15 - G 639</t>
+  </si>
+  <si>
+    <t>Boat_X_Token</t>
+  </si>
+  <si>
+    <t>Boat Node</t>
   </si>
 </sst>
 </file>
@@ -3404,7 +3410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="724">
+  <cellXfs count="723">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4665,12 +4671,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4716,6 +4720,36 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4773,34 +4807,139 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4875,140 +5014,71 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -5019,130 +5089,43 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5220,31 +5203,51 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6393,8 +6396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView topLeftCell="M11" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView topLeftCell="M10" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6449,7 +6452,7 @@
       <c r="P1" s="450" t="s">
         <v>408</v>
       </c>
-      <c r="Q1" s="566" t="s">
+      <c r="Q1" s="547" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -6460,32 +6463,32 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="550">
+      <c r="A2" s="560">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="552" t="s">
+      <c r="B2" s="562" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="564" t="s">
+      <c r="C2" s="574" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="554" t="s">
+      <c r="D2" s="564" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="556" t="s">
+      <c r="E2" s="566" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="562" t="s">
+      <c r="G2" s="572" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="573" t="s">
+      <c r="I2" s="554" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="448" t="s">
@@ -6509,27 +6512,27 @@
       <c r="P2" s="451">
         <v>40</v>
       </c>
-      <c r="Q2" s="567"/>
+      <c r="Q2" s="548"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
         <v>8</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S18</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" s="520"/>
       <c r="X2" s="524"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="551"/>
-      <c r="B3" s="553"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="555"/>
-      <c r="E3" s="557"/>
-      <c r="G3" s="563"/>
+      <c r="A3" s="561"/>
+      <c r="B3" s="563"/>
+      <c r="C3" s="575"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="567"/>
+      <c r="G3" s="573"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="574"/>
+      <c r="I3" s="555"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -6538,7 +6541,7 @@
       </c>
       <c r="Q3" s="527">
         <f>SUM(X24:X30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V3" s="521"/>
       <c r="X3" s="525"/>
@@ -6548,10 +6551,10 @@
         <v>390</v>
       </c>
       <c r="B4" s="257"/>
-      <c r="C4" s="558" t="s">
+      <c r="C4" s="568" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="574"/>
+      <c r="I4" s="555"/>
       <c r="R4" s="527" t="s">
         <v>585</v>
       </c>
@@ -6569,7 +6572,7 @@
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="559"/>
+      <c r="C5" s="569"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6585,7 +6588,7 @@
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="574"/>
+      <c r="I5" s="555"/>
       <c r="J5" s="449" t="s">
         <v>273</v>
       </c>
@@ -6615,22 +6618,22 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="547" t="s">
+      <c r="A6" s="557" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="560"/>
-      <c r="D6" s="561"/>
+      <c r="C6" s="570"/>
+      <c r="D6" s="571"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="533"/>
-      <c r="I6" s="574"/>
+      <c r="I6" s="555"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="548"/>
+      <c r="A7" s="558"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>136</v>
       </c>
       <c r="G7" s="533"/>
-      <c r="I7" s="574"/>
+      <c r="I7" s="555"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6679,7 +6682,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="549"/>
+      <c r="A8" s="559"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6688,7 +6691,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="533"/>
-      <c r="I8" s="574"/>
+      <c r="I8" s="555"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
@@ -6714,7 +6717,7 @@
       </c>
       <c r="G9" s="533"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="574"/>
+      <c r="I9" s="555"/>
       <c r="M9" s="19" t="s">
         <v>548</v>
       </c>
@@ -6738,10 +6741,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!S8</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="533"/>
-      <c r="I10" s="574"/>
+      <c r="I10" s="555"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6769,7 +6772,7 @@
         <v>270</v>
       </c>
       <c r="G11" s="533"/>
-      <c r="I11" s="574"/>
+      <c r="I11" s="555"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6795,12 +6798,12 @@
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="568" t="s">
+      <c r="U11" s="549" t="s">
         <v>588</v>
       </c>
-      <c r="V11" s="569"/>
-      <c r="W11" s="569"/>
-      <c r="X11" s="570"/>
+      <c r="V11" s="550"/>
+      <c r="W11" s="550"/>
+      <c r="X11" s="551"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
@@ -6811,7 +6814,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="533"/>
-      <c r="I12" s="574"/>
+      <c r="I12" s="555"/>
       <c r="J12" s="24" t="s">
         <v>539</v>
       </c>
@@ -6844,7 +6847,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="533"/>
-      <c r="I13" s="574"/>
+      <c r="I13" s="555"/>
       <c r="J13" s="108" t="s">
         <v>577</v>
       </c>
@@ -6885,7 +6888,7 @@
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="574"/>
+      <c r="I14" s="555"/>
       <c r="U14" s="6"/>
       <c r="V14" s="112"/>
       <c r="W14" s="6"/>
@@ -6903,7 +6906,7 @@
       <c r="H15" s="289">
         <v>0</v>
       </c>
-      <c r="I15" s="574"/>
+      <c r="I15" s="555"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -6934,7 +6937,7 @@
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="574"/>
+      <c r="I16" s="555"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -6968,7 +6971,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="574"/>
+      <c r="I17" s="555"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -6980,13 +6983,13 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="574"/>
+      <c r="I18" s="555"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="571" t="s">
+      <c r="O18" s="552" t="s">
         <v>540</v>
       </c>
-      <c r="P18" s="572"/>
+      <c r="P18" s="553"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -6996,7 +6999,7 @@
       </c>
       <c r="S18" s="24">
         <f>5-S26</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U18" s="6" t="s">
         <v>479</v>
@@ -7007,12 +7010,12 @@
       <c r="W18" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="X18" s="520">
+      <c r="X18" s="524">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="574"/>
+      <c r="I19" s="555"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -7023,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="6"/>
-      <c r="X19" s="521"/>
+      <c r="X19" s="525"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
@@ -7044,7 +7047,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="574"/>
+      <c r="I20" s="555"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -7063,13 +7066,13 @@
       <c r="W20" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="X20" s="521">
+      <c r="X20" s="525">
         <v>1</v>
       </c>
       <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="574"/>
+      <c r="I21" s="555"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -7080,7 +7083,9 @@
       <c r="W21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="X21" s="521"/>
+      <c r="X21" s="525">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="244" t="s">
@@ -7101,7 +7106,7 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="574"/>
+      <c r="I22" s="555"/>
       <c r="U22" s="6" t="s">
         <v>589</v>
       </c>
@@ -7111,7 +7116,7 @@
       <c r="W22" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="X22" s="530">
+      <c r="X22" s="523">
         <v>1</v>
       </c>
     </row>
@@ -7125,7 +7130,7 @@
       <c r="E23" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="574"/>
+      <c r="I23" s="555"/>
       <c r="U23" s="6" t="s">
         <v>74</v>
       </c>
@@ -7135,7 +7140,7 @@
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="574"/>
+      <c r="I24" s="555"/>
       <c r="U24" s="379"/>
       <c r="V24" s="526">
         <v>-1</v>
@@ -7163,7 +7168,7 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="574"/>
+      <c r="I25" s="555"/>
       <c r="J25" s="449" t="s">
         <v>274</v>
       </c>
@@ -7178,7 +7183,7 @@
       </c>
       <c r="U25" s="35"/>
       <c r="W25" s="19"/>
-      <c r="X25" s="531" t="s">
+      <c r="X25" s="530" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7203,7 +7208,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="574"/>
+      <c r="I26" s="555"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -7221,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" s="61" t="s">
         <v>586</v>
@@ -7238,7 +7243,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="574"/>
+      <c r="I27" s="555"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -7265,7 +7270,7 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="574"/>
+      <c r="I28" s="555"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -7287,7 +7292,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="575"/>
+      <c r="I29" s="556"/>
       <c r="J29" s="358"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7305,8 +7310,8 @@
       <c r="W29" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="X29" s="177">
-        <v>0</v>
+      <c r="X29" s="24">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7331,11 +7336,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -7347,6 +7347,11 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7356,8 +7361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFE6D2-5300-4D31-9A66-EC93F2A54B69}">
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AQ15" sqref="AQ15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7422,7 +7427,7 @@
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="562" t="s">
+      <c r="I1" s="572" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7483,7 +7488,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="454"/>
-      <c r="AN1" s="600"/>
+      <c r="AN1" s="603"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7492,23 +7497,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="582">
+      <c r="A2" s="627">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="584" t="s">
+      <c r="B2" s="629" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="564" t="s">
+      <c r="C2" s="574" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="586" t="s">
+      <c r="D2" s="631" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="630" t="s">
+      <c r="E2" s="576" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="605" t="s">
+      <c r="F2" s="584" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="445" t="s">
@@ -7517,31 +7522,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="563"/>
+      <c r="I2" s="573"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="632" t="s">
+      <c r="K2" s="578" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="633"/>
-      <c r="M2" s="605" t="s">
+      <c r="L2" s="579"/>
+      <c r="M2" s="584" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="609" t="s">
+      <c r="O2" s="610" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="564" t="s">
+      <c r="Q2" s="574" t="s">
         <v>144</v>
       </c>
       <c r="R2" s="532"/>
-      <c r="S2" s="622" t="s">
+      <c r="S2" s="597" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7574,15 +7579,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="480"/>
-      <c r="AN2" s="601"/>
+      <c r="AN2" s="604"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="583"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="631"/>
-      <c r="F3" s="606"/>
+      <c r="A3" s="628"/>
+      <c r="B3" s="630"/>
+      <c r="C3" s="575"/>
+      <c r="D3" s="632"/>
+      <c r="E3" s="577"/>
+      <c r="F3" s="585"/>
       <c r="G3" s="446" t="s">
         <v>28</v>
       </c>
@@ -7601,17 +7606,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="606"/>
+      <c r="M3" s="585"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="610"/>
+      <c r="O3" s="611"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="565"/>
+      <c r="Q3" s="575"/>
       <c r="R3" s="534"/>
-      <c r="S3" s="623"/>
+      <c r="S3" s="599"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7628,7 +7633,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="621" t="s">
+      <c r="AD3" s="594" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7640,16 +7645,16 @@
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="480"/>
-      <c r="AN3" s="601"/>
+      <c r="AN3" s="604"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="598" t="s">
+      <c r="B4" s="643" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="564" t="s">
+      <c r="C4" s="574" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="384" t="s">
@@ -7658,7 +7663,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="606"/>
+      <c r="F4" s="585"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7675,11 +7680,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="606"/>
+      <c r="M4" s="585"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="610"/>
+      <c r="O4" s="611"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7706,7 +7711,7 @@
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="621"/>
+      <c r="AD4" s="594"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7716,37 +7721,37 @@
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="480"/>
-      <c r="AN4" s="601"/>
+      <c r="AN4" s="604"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="562" t="s">
+      <c r="A5" s="572" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="599"/>
-      <c r="C5" s="565"/>
+      <c r="B5" s="644"/>
+      <c r="C5" s="575"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="606"/>
-      <c r="G5" s="590" t="s">
+      <c r="F5" s="585"/>
+      <c r="G5" s="635" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="590"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="590"/>
-      <c r="L5" s="591"/>
-      <c r="M5" s="606"/>
+      <c r="H5" s="635"/>
+      <c r="I5" s="635"/>
+      <c r="J5" s="635"/>
+      <c r="K5" s="635"/>
+      <c r="L5" s="636"/>
+      <c r="M5" s="585"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="610"/>
+      <c r="O5" s="611"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7777,24 +7782,24 @@
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="480"/>
-      <c r="AN5" s="601"/>
+      <c r="AN5" s="604"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="563"/>
-      <c r="B6" s="596" t="s">
+      <c r="A6" s="573"/>
+      <c r="B6" s="641" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="560"/>
-      <c r="D6" s="561"/>
-      <c r="F6" s="606"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="592"/>
-      <c r="L6" s="593"/>
-      <c r="M6" s="606"/>
-      <c r="O6" s="610"/>
+      <c r="C6" s="570"/>
+      <c r="D6" s="571"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="637"/>
+      <c r="H6" s="637"/>
+      <c r="I6" s="637"/>
+      <c r="J6" s="637"/>
+      <c r="K6" s="637"/>
+      <c r="L6" s="638"/>
+      <c r="M6" s="585"/>
+      <c r="O6" s="611"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7818,16 +7823,16 @@
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="615"/>
+      <c r="AI6" s="593"/>
       <c r="AJ6" s="493" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="615" t="s">
+      <c r="AK6" s="593" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
       <c r="AM6" s="480"/>
-      <c r="AN6" s="601"/>
+      <c r="AN6" s="604"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
@@ -7836,7 +7841,7 @@
       <c r="A7" s="245" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="597"/>
+      <c r="B7" s="642"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7846,7 +7851,7 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="606"/>
+      <c r="F7" s="585"/>
       <c r="G7" s="447">
         <v>0</v>
       </c>
@@ -7865,8 +7870,8 @@
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="606"/>
-      <c r="O7" s="610"/>
+      <c r="M7" s="585"/>
+      <c r="O7" s="611"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7890,18 +7895,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="621" t="s">
+      <c r="AG7" s="594" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="615"/>
+      <c r="AI7" s="593"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="615"/>
+      <c r="AK7" s="593"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="480"/>
-      <c r="AN7" s="601"/>
+      <c r="AN7" s="604"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7918,25 +7923,27 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="606"/>
-      <c r="G8" s="591">
-        <v>0</v>
-      </c>
-      <c r="H8" s="588" t="s">
+      <c r="F8" s="585"/>
+      <c r="G8" s="636">
+        <v>0</v>
+      </c>
+      <c r="H8" s="633" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="532"/>
-      <c r="J8" s="588" t="s">
+      <c r="I8" s="532">
+        <v>0</v>
+      </c>
+      <c r="J8" s="633" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="594"/>
-      <c r="L8" s="624"/>
-      <c r="M8" s="607"/>
-      <c r="N8" s="627">
+      <c r="K8" s="639"/>
+      <c r="L8" s="595"/>
+      <c r="M8" s="608"/>
+      <c r="N8" s="600">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="610"/>
+      <c r="O8" s="611"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7954,14 +7961,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="621"/>
+      <c r="AG8" s="594"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="615"/>
+      <c r="AI8" s="593"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
       <c r="AM8" s="480"/>
-      <c r="AN8" s="601"/>
+      <c r="AN8" s="604"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -7976,17 +7983,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="606"/>
-      <c r="G9" s="593"/>
-      <c r="H9" s="589"/>
+      <c r="F9" s="585"/>
+      <c r="G9" s="638"/>
+      <c r="H9" s="634"/>
       <c r="I9" s="534"/>
-      <c r="J9" s="589"/>
-      <c r="K9" s="595"/>
-      <c r="L9" s="625"/>
-      <c r="M9" s="608"/>
-      <c r="N9" s="628"/>
-      <c r="O9" s="611"/>
-      <c r="S9" s="622" t="s">
+      <c r="J9" s="634"/>
+      <c r="K9" s="640"/>
+      <c r="L9" s="596"/>
+      <c r="M9" s="609"/>
+      <c r="N9" s="601"/>
+      <c r="O9" s="612"/>
+      <c r="S9" s="597" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -8008,16 +8015,16 @@
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="621"/>
+      <c r="AG9" s="594"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="615"/>
+      <c r="AI9" s="593"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="615" t="s">
+      <c r="AK9" s="593" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
       <c r="AM9" s="480"/>
-      <c r="AN9" s="601"/>
+      <c r="AN9" s="604"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -8032,22 +8039,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="250">
         <f>Boat!S8</f>
-        <v>43</v>
-      </c>
-      <c r="F10" s="606"/>
+        <v>42</v>
+      </c>
+      <c r="F10" s="585"/>
       <c r="N10" s="470" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="639" t="s">
+      <c r="O10" s="587" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="612" t="s">
+      <c r="P10" s="613" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="626"/>
+      <c r="S10" s="598"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8077,16 +8084,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="621"/>
+      <c r="AG10" s="594"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="615"/>
+      <c r="AI10" s="593"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="615"/>
+      <c r="AK10" s="593"/>
       <c r="AL10" s="272"/>
       <c r="AM10" s="494" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="601"/>
+      <c r="AN10" s="604"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -8104,18 +8111,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="606"/>
+      <c r="F11" s="585"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="640"/>
-      <c r="P11" s="613"/>
+      <c r="O11" s="588"/>
+      <c r="P11" s="614"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="626"/>
+      <c r="S11" s="598"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -8139,14 +8146,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="621"/>
+      <c r="AG11" s="594"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
       <c r="AM11" s="480"/>
-      <c r="AN11" s="601"/>
+      <c r="AN11" s="604"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -8165,7 +8172,7 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="606"/>
+      <c r="F12" s="585"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
@@ -8174,16 +8181,16 @@
       </c>
       <c r="I12" s="538"/>
       <c r="J12" s="538"/>
-      <c r="K12" s="644"/>
+      <c r="K12" s="592"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="640"/>
-      <c r="P12" s="613"/>
+      <c r="O12" s="588"/>
+      <c r="P12" s="614"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="623"/>
+      <c r="S12" s="599"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -8204,16 +8211,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="629" t="s">
+      <c r="AD12" s="602" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="493" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="621" t="s">
+      <c r="AF12" s="594" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="621"/>
+      <c r="AG12" s="594"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -8226,7 +8233,7 @@
       <c r="AM12" s="616" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="601"/>
+      <c r="AN12" s="604"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
@@ -8238,17 +8245,17 @@
       <c r="E13" s="500">
         <v>-3</v>
       </c>
-      <c r="F13" s="606"/>
+      <c r="F13" s="585"/>
       <c r="G13" s="538" t="s">
         <v>448</v>
       </c>
       <c r="H13" s="538"/>
       <c r="I13" s="538"/>
-      <c r="J13" s="644"/>
+      <c r="J13" s="592"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="640"/>
-      <c r="P13" s="614"/>
+      <c r="O13" s="588"/>
+      <c r="P13" s="615"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8269,8 +8276,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="629"/>
-      <c r="AF13" s="621"/>
+      <c r="AD13" s="602"/>
+      <c r="AF13" s="594"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8282,7 +8289,7 @@
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
       <c r="AM13" s="616"/>
-      <c r="AN13" s="601"/>
+      <c r="AN13" s="604"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="502"/>
@@ -8290,18 +8297,18 @@
       <c r="C14" s="511"/>
       <c r="D14" s="504"/>
       <c r="E14" s="505"/>
-      <c r="F14" s="606"/>
+      <c r="F14" s="585"/>
       <c r="G14" s="538" t="s">
         <v>447</v>
       </c>
       <c r="H14" s="538"/>
       <c r="I14" s="538"/>
-      <c r="J14" s="644"/>
+      <c r="J14" s="592"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="640"/>
+      <c r="O14" s="588"/>
       <c r="Q14" s="61" t="s">
         <v>559</v>
       </c>
@@ -8322,9 +8329,9 @@
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="629"/>
+      <c r="AD14" s="602"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="621"/>
+      <c r="AF14" s="594"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
@@ -8332,7 +8339,7 @@
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
       <c r="AM14" s="616"/>
-      <c r="AN14" s="601"/>
+      <c r="AN14" s="604"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="501" t="s">
@@ -8341,8 +8348,8 @@
       <c r="C15" s="532" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="606"/>
-      <c r="O15" s="640"/>
+      <c r="F15" s="585"/>
+      <c r="O15" s="588"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8364,8 +8371,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="629"/>
-      <c r="AF15" s="621"/>
+      <c r="AD15" s="602"/>
+      <c r="AF15" s="594"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8379,7 +8386,7 @@
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
       <c r="AM15" s="616"/>
-      <c r="AN15" s="601"/>
+      <c r="AN15" s="604"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8401,13 +8408,13 @@
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="606"/>
+      <c r="F16" s="585"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="640"/>
+      <c r="O16" s="588"/>
       <c r="R16" s="487" t="s">
         <v>185</v>
       </c>
@@ -8439,18 +8446,18 @@
       <c r="AM16" s="480" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="601"/>
+      <c r="AN16" s="604"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="606"/>
+      <c r="F17" s="585"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="640"/>
+      <c r="O17" s="588"/>
       <c r="Q17" s="21" t="s">
         <v>557</v>
       </c>
@@ -8495,7 +8502,7 @@
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="480"/>
-      <c r="AN17" s="601"/>
+      <c r="AN17" s="604"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8519,21 +8526,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="606"/>
+      <c r="F18" s="585"/>
       <c r="G18" s="374" t="s">
         <v>554</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="640"/>
+      <c r="O18" s="588"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="634" t="s">
+      <c r="R18" s="580" t="s">
         <v>562</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="579" t="s">
+      <c r="U18" s="624" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8554,7 +8561,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="615" t="s">
+      <c r="AF18" s="593" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
@@ -8566,19 +8573,19 @@
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="480"/>
-      <c r="AN18" s="601"/>
+      <c r="AN18" s="604"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="606"/>
-      <c r="O19" s="640"/>
-      <c r="R19" s="635"/>
+      <c r="F19" s="585"/>
+      <c r="O19" s="588"/>
+      <c r="R19" s="581"/>
       <c r="S19" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="U19" s="580"/>
+      <c r="U19" s="625"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="483" t="s">
@@ -8593,7 +8600,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="615"/>
+      <c r="AF19" s="593"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
@@ -8603,7 +8610,7 @@
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="480"/>
-      <c r="AN19" s="601"/>
+      <c r="AN19" s="604"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8624,18 +8631,18 @@
       <c r="E20" s="489">
         <v>-1</v>
       </c>
-      <c r="F20" s="606"/>
+      <c r="F20" s="585"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="640"/>
-      <c r="Q20" s="642" t="s">
+      <c r="O20" s="588"/>
+      <c r="Q20" s="590" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="456" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="581"/>
+      <c r="U20" s="626"/>
       <c r="W20" s="457"/>
       <c r="X20" s="484" t="s">
         <v>175</v>
@@ -8665,7 +8672,7 @@
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="601"/>
+      <c r="AN20" s="604"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8689,12 +8696,12 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="606"/>
-      <c r="O21" s="640"/>
-      <c r="Q21" s="643"/>
+      <c r="F21" s="585"/>
+      <c r="O21" s="588"/>
+      <c r="Q21" s="591"/>
       <c r="T21" s="474"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="576"/>
+      <c r="V21" s="621"/>
       <c r="W21" s="478" t="s">
         <v>176</v>
       </c>
@@ -8732,14 +8739,14 @@
       <c r="AM21" s="480" t="s">
         <v>572</v>
       </c>
-      <c r="AN21" s="601"/>
+      <c r="AN21" s="604"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="606"/>
+      <c r="F22" s="585"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="640"/>
+      <c r="O22" s="588"/>
       <c r="R22" s="486" t="s">
         <v>44</v>
       </c>
@@ -8747,7 +8754,7 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="577"/>
+      <c r="V22" s="622"/>
       <c r="W22" s="478" t="s">
         <v>176</v>
       </c>
@@ -8765,7 +8772,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="615" t="s">
+      <c r="AJ22" s="593" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8773,7 +8780,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="601"/>
+      <c r="AN22" s="604"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8791,16 +8798,16 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="606"/>
-      <c r="O23" s="640"/>
-      <c r="Q23" s="642" t="s">
+      <c r="F23" s="585"/>
+      <c r="O23" s="588"/>
+      <c r="Q23" s="590" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="472" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="577"/>
+      <c r="V23" s="622"/>
       <c r="W23" s="148"/>
       <c r="X23" s="481" t="s">
         <v>189</v>
@@ -8816,13 +8823,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="615"/>
+      <c r="AJ23" s="593"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="601"/>
+      <c r="AN23" s="604"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="492" t="s">
@@ -8840,17 +8847,17 @@
       <c r="E24" s="488">
         <v>1</v>
       </c>
-      <c r="F24" s="606"/>
+      <c r="F24" s="585"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="640"/>
-      <c r="Q24" s="643"/>
+      <c r="O24" s="588"/>
+      <c r="Q24" s="591"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="577"/>
+      <c r="V24" s="622"/>
       <c r="W24" s="148"/>
       <c r="X24" s="481" t="s">
         <v>186</v>
@@ -8874,11 +8881,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="601"/>
+      <c r="AN24" s="604"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="606"/>
-      <c r="O25" s="640"/>
+      <c r="F25" s="585"/>
+      <c r="O25" s="588"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -8891,7 +8898,7 @@
       <c r="U25" s="452" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="578"/>
+      <c r="V25" s="623"/>
       <c r="W25" s="148"/>
       <c r="X25" s="481" t="s">
         <v>190</v>
@@ -8913,7 +8920,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="601"/>
+      <c r="AN25" s="604"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8931,16 +8938,16 @@
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="606"/>
+      <c r="F26" s="585"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="640"/>
-      <c r="P26" s="603" t="s">
+      <c r="O26" s="588"/>
+      <c r="P26" s="606" t="s">
         <v>549</v>
       </c>
-      <c r="Q26" s="604"/>
-      <c r="R26" s="636" t="s">
+      <c r="Q26" s="607"/>
+      <c r="R26" s="582" t="s">
         <v>561</v>
       </c>
       <c r="T26" s="183"/>
@@ -8979,7 +8986,7 @@
       <c r="AM26" s="494" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="601"/>
+      <c r="AN26" s="604"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8991,12 +8998,12 @@
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="638"/>
+      <c r="F27" s="586"/>
       <c r="G27" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="O27" s="641"/>
-      <c r="R27" s="637"/>
+      <c r="O27" s="589"/>
+      <c r="R27" s="583"/>
       <c r="S27" s="473" t="s">
         <v>54</v>
       </c>
@@ -9026,32 +9033,26 @@
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="602"/>
+      <c r="AN27" s="605"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -9068,22 +9069,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9093,8 +9100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P9" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView tabSelected="1" topLeftCell="P18" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9181,16 +9188,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="562" t="s">
+      <c r="T1" s="572" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="660" t="s">
+      <c r="U1" s="649" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="662" t="s">
+      <c r="V1" s="651" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="663"/>
+      <c r="W1" s="652"/>
       <c r="X1" s="324">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -9206,42 +9213,42 @@
       <c r="AB1" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="664" t="s">
+      <c r="AC1" s="653" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="665"/>
-      <c r="AE1" s="666"/>
-      <c r="AF1" s="667" t="s">
+      <c r="AD1" s="654"/>
+      <c r="AE1" s="655"/>
+      <c r="AF1" s="656" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="668"/>
-      <c r="AH1" s="669"/>
-      <c r="AI1" s="656" t="s">
+      <c r="AG1" s="657"/>
+      <c r="AH1" s="658"/>
+      <c r="AI1" s="645" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="657"/>
-      <c r="AK1" s="658"/>
+      <c r="AJ1" s="646"/>
+      <c r="AK1" s="647"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="648">
+      <c r="J2" s="659">
         <f>SUM(J5:J30)</f>
         <v>2</v>
       </c>
-      <c r="K2" s="650">
+      <c r="K2" s="661">
         <f>SUM(K4:K29)</f>
-        <v>4</v>
-      </c>
-      <c r="L2" s="652">
+        <v>5</v>
+      </c>
+      <c r="L2" s="663">
         <f>SUM(L4:L29)</f>
         <v>7</v>
       </c>
-      <c r="M2" s="627">
+      <c r="M2" s="600">
         <f>SUM(K30:K37)* (-1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="285" t="s">
         <v>243</v>
@@ -9258,11 +9265,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="654" t="s">
+      <c r="S2" s="665" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="659"/>
-      <c r="U2" s="661"/>
+      <c r="T2" s="648"/>
+      <c r="U2" s="650"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9322,10 +9329,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="649"/>
-      <c r="K3" s="651"/>
-      <c r="L3" s="653"/>
-      <c r="M3" s="628"/>
+      <c r="J3" s="660"/>
+      <c r="K3" s="662"/>
+      <c r="L3" s="664"/>
+      <c r="M3" s="601"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9339,10 +9346,10 @@
       </c>
       <c r="R3" s="159">
         <f>SUM(R4:R29)</f>
-        <v>43</v>
-      </c>
-      <c r="S3" s="655"/>
-      <c r="T3" s="563"/>
+        <v>42</v>
+      </c>
+      <c r="S3" s="666"/>
+      <c r="T3" s="573"/>
       <c r="U3" s="331">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9353,7 +9360,7 @@
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9365,7 +9372,7 @@
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
@@ -9397,7 +9404,7 @@
       </c>
       <c r="AH3" s="100">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
@@ -9443,7 +9450,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="645" t="s">
+      <c r="M4" s="667" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9526,7 +9533,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="646"/>
+      <c r="M5" s="668"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9614,7 +9621,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="646"/>
+      <c r="M6" s="668"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9704,7 +9711,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="646"/>
+      <c r="M7" s="668"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9808,7 +9815,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="646"/>
+      <c r="M8" s="668"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9826,7 +9833,7 @@
       </c>
       <c r="S8" s="340">
         <f>R3</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="348"/>
@@ -9894,7 +9901,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="646"/>
+      <c r="M9" s="668"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -9992,7 +9999,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M10" s="646"/>
+      <c r="M10" s="668"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -10071,7 +10078,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="646"/>
+      <c r="M11" s="668"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -10133,7 +10140,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="591" t="s">
+      <c r="A12" s="636" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10142,7 +10149,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="642" t="s">
+      <c r="E12" s="590" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
@@ -10162,7 +10169,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="646"/>
+      <c r="M12" s="668"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10236,14 +10243,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="593"/>
+      <c r="A13" s="638"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="643"/>
+      <c r="E13" s="591"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10264,7 +10271,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="646"/>
+      <c r="M13" s="668"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10339,7 +10346,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M14" s="646"/>
+      <c r="M14" s="668"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10407,7 +10414,7 @@
       <c r="AL14" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="AM14" s="723" t="s">
+      <c r="AM14" s="531" t="s">
         <v>592</v>
       </c>
       <c r="AN14" s="112" t="s">
@@ -10436,7 +10443,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="646"/>
+      <c r="M15" s="668"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10521,7 +10528,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="646"/>
+      <c r="M16" s="668"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10617,7 +10624,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="646"/>
+      <c r="M17" s="668"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10700,7 +10707,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="646"/>
+      <c r="M18" s="668"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10785,7 +10792,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="646"/>
+      <c r="M19" s="668"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10874,23 +10881,23 @@
       </c>
       <c r="J20" s="362"/>
       <c r="K20" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="311">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M20" s="647"/>
+      <c r="M20" s="669"/>
       <c r="N20" s="537" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="644"/>
+      <c r="O20" s="592"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
       <c r="Q20" s="164"/>
       <c r="R20" s="157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S20" s="338">
         <v>-3</v>
@@ -10900,7 +10907,7 @@
       <c r="V20" s="142"/>
       <c r="W20" s="190">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="314"/>
       <c r="Y20" s="117">
@@ -10909,7 +10916,7 @@
       </c>
       <c r="Z20" s="308">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="308">
         <v>1</v>
@@ -10931,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="AH20" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI20" s="326">
         <f t="shared" si="7"/>
@@ -10951,7 +10958,9 @@
       <c r="AM20" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="AN20" s="112"/>
+      <c r="AN20" s="24" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="21" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
@@ -11129,7 +11138,7 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="598" t="s">
+      <c r="E23" s="643" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -11215,7 +11224,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="599"/>
+      <c r="E24" s="644"/>
       <c r="F24" s="177"/>
       <c r="I24" s="430" t="s">
         <v>301</v>
@@ -11233,7 +11242,7 @@
       <c r="N24" s="537" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="644"/>
+      <c r="O24" s="592"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
@@ -12234,7 +12243,7 @@
       <c r="I37" s="434"/>
       <c r="J37" s="371"/>
       <c r="K37" s="263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="311">
         <f t="shared" si="10"/>
@@ -12248,7 +12257,7 @@
         <v>1</v>
       </c>
       <c r="R37" s="202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="232">
         <v>-1</v>
@@ -12258,7 +12267,7 @@
       <c r="V37" s="202"/>
       <c r="W37" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="65"/>
       <c r="Y37" s="117">
@@ -12267,7 +12276,7 @@
       </c>
       <c r="Z37" s="64">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA37" s="64">
         <v>1</v>
@@ -12306,27 +12315,32 @@
       <c r="AL37" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="AN37" s="112"/>
+      <c r="AM37" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN37" s="24" t="s">
+        <v>593</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="M4:M20"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="M4:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12363,12 +12377,12 @@
       <c r="B1" s="537" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="644"/>
+      <c r="C1" s="592"/>
       <c r="D1" s="214"/>
       <c r="J1" s="537" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="644"/>
+      <c r="K1" s="592"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12759,7 +12773,7 @@
       <c r="V1" s="537" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="644"/>
+      <c r="W1" s="592"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12778,7 +12792,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="690" t="s">
+      <c r="AD1" s="683" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12795,10 +12809,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="721" t="s">
+      <c r="F2" s="682" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="678" t="s">
+      <c r="G2" s="710" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12826,10 +12840,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="662" t="s">
+      <c r="V2" s="651" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="663"/>
+      <c r="W2" s="652"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12848,7 +12862,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="691"/>
+      <c r="AD2" s="684"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12867,8 +12881,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="679"/>
+      <c r="F3" s="640"/>
+      <c r="G3" s="711"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12879,13 +12893,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="688" t="s">
+      <c r="O3" s="720" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="709" t="s">
+      <c r="P3" s="702" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="710"/>
+      <c r="Q3" s="703"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12895,15 +12909,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="691"/>
+      <c r="AD3" s="684"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="679"/>
+      <c r="G4" s="711"/>
       <c r="H4" s="6"/>
       <c r="L4" s="673" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="689"/>
+      <c r="O4" s="721"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12917,8 +12931,8 @@
         <v>195</v>
       </c>
       <c r="Z4" s="538"/>
-      <c r="AA4" s="644"/>
-      <c r="AD4" s="691"/>
+      <c r="AA4" s="592"/>
+      <c r="AD4" s="684"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12933,21 +12947,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="679"/>
+      <c r="G5" s="711"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="696" t="s">
+      <c r="K5" s="689" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="711"/>
+      <c r="L5" s="704"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="689"/>
+      <c r="O5" s="721"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -12963,11 +12977,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="699" t="s">
+      <c r="Y5" s="692" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="700"/>
-      <c r="AD5" s="691"/>
+      <c r="Z5" s="693"/>
+      <c r="AD5" s="684"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12977,16 +12991,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="679"/>
+      <c r="G6" s="711"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="697"/>
-      <c r="L6" s="711"/>
-      <c r="O6" s="689"/>
+      <c r="K6" s="690"/>
+      <c r="L6" s="704"/>
+      <c r="O6" s="721"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -12996,20 +13010,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="691"/>
+      <c r="AD6" s="684"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="679"/>
+      <c r="G7" s="711"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="697"/>
-      <c r="L7" s="711"/>
+      <c r="K7" s="690"/>
+      <c r="L7" s="704"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="689"/>
+      <c r="O7" s="721"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="691"/>
+      <c r="AD7" s="684"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -13022,7 +13036,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="679"/>
+      <c r="G8" s="711"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -13032,41 +13046,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="697"/>
-      <c r="L8" s="711"/>
-      <c r="O8" s="689"/>
+      <c r="K8" s="690"/>
+      <c r="L8" s="704"/>
+      <c r="O8" s="721"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="693" t="s">
+      <c r="S8" s="686" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="694"/>
-      <c r="U8" s="694"/>
-      <c r="V8" s="694"/>
-      <c r="W8" s="694"/>
-      <c r="X8" s="694"/>
-      <c r="Y8" s="694"/>
-      <c r="Z8" s="694"/>
-      <c r="AA8" s="694"/>
-      <c r="AB8" s="694"/>
-      <c r="AC8" s="695"/>
-      <c r="AD8" s="691"/>
+      <c r="T8" s="687"/>
+      <c r="U8" s="687"/>
+      <c r="V8" s="687"/>
+      <c r="W8" s="687"/>
+      <c r="X8" s="687"/>
+      <c r="Y8" s="687"/>
+      <c r="Z8" s="687"/>
+      <c r="AA8" s="687"/>
+      <c r="AB8" s="687"/>
+      <c r="AC8" s="688"/>
+      <c r="AD8" s="684"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="715"/>
-      <c r="G9" s="679"/>
+      <c r="C9" s="676"/>
+      <c r="G9" s="711"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="697"/>
-      <c r="L9" s="682" t="s">
+      <c r="K9" s="690"/>
+      <c r="L9" s="714" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="683"/>
-      <c r="N9" s="684"/>
-      <c r="O9" s="689"/>
+      <c r="M9" s="715"/>
+      <c r="N9" s="716"/>
+      <c r="O9" s="721"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="691"/>
+      <c r="AD9" s="684"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="716"/>
+      <c r="C10" s="677"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13074,7 +13088,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="679"/>
+      <c r="G10" s="711"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13082,33 +13096,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="697"/>
-      <c r="M10" s="718" t="s">
+      <c r="K10" s="690"/>
+      <c r="M10" s="679" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="719"/>
-      <c r="O10" s="719"/>
-      <c r="P10" s="719"/>
-      <c r="Q10" s="719"/>
-      <c r="R10" s="719"/>
-      <c r="S10" s="719"/>
-      <c r="T10" s="719"/>
-      <c r="U10" s="719"/>
-      <c r="V10" s="719"/>
-      <c r="W10" s="719"/>
-      <c r="X10" s="719"/>
-      <c r="Y10" s="719"/>
-      <c r="Z10" s="719"/>
-      <c r="AA10" s="719"/>
-      <c r="AB10" s="719"/>
-      <c r="AC10" s="720"/>
-      <c r="AD10" s="691"/>
+      <c r="N10" s="680"/>
+      <c r="O10" s="680"/>
+      <c r="P10" s="680"/>
+      <c r="Q10" s="680"/>
+      <c r="R10" s="680"/>
+      <c r="S10" s="680"/>
+      <c r="T10" s="680"/>
+      <c r="U10" s="680"/>
+      <c r="V10" s="680"/>
+      <c r="W10" s="680"/>
+      <c r="X10" s="680"/>
+      <c r="Y10" s="680"/>
+      <c r="Z10" s="680"/>
+      <c r="AA10" s="680"/>
+      <c r="AB10" s="680"/>
+      <c r="AC10" s="681"/>
+      <c r="AD10" s="684"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="717"/>
-      <c r="G11" s="679"/>
+      <c r="C11" s="678"/>
+      <c r="G11" s="711"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="697"/>
+      <c r="K11" s="690"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13119,17 +13133,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="707" t="s">
+      <c r="Z11" s="700" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="708"/>
+      <c r="AA11" s="701"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="691"/>
+      <c r="AD11" s="684"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13142,7 +13156,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="679"/>
+      <c r="G12" s="711"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13150,8 +13164,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="697"/>
-      <c r="L12" s="712" t="s">
+      <c r="K12" s="690"/>
+      <c r="L12" s="705" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13182,25 +13196,25 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="701" t="s">
+      <c r="AA12" s="694" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="702"/>
+      <c r="AB12" s="695"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="691"/>
+      <c r="AD12" s="684"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="715"/>
-      <c r="G13" s="679"/>
-      <c r="K13" s="697"/>
-      <c r="L13" s="713"/>
+      <c r="C13" s="676"/>
+      <c r="G13" s="711"/>
+      <c r="K13" s="690"/>
+      <c r="L13" s="706"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="681" t="s">
+      <c r="Q13" s="713" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="604"/>
+      <c r="R13" s="607"/>
       <c r="S13" s="533"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -13209,17 +13223,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="703"/>
-      <c r="AB13" s="704"/>
-      <c r="AD13" s="691"/>
+      <c r="AA13" s="696"/>
+      <c r="AB13" s="697"/>
+      <c r="AD13" s="684"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="717"/>
+      <c r="C14" s="678"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="679"/>
+      <c r="G14" s="711"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13227,8 +13241,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="697"/>
-      <c r="L14" s="713"/>
+      <c r="K14" s="690"/>
+      <c r="L14" s="706"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13249,9 +13263,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="703"/>
-      <c r="AB14" s="704"/>
-      <c r="AD14" s="691"/>
+      <c r="AA14" s="696"/>
+      <c r="AB14" s="697"/>
+      <c r="AD14" s="684"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13266,19 +13280,19 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="679"/>
+      <c r="G15" s="711"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="697"/>
-      <c r="L15" s="714"/>
-      <c r="Q15" s="681" t="s">
+      <c r="K15" s="690"/>
+      <c r="L15" s="707"/>
+      <c r="Q15" s="713" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="604"/>
+      <c r="R15" s="607"/>
       <c r="S15" s="533"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -13287,14 +13301,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="703"/>
-      <c r="AB15" s="704"/>
-      <c r="AD15" s="691"/>
+      <c r="AA15" s="696"/>
+      <c r="AB15" s="697"/>
+      <c r="AD15" s="684"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="679"/>
-      <c r="K16" s="697"/>
+      <c r="G16" s="711"/>
+      <c r="K16" s="690"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13313,24 +13327,24 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="703"/>
-      <c r="AB16" s="704"/>
-      <c r="AD16" s="691"/>
+      <c r="AA16" s="696"/>
+      <c r="AB16" s="697"/>
+      <c r="AD16" s="684"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="676" t="s">
+      <c r="F17" s="708" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="679"/>
+      <c r="G17" s="711"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="697"/>
+      <c r="K17" s="690"/>
       <c r="S17" s="533"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -13338,9 +13352,9 @@
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="703"/>
-      <c r="AB17" s="704"/>
-      <c r="AD17" s="691"/>
+      <c r="AA17" s="696"/>
+      <c r="AB17" s="697"/>
+      <c r="AD17" s="684"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13350,15 +13364,15 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="677"/>
-      <c r="G18" s="679"/>
+      <c r="F18" s="709"/>
+      <c r="G18" s="711"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="697"/>
+      <c r="K18" s="690"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
@@ -13369,39 +13383,42 @@
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="705"/>
-      <c r="AB18" s="706"/>
-      <c r="AD18" s="691"/>
+      <c r="AA18" s="698"/>
+      <c r="AB18" s="699"/>
+      <c r="AD18" s="684"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="680"/>
-      <c r="K19" s="698"/>
+      <c r="G19" s="712"/>
+      <c r="K19" s="691"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="685" t="s">
+      <c r="R19" s="717" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="686"/>
-      <c r="T19" s="687"/>
+      <c r="S19" s="718"/>
+      <c r="T19" s="719"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="692"/>
+      <c r="AD19" s="685"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13413,14 +13430,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D366D-3E67-47A3-ADBC-C8F9DD032A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED1BCB-36B4-45D2-B3AC-89E8FC054F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="596">
   <si>
     <t>Zone</t>
   </si>
@@ -1824,6 +1824,9 @@
   </si>
   <si>
     <t>Boat Node</t>
+  </si>
+  <si>
+    <t>Credit Load</t>
   </si>
 </sst>
 </file>
@@ -3410,7 +3413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="723">
+  <cellXfs count="724">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4675,6 +4678,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4720,6 +4726,63 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4750,62 +4813,167 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4831,12 +4999,6 @@
     <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4858,161 +5020,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5056,39 +5095,6 @@
     <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5107,25 +5113,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5203,51 +5230,28 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5593,10 +5597,10 @@
       <c r="I2" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="535" t="s">
+      <c r="J2" s="536" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="536"/>
+      <c r="K2" s="537"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5606,13 +5610,13 @@
       <c r="N2" s="386" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="537" t="s">
+      <c r="O2" s="538" t="s">
         <v>385</v>
       </c>
-      <c r="P2" s="538"/>
-      <c r="Q2" s="538"/>
-      <c r="R2" s="538"/>
-      <c r="S2" s="539" t="s">
+      <c r="P2" s="539"/>
+      <c r="Q2" s="539"/>
+      <c r="R2" s="539"/>
+      <c r="S2" s="540" t="s">
         <v>386</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -5626,7 +5630,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="532"/>
+      <c r="D3" s="533"/>
       <c r="E3" s="374"/>
       <c r="F3" s="281" t="s">
         <v>69</v>
@@ -5651,7 +5655,7 @@
       </c>
       <c r="O3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="540"/>
+      <c r="S3" s="541"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -5660,7 +5664,7 @@
       <c r="C4" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="533"/>
+      <c r="D4" s="534"/>
       <c r="E4" s="61"/>
       <c r="F4" s="396" t="s">
         <v>42</v>
@@ -5677,7 +5681,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="540"/>
+      <c r="S4" s="541"/>
     </row>
     <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -5686,7 +5690,7 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="534"/>
+      <c r="D5" s="535"/>
       <c r="F5" s="401" t="s">
         <v>42</v>
       </c>
@@ -5710,7 +5714,7 @@
       <c r="Q5" s="19">
         <v>5280</v>
       </c>
-      <c r="S5" s="540"/>
+      <c r="S5" s="541"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -5742,7 +5746,7 @@
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="6"/>
-      <c r="S6" s="540"/>
+      <c r="S6" s="541"/>
     </row>
     <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="219" t="s">
@@ -5772,7 +5776,7 @@
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="6"/>
-      <c r="S7" s="540"/>
+      <c r="S7" s="541"/>
     </row>
     <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -5800,7 +5804,7 @@
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="6"/>
-      <c r="S8" s="540"/>
+      <c r="S8" s="541"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -5833,7 +5837,7 @@
       <c r="O9" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="540"/>
+      <c r="S9" s="541"/>
     </row>
     <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -5868,7 +5872,7 @@
       <c r="Q10" s="64">
         <v>88</v>
       </c>
-      <c r="S10" s="540"/>
+      <c r="S10" s="541"/>
     </row>
     <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -5902,7 +5906,7 @@
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="142"/>
-      <c r="S11" s="540"/>
+      <c r="S11" s="541"/>
       <c r="T11" s="23"/>
     </row>
     <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5929,7 +5933,7 @@
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="142"/>
-      <c r="S12" s="540"/>
+      <c r="S12" s="541"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="271" t="s">
@@ -5963,10 +5967,10 @@
       <c r="N13" s="404" t="s">
         <v>522</v>
       </c>
-      <c r="S13" s="540"/>
+      <c r="S13" s="541"/>
     </row>
     <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S14" s="540"/>
+      <c r="S14" s="541"/>
     </row>
     <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -5992,17 +5996,17 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="544">
+      <c r="M15" s="545">
         <v>45275</v>
       </c>
-      <c r="N15" s="532" t="s">
+      <c r="N15" s="533" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="256" t="s">
         <v>44</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="540"/>
+      <c r="S15" s="541"/>
     </row>
     <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="514" t="s">
@@ -6028,9 +6032,9 @@
       <c r="L16" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="545"/>
-      <c r="N16" s="533"/>
-      <c r="S16" s="540"/>
+      <c r="M16" s="546"/>
+      <c r="N16" s="534"/>
+      <c r="S16" s="541"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -6058,15 +6062,15 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="546"/>
-      <c r="N17" s="534"/>
+      <c r="M17" s="547"/>
+      <c r="N17" s="535"/>
       <c r="O17" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S17" s="540"/>
+      <c r="S17" s="541"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S18" s="540"/>
+      <c r="S18" s="541"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6094,13 +6098,13 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="544">
+      <c r="M19" s="545">
         <v>45275</v>
       </c>
       <c r="N19" s="442" t="s">
         <v>522</v>
       </c>
-      <c r="S19" s="540"/>
+      <c r="S19" s="541"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="254" t="s">
@@ -6126,11 +6130,11 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="545"/>
+      <c r="M20" s="546"/>
       <c r="N20" s="431" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="540"/>
+      <c r="S20" s="541"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="254" t="s">
@@ -6156,15 +6160,15 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="545"/>
+      <c r="M21" s="546"/>
       <c r="N21" s="431" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="542" t="s">
+      <c r="P21" s="543" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="543"/>
-      <c r="S21" s="540"/>
+      <c r="Q21" s="544"/>
+      <c r="S21" s="541"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="288" t="s">
@@ -6190,11 +6194,11 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="545"/>
+      <c r="M22" s="546"/>
       <c r="N22" s="410" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="540"/>
+      <c r="S22" s="541"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6220,11 +6224,11 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="545"/>
+      <c r="M23" s="546"/>
       <c r="N23" s="61" t="s">
         <v>523</v>
       </c>
-      <c r="S23" s="540"/>
+      <c r="S23" s="541"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -6250,7 +6254,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="545"/>
+      <c r="M24" s="546"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6258,7 +6262,7 @@
         <v>44</v>
       </c>
       <c r="R24" s="16"/>
-      <c r="S24" s="540"/>
+      <c r="S24" s="541"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6284,11 +6288,11 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="545"/>
+      <c r="M25" s="546"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="540"/>
+      <c r="S25" s="541"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -6314,11 +6318,11 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="545"/>
+      <c r="M26" s="546"/>
       <c r="N26" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="S26" s="540"/>
+      <c r="S26" s="541"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="271" t="s">
@@ -6340,9 +6344,9 @@
       <c r="J27" s="439"/>
       <c r="K27" s="440"/>
       <c r="L27" s="441"/>
-      <c r="M27" s="545"/>
+      <c r="M27" s="546"/>
       <c r="N27" s="61"/>
-      <c r="S27" s="540"/>
+      <c r="S27" s="541"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="271" t="s">
@@ -6370,12 +6374,12 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="546"/>
+      <c r="M28" s="547"/>
       <c r="N28" s="61" t="s">
         <v>524</v>
       </c>
       <c r="R28" s="16"/>
-      <c r="S28" s="541"/>
+      <c r="S28" s="542"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6396,8 +6400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView topLeftCell="M10" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6452,7 +6456,7 @@
       <c r="P1" s="450" t="s">
         <v>408</v>
       </c>
-      <c r="Q1" s="547" t="s">
+      <c r="Q1" s="567" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -6461,34 +6465,37 @@
       <c r="S1" s="100" t="s">
         <v>81</v>
       </c>
+      <c r="T1" s="21" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="560">
+      <c r="A2" s="551">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="562" t="s">
+      <c r="B2" s="553" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="574" t="s">
+      <c r="C2" s="565" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="564" t="s">
+      <c r="D2" s="555" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="566" t="s">
+      <c r="E2" s="557" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="572" t="s">
+      <c r="G2" s="563" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="554" t="s">
+      <c r="I2" s="574" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="448" t="s">
@@ -6512,7 +6519,7 @@
       <c r="P2" s="451">
         <v>40</v>
       </c>
-      <c r="Q2" s="548"/>
+      <c r="Q2" s="568"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
         <v>8</v>
@@ -6521,18 +6528,22 @@
         <f>S7+S18</f>
         <v>5</v>
       </c>
+      <c r="T2" s="177">
+        <f>SUM(T4:T16)</f>
+        <v>-3</v>
+      </c>
       <c r="V2" s="520"/>
       <c r="X2" s="524"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="561"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="567"/>
-      <c r="G3" s="573"/>
+      <c r="A3" s="552"/>
+      <c r="B3" s="554"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="556"/>
+      <c r="E3" s="558"/>
+      <c r="G3" s="564"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="555"/>
+      <c r="I3" s="575"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -6551,16 +6562,16 @@
         <v>390</v>
       </c>
       <c r="B4" s="257"/>
-      <c r="C4" s="568" t="s">
+      <c r="C4" s="559" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="555"/>
+      <c r="I4" s="575"/>
       <c r="R4" s="527" t="s">
         <v>585</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="24">
         <f>IF((R7-SUM(V2:V10)&lt;0),R7-SUM(V2:V10),0)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V4" s="521"/>
       <c r="X4" s="525"/>
@@ -6572,7 +6583,7 @@
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="569"/>
+      <c r="C5" s="560"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6582,13 +6593,13 @@
       <c r="F5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="532" t="s">
+      <c r="G5" s="533" t="s">
         <v>276</v>
       </c>
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="555"/>
+      <c r="I5" s="575"/>
       <c r="J5" s="449" t="s">
         <v>273</v>
       </c>
@@ -6607,33 +6618,38 @@
       <c r="S5" s="527" t="s">
         <v>585</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="24">
         <f>IF((S7-SUM(X2:X10))&lt;0,S7-SUM(X2:X10),0)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="523"/>
+      <c r="U5" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="V5" s="523">
+        <v>1</v>
+      </c>
       <c r="W5" s="6"/>
       <c r="X5" s="523">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="557" t="s">
+      <c r="A6" s="548" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="570"/>
-      <c r="D6" s="571"/>
+      <c r="C6" s="561"/>
+      <c r="D6" s="562"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="533"/>
-      <c r="I6" s="555"/>
+      <c r="G6" s="534"/>
+      <c r="I6" s="575"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="558"/>
+      <c r="A7" s="549"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6643,8 +6659,8 @@
       <c r="D7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="533"/>
-      <c r="I7" s="555"/>
+      <c r="G7" s="534"/>
+      <c r="I7" s="575"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6682,7 +6698,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="559"/>
+      <c r="A8" s="550"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6690,13 +6706,13 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="533"/>
-      <c r="I8" s="555"/>
+      <c r="G8" s="534"/>
+      <c r="I8" s="575"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="V8" s="525">
+      <c r="V8" s="24">
         <v>1</v>
       </c>
       <c r="W8" s="6"/>
@@ -6715,9 +6731,9 @@
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="533"/>
+      <c r="G9" s="534"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="555"/>
+      <c r="I9" s="575"/>
       <c r="M9" s="19" t="s">
         <v>548</v>
       </c>
@@ -6725,7 +6741,7 @@
       <c r="U9" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="V9" s="525">
+      <c r="V9" s="24">
         <v>1</v>
       </c>
       <c r="X9" s="521"/>
@@ -6741,10 +6757,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!S8</f>
-        <v>42</v>
-      </c>
-      <c r="G10" s="533"/>
-      <c r="I10" s="555"/>
+        <v>40</v>
+      </c>
+      <c r="G10" s="534"/>
+      <c r="I10" s="575"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6755,14 +6771,19 @@
         <v>547</v>
       </c>
       <c r="N10" s="80"/>
-      <c r="V10" s="521"/>
+      <c r="U10" s="723" t="s">
+        <v>254</v>
+      </c>
+      <c r="V10" s="525">
+        <v>1</v>
+      </c>
       <c r="X10" s="521"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="532" t="s">
+      <c r="B11" s="533" t="s">
         <v>392</v>
       </c>
       <c r="C11" s="176" t="s">
@@ -6771,8 +6792,8 @@
       <c r="D11" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="533"/>
-      <c r="I11" s="555"/>
+      <c r="G11" s="534"/>
+      <c r="I11" s="575"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6798,23 +6819,23 @@
       <c r="S11" s="24">
         <v>2</v>
       </c>
-      <c r="U11" s="549" t="s">
+      <c r="U11" s="569" t="s">
         <v>588</v>
       </c>
-      <c r="V11" s="550"/>
-      <c r="W11" s="550"/>
-      <c r="X11" s="551"/>
+      <c r="V11" s="570"/>
+      <c r="W11" s="570"/>
+      <c r="X11" s="571"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="534"/>
+      <c r="B12" s="535"/>
       <c r="E12" s="242">
         <v>3</v>
       </c>
-      <c r="G12" s="533"/>
-      <c r="I12" s="555"/>
+      <c r="G12" s="534"/>
+      <c r="I12" s="575"/>
       <c r="J12" s="24" t="s">
         <v>539</v>
       </c>
@@ -6842,12 +6863,12 @@
       <c r="B13" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="532" t="s">
+      <c r="C13" s="533" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="533"/>
-      <c r="I13" s="555"/>
+      <c r="G13" s="534"/>
+      <c r="I13" s="575"/>
       <c r="J13" s="108" t="s">
         <v>577</v>
       </c>
@@ -6874,7 +6895,7 @@
       <c r="B14" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="534"/>
+      <c r="C14" s="535"/>
       <c r="D14" s="214" t="s">
         <v>154</v>
       </c>
@@ -6884,11 +6905,11 @@
       <c r="F14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="534"/>
+      <c r="G14" s="535"/>
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="555"/>
+      <c r="I14" s="575"/>
       <c r="U14" s="6"/>
       <c r="V14" s="112"/>
       <c r="W14" s="6"/>
@@ -6906,7 +6927,7 @@
       <c r="H15" s="289">
         <v>0</v>
       </c>
-      <c r="I15" s="555"/>
+      <c r="I15" s="575"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -6924,7 +6945,7 @@
       </c>
       <c r="T15" s="24">
         <f>IF((R18-SUM(V18:V23))&lt;0,R18-SUM(V18:V23),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="112"/>
@@ -6937,7 +6958,7 @@
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="555"/>
+      <c r="I16" s="575"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -6971,7 +6992,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="555"/>
+      <c r="I17" s="575"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -6983,13 +7004,13 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="555"/>
+      <c r="I18" s="575"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="552" t="s">
+      <c r="O18" s="572" t="s">
         <v>540</v>
       </c>
-      <c r="P18" s="553"/>
+      <c r="P18" s="573"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -7015,7 +7036,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="555"/>
+      <c r="I19" s="575"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -7047,7 +7068,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="555"/>
+      <c r="I20" s="575"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -7072,7 +7093,7 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="555"/>
+      <c r="I21" s="575"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -7106,7 +7127,7 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="555"/>
+      <c r="I22" s="575"/>
       <c r="U22" s="6" t="s">
         <v>589</v>
       </c>
@@ -7130,17 +7151,17 @@
       <c r="E23" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="555"/>
+      <c r="I23" s="575"/>
       <c r="U23" s="6" t="s">
         <v>74</v>
       </c>
       <c r="V23" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="555"/>
+      <c r="I24" s="575"/>
       <c r="U24" s="379"/>
       <c r="V24" s="526">
         <v>-1</v>
@@ -7168,7 +7189,7 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="555"/>
+      <c r="I25" s="575"/>
       <c r="J25" s="449" t="s">
         <v>274</v>
       </c>
@@ -7182,7 +7203,12 @@
         <v>1</v>
       </c>
       <c r="U25" s="35"/>
-      <c r="W25" s="19"/>
+      <c r="V25" s="100">
+        <v>8</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>486</v>
+      </c>
       <c r="X25" s="530" t="s">
         <v>44</v>
       </c>
@@ -7208,7 +7234,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="555"/>
+      <c r="I26" s="575"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -7243,7 +7269,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="555"/>
+      <c r="I27" s="575"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -7270,7 +7296,7 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="555"/>
+      <c r="I28" s="575"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -7292,7 +7318,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="556"/>
+      <c r="I29" s="576"/>
       <c r="J29" s="358"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7330,12 +7356,17 @@
       <c r="W30" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="X30" s="722">
+      <c r="X30" s="532">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -7347,11 +7378,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7427,7 +7453,7 @@
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="572" t="s">
+      <c r="I1" s="563" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7463,7 +7489,7 @@
       <c r="X1" s="482" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="618" t="s">
+      <c r="Y1" s="619" t="s">
         <v>555</v>
       </c>
       <c r="Z1" s="458">
@@ -7488,7 +7514,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="454"/>
-      <c r="AN1" s="603"/>
+      <c r="AN1" s="601"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7497,23 +7523,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="627">
+      <c r="A2" s="583">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="629" t="s">
+      <c r="B2" s="585" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="574" t="s">
+      <c r="C2" s="565" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="631" t="s">
+      <c r="D2" s="587" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="576" t="s">
+      <c r="E2" s="631" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="584" t="s">
+      <c r="F2" s="606" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="445" t="s">
@@ -7522,15 +7548,15 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="573"/>
+      <c r="I2" s="564"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="578" t="s">
+      <c r="K2" s="633" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="579"/>
-      <c r="M2" s="584" t="s">
+      <c r="L2" s="634"/>
+      <c r="M2" s="606" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
@@ -7542,11 +7568,11 @@
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="574" t="s">
+      <c r="Q2" s="565" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="532"/>
-      <c r="S2" s="597" t="s">
+      <c r="R2" s="533"/>
+      <c r="S2" s="623" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7556,7 +7582,7 @@
       <c r="X2" s="483" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="619"/>
+      <c r="Y2" s="620"/>
       <c r="Z2" s="459">
         <v>1</v>
       </c>
@@ -7579,15 +7605,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="480"/>
-      <c r="AN2" s="604"/>
+      <c r="AN2" s="602"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="628"/>
-      <c r="B3" s="630"/>
-      <c r="C3" s="575"/>
-      <c r="D3" s="632"/>
-      <c r="E3" s="577"/>
-      <c r="F3" s="585"/>
+      <c r="A3" s="584"/>
+      <c r="B3" s="586"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="588"/>
+      <c r="E3" s="632"/>
+      <c r="F3" s="607"/>
       <c r="G3" s="446" t="s">
         <v>28</v>
       </c>
@@ -7606,7 +7632,7 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="585"/>
+      <c r="M3" s="607"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
@@ -7614,9 +7640,9 @@
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="575"/>
-      <c r="R3" s="534"/>
-      <c r="S3" s="599"/>
+      <c r="Q3" s="566"/>
+      <c r="R3" s="535"/>
+      <c r="S3" s="624"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7624,7 +7650,7 @@
       <c r="X3" s="483" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="619"/>
+      <c r="Y3" s="620"/>
       <c r="Z3" s="460">
         <v>1</v>
       </c>
@@ -7633,7 +7659,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="594" t="s">
+      <c r="AD3" s="622" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7645,16 +7671,16 @@
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="480"/>
-      <c r="AN3" s="604"/>
+      <c r="AN3" s="602"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="643" t="s">
+      <c r="B4" s="599" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="574" t="s">
+      <c r="C4" s="565" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="384" t="s">
@@ -7663,7 +7689,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="585"/>
+      <c r="F4" s="607"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7680,7 +7706,7 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="585"/>
+      <c r="M4" s="607"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
@@ -7706,12 +7732,12 @@
       <c r="X4" s="483" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="619"/>
+      <c r="Y4" s="620"/>
       <c r="Z4" s="461"/>
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="594"/>
+      <c r="AD4" s="622"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7721,33 +7747,33 @@
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="480"/>
-      <c r="AN4" s="604"/>
+      <c r="AN4" s="602"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="572" t="s">
+      <c r="A5" s="563" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="644"/>
-      <c r="C5" s="575"/>
+      <c r="B5" s="600"/>
+      <c r="C5" s="566"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="585"/>
-      <c r="G5" s="635" t="s">
+      <c r="F5" s="607"/>
+      <c r="G5" s="591" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="635"/>
-      <c r="I5" s="635"/>
-      <c r="J5" s="635"/>
-      <c r="K5" s="635"/>
-      <c r="L5" s="636"/>
-      <c r="M5" s="585"/>
+      <c r="H5" s="591"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="592"/>
+      <c r="M5" s="607"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
@@ -7759,7 +7785,7 @@
       <c r="X5" s="483" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="619"/>
+      <c r="Y5" s="620"/>
       <c r="Z5" s="461">
         <v>1</v>
       </c>
@@ -7782,23 +7808,23 @@
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="480"/>
-      <c r="AN5" s="604"/>
+      <c r="AN5" s="602"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="573"/>
-      <c r="B6" s="641" t="s">
+      <c r="A6" s="564"/>
+      <c r="B6" s="597" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="570"/>
-      <c r="D6" s="571"/>
-      <c r="F6" s="585"/>
-      <c r="G6" s="637"/>
-      <c r="H6" s="637"/>
-      <c r="I6" s="637"/>
-      <c r="J6" s="637"/>
-      <c r="K6" s="637"/>
-      <c r="L6" s="638"/>
-      <c r="M6" s="585"/>
+      <c r="C6" s="561"/>
+      <c r="D6" s="562"/>
+      <c r="F6" s="607"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="593"/>
+      <c r="J6" s="593"/>
+      <c r="K6" s="593"/>
+      <c r="L6" s="594"/>
+      <c r="M6" s="607"/>
       <c r="O6" s="611"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
@@ -7809,7 +7835,7 @@
       <c r="X6" s="483" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="619"/>
+      <c r="Y6" s="620"/>
       <c r="Z6" s="459">
         <v>1</v>
       </c>
@@ -7823,16 +7849,16 @@
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="593"/>
+      <c r="AI6" s="616"/>
       <c r="AJ6" s="493" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="593" t="s">
+      <c r="AK6" s="616" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
       <c r="AM6" s="480"/>
-      <c r="AN6" s="604"/>
+      <c r="AN6" s="602"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
@@ -7841,7 +7867,7 @@
       <c r="A7" s="245" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="642"/>
+      <c r="B7" s="598"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7851,7 +7877,7 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="585"/>
+      <c r="F7" s="607"/>
       <c r="G7" s="447">
         <v>0</v>
       </c>
@@ -7864,13 +7890,13 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="532">
+      <c r="K7" s="533">
         <v>1</v>
       </c>
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="585"/>
+      <c r="M7" s="607"/>
       <c r="O7" s="611"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
@@ -7885,7 +7911,7 @@
       <c r="X7" s="483" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="619"/>
+      <c r="Y7" s="620"/>
       <c r="Z7" s="459">
         <v>1</v>
       </c>
@@ -7895,18 +7921,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="594" t="s">
+      <c r="AG7" s="622" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="593"/>
+      <c r="AI7" s="616"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="593"/>
+      <c r="AK7" s="616"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="480"/>
-      <c r="AN7" s="604"/>
+      <c r="AN7" s="602"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7923,23 +7949,23 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="585"/>
-      <c r="G8" s="636">
-        <v>0</v>
-      </c>
-      <c r="H8" s="633" t="s">
+      <c r="F8" s="607"/>
+      <c r="G8" s="592">
+        <v>0</v>
+      </c>
+      <c r="H8" s="589" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="532">
-        <v>0</v>
-      </c>
-      <c r="J8" s="633" t="s">
+      <c r="I8" s="533">
+        <v>0</v>
+      </c>
+      <c r="J8" s="589" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="639"/>
-      <c r="L8" s="595"/>
+      <c r="K8" s="595"/>
+      <c r="L8" s="625"/>
       <c r="M8" s="608"/>
-      <c r="N8" s="600">
+      <c r="N8" s="628">
         <f>N5+N11</f>
         <v>15</v>
       </c>
@@ -7953,7 +7979,7 @@
       <c r="X8" s="483" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="619"/>
+      <c r="Y8" s="620"/>
       <c r="Z8" s="461"/>
       <c r="AA8" s="325"/>
       <c r="AB8" s="219"/>
@@ -7961,14 +7987,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="594"/>
+      <c r="AG8" s="622"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="593"/>
+      <c r="AI8" s="616"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
       <c r="AM8" s="480"/>
-      <c r="AN8" s="604"/>
+      <c r="AN8" s="602"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -7983,17 +8009,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="585"/>
-      <c r="G9" s="638"/>
-      <c r="H9" s="634"/>
-      <c r="I9" s="534"/>
-      <c r="J9" s="634"/>
-      <c r="K9" s="640"/>
-      <c r="L9" s="596"/>
+      <c r="F9" s="607"/>
+      <c r="G9" s="594"/>
+      <c r="H9" s="590"/>
+      <c r="I9" s="535"/>
+      <c r="J9" s="590"/>
+      <c r="K9" s="596"/>
+      <c r="L9" s="626"/>
       <c r="M9" s="609"/>
-      <c r="N9" s="601"/>
+      <c r="N9" s="629"/>
       <c r="O9" s="612"/>
-      <c r="S9" s="597" t="s">
+      <c r="S9" s="623" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -8005,7 +8031,7 @@
       <c r="X9" s="483" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="619"/>
+      <c r="Y9" s="620"/>
       <c r="Z9" s="462"/>
       <c r="AA9" s="325"/>
       <c r="AB9" s="219"/>
@@ -8015,16 +8041,16 @@
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="594"/>
+      <c r="AG9" s="622"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="593"/>
+      <c r="AI9" s="616"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="593" t="s">
+      <c r="AK9" s="616" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
       <c r="AM9" s="480"/>
-      <c r="AN9" s="604"/>
+      <c r="AN9" s="602"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -8039,13 +8065,13 @@
       <c r="D10" s="142"/>
       <c r="E10" s="250">
         <f>Boat!S8</f>
-        <v>42</v>
-      </c>
-      <c r="F10" s="585"/>
+        <v>40</v>
+      </c>
+      <c r="F10" s="607"/>
       <c r="N10" s="470" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="587" t="s">
+      <c r="O10" s="640" t="s">
         <v>103</v>
       </c>
       <c r="P10" s="613" t="s">
@@ -8054,7 +8080,7 @@
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="598"/>
+      <c r="S10" s="627"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8066,7 +8092,7 @@
       <c r="X10" s="483" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="619"/>
+      <c r="Y10" s="620"/>
       <c r="Z10" s="461">
         <v>0</v>
       </c>
@@ -8084,16 +8110,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="594"/>
+      <c r="AG10" s="622"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="593"/>
+      <c r="AI10" s="616"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="593"/>
+      <c r="AK10" s="616"/>
       <c r="AL10" s="272"/>
       <c r="AM10" s="494" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="604"/>
+      <c r="AN10" s="602"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -8102,7 +8128,7 @@
       <c r="A11" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="532" t="s">
+      <c r="B11" s="533" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="509" t="s">
@@ -8111,18 +8137,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="585"/>
+      <c r="F11" s="607"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="588"/>
+      <c r="O11" s="641"/>
       <c r="P11" s="614"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="598"/>
+      <c r="S11" s="627"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -8132,7 +8158,7 @@
       <c r="X11" s="483" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="619"/>
+      <c r="Y11" s="620"/>
       <c r="Z11" s="461"/>
       <c r="AA11" s="325">
         <v>1</v>
@@ -8146,14 +8172,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="594"/>
+      <c r="AG11" s="622"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
       <c r="AM11" s="480"/>
-      <c r="AN11" s="604"/>
+      <c r="AN11" s="602"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -8162,7 +8188,7 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="534"/>
+      <c r="B12" s="535"/>
       <c r="C12" s="510" t="s">
         <v>394</v>
       </c>
@@ -8172,25 +8198,25 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="585"/>
+      <c r="F12" s="607"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
-      <c r="H12" s="537" t="s">
+      <c r="H12" s="538" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="538"/>
-      <c r="J12" s="538"/>
-      <c r="K12" s="592"/>
+      <c r="I12" s="539"/>
+      <c r="J12" s="539"/>
+      <c r="K12" s="645"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="588"/>
+      <c r="O12" s="641"/>
       <c r="P12" s="614"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="599"/>
+      <c r="S12" s="624"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -8200,7 +8226,7 @@
       <c r="X12" s="483" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="619"/>
+      <c r="Y12" s="620"/>
       <c r="Z12" s="459">
         <v>1</v>
       </c>
@@ -8211,16 +8237,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="602" t="s">
+      <c r="AD12" s="630" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="493" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="594" t="s">
+      <c r="AF12" s="622" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="594"/>
+      <c r="AG12" s="622"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -8230,10 +8256,10 @@
       <c r="AJ12" s="272"/>
       <c r="AK12" s="272"/>
       <c r="AL12" s="272"/>
-      <c r="AM12" s="616" t="s">
+      <c r="AM12" s="617" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="604"/>
+      <c r="AN12" s="602"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
@@ -8245,16 +8271,16 @@
       <c r="E13" s="500">
         <v>-3</v>
       </c>
-      <c r="F13" s="585"/>
-      <c r="G13" s="538" t="s">
+      <c r="F13" s="607"/>
+      <c r="G13" s="539" t="s">
         <v>448</v>
       </c>
-      <c r="H13" s="538"/>
-      <c r="I13" s="538"/>
-      <c r="J13" s="592"/>
+      <c r="H13" s="539"/>
+      <c r="I13" s="539"/>
+      <c r="J13" s="645"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="588"/>
+      <c r="O13" s="641"/>
       <c r="P13" s="615"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
@@ -8265,7 +8291,7 @@
       <c r="X13" s="483" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="619"/>
+      <c r="Y13" s="620"/>
       <c r="Z13" s="459">
         <v>1</v>
       </c>
@@ -8276,8 +8302,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="602"/>
-      <c r="AF13" s="594"/>
+      <c r="AD13" s="630"/>
+      <c r="AF13" s="622"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8288,8 +8314,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
-      <c r="AM13" s="616"/>
-      <c r="AN13" s="604"/>
+      <c r="AM13" s="617"/>
+      <c r="AN13" s="602"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="502"/>
@@ -8297,18 +8323,18 @@
       <c r="C14" s="511"/>
       <c r="D14" s="504"/>
       <c r="E14" s="505"/>
-      <c r="F14" s="585"/>
-      <c r="G14" s="538" t="s">
+      <c r="F14" s="607"/>
+      <c r="G14" s="539" t="s">
         <v>447</v>
       </c>
-      <c r="H14" s="538"/>
-      <c r="I14" s="538"/>
-      <c r="J14" s="592"/>
+      <c r="H14" s="539"/>
+      <c r="I14" s="539"/>
+      <c r="J14" s="645"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="588"/>
+      <c r="O14" s="641"/>
       <c r="Q14" s="61" t="s">
         <v>559</v>
       </c>
@@ -8322,34 +8348,34 @@
       <c r="X14" s="483" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="619"/>
+      <c r="Y14" s="620"/>
       <c r="Z14" s="459">
         <v>1</v>
       </c>
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="602"/>
+      <c r="AD14" s="630"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="594"/>
+      <c r="AF14" s="622"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="272"/>
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
-      <c r="AM14" s="616"/>
-      <c r="AN14" s="604"/>
+      <c r="AM14" s="617"/>
+      <c r="AN14" s="602"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="501" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="532" t="s">
+      <c r="C15" s="533" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="585"/>
-      <c r="O15" s="588"/>
+      <c r="F15" s="607"/>
+      <c r="O15" s="641"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8362,7 +8388,7 @@
       <c r="X15" s="483" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="619"/>
+      <c r="Y15" s="620"/>
       <c r="Z15" s="461">
         <v>1</v>
       </c>
@@ -8371,8 +8397,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="602"/>
-      <c r="AF15" s="594"/>
+      <c r="AD15" s="630"/>
+      <c r="AF15" s="622"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8385,8 +8411,8 @@
       </c>
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
-      <c r="AM15" s="616"/>
-      <c r="AN15" s="604"/>
+      <c r="AM15" s="617"/>
+      <c r="AN15" s="602"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8401,20 +8427,20 @@
       <c r="B16" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="534"/>
+      <c r="C16" s="535"/>
       <c r="D16" s="61" t="s">
         <v>511</v>
       </c>
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="585"/>
+      <c r="F16" s="607"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="588"/>
+      <c r="O16" s="641"/>
       <c r="R16" s="487" t="s">
         <v>185</v>
       </c>
@@ -8425,7 +8451,7 @@
       <c r="X16" s="483" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="619"/>
+      <c r="Y16" s="620"/>
       <c r="Z16" s="459">
         <v>1</v>
       </c>
@@ -8446,18 +8472,18 @@
       <c r="AM16" s="480" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="604"/>
+      <c r="AN16" s="602"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="585"/>
+      <c r="F17" s="607"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="588"/>
+      <c r="O17" s="641"/>
       <c r="Q17" s="21" t="s">
         <v>557</v>
       </c>
@@ -8477,7 +8503,7 @@
       <c r="X17" s="483" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="619"/>
+      <c r="Y17" s="620"/>
       <c r="Z17" s="461"/>
       <c r="AA17" s="325"/>
       <c r="AB17" s="219"/>
@@ -8502,7 +8528,7 @@
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="480"/>
-      <c r="AN17" s="604"/>
+      <c r="AN17" s="602"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8526,21 +8552,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="585"/>
+      <c r="F18" s="607"/>
       <c r="G18" s="374" t="s">
         <v>554</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="588"/>
+      <c r="O18" s="641"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="580" t="s">
+      <c r="R18" s="635" t="s">
         <v>562</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="624" t="s">
+      <c r="U18" s="580" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8550,7 +8576,7 @@
       <c r="X18" s="483" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="619"/>
+      <c r="Y18" s="620"/>
       <c r="Z18" s="461">
         <v>1</v>
       </c>
@@ -8561,37 +8587,37 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="593" t="s">
+      <c r="AF18" s="616" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="617" t="s">
+      <c r="AJ18" s="618" t="s">
         <v>322</v>
       </c>
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="480"/>
-      <c r="AN18" s="604"/>
+      <c r="AN18" s="602"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="585"/>
-      <c r="O19" s="588"/>
-      <c r="R19" s="581"/>
+      <c r="F19" s="607"/>
+      <c r="O19" s="641"/>
+      <c r="R19" s="636"/>
       <c r="S19" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="U19" s="625"/>
+      <c r="U19" s="581"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="483" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="619"/>
+      <c r="Y19" s="620"/>
       <c r="Z19" s="459">
         <v>1</v>
       </c>
@@ -8600,17 +8626,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="593"/>
+      <c r="AF19" s="616"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="617"/>
+      <c r="AJ19" s="618"/>
       <c r="AK19" s="512" t="s">
         <v>256</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="480"/>
-      <c r="AN19" s="604"/>
+      <c r="AN19" s="602"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8631,23 +8657,23 @@
       <c r="E20" s="489">
         <v>-1</v>
       </c>
-      <c r="F20" s="585"/>
+      <c r="F20" s="607"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="588"/>
-      <c r="Q20" s="590" t="s">
+      <c r="O20" s="641"/>
+      <c r="Q20" s="643" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="456" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="626"/>
+      <c r="U20" s="582"/>
       <c r="W20" s="457"/>
       <c r="X20" s="484" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="619"/>
+      <c r="Y20" s="620"/>
       <c r="Z20" s="463">
         <v>1</v>
       </c>
@@ -8672,7 +8698,7 @@
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="604"/>
+      <c r="AN20" s="602"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8696,19 +8722,19 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="585"/>
-      <c r="O21" s="588"/>
-      <c r="Q21" s="591"/>
+      <c r="F21" s="607"/>
+      <c r="O21" s="641"/>
+      <c r="Q21" s="644"/>
       <c r="T21" s="474"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="621"/>
+      <c r="V21" s="577"/>
       <c r="W21" s="478" t="s">
         <v>176</v>
       </c>
       <c r="X21" s="481" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="619"/>
+      <c r="Y21" s="620"/>
       <c r="Z21" s="497">
         <v>3</v>
       </c>
@@ -8739,14 +8765,14 @@
       <c r="AM21" s="480" t="s">
         <v>572</v>
       </c>
-      <c r="AN21" s="604"/>
+      <c r="AN21" s="602"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="585"/>
+      <c r="F22" s="607"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="588"/>
+      <c r="O22" s="641"/>
       <c r="R22" s="486" t="s">
         <v>44</v>
       </c>
@@ -8754,14 +8780,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="622"/>
+      <c r="V22" s="578"/>
       <c r="W22" s="478" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="481" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="619"/>
+      <c r="Y22" s="620"/>
       <c r="Z22" s="467"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="467"/>
@@ -8772,7 +8798,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="593" t="s">
+      <c r="AJ22" s="616" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8780,7 +8806,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="604"/>
+      <c r="AN22" s="602"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8798,21 +8824,21 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="585"/>
-      <c r="O23" s="588"/>
-      <c r="Q23" s="590" t="s">
+      <c r="F23" s="607"/>
+      <c r="O23" s="641"/>
+      <c r="Q23" s="643" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="472" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="622"/>
+      <c r="V23" s="578"/>
       <c r="W23" s="148"/>
       <c r="X23" s="481" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="619"/>
+      <c r="Y23" s="620"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="467"/>
@@ -8823,13 +8849,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="593"/>
+      <c r="AJ23" s="616"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="604"/>
+      <c r="AN23" s="602"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="492" t="s">
@@ -8847,22 +8873,22 @@
       <c r="E24" s="488">
         <v>1</v>
       </c>
-      <c r="F24" s="585"/>
+      <c r="F24" s="607"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="588"/>
-      <c r="Q24" s="591"/>
+      <c r="O24" s="641"/>
+      <c r="Q24" s="644"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="622"/>
+      <c r="V24" s="578"/>
       <c r="W24" s="148"/>
       <c r="X24" s="481" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="619"/>
+      <c r="Y24" s="620"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="467"/>
@@ -8881,11 +8907,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="604"/>
+      <c r="AN24" s="602"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="585"/>
-      <c r="O25" s="588"/>
+      <c r="F25" s="607"/>
+      <c r="O25" s="641"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -8898,12 +8924,12 @@
       <c r="U25" s="452" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="623"/>
+      <c r="V25" s="579"/>
       <c r="W25" s="148"/>
       <c r="X25" s="481" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="619"/>
+      <c r="Y25" s="620"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="467"/>
@@ -8920,7 +8946,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="604"/>
+      <c r="AN25" s="602"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8938,16 +8964,16 @@
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="585"/>
+      <c r="F26" s="607"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="588"/>
-      <c r="P26" s="606" t="s">
+      <c r="O26" s="641"/>
+      <c r="P26" s="604" t="s">
         <v>549</v>
       </c>
-      <c r="Q26" s="607"/>
-      <c r="R26" s="582" t="s">
+      <c r="Q26" s="605"/>
+      <c r="R26" s="637" t="s">
         <v>561</v>
       </c>
       <c r="T26" s="183"/>
@@ -8959,7 +8985,7 @@
       <c r="X26" s="481" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="619"/>
+      <c r="Y26" s="620"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="467"/>
@@ -8986,7 +9012,7 @@
       <c r="AM26" s="494" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="604"/>
+      <c r="AN26" s="602"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8998,12 +9024,12 @@
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="586"/>
+      <c r="F27" s="639"/>
       <c r="G27" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="O27" s="589"/>
-      <c r="R27" s="583"/>
+      <c r="O27" s="642"/>
+      <c r="R27" s="638"/>
       <c r="S27" s="473" t="s">
         <v>54</v>
       </c>
@@ -9016,7 +9042,7 @@
       <c r="X27" s="481" t="s">
         <v>556</v>
       </c>
-      <c r="Y27" s="620"/>
+      <c r="Y27" s="621"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="468"/>
@@ -9033,10 +9059,48 @@
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="605"/>
+      <c r="AN27" s="603"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -9053,44 +9117,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9100,8 +9126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P18" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView topLeftCell="P9" workbookViewId="0">
+      <selection activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9188,16 +9214,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="572" t="s">
+      <c r="T1" s="563" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="649" t="s">
+      <c r="U1" s="661" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="651" t="s">
+      <c r="V1" s="663" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="652"/>
+      <c r="W1" s="664"/>
       <c r="X1" s="324">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -9213,42 +9239,42 @@
       <c r="AB1" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="653" t="s">
+      <c r="AC1" s="665" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="654"/>
-      <c r="AE1" s="655"/>
-      <c r="AF1" s="656" t="s">
+      <c r="AD1" s="666"/>
+      <c r="AE1" s="667"/>
+      <c r="AF1" s="668" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="657"/>
-      <c r="AH1" s="658"/>
-      <c r="AI1" s="645" t="s">
+      <c r="AG1" s="669"/>
+      <c r="AH1" s="670"/>
+      <c r="AI1" s="657" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="646"/>
-      <c r="AK1" s="647"/>
+      <c r="AJ1" s="658"/>
+      <c r="AK1" s="659"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="659">
+      <c r="J2" s="649">
         <f>SUM(J5:J30)</f>
         <v>2</v>
       </c>
-      <c r="K2" s="661">
+      <c r="K2" s="651">
         <f>SUM(K4:K29)</f>
-        <v>5</v>
-      </c>
-      <c r="L2" s="663">
+        <v>7</v>
+      </c>
+      <c r="L2" s="653">
         <f>SUM(L4:L29)</f>
         <v>7</v>
       </c>
-      <c r="M2" s="600">
+      <c r="M2" s="628">
         <f>SUM(K30:K37)* (-1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" s="285" t="s">
         <v>243</v>
@@ -9265,11 +9291,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="665" t="s">
+      <c r="S2" s="655" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="648"/>
-      <c r="U2" s="650"/>
+      <c r="T2" s="660"/>
+      <c r="U2" s="662"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9329,10 +9355,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="660"/>
-      <c r="K3" s="662"/>
-      <c r="L3" s="664"/>
-      <c r="M3" s="601"/>
+      <c r="J3" s="650"/>
+      <c r="K3" s="652"/>
+      <c r="L3" s="654"/>
+      <c r="M3" s="629"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9346,10 +9372,10 @@
       </c>
       <c r="R3" s="159">
         <f>SUM(R4:R29)</f>
-        <v>42</v>
-      </c>
-      <c r="S3" s="666"/>
-      <c r="T3" s="573"/>
+        <v>40</v>
+      </c>
+      <c r="S3" s="656"/>
+      <c r="T3" s="564"/>
       <c r="U3" s="331">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9360,7 +9386,7 @@
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9372,7 +9398,7 @@
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
@@ -9450,7 +9476,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="667" t="s">
+      <c r="M4" s="646" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9533,7 +9559,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="668"/>
+      <c r="M5" s="647"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9621,7 +9647,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="668"/>
+      <c r="M6" s="647"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9711,7 +9737,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="668"/>
+      <c r="M7" s="647"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9815,7 +9841,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="668"/>
+      <c r="M8" s="647"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9833,7 +9859,7 @@
       </c>
       <c r="S8" s="340">
         <f>R3</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="348"/>
@@ -9901,7 +9927,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="668"/>
+      <c r="M9" s="647"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -9993,13 +10019,13 @@
       </c>
       <c r="J10" s="363"/>
       <c r="K10" s="107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="311">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M10" s="668"/>
+      <c r="M10" s="647"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -10011,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="338">
         <v>-2</v>
@@ -10021,7 +10047,7 @@
       <c r="V10" s="346"/>
       <c r="W10" s="190">
         <f>SUM(J10:K10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" s="314"/>
       <c r="Y10" s="117">
@@ -10030,7 +10056,7 @@
       </c>
       <c r="Z10" s="308">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="308">
         <v>1</v>
@@ -10062,9 +10088,13 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL10" s="6"/>
+      <c r="AL10" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="AM10" s="231"/>
-      <c r="AN10" s="80"/>
+      <c r="AN10" s="80" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="11" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I11" s="430" t="s">
@@ -10078,7 +10108,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="668"/>
+      <c r="M11" s="647"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -10140,7 +10170,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="636" t="s">
+      <c r="A12" s="592" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10149,7 +10179,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="590" t="s">
+      <c r="E12" s="643" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
@@ -10169,7 +10199,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="668"/>
+      <c r="M12" s="647"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10243,14 +10273,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="638"/>
+      <c r="A13" s="594"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="591"/>
+      <c r="E13" s="644"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10271,7 +10301,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="668"/>
+      <c r="M13" s="647"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10346,7 +10376,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M14" s="668"/>
+      <c r="M14" s="647"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10443,7 +10473,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="668"/>
+      <c r="M15" s="647"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10528,7 +10558,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="668"/>
+      <c r="M16" s="647"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10624,7 +10654,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="668"/>
+      <c r="M17" s="647"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10707,7 +10737,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="668"/>
+      <c r="M18" s="647"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10792,7 +10822,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="668"/>
+      <c r="M19" s="647"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10887,11 +10917,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M20" s="669"/>
-      <c r="N20" s="537" t="s">
+      <c r="M20" s="648"/>
+      <c r="N20" s="538" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="592"/>
+      <c r="O20" s="645"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
@@ -11138,7 +11168,7 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="643" t="s">
+      <c r="E23" s="599" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -11224,7 +11254,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="644"/>
+      <c r="E24" s="600"/>
       <c r="F24" s="177"/>
       <c r="I24" s="430" t="s">
         <v>301</v>
@@ -11233,16 +11263,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="311">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N24" s="537" t="s">
+      <c r="N24" s="538" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="592"/>
+      <c r="O24" s="645"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
@@ -11250,7 +11280,7 @@
         <v>2</v>
       </c>
       <c r="R24" s="157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S24" s="338">
         <v>-2</v>
@@ -11262,7 +11292,7 @@
       <c r="V24" s="345"/>
       <c r="W24" s="190">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="314"/>
       <c r="Y24" s="117">
@@ -11271,7 +11301,7 @@
       </c>
       <c r="Z24" s="308">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24" s="308">
         <v>1</v>
@@ -12176,7 +12206,7 @@
       </c>
       <c r="J36" s="370"/>
       <c r="K36" s="264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="311">
         <f t="shared" si="10"/>
@@ -12190,7 +12220,7 @@
         <v>1</v>
       </c>
       <c r="R36" s="268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="18">
         <v>-1</v>
@@ -12200,7 +12230,7 @@
       <c r="V36" s="64"/>
       <c r="W36" s="190">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="65"/>
       <c r="Y36" s="117">
@@ -12209,7 +12239,7 @@
       </c>
       <c r="Z36" s="64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="64"/>
       <c r="AB36" s="319">
@@ -12236,7 +12266,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="6"/>
+      <c r="AL36" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="AN36" s="112"/>
     </row>
     <row r="37" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12324,23 +12356,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="M4:M20"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12374,15 +12406,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="537" t="s">
+      <c r="B1" s="538" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="592"/>
+      <c r="C1" s="645"/>
       <c r="D1" s="214"/>
-      <c r="J1" s="537" t="s">
+      <c r="J1" s="538" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="592"/>
+      <c r="K1" s="645"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12420,13 +12452,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="206"/>
-      <c r="M2" s="670"/>
+      <c r="M2" s="671"/>
       <c r="N2" s="154">
         <v>2</v>
       </c>
       <c r="O2" s="155"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="673" t="s">
+      <c r="Q2" s="674" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -12449,13 +12481,13 @@
       <c r="K3" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="M3" s="671"/>
+      <c r="M3" s="672"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="674"/>
+      <c r="Q3" s="675"/>
       <c r="R3" s="231"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12474,13 +12506,13 @@
       <c r="K4" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="671"/>
+      <c r="M4" s="672"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="674"/>
+      <c r="Q4" s="675"/>
       <c r="R4" s="231"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12500,13 +12532,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="206"/>
-      <c r="M5" s="671"/>
+      <c r="M5" s="672"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="674"/>
+      <c r="Q5" s="675"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -12527,13 +12559,13 @@
       <c r="K6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="671"/>
+      <c r="M6" s="672"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="674"/>
+      <c r="Q6" s="675"/>
       <c r="R6" s="231"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12553,13 +12585,13 @@
         <v>334</v>
       </c>
       <c r="L7" s="208"/>
-      <c r="M7" s="671"/>
+      <c r="M7" s="672"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="674"/>
+      <c r="Q7" s="675"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -12580,13 +12612,13 @@
       <c r="K8" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M8" s="671"/>
+      <c r="M8" s="672"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="674"/>
+      <c r="Q8" s="675"/>
       <c r="R8" s="231"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12606,13 +12638,13 @@
         <v>336</v>
       </c>
       <c r="L9" s="186"/>
-      <c r="M9" s="672"/>
+      <c r="M9" s="673"/>
       <c r="N9" s="163"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="675"/>
+      <c r="Q9" s="676"/>
       <c r="R9" s="232"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -12770,10 +12802,10 @@
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="V1" s="537" t="s">
+      <c r="V1" s="538" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="592"/>
+      <c r="W1" s="645"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12792,7 +12824,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="683" t="s">
+      <c r="AD1" s="691" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12809,10 +12841,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="682" t="s">
+      <c r="F2" s="722" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="710" t="s">
+      <c r="G2" s="679" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12840,10 +12872,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="651" t="s">
+      <c r="V2" s="663" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="652"/>
+      <c r="W2" s="664"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12862,7 +12894,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="684"/>
+      <c r="AD2" s="692"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12881,8 +12913,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="640"/>
-      <c r="G3" s="711"/>
+      <c r="F3" s="596"/>
+      <c r="G3" s="680"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12893,13 +12925,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="720" t="s">
+      <c r="O3" s="689" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="702" t="s">
+      <c r="P3" s="710" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="703"/>
+      <c r="Q3" s="711"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12909,15 +12941,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="684"/>
+      <c r="AD3" s="692"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="711"/>
+      <c r="G4" s="680"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="673" t="s">
+      <c r="L4" s="674" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="721"/>
+      <c r="O4" s="690"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12927,12 +12959,12 @@
       <c r="X4" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="537" t="s">
+      <c r="Y4" s="538" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" s="538"/>
-      <c r="AA4" s="592"/>
-      <c r="AD4" s="684"/>
+      <c r="Z4" s="539"/>
+      <c r="AA4" s="645"/>
+      <c r="AD4" s="692"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12947,21 +12979,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="711"/>
+      <c r="G5" s="680"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="689" t="s">
+      <c r="K5" s="697" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="704"/>
+      <c r="L5" s="712"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="721"/>
+      <c r="O5" s="690"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -12977,11 +13009,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="692" t="s">
+      <c r="Y5" s="700" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="693"/>
-      <c r="AD5" s="684"/>
+      <c r="Z5" s="701"/>
+      <c r="AD5" s="692"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12991,16 +13023,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="711"/>
+      <c r="G6" s="680"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="690"/>
-      <c r="L6" s="704"/>
-      <c r="O6" s="721"/>
+      <c r="K6" s="698"/>
+      <c r="L6" s="712"/>
+      <c r="O6" s="690"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -13010,20 +13042,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="684"/>
+      <c r="AD6" s="692"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="711"/>
+      <c r="G7" s="680"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="690"/>
-      <c r="L7" s="704"/>
+      <c r="K7" s="698"/>
+      <c r="L7" s="712"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="721"/>
+      <c r="O7" s="690"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="684"/>
+      <c r="AD7" s="692"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -13036,7 +13068,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="711"/>
+      <c r="G8" s="680"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -13046,41 +13078,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="690"/>
-      <c r="L8" s="704"/>
-      <c r="O8" s="721"/>
+      <c r="K8" s="698"/>
+      <c r="L8" s="712"/>
+      <c r="O8" s="690"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="686" t="s">
+      <c r="S8" s="694" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="687"/>
-      <c r="U8" s="687"/>
-      <c r="V8" s="687"/>
-      <c r="W8" s="687"/>
-      <c r="X8" s="687"/>
-      <c r="Y8" s="687"/>
-      <c r="Z8" s="687"/>
-      <c r="AA8" s="687"/>
-      <c r="AB8" s="687"/>
-      <c r="AC8" s="688"/>
-      <c r="AD8" s="684"/>
+      <c r="T8" s="695"/>
+      <c r="U8" s="695"/>
+      <c r="V8" s="695"/>
+      <c r="W8" s="695"/>
+      <c r="X8" s="695"/>
+      <c r="Y8" s="695"/>
+      <c r="Z8" s="695"/>
+      <c r="AA8" s="695"/>
+      <c r="AB8" s="695"/>
+      <c r="AC8" s="696"/>
+      <c r="AD8" s="692"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="676"/>
-      <c r="G9" s="711"/>
+      <c r="C9" s="716"/>
+      <c r="G9" s="680"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="690"/>
-      <c r="L9" s="714" t="s">
+      <c r="K9" s="698"/>
+      <c r="L9" s="683" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="715"/>
-      <c r="N9" s="716"/>
-      <c r="O9" s="721"/>
+      <c r="M9" s="684"/>
+      <c r="N9" s="685"/>
+      <c r="O9" s="690"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="684"/>
+      <c r="AD9" s="692"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="677"/>
+      <c r="C10" s="717"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13088,7 +13120,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="711"/>
+      <c r="G10" s="680"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13096,33 +13128,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="690"/>
-      <c r="M10" s="679" t="s">
+      <c r="K10" s="698"/>
+      <c r="M10" s="719" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="680"/>
-      <c r="O10" s="680"/>
-      <c r="P10" s="680"/>
-      <c r="Q10" s="680"/>
-      <c r="R10" s="680"/>
-      <c r="S10" s="680"/>
-      <c r="T10" s="680"/>
-      <c r="U10" s="680"/>
-      <c r="V10" s="680"/>
-      <c r="W10" s="680"/>
-      <c r="X10" s="680"/>
-      <c r="Y10" s="680"/>
-      <c r="Z10" s="680"/>
-      <c r="AA10" s="680"/>
-      <c r="AB10" s="680"/>
-      <c r="AC10" s="681"/>
-      <c r="AD10" s="684"/>
+      <c r="N10" s="720"/>
+      <c r="O10" s="720"/>
+      <c r="P10" s="720"/>
+      <c r="Q10" s="720"/>
+      <c r="R10" s="720"/>
+      <c r="S10" s="720"/>
+      <c r="T10" s="720"/>
+      <c r="U10" s="720"/>
+      <c r="V10" s="720"/>
+      <c r="W10" s="720"/>
+      <c r="X10" s="720"/>
+      <c r="Y10" s="720"/>
+      <c r="Z10" s="720"/>
+      <c r="AA10" s="720"/>
+      <c r="AB10" s="720"/>
+      <c r="AC10" s="721"/>
+      <c r="AD10" s="692"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="678"/>
-      <c r="G11" s="711"/>
+      <c r="C11" s="718"/>
+      <c r="G11" s="680"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="690"/>
+      <c r="K11" s="698"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13133,17 +13165,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="700" t="s">
+      <c r="Z11" s="708" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="701"/>
+      <c r="AA11" s="709"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="684"/>
+      <c r="AD11" s="692"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13156,7 +13188,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="711"/>
+      <c r="G12" s="680"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13164,8 +13196,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="690"/>
-      <c r="L12" s="705" t="s">
+      <c r="K12" s="698"/>
+      <c r="L12" s="713" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13180,7 +13212,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="532" t="s">
+      <c r="S12" s="533" t="s">
         <v>107</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -13196,26 +13228,26 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="694" t="s">
+      <c r="AA12" s="702" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="695"/>
+      <c r="AB12" s="703"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="684"/>
+      <c r="AD12" s="692"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="676"/>
-      <c r="G13" s="711"/>
-      <c r="K13" s="690"/>
-      <c r="L13" s="706"/>
+      <c r="C13" s="716"/>
+      <c r="G13" s="680"/>
+      <c r="K13" s="698"/>
+      <c r="L13" s="714"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="713" t="s">
+      <c r="Q13" s="682" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="607"/>
-      <c r="S13" s="533"/>
+      <c r="R13" s="605"/>
+      <c r="S13" s="534"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>132</v>
@@ -13223,17 +13255,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="696"/>
-      <c r="AB13" s="697"/>
-      <c r="AD13" s="684"/>
+      <c r="AA13" s="704"/>
+      <c r="AB13" s="705"/>
+      <c r="AD13" s="692"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="678"/>
+      <c r="C14" s="718"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="711"/>
+      <c r="G14" s="680"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13241,8 +13273,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="690"/>
-      <c r="L14" s="706"/>
+      <c r="K14" s="698"/>
+      <c r="L14" s="714"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13252,7 +13284,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="533"/>
+      <c r="S14" s="534"/>
       <c r="T14" s="77" t="s">
         <v>130</v>
       </c>
@@ -13263,9 +13295,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="696"/>
-      <c r="AB14" s="697"/>
-      <c r="AD14" s="684"/>
+      <c r="AA14" s="704"/>
+      <c r="AB14" s="705"/>
+      <c r="AD14" s="692"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13280,20 +13312,20 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="711"/>
+      <c r="G15" s="680"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="690"/>
-      <c r="L15" s="707"/>
-      <c r="Q15" s="713" t="s">
+      <c r="K15" s="698"/>
+      <c r="L15" s="715"/>
+      <c r="Q15" s="682" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="607"/>
-      <c r="S15" s="533"/>
+      <c r="R15" s="605"/>
+      <c r="S15" s="534"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -13301,14 +13333,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="696"/>
-      <c r="AB15" s="697"/>
-      <c r="AD15" s="684"/>
+      <c r="AA15" s="704"/>
+      <c r="AB15" s="705"/>
+      <c r="AD15" s="692"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="711"/>
-      <c r="K16" s="690"/>
+      <c r="G16" s="680"/>
+      <c r="K16" s="698"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13316,7 +13348,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="533"/>
+      <c r="S16" s="534"/>
       <c r="T16" s="76" t="s">
         <v>129</v>
       </c>
@@ -13327,34 +13359,34 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="696"/>
-      <c r="AB16" s="697"/>
-      <c r="AD16" s="684"/>
+      <c r="AA16" s="704"/>
+      <c r="AB16" s="705"/>
+      <c r="AD16" s="692"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="708" t="s">
+      <c r="F17" s="677" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="711"/>
+      <c r="G17" s="680"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="690"/>
-      <c r="S17" s="533"/>
+      <c r="K17" s="698"/>
+      <c r="S17" s="534"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="696"/>
-      <c r="AB17" s="697"/>
-      <c r="AD17" s="684"/>
+      <c r="AA17" s="704"/>
+      <c r="AB17" s="705"/>
+      <c r="AD17" s="692"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13364,61 +13396,58 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="709"/>
-      <c r="G18" s="711"/>
+      <c r="F18" s="678"/>
+      <c r="G18" s="680"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="690"/>
+      <c r="K18" s="698"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="533"/>
+      <c r="S18" s="534"/>
       <c r="U18" s="76" t="s">
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="698"/>
-      <c r="AB18" s="699"/>
-      <c r="AD18" s="684"/>
+      <c r="AA18" s="706"/>
+      <c r="AB18" s="707"/>
+      <c r="AD18" s="692"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="712"/>
-      <c r="K19" s="691"/>
+      <c r="G19" s="681"/>
+      <c r="K19" s="699"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="717" t="s">
+      <c r="R19" s="686" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="718"/>
-      <c r="T19" s="719"/>
+      <c r="S19" s="687"/>
+      <c r="T19" s="688"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="685"/>
+      <c r="AD19" s="693"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13430,11 +13459,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED1BCB-36B4-45D2-B3AC-89E8FC054F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDAEBDA-1AA7-4DA3-BFBE-D38C924CFA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="599">
   <si>
     <t>Zone</t>
   </si>
@@ -1827,6 +1827,15 @@
   </si>
   <si>
     <t>Credit Load</t>
+  </si>
+  <si>
+    <t>BoardRw</t>
+  </si>
+  <si>
+    <t>RJD</t>
+  </si>
+  <si>
+    <t>IndiaTV</t>
   </si>
 </sst>
 </file>
@@ -3413,7 +3422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="724">
+  <cellXfs count="727">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3982,7 +3991,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4325,7 +4333,6 @@
     <xf numFmtId="0" fontId="12" fillId="49" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4646,9 +4653,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4711,9 +4715,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4725,6 +4726,36 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4783,34 +4814,139 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4885,140 +5021,71 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -5029,130 +5096,43 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5230,27 +5210,59 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5541,10 +5553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U28"/>
+  <dimension ref="B1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5561,28 +5573,28 @@
     <col min="10" max="10" width="3.7109375" customWidth="1"/>
     <col min="11" max="11" width="3.85546875" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="355"/>
-    <col min="14" max="14" width="12.5703125" style="272" customWidth="1"/>
-    <col min="15" max="15" width="2.42578125" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.140625" customWidth="1"/>
-    <col min="21" max="21" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="354"/>
+    <col min="14" max="14" width="12.5703125" style="271" customWidth="1"/>
+    <col min="15" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>375</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="436" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="436" t="s">
+      <c r="D2" s="434" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="434" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="106" t="s">
@@ -5594,45 +5606,46 @@
       <c r="H2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="443" t="s">
+      <c r="I2" s="441" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="536" t="s">
+      <c r="J2" s="533" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="537"/>
+      <c r="K2" s="534"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="356" t="s">
+      <c r="M2" s="355" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="386" t="s">
+      <c r="N2" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="538" t="s">
+      <c r="O2" s="535" t="s">
         <v>385</v>
       </c>
-      <c r="P2" s="539"/>
-      <c r="Q2" s="539"/>
-      <c r="R2" s="539"/>
-      <c r="S2" s="540" t="s">
+      <c r="P2" s="722"/>
+      <c r="Q2" s="536"/>
+      <c r="R2" s="536"/>
+      <c r="S2" s="536"/>
+      <c r="T2" s="537" t="s">
         <v>386</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="533"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="281" t="s">
+      <c r="D3" s="530"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="280" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -5642,56 +5655,75 @@
         <v>329</v>
       </c>
       <c r="I3" s="61"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="294"/>
-      <c r="L3" s="290" t="s">
+      <c r="J3" s="292"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="357">
+      <c r="M3" s="356">
         <v>45275</v>
       </c>
       <c r="N3" s="61" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="541"/>
-    </row>
-    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="332">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="R3" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="177">
+        <v>0</v>
+      </c>
+      <c r="T3" s="538"/>
+      <c r="U3" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="V3" s="19">
+        <f>SUM(P3:P28)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>449</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="534"/>
+      <c r="D4" s="531"/>
       <c r="E4" s="61"/>
-      <c r="F4" s="396" t="s">
+      <c r="F4" s="395" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="302"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="304"/>
-      <c r="M4" s="357"/>
-      <c r="N4" s="398" t="s">
+      <c r="I4" s="271"/>
+      <c r="J4" s="301"/>
+      <c r="K4" s="302"/>
+      <c r="L4" s="303"/>
+      <c r="M4" s="356"/>
+      <c r="N4" s="396" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="541"/>
-    </row>
-    <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="333"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="538"/>
+    </row>
+    <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>414</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="535"/>
-      <c r="F5" s="401" t="s">
+      <c r="D5" s="532"/>
+      <c r="F5" s="399" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -5701,31 +5733,32 @@
       <c r="I5" s="61"/>
       <c r="J5" s="183"/>
       <c r="K5" s="148"/>
-      <c r="L5" s="291"/>
-      <c r="M5" s="357">
+      <c r="L5" s="290"/>
+      <c r="M5" s="356">
         <v>45275</v>
       </c>
-      <c r="N5" s="403" t="s">
+      <c r="N5" s="401" t="s">
         <v>522</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="723"/>
+      <c r="Q5" s="214" t="s">
         <v>228</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="R5" s="19">
         <v>5280</v>
       </c>
-      <c r="S5" s="541"/>
-    </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T5" s="538"/>
+    </row>
+    <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>420</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="411"/>
+      <c r="D6" s="409"/>
       <c r="E6" s="61"/>
-      <c r="F6" s="402"/>
+      <c r="F6" s="400"/>
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
@@ -5735,20 +5768,21 @@
       <c r="I6" s="61"/>
       <c r="J6" s="183"/>
       <c r="K6" s="148"/>
-      <c r="L6" s="292" t="s">
+      <c r="L6" s="291" t="s">
         <v>423</v>
       </c>
-      <c r="M6" s="357">
+      <c r="M6" s="356">
         <v>45275</v>
       </c>
-      <c r="N6" s="407" t="s">
+      <c r="N6" s="405" t="s">
         <v>522</v>
       </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="6"/>
-      <c r="S6" s="541"/>
-    </row>
-    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="723"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="6"/>
+      <c r="T6" s="538"/>
+    </row>
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="219" t="s">
         <v>373</v>
       </c>
@@ -5757,7 +5791,7 @@
       </c>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
-      <c r="F7" s="281" t="s">
+      <c r="F7" s="280" t="s">
         <v>433</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -5767,18 +5801,19 @@
         <v>576</v>
       </c>
       <c r="I7" s="61"/>
-      <c r="J7" s="299"/>
-      <c r="K7" s="300"/>
-      <c r="L7" s="292"/>
-      <c r="M7" s="406"/>
+      <c r="J7" s="298"/>
+      <c r="K7" s="299"/>
+      <c r="L7" s="291"/>
+      <c r="M7" s="404"/>
       <c r="N7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="6"/>
-      <c r="S7" s="541"/>
-    </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="723"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="6"/>
+      <c r="T7" s="538"/>
+    </row>
+    <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>450</v>
       </c>
@@ -5787,7 +5822,7 @@
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="408" t="s">
+      <c r="F8" s="406" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -5795,18 +5830,19 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="61"/>
-      <c r="J8" s="295"/>
-      <c r="K8" s="296"/>
-      <c r="L8" s="280"/>
-      <c r="M8" s="405"/>
+      <c r="J8" s="294"/>
+      <c r="K8" s="295"/>
+      <c r="L8" s="279"/>
+      <c r="M8" s="403"/>
       <c r="N8" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="6"/>
-      <c r="S8" s="541"/>
-    </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P8" s="723"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="6"/>
+      <c r="T8" s="538"/>
+    </row>
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>425</v>
       </c>
@@ -5815,7 +5851,7 @@
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
-      <c r="F9" s="305" t="s">
+      <c r="F9" s="304" t="s">
         <v>229</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -5825,21 +5861,22 @@
         <v>576</v>
       </c>
       <c r="I9" s="61"/>
-      <c r="J9" s="297"/>
-      <c r="K9" s="298"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="297"/>
       <c r="L9" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="395">
+      <c r="M9" s="394">
         <v>45275</v>
       </c>
-      <c r="N9" s="374"/>
-      <c r="O9" s="256" t="s">
+      <c r="N9" s="373"/>
+      <c r="O9" s="719" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="541"/>
-    </row>
-    <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="723"/>
+      <c r="T9" s="538"/>
+    </row>
+    <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>374</v>
       </c>
@@ -5847,7 +5884,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="61"/>
-      <c r="F10" s="396"/>
+      <c r="F10" s="395"/>
       <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
@@ -5855,26 +5892,27 @@
         <v>576</v>
       </c>
       <c r="I10" s="61"/>
-      <c r="J10" s="297"/>
-      <c r="K10" s="298"/>
+      <c r="J10" s="296"/>
+      <c r="K10" s="297"/>
       <c r="L10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="395">
+      <c r="M10" s="394">
         <v>45275</v>
       </c>
-      <c r="N10" s="403" t="s">
+      <c r="N10" s="401" t="s">
         <v>522</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="723"/>
+      <c r="Q10" s="214" t="s">
         <v>227</v>
       </c>
-      <c r="Q10" s="64">
+      <c r="R10" s="64">
         <v>88</v>
       </c>
-      <c r="S10" s="541"/>
-    </row>
-    <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T10" s="538"/>
+    </row>
+    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>372</v>
       </c>
@@ -5892,51 +5930,53 @@
       <c r="H11" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="I11" s="374"/>
-      <c r="J11" s="295"/>
-      <c r="K11" s="296"/>
+      <c r="I11" s="373"/>
+      <c r="J11" s="294"/>
+      <c r="K11" s="295"/>
       <c r="L11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="395">
+      <c r="M11" s="394">
         <v>45275</v>
       </c>
-      <c r="N11" s="399" t="s">
+      <c r="N11" s="397" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="142"/>
-      <c r="S11" s="541"/>
-      <c r="T11" s="23"/>
-    </row>
-    <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="271" t="s">
+      <c r="P11" s="723"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="142"/>
+      <c r="T11" s="538"/>
+      <c r="U11" s="23"/>
+    </row>
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="270" t="s">
         <v>451</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>361</v>
       </c>
       <c r="D12" s="61"/>
-      <c r="E12" s="516"/>
-      <c r="F12" s="396" t="s">
+      <c r="E12" s="514"/>
+      <c r="F12" s="395" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="61"/>
-      <c r="J12" s="295"/>
-      <c r="K12" s="296"/>
+      <c r="J12" s="294"/>
+      <c r="K12" s="295"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="395"/>
-      <c r="N12" s="400" t="s">
+      <c r="M12" s="394"/>
+      <c r="N12" s="398" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="142"/>
-      <c r="S12" s="541"/>
-    </row>
-    <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="271" t="s">
+      <c r="P12" s="723"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="142"/>
+      <c r="T12" s="538"/>
+    </row>
+    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="270" t="s">
         <v>360</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -5946,7 +5986,7 @@
       <c r="E13" s="61" t="s">
         <v>575</v>
       </c>
-      <c r="F13" s="281" t="s">
+      <c r="F13" s="280" t="s">
         <v>370</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -5958,21 +5998,23 @@
       <c r="I13" s="61"/>
       <c r="J13" s="184"/>
       <c r="K13" s="149"/>
-      <c r="L13" s="376" t="s">
+      <c r="L13" s="375" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="395">
+      <c r="M13" s="394">
         <v>45275</v>
       </c>
-      <c r="N13" s="404" t="s">
+      <c r="N13" s="402" t="s">
         <v>522</v>
       </c>
-      <c r="S13" s="541"/>
-    </row>
-    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S14" s="541"/>
-    </row>
-    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P13" s="723"/>
+      <c r="T13" s="538"/>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="723"/>
+      <c r="T14" s="538"/>
+    </row>
+    <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -5996,28 +6038,29 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="545">
+      <c r="M15" s="541">
         <v>45275</v>
       </c>
-      <c r="N15" s="533" t="s">
+      <c r="N15" s="530" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="256" t="s">
+      <c r="O15" s="719" t="s">
         <v>44</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="541"/>
-    </row>
-    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="514" t="s">
+      <c r="P15" s="723"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="538"/>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="512" t="s">
         <v>377</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="410"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="282" t="s">
+      <c r="D16" s="408"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="281" t="s">
         <v>396</v>
       </c>
       <c r="G16" s="136" t="s">
@@ -6032,11 +6075,12 @@
       <c r="L16" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="546"/>
-      <c r="N16" s="534"/>
-      <c r="S16" s="541"/>
-    </row>
-    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="542"/>
+      <c r="N16" s="531"/>
+      <c r="P16" s="723"/>
+      <c r="T16" s="538"/>
+    </row>
+    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>224</v>
       </c>
@@ -6044,7 +6088,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="61"/>
-      <c r="E17" s="516"/>
+      <c r="E17" s="514"/>
       <c r="F17" s="21" t="s">
         <v>225</v>
       </c>
@@ -6054,7 +6098,7 @@
       <c r="H17" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I17" s="437" t="s">
+      <c r="I17" s="435" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="139"/>
@@ -6062,27 +6106,40 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="547"/>
-      <c r="N17" s="535"/>
-      <c r="O17" s="256" t="s">
+      <c r="M17" s="543"/>
+      <c r="N17" s="532"/>
+      <c r="O17" s="719" t="s">
         <v>44</v>
       </c>
-      <c r="S17" s="541"/>
-    </row>
-    <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S18" s="541"/>
-    </row>
-    <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P17" s="333">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="R17" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="177">
+        <v>0</v>
+      </c>
+      <c r="T17" s="538"/>
+    </row>
+    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P18" s="723"/>
+      <c r="T18" s="538"/>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>405</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D19" s="437" t="s">
+      <c r="D19" s="435" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="515"/>
+      <c r="E19" s="513"/>
       <c r="F19" s="100" t="s">
         <v>427</v>
       </c>
@@ -6098,15 +6155,16 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="545">
+      <c r="M19" s="541">
         <v>45275</v>
       </c>
-      <c r="N19" s="442" t="s">
+      <c r="N19" s="440" t="s">
         <v>522</v>
       </c>
-      <c r="S19" s="541"/>
-    </row>
-    <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P19" s="723"/>
+      <c r="T19" s="538"/>
+    </row>
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="254" t="s">
         <v>533</v>
       </c>
@@ -6130,13 +6188,14 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="546"/>
-      <c r="N20" s="431" t="s">
+      <c r="M20" s="542"/>
+      <c r="N20" s="429" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="541"/>
-    </row>
-    <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="723"/>
+      <c r="T20" s="538"/>
+    </row>
+    <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="254" t="s">
         <v>27</v>
       </c>
@@ -6160,18 +6219,19 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="546"/>
-      <c r="N21" s="431" t="s">
+      <c r="M21" s="542"/>
+      <c r="N21" s="429" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="543" t="s">
+      <c r="P21" s="723"/>
+      <c r="Q21" s="721" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="544"/>
-      <c r="S21" s="541"/>
-    </row>
-    <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="288" t="s">
+      <c r="R21" s="540"/>
+      <c r="T21" s="538"/>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="287" t="s">
         <v>401</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -6179,13 +6239,13 @@
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
-      <c r="F22" s="275" t="s">
+      <c r="F22" s="274" t="s">
         <v>399</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="283" t="s">
+      <c r="H22" s="282" t="s">
         <v>400</v>
       </c>
       <c r="I22" s="61"/>
@@ -6194,20 +6254,21 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="546"/>
-      <c r="N22" s="410" t="s">
+      <c r="M22" s="542"/>
+      <c r="N22" s="408" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="541"/>
-    </row>
-    <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="723"/>
+      <c r="T22" s="538"/>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>434</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="411"/>
+      <c r="D23" s="409"/>
       <c r="E23" s="61"/>
       <c r="F23" s="100" t="s">
         <v>426</v>
@@ -6224,22 +6285,23 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="546"/>
+      <c r="M23" s="542"/>
       <c r="N23" s="61" t="s">
         <v>523</v>
       </c>
-      <c r="S23" s="541"/>
-    </row>
-    <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="723"/>
+      <c r="T23" s="538"/>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>534</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="411"/>
-      <c r="E24" s="516"/>
-      <c r="F24" s="438" t="s">
+      <c r="D24" s="409"/>
+      <c r="E24" s="514"/>
+      <c r="F24" s="436" t="s">
         <v>428</v>
       </c>
       <c r="G24" s="252" t="s">
@@ -6254,17 +6316,18 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="546"/>
+      <c r="M24" s="542"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="397" t="s">
+      <c r="O24" s="720" t="s">
         <v>44</v>
       </c>
-      <c r="R24" s="16"/>
-      <c r="S24" s="541"/>
-    </row>
-    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P24" s="724"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="538"/>
+    </row>
+    <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
@@ -6272,8 +6335,8 @@
         <v>16</v>
       </c>
       <c r="D25" s="61"/>
-      <c r="E25" s="272"/>
-      <c r="F25" s="270" t="s">
+      <c r="E25" s="271"/>
+      <c r="F25" s="269" t="s">
         <v>370</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -6288,24 +6351,25 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="546"/>
+      <c r="M25" s="542"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="541"/>
-    </row>
-    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P25" s="723"/>
+      <c r="T25" s="538"/>
+    </row>
+    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>429</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="437" t="s">
+      <c r="D26" s="435" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="444"/>
-      <c r="F26" s="396"/>
+      <c r="E26" s="442"/>
+      <c r="F26" s="395"/>
       <c r="G26" s="2" t="s">
         <v>422</v>
       </c>
@@ -6318,22 +6382,23 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="546"/>
+      <c r="M26" s="542"/>
       <c r="N26" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="S26" s="541"/>
-    </row>
-    <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="271" t="s">
+      <c r="P26" s="723"/>
+      <c r="T26" s="538"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="270" t="s">
         <v>406</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="61"/>
-      <c r="E27" s="444"/>
-      <c r="F27" s="428"/>
+      <c r="E27" s="442"/>
+      <c r="F27" s="426"/>
       <c r="G27" s="2" t="s">
         <v>530</v>
       </c>
@@ -6341,25 +6406,37 @@
         <v>537</v>
       </c>
       <c r="I27" s="61"/>
-      <c r="J27" s="439"/>
-      <c r="K27" s="440"/>
-      <c r="L27" s="441"/>
-      <c r="M27" s="546"/>
+      <c r="J27" s="437"/>
+      <c r="K27" s="438"/>
+      <c r="L27" s="439"/>
+      <c r="M27" s="542"/>
       <c r="N27" s="61"/>
-      <c r="S27" s="541"/>
-    </row>
-    <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="271" t="s">
+      <c r="P27" s="333">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="R27" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="177">
+        <v>0</v>
+      </c>
+      <c r="T27" s="538"/>
+    </row>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="270" t="s">
         <v>406</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="437" t="s">
+      <c r="D28" s="435" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="444"/>
-      <c r="F28" s="435" t="s">
+      <c r="E28" s="442"/>
+      <c r="F28" s="433" t="s">
         <v>532</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -6374,21 +6451,22 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="547"/>
+      <c r="M28" s="543"/>
       <c r="N28" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="R28" s="16"/>
-      <c r="S28" s="542"/>
+      <c r="P28" s="725"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="539"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="N15:N17"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:S28"/>
-    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:T28"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="M19:M28"/>
     <mergeCell ref="M15:M17"/>
   </mergeCells>
@@ -6401,7 +6479,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6429,9 +6507,10 @@
     <col min="22" max="22" width="3.7109375" style="20" customWidth="1"/>
     <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.85546875" style="20" customWidth="1"/>
+    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="243" t="s">
         <v>134</v>
       </c>
@@ -6453,10 +6532,10 @@
       <c r="O1" s="218" t="s">
         <v>299</v>
       </c>
-      <c r="P1" s="450" t="s">
+      <c r="P1" s="448" t="s">
         <v>408</v>
       </c>
-      <c r="Q1" s="567" t="s">
+      <c r="Q1" s="544" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -6468,37 +6547,40 @@
       <c r="T1" s="21" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="551">
+      <c r="Z1" s="19" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="557">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="553" t="s">
+      <c r="B2" s="559" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="565" t="s">
+      <c r="C2" s="571" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="555" t="s">
+      <c r="D2" s="561" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="557" t="s">
+      <c r="E2" s="563" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="563" t="s">
+      <c r="G2" s="569" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="574" t="s">
+      <c r="I2" s="551" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="448" t="s">
+      <c r="J2" s="446" t="s">
         <v>142</v>
       </c>
       <c r="K2" s="172" t="s">
@@ -6516,74 +6598,85 @@
       <c r="O2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="451">
+      <c r="P2" s="449">
         <v>40</v>
       </c>
-      <c r="Q2" s="568"/>
+      <c r="Q2" s="545"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
         <v>8</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S18</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T2" s="177">
         <f>SUM(T4:T16)</f>
-        <v>-3</v>
-      </c>
-      <c r="V2" s="520"/>
-      <c r="X2" s="524"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="552"/>
-      <c r="B3" s="554"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="556"/>
-      <c r="E3" s="558"/>
-      <c r="G3" s="564"/>
+        <v>-4</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="521"/>
+      <c r="X2" s="521"/>
+      <c r="Z2" s="19">
+        <f>BoardRW!V3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="558"/>
+      <c r="B3" s="560"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="562"/>
+      <c r="E3" s="564"/>
+      <c r="G3" s="570"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="575"/>
+      <c r="I3" s="552"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
       <c r="N3" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="Q3" s="527">
+      <c r="Q3" s="524">
         <f>SUM(X24:X30)</f>
         <v>4</v>
       </c>
-      <c r="V3" s="521"/>
-      <c r="X3" s="525"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="6"/>
+      <c r="V3" s="522"/>
+      <c r="X3" s="522"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="249" t="s">
         <v>390</v>
       </c>
-      <c r="B4" s="257"/>
-      <c r="C4" s="559" t="s">
+      <c r="B4" s="256"/>
+      <c r="C4" s="565" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="575"/>
-      <c r="R4" s="527" t="s">
+      <c r="I4" s="552"/>
+      <c r="R4" s="524" t="s">
         <v>585</v>
       </c>
       <c r="T4" s="24">
         <f>IF((R7-SUM(V2:V10)&lt;0),R7-SUM(V2:V10),0)</f>
-        <v>-2</v>
-      </c>
-      <c r="V4" s="521"/>
-      <c r="X4" s="525"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="V4" s="522">
+        <v>1</v>
+      </c>
+      <c r="X4" s="522"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="234" t="s">
         <v>194</v>
       </c>
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="560"/>
+      <c r="C5" s="566"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6593,14 +6686,14 @@
       <c r="F5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="533" t="s">
+      <c r="G5" s="530" t="s">
         <v>276</v>
       </c>
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="575"/>
-      <c r="J5" s="449" t="s">
+      <c r="I5" s="552"/>
+      <c r="J5" s="447" t="s">
         <v>273</v>
       </c>
       <c r="K5" s="172" t="s">
@@ -6615,7 +6708,7 @@
       <c r="N5" s="80" t="s">
         <v>317</v>
       </c>
-      <c r="S5" s="527" t="s">
+      <c r="S5" s="524" t="s">
         <v>585</v>
       </c>
       <c r="T5" s="24">
@@ -6625,31 +6718,33 @@
       <c r="U5" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="V5" s="523">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="523">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="548" t="s">
+      <c r="V5" s="520">
+        <v>1</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="X5" s="520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="554" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="561"/>
-      <c r="D6" s="562"/>
+      <c r="C6" s="567"/>
+      <c r="D6" s="568"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="534"/>
-      <c r="I6" s="575"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="549"/>
+      <c r="G6" s="531"/>
+      <c r="I6" s="552"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="555"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6659,8 +6754,8 @@
       <c r="D7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="534"/>
-      <c r="I7" s="575"/>
+      <c r="G7" s="531"/>
+      <c r="I7" s="552"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6682,23 +6777,23 @@
       </c>
       <c r="S7" s="24">
         <f>3-S11</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U7" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="V7" s="524">
+      <c r="V7" s="521">
         <v>1</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="X7" s="524">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="550"/>
+      <c r="X7" s="521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="556"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6706,8 +6801,8 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="534"/>
-      <c r="I8" s="575"/>
+      <c r="G8" s="531"/>
+      <c r="I8" s="552"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
@@ -6716,9 +6811,9 @@
         <v>1</v>
       </c>
       <c r="W8" s="6"/>
-      <c r="X8" s="521"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X8" s="518"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="244" t="s">
         <v>438</v>
       </c>
@@ -6731,9 +6826,9 @@
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="534"/>
+      <c r="G9" s="531"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="575"/>
+      <c r="I9" s="552"/>
       <c r="M9" s="19" t="s">
         <v>548</v>
       </c>
@@ -6744,9 +6839,9 @@
       <c r="V9" s="24">
         <v>1</v>
       </c>
-      <c r="X9" s="521"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X9" s="518"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
         <v>553</v>
       </c>
@@ -6757,10 +6852,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!S8</f>
-        <v>40</v>
-      </c>
-      <c r="G10" s="534"/>
-      <c r="I10" s="575"/>
+        <v>39</v>
+      </c>
+      <c r="G10" s="531"/>
+      <c r="I10" s="552"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6771,19 +6866,24 @@
         <v>547</v>
       </c>
       <c r="N10" s="80"/>
-      <c r="U10" s="723" t="s">
+      <c r="U10" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="V10" s="525">
-        <v>1</v>
-      </c>
-      <c r="X10" s="521"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V10" s="522">
+        <v>1</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="X10" s="518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="533" t="s">
+      <c r="B11" s="530" t="s">
         <v>392</v>
       </c>
       <c r="C11" s="176" t="s">
@@ -6792,8 +6892,8 @@
       <c r="D11" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="534"/>
-      <c r="I11" s="575"/>
+      <c r="G11" s="531"/>
+      <c r="I11" s="552"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6817,25 +6917,25 @@
         <v>0</v>
       </c>
       <c r="S11" s="24">
-        <v>2</v>
-      </c>
-      <c r="U11" s="569" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="546" t="s">
         <v>588</v>
       </c>
-      <c r="V11" s="570"/>
-      <c r="W11" s="570"/>
-      <c r="X11" s="571"/>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V11" s="547"/>
+      <c r="W11" s="547"/>
+      <c r="X11" s="548"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="535"/>
+      <c r="B12" s="532"/>
       <c r="E12" s="242">
         <v>3</v>
       </c>
-      <c r="G12" s="534"/>
-      <c r="I12" s="575"/>
+      <c r="G12" s="531"/>
+      <c r="I12" s="552"/>
       <c r="J12" s="24" t="s">
         <v>539</v>
       </c>
@@ -6856,19 +6956,19 @@
       <c r="V12" s="112"/>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="492" t="s">
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="490" t="s">
         <v>446</v>
       </c>
       <c r="B13" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="533" t="s">
+      <c r="C13" s="530" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="534"/>
-      <c r="I13" s="575"/>
+      <c r="G13" s="531"/>
+      <c r="I13" s="552"/>
       <c r="J13" s="108" t="s">
         <v>577</v>
       </c>
@@ -6881,21 +6981,21 @@
       <c r="M13" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="N13" s="453" t="s">
+      <c r="N13" s="451" t="s">
         <v>545</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="112"/>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="244" t="s">
         <v>578</v>
       </c>
       <c r="B14" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="535"/>
+      <c r="C14" s="532"/>
       <c r="D14" s="214" t="s">
         <v>154</v>
       </c>
@@ -6905,16 +7005,16 @@
       <c r="F14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="535"/>
+      <c r="G14" s="532"/>
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="575"/>
+      <c r="I14" s="552"/>
       <c r="U14" s="6"/>
       <c r="V14" s="112"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="248" t="s">
         <v>543</v>
       </c>
@@ -6924,10 +7024,10 @@
       <c r="E15" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="289">
-        <v>0</v>
-      </c>
-      <c r="I15" s="575"/>
+      <c r="H15" s="288">
+        <v>0</v>
+      </c>
+      <c r="I15" s="552"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -6940,7 +7040,7 @@
       <c r="M15" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="R15" s="527" t="s">
+      <c r="R15" s="524" t="s">
         <v>585</v>
       </c>
       <c r="T15" s="24">
@@ -6951,19 +7051,19 @@
       <c r="V15" s="112"/>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="575"/>
+      <c r="I16" s="552"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="S16" s="527" t="s">
+      <c r="S16" s="524" t="s">
         <v>585</v>
       </c>
       <c r="T16" s="24">
@@ -6992,7 +7092,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="575"/>
+      <c r="I17" s="552"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -7004,13 +7104,13 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="575"/>
+      <c r="I18" s="552"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="572" t="s">
+      <c r="O18" s="549" t="s">
         <v>540</v>
       </c>
-      <c r="P18" s="573"/>
+      <c r="P18" s="550"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -7025,18 +7125,18 @@
       <c r="U18" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="V18" s="524">
+      <c r="V18" s="521">
         <v>1</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="X18" s="524">
+      <c r="X18" s="521">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="575"/>
+      <c r="I19" s="552"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -7047,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="6"/>
-      <c r="X19" s="525"/>
+      <c r="X19" s="522"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
@@ -7062,13 +7162,13 @@
       <c r="D20" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E20" s="428">
+      <c r="E20" s="426">
         <v>-1</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="575"/>
+      <c r="I20" s="552"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -7087,13 +7187,13 @@
       <c r="W20" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="X20" s="525">
+      <c r="X20" s="522">
         <v>1</v>
       </c>
       <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="575"/>
+      <c r="I21" s="552"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -7104,7 +7204,7 @@
       <c r="W21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="X21" s="525">
+      <c r="X21" s="522">
         <v>1</v>
       </c>
     </row>
@@ -7121,23 +7221,23 @@
       <c r="D22" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E22" s="382">
+      <c r="E22" s="381">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="575"/>
+      <c r="I22" s="552"/>
       <c r="U22" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="V22" s="523">
+      <c r="V22" s="520">
         <v>1</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="X22" s="523">
+      <c r="X22" s="520">
         <v>1</v>
       </c>
     </row>
@@ -7148,10 +7248,10 @@
       <c r="D23" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="E23" s="301" t="s">
+      <c r="E23" s="300" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="575"/>
+      <c r="I23" s="552"/>
       <c r="U23" s="6" t="s">
         <v>74</v>
       </c>
@@ -7161,9 +7261,9 @@
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="575"/>
-      <c r="U24" s="379"/>
-      <c r="V24" s="526">
+      <c r="I24" s="552"/>
+      <c r="U24" s="378"/>
+      <c r="V24" s="523">
         <v>-1</v>
       </c>
       <c r="W24" s="19" t="s">
@@ -7189,8 +7289,8 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="575"/>
-      <c r="J25" s="449" t="s">
+      <c r="I25" s="552"/>
+      <c r="J25" s="447" t="s">
         <v>274</v>
       </c>
       <c r="K25" s="100" t="s">
@@ -7199,7 +7299,7 @@
       <c r="L25" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="443">
+      <c r="P25" s="441">
         <v>1</v>
       </c>
       <c r="U25" s="35"/>
@@ -7209,7 +7309,7 @@
       <c r="W25" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="X25" s="530" t="s">
+      <c r="X25" s="527" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7220,13 +7320,13 @@
       <c r="B26" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="C26" s="491" t="s">
+      <c r="C26" s="489" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="435" t="s">
+      <c r="D26" s="433" t="s">
         <v>538</v>
       </c>
-      <c r="E26" s="490" t="s">
+      <c r="E26" s="488" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="16"/>
@@ -7234,17 +7334,17 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="575"/>
+      <c r="I26" s="552"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
       <c r="L26" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="435" t="s">
+      <c r="M26" s="433" t="s">
         <v>538</v>
       </c>
-      <c r="P26" s="518"/>
+      <c r="P26" s="516"/>
       <c r="Q26" s="127" t="s">
         <v>44</v>
       </c>
@@ -7269,16 +7369,16 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="575"/>
+      <c r="I27" s="552"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P27" s="452" t="s">
+      <c r="P27" s="450" t="s">
         <v>44</v>
       </c>
       <c r="R27" s="112"/>
       <c r="S27" s="112"/>
-      <c r="U27" s="467"/>
+      <c r="U27" s="465"/>
       <c r="V27" s="112">
         <v>-1</v>
       </c>
@@ -7296,7 +7396,7 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="575"/>
+      <c r="I28" s="552"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -7318,15 +7418,15 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="576"/>
-      <c r="J29" s="358"/>
+      <c r="I29" s="553"/>
+      <c r="J29" s="357"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="R29" s="519"/>
+      <c r="R29" s="517"/>
       <c r="S29" s="112"/>
       <c r="T29" s="80"/>
       <c r="U29" s="35"/>
@@ -7347,26 +7447,21 @@
       <c r="B30" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="U30" s="528" t="s">
+      <c r="U30" s="525" t="s">
         <v>587</v>
       </c>
-      <c r="V30" s="529">
+      <c r="V30" s="526">
         <v>0</v>
       </c>
       <c r="W30" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="X30" s="532">
+      <c r="X30" s="529">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -7378,6 +7473,11 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7395,7 +7495,7 @@
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="20" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="417" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="415" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="65" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
@@ -7416,7 +7516,7 @@
     <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" style="485" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" style="483" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="1.85546875" customWidth="1"/>
     <col min="27" max="27" width="2.140625" customWidth="1"/>
@@ -7444,16 +7544,16 @@
       <c r="B1" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="507" t="s">
+      <c r="C1" s="505" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="444" t="s">
+      <c r="G1" s="442" t="s">
         <v>137</v>
       </c>
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="563" t="s">
+      <c r="I1" s="569" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7486,36 +7586,36 @@
       <c r="U1" s="124"/>
       <c r="V1" s="91"/>
       <c r="W1" s="145"/>
-      <c r="X1" s="482" t="s">
+      <c r="X1" s="480" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="619" t="s">
+      <c r="Y1" s="615" t="s">
         <v>555</v>
       </c>
-      <c r="Z1" s="458">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="381"/>
-      <c r="AB1" s="379"/>
+      <c r="Z1" s="456">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="380"/>
+      <c r="AB1" s="378"/>
       <c r="AC1" s="100" t="s">
         <v>500</v>
       </c>
-      <c r="AD1" s="380"/>
-      <c r="AE1" s="409"/>
-      <c r="AF1" s="409"/>
-      <c r="AG1" s="409"/>
-      <c r="AH1" s="409"/>
-      <c r="AI1" s="409"/>
-      <c r="AJ1" s="409"/>
-      <c r="AK1" s="495" t="s">
+      <c r="AD1" s="379"/>
+      <c r="AE1" s="407"/>
+      <c r="AF1" s="407"/>
+      <c r="AG1" s="407"/>
+      <c r="AH1" s="407"/>
+      <c r="AI1" s="407"/>
+      <c r="AJ1" s="407"/>
+      <c r="AK1" s="493" t="s">
         <v>470</v>
       </c>
-      <c r="AL1" s="409" t="s">
+      <c r="AL1" s="407" t="s">
         <v>517</v>
       </c>
-      <c r="AM1" s="454"/>
-      <c r="AN1" s="601"/>
-      <c r="AO1" s="375" t="s">
+      <c r="AM1" s="452"/>
+      <c r="AN1" s="600"/>
+      <c r="AO1" s="374" t="s">
         <v>487</v>
       </c>
       <c r="AQ1" s="68" t="s">
@@ -7523,70 +7623,70 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="583">
+      <c r="A2" s="624">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="585" t="s">
+      <c r="B2" s="626" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="565" t="s">
+      <c r="C2" s="571" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="587" t="s">
+      <c r="D2" s="628" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="631" t="s">
+      <c r="E2" s="573" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="606" t="s">
+      <c r="F2" s="581" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="445" t="s">
+      <c r="G2" s="443" t="s">
         <v>180</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="564"/>
+      <c r="I2" s="570"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="633" t="s">
+      <c r="K2" s="575" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="634"/>
-      <c r="M2" s="606" t="s">
+      <c r="L2" s="576"/>
+      <c r="M2" s="581" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="610" t="s">
+      <c r="O2" s="607" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="565" t="s">
+      <c r="Q2" s="571" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="533"/>
-      <c r="S2" s="623" t="s">
+      <c r="R2" s="530"/>
+      <c r="S2" s="594" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
       <c r="U2" s="124"/>
       <c r="V2" s="91"/>
       <c r="W2" s="146"/>
-      <c r="X2" s="483" t="s">
+      <c r="X2" s="481" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="620"/>
-      <c r="Z2" s="459">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="325"/>
+      <c r="Y2" s="616"/>
+      <c r="Z2" s="457">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="324"/>
       <c r="AB2" s="219"/>
       <c r="AC2" s="16"/>
       <c r="AD2" s="16"/>
@@ -7598,23 +7698,23 @@
       <c r="AH2" s="80"/>
       <c r="AI2" s="80"/>
       <c r="AJ2" s="80"/>
-      <c r="AK2" s="493" t="s">
+      <c r="AK2" s="491" t="s">
         <v>482</v>
       </c>
       <c r="AL2" s="251" t="s">
         <v>481</v>
       </c>
-      <c r="AM2" s="480"/>
-      <c r="AN2" s="602"/>
+      <c r="AM2" s="478"/>
+      <c r="AN2" s="601"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="584"/>
-      <c r="B3" s="586"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="588"/>
-      <c r="E3" s="632"/>
-      <c r="F3" s="607"/>
-      <c r="G3" s="446" t="s">
+      <c r="A3" s="625"/>
+      <c r="B3" s="627"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="629"/>
+      <c r="E3" s="574"/>
+      <c r="F3" s="582"/>
+      <c r="G3" s="444" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="82" t="s">
@@ -7632,65 +7732,65 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="607"/>
+      <c r="M3" s="582"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="611"/>
+      <c r="O3" s="608"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="566"/>
-      <c r="R3" s="535"/>
-      <c r="S3" s="624"/>
+      <c r="Q3" s="572"/>
+      <c r="R3" s="532"/>
+      <c r="S3" s="596"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
       <c r="W3" s="145"/>
-      <c r="X3" s="483" t="s">
+      <c r="X3" s="481" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="620"/>
-      <c r="Z3" s="460">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="325"/>
+      <c r="Y3" s="616"/>
+      <c r="Z3" s="458">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="324"/>
       <c r="AB3" s="219"/>
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="622" t="s">
+      <c r="AD3" s="591" t="s">
         <v>473</v>
       </c>
-      <c r="AE3" s="272"/>
-      <c r="AF3" s="272"/>
+      <c r="AE3" s="271"/>
+      <c r="AF3" s="271"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
       <c r="AI3" s="16"/>
       <c r="AJ3" s="16"/>
-      <c r="AK3" s="272"/>
+      <c r="AK3" s="271"/>
       <c r="AL3" s="16"/>
-      <c r="AM3" s="480"/>
-      <c r="AN3" s="602"/>
+      <c r="AM3" s="478"/>
+      <c r="AN3" s="601"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="599" t="s">
+      <c r="B4" s="640" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="565" t="s">
+      <c r="C4" s="571" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="384" t="s">
+      <c r="D4" s="383" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="422">
-        <v>1</v>
-      </c>
-      <c r="F4" s="607"/>
-      <c r="G4" s="427" t="s">
+      <c r="E4" s="420">
+        <v>1</v>
+      </c>
+      <c r="F4" s="582"/>
+      <c r="G4" s="425" t="s">
         <v>203</v>
       </c>
       <c r="H4" s="86" t="s">
@@ -7706,11 +7806,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="607"/>
+      <c r="M4" s="582"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="611"/>
+      <c r="O4" s="608"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7729,67 +7829,67 @@
       <c r="W4" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="X4" s="483" t="s">
+      <c r="X4" s="481" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="620"/>
-      <c r="Z4" s="461"/>
-      <c r="AA4" s="325"/>
+      <c r="Y4" s="616"/>
+      <c r="Z4" s="459"/>
+      <c r="AA4" s="324"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="622"/>
-      <c r="AE4" s="272"/>
-      <c r="AF4" s="272"/>
+      <c r="AD4" s="591"/>
+      <c r="AE4" s="271"/>
+      <c r="AF4" s="271"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
       <c r="AI4" s="16"/>
       <c r="AJ4" s="16"/>
-      <c r="AK4" s="272"/>
+      <c r="AK4" s="271"/>
       <c r="AL4" s="16"/>
-      <c r="AM4" s="480"/>
-      <c r="AN4" s="602"/>
-      <c r="AO4" s="375" t="s">
+      <c r="AM4" s="478"/>
+      <c r="AN4" s="601"/>
+      <c r="AO4" s="374" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="563" t="s">
+      <c r="A5" s="569" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="600"/>
-      <c r="C5" s="566"/>
+      <c r="B5" s="641"/>
+      <c r="C5" s="572"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="423">
-        <v>1</v>
-      </c>
-      <c r="F5" s="607"/>
-      <c r="G5" s="591" t="s">
+      <c r="E5" s="421">
+        <v>1</v>
+      </c>
+      <c r="F5" s="582"/>
+      <c r="G5" s="632" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="591"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="592"/>
-      <c r="M5" s="607"/>
+      <c r="H5" s="632"/>
+      <c r="I5" s="632"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="632"/>
+      <c r="L5" s="633"/>
+      <c r="M5" s="582"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="611"/>
+      <c r="O5" s="608"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
       <c r="W5" s="146"/>
-      <c r="X5" s="483" t="s">
+      <c r="X5" s="481" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="620"/>
-      <c r="Z5" s="461">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="325"/>
+      <c r="Y5" s="616"/>
+      <c r="Z5" s="459">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="324"/>
       <c r="AB5" s="100" t="s">
         <v>501</v>
       </c>
@@ -7805,61 +7905,61 @@
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
-      <c r="AK5" s="272"/>
+      <c r="AK5" s="271"/>
       <c r="AL5" s="80"/>
-      <c r="AM5" s="480"/>
-      <c r="AN5" s="602"/>
+      <c r="AM5" s="478"/>
+      <c r="AN5" s="601"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="564"/>
-      <c r="B6" s="597" t="s">
+      <c r="A6" s="570"/>
+      <c r="B6" s="638" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="561"/>
-      <c r="D6" s="562"/>
-      <c r="F6" s="607"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="593"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="593"/>
-      <c r="L6" s="594"/>
-      <c r="M6" s="607"/>
-      <c r="O6" s="611"/>
+      <c r="C6" s="567"/>
+      <c r="D6" s="568"/>
+      <c r="F6" s="582"/>
+      <c r="G6" s="634"/>
+      <c r="H6" s="634"/>
+      <c r="I6" s="634"/>
+      <c r="J6" s="634"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="635"/>
+      <c r="M6" s="582"/>
+      <c r="O6" s="608"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
         <v>176</v>
       </c>
       <c r="W6" s="146"/>
-      <c r="X6" s="483" t="s">
+      <c r="X6" s="481" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="620"/>
-      <c r="Z6" s="459">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="325"/>
+      <c r="Y6" s="616"/>
+      <c r="Z6" s="457">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="324"/>
       <c r="AB6" s="219"/>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="465" t="s">
+      <c r="AD6" s="463" t="s">
         <v>245</v>
       </c>
-      <c r="AE6" s="272"/>
-      <c r="AF6" s="272"/>
-      <c r="AG6" s="272"/>
-      <c r="AH6" s="272"/>
-      <c r="AI6" s="616"/>
-      <c r="AJ6" s="493" t="s">
+      <c r="AE6" s="271"/>
+      <c r="AF6" s="271"/>
+      <c r="AG6" s="271"/>
+      <c r="AH6" s="271"/>
+      <c r="AI6" s="590"/>
+      <c r="AJ6" s="491" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="616" t="s">
+      <c r="AK6" s="590" t="s">
         <v>256</v>
       </c>
-      <c r="AL6" s="272"/>
-      <c r="AM6" s="480"/>
-      <c r="AN6" s="602"/>
-      <c r="AO6" s="375" t="s">
+      <c r="AL6" s="271"/>
+      <c r="AM6" s="478"/>
+      <c r="AN6" s="601"/>
+      <c r="AO6" s="374" t="s">
         <v>488</v>
       </c>
     </row>
@@ -7867,18 +7967,18 @@
       <c r="A7" s="245" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="598"/>
+      <c r="B7" s="639"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
-      <c r="D7" s="385" t="s">
+      <c r="D7" s="384" t="s">
         <v>395</v>
       </c>
-      <c r="E7" s="281">
+      <c r="E7" s="280">
         <v>3</v>
       </c>
-      <c r="F7" s="607"/>
-      <c r="G7" s="447">
+      <c r="F7" s="582"/>
+      <c r="G7" s="445">
         <v>0</v>
       </c>
       <c r="H7" s="150">
@@ -7890,14 +7990,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="533">
+      <c r="K7" s="530">
         <v>1</v>
       </c>
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="607"/>
-      <c r="O7" s="611"/>
+      <c r="M7" s="582"/>
+      <c r="O7" s="608"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7908,31 +8008,31 @@
       <c r="U7" s="124"/>
       <c r="V7" s="92"/>
       <c r="W7" s="146"/>
-      <c r="X7" s="483" t="s">
+      <c r="X7" s="481" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="620"/>
-      <c r="Z7" s="459">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="325"/>
+      <c r="Y7" s="616"/>
+      <c r="Z7" s="457">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="324"/>
       <c r="AB7" s="219"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
-      <c r="AE7" s="272"/>
-      <c r="AF7" s="272"/>
-      <c r="AG7" s="622" t="s">
+      <c r="AE7" s="271"/>
+      <c r="AF7" s="271"/>
+      <c r="AG7" s="591" t="s">
         <v>472</v>
       </c>
-      <c r="AH7" s="272"/>
-      <c r="AI7" s="616"/>
-      <c r="AJ7" s="272"/>
-      <c r="AK7" s="616"/>
+      <c r="AH7" s="271"/>
+      <c r="AI7" s="590"/>
+      <c r="AJ7" s="271"/>
+      <c r="AK7" s="590"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
-      <c r="AM7" s="480"/>
-      <c r="AN7" s="602"/>
+      <c r="AM7" s="478"/>
+      <c r="AN7" s="601"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7941,60 +8041,60 @@
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="383" t="s">
+      <c r="B8" s="382" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="374"/>
-      <c r="E8" s="258">
+      <c r="D8" s="373"/>
+      <c r="E8" s="257">
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="607"/>
-      <c r="G8" s="592">
-        <v>0</v>
-      </c>
-      <c r="H8" s="589" t="s">
+      <c r="F8" s="582"/>
+      <c r="G8" s="633">
+        <v>0</v>
+      </c>
+      <c r="H8" s="630" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="533">
-        <v>0</v>
-      </c>
-      <c r="J8" s="589" t="s">
+      <c r="I8" s="530">
+        <v>0</v>
+      </c>
+      <c r="J8" s="630" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="595"/>
-      <c r="L8" s="625"/>
-      <c r="M8" s="608"/>
-      <c r="N8" s="628">
+      <c r="K8" s="636"/>
+      <c r="L8" s="592"/>
+      <c r="M8" s="605"/>
+      <c r="N8" s="597">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="611"/>
+      <c r="O8" s="608"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
       <c r="U8" s="124"/>
       <c r="V8" s="92"/>
       <c r="W8" s="146"/>
-      <c r="X8" s="483" t="s">
+      <c r="X8" s="481" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="620"/>
-      <c r="Z8" s="461"/>
-      <c r="AA8" s="325"/>
+      <c r="Y8" s="616"/>
+      <c r="Z8" s="459"/>
+      <c r="AA8" s="324"/>
       <c r="AB8" s="219"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
-      <c r="AE8" s="272"/>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="622"/>
-      <c r="AH8" s="272"/>
-      <c r="AI8" s="616"/>
-      <c r="AJ8" s="272"/>
-      <c r="AK8" s="272"/>
-      <c r="AL8" s="272"/>
-      <c r="AM8" s="480"/>
-      <c r="AN8" s="602"/>
+      <c r="AE8" s="271"/>
+      <c r="AF8" s="271"/>
+      <c r="AG8" s="591"/>
+      <c r="AH8" s="271"/>
+      <c r="AI8" s="590"/>
+      <c r="AJ8" s="271"/>
+      <c r="AK8" s="271"/>
+      <c r="AL8" s="271"/>
+      <c r="AM8" s="478"/>
+      <c r="AN8" s="601"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -8006,20 +8106,20 @@
       <c r="C9" s="212" t="s">
         <v>508</v>
       </c>
-      <c r="D9" s="385" t="s">
+      <c r="D9" s="384" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="607"/>
-      <c r="G9" s="594"/>
-      <c r="H9" s="590"/>
-      <c r="I9" s="535"/>
-      <c r="J9" s="590"/>
-      <c r="K9" s="596"/>
-      <c r="L9" s="626"/>
-      <c r="M9" s="609"/>
-      <c r="N9" s="629"/>
-      <c r="O9" s="612"/>
-      <c r="S9" s="623" t="s">
+      <c r="F9" s="582"/>
+      <c r="G9" s="635"/>
+      <c r="H9" s="631"/>
+      <c r="I9" s="532"/>
+      <c r="J9" s="631"/>
+      <c r="K9" s="637"/>
+      <c r="L9" s="593"/>
+      <c r="M9" s="606"/>
+      <c r="N9" s="598"/>
+      <c r="O9" s="609"/>
+      <c r="S9" s="594" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -8028,29 +8128,29 @@
         <v>176</v>
       </c>
       <c r="W9" s="48"/>
-      <c r="X9" s="483" t="s">
+      <c r="X9" s="481" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="620"/>
-      <c r="Z9" s="462"/>
-      <c r="AA9" s="325"/>
+      <c r="Y9" s="616"/>
+      <c r="Z9" s="460"/>
+      <c r="AA9" s="324"/>
       <c r="AB9" s="219"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="465" t="s">
+      <c r="AD9" s="463" t="s">
         <v>245</v>
       </c>
-      <c r="AE9" s="272"/>
-      <c r="AF9" s="272"/>
-      <c r="AG9" s="622"/>
-      <c r="AH9" s="272"/>
-      <c r="AI9" s="616"/>
+      <c r="AE9" s="271"/>
+      <c r="AF9" s="271"/>
+      <c r="AG9" s="591"/>
+      <c r="AH9" s="271"/>
+      <c r="AI9" s="590"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="616" t="s">
+      <c r="AK9" s="590" t="s">
         <v>256</v>
       </c>
-      <c r="AL9" s="272"/>
-      <c r="AM9" s="480"/>
-      <c r="AN9" s="602"/>
+      <c r="AL9" s="271"/>
+      <c r="AM9" s="478"/>
+      <c r="AN9" s="601"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -8065,22 +8165,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="250">
         <f>Boat!S8</f>
-        <v>40</v>
-      </c>
-      <c r="F10" s="607"/>
-      <c r="N10" s="470" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="582"/>
+      <c r="N10" s="468" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="640" t="s">
+      <c r="O10" s="584" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="613" t="s">
+      <c r="P10" s="610" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="627"/>
+      <c r="S10" s="595"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8089,14 +8189,14 @@
         <v>222</v>
       </c>
       <c r="W10" s="146"/>
-      <c r="X10" s="483" t="s">
+      <c r="X10" s="481" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="620"/>
-      <c r="Z10" s="461">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="325">
+      <c r="Y10" s="616"/>
+      <c r="Z10" s="459">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="324">
         <v>1</v>
       </c>
       <c r="AB10" s="219"/>
@@ -8110,16 +8210,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="622"/>
+      <c r="AG10" s="591"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="616"/>
-      <c r="AJ10" s="272"/>
-      <c r="AK10" s="616"/>
-      <c r="AL10" s="272"/>
-      <c r="AM10" s="494" t="s">
+      <c r="AI10" s="590"/>
+      <c r="AJ10" s="271"/>
+      <c r="AK10" s="590"/>
+      <c r="AL10" s="271"/>
+      <c r="AM10" s="492" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="602"/>
+      <c r="AN10" s="601"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -8128,58 +8228,58 @@
       <c r="A11" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="533" t="s">
+      <c r="B11" s="530" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="509" t="s">
+      <c r="C11" s="507" t="s">
         <v>178</v>
       </c>
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="607"/>
+      <c r="F11" s="582"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="641"/>
-      <c r="P11" s="614"/>
+      <c r="O11" s="585"/>
+      <c r="P11" s="611"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="627"/>
+      <c r="S11" s="595"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
       <c r="U11" s="124"/>
       <c r="V11" s="121"/>
       <c r="W11" s="146"/>
-      <c r="X11" s="483" t="s">
+      <c r="X11" s="481" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="620"/>
-      <c r="Z11" s="461"/>
-      <c r="AA11" s="325">
+      <c r="Y11" s="616"/>
+      <c r="Z11" s="459"/>
+      <c r="AA11" s="324">
         <v>1</v>
       </c>
       <c r="AB11" s="99" t="s">
         <v>485</v>
       </c>
-      <c r="AC11" s="272"/>
+      <c r="AC11" s="271"/>
       <c r="AD11" s="16"/>
-      <c r="AE11" s="272"/>
-      <c r="AF11" s="272" t="s">
+      <c r="AE11" s="271"/>
+      <c r="AF11" s="271" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="622"/>
-      <c r="AH11" s="272"/>
+      <c r="AG11" s="591"/>
+      <c r="AH11" s="271"/>
       <c r="AI11" s="70"/>
-      <c r="AJ11" s="272"/>
-      <c r="AK11" s="272"/>
-      <c r="AL11" s="272"/>
-      <c r="AM11" s="480"/>
-      <c r="AN11" s="602"/>
+      <c r="AJ11" s="271"/>
+      <c r="AK11" s="271"/>
+      <c r="AL11" s="271"/>
+      <c r="AM11" s="478"/>
+      <c r="AN11" s="601"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -8188,8 +8288,8 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="535"/>
-      <c r="C12" s="510" t="s">
+      <c r="B12" s="532"/>
+      <c r="C12" s="508" t="s">
         <v>394</v>
       </c>
       <c r="D12" s="61" t="s">
@@ -8198,112 +8298,112 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="607"/>
-      <c r="G12" s="374" t="s">
+      <c r="F12" s="582"/>
+      <c r="G12" s="373" t="s">
         <v>411</v>
       </c>
-      <c r="H12" s="538" t="s">
+      <c r="H12" s="535" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="539"/>
-      <c r="J12" s="539"/>
-      <c r="K12" s="645"/>
+      <c r="I12" s="536"/>
+      <c r="J12" s="536"/>
+      <c r="K12" s="589"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="641"/>
-      <c r="P12" s="614"/>
+      <c r="O12" s="585"/>
+      <c r="P12" s="611"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="624"/>
+      <c r="S12" s="596"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
       <c r="U12" s="124"/>
       <c r="V12" s="146"/>
       <c r="W12" s="146"/>
-      <c r="X12" s="483" t="s">
+      <c r="X12" s="481" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="620"/>
-      <c r="Z12" s="459">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="325">
+      <c r="Y12" s="616"/>
+      <c r="Z12" s="457">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="324">
         <v>1</v>
       </c>
       <c r="AB12" s="219"/>
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="630" t="s">
+      <c r="AD12" s="599" t="s">
         <v>245</v>
       </c>
-      <c r="AE12" s="493" t="s">
+      <c r="AE12" s="491" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="622" t="s">
+      <c r="AF12" s="591" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="622"/>
+      <c r="AG12" s="591"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
       <c r="AI12" s="251" t="s">
         <v>241</v>
       </c>
-      <c r="AJ12" s="272"/>
-      <c r="AK12" s="272"/>
-      <c r="AL12" s="272"/>
-      <c r="AM12" s="617" t="s">
+      <c r="AJ12" s="271"/>
+      <c r="AK12" s="271"/>
+      <c r="AL12" s="271"/>
+      <c r="AM12" s="613" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="602"/>
-      <c r="AO12" s="375" t="s">
+      <c r="AN12" s="601"/>
+      <c r="AO12" s="374" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="499" t="s">
+      <c r="B13" s="497" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="500">
+      <c r="E13" s="498">
         <v>-3</v>
       </c>
-      <c r="F13" s="607"/>
-      <c r="G13" s="539" t="s">
+      <c r="F13" s="582"/>
+      <c r="G13" s="536" t="s">
         <v>448</v>
       </c>
-      <c r="H13" s="539"/>
-      <c r="I13" s="539"/>
-      <c r="J13" s="645"/>
+      <c r="H13" s="536"/>
+      <c r="I13" s="536"/>
+      <c r="J13" s="589"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="641"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="585"/>
+      <c r="P13" s="612"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
       <c r="U13" s="124"/>
       <c r="V13" s="146"/>
       <c r="W13" s="146"/>
-      <c r="X13" s="483" t="s">
+      <c r="X13" s="481" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="620"/>
-      <c r="Z13" s="459">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="325">
+      <c r="Y13" s="616"/>
+      <c r="Z13" s="457">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="324">
         <v>1</v>
       </c>
       <c r="AB13" s="100" t="s">
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="630"/>
-      <c r="AF13" s="622"/>
+      <c r="AD13" s="599"/>
+      <c r="AF13" s="591"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8312,29 +8412,29 @@
         <v>313</v>
       </c>
       <c r="AJ13" s="80"/>
-      <c r="AK13" s="272"/>
-      <c r="AL13" s="272"/>
-      <c r="AM13" s="617"/>
-      <c r="AN13" s="602"/>
+      <c r="AK13" s="271"/>
+      <c r="AL13" s="271"/>
+      <c r="AM13" s="613"/>
+      <c r="AN13" s="601"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="502"/>
-      <c r="B14" s="503"/>
-      <c r="C14" s="511"/>
-      <c r="D14" s="504"/>
-      <c r="E14" s="505"/>
-      <c r="F14" s="607"/>
-      <c r="G14" s="539" t="s">
+      <c r="A14" s="500"/>
+      <c r="B14" s="501"/>
+      <c r="C14" s="509"/>
+      <c r="D14" s="502"/>
+      <c r="E14" s="503"/>
+      <c r="F14" s="582"/>
+      <c r="G14" s="536" t="s">
         <v>447</v>
       </c>
-      <c r="H14" s="539"/>
-      <c r="I14" s="539"/>
-      <c r="J14" s="645"/>
+      <c r="H14" s="536"/>
+      <c r="I14" s="536"/>
+      <c r="J14" s="589"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="641"/>
+      <c r="O14" s="585"/>
       <c r="Q14" s="61" t="s">
         <v>559</v>
       </c>
@@ -8345,37 +8445,37 @@
       <c r="U14" s="124"/>
       <c r="V14" s="93"/>
       <c r="W14" s="146"/>
-      <c r="X14" s="483" t="s">
+      <c r="X14" s="481" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="620"/>
-      <c r="Z14" s="459">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="325"/>
+      <c r="Y14" s="616"/>
+      <c r="Z14" s="457">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="324"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="630"/>
-      <c r="AE14" s="272"/>
-      <c r="AF14" s="622"/>
-      <c r="AG14" s="272"/>
-      <c r="AH14" s="272"/>
+      <c r="AD14" s="599"/>
+      <c r="AE14" s="271"/>
+      <c r="AF14" s="591"/>
+      <c r="AG14" s="271"/>
+      <c r="AH14" s="271"/>
       <c r="AI14" s="70"/>
-      <c r="AJ14" s="272"/>
-      <c r="AK14" s="272"/>
-      <c r="AL14" s="272"/>
-      <c r="AM14" s="617"/>
-      <c r="AN14" s="602"/>
+      <c r="AJ14" s="271"/>
+      <c r="AK14" s="271"/>
+      <c r="AL14" s="271"/>
+      <c r="AM14" s="613"/>
+      <c r="AN14" s="601"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="501" t="s">
+      <c r="A15" s="499" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="533" t="s">
+      <c r="C15" s="530" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="607"/>
-      <c r="O15" s="641"/>
+      <c r="F15" s="582"/>
+      <c r="O15" s="585"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8385,20 +8485,20 @@
       <c r="W15" s="147" t="s">
         <v>181</v>
       </c>
-      <c r="X15" s="483" t="s">
+      <c r="X15" s="481" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="620"/>
-      <c r="Z15" s="461">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="325"/>
+      <c r="Y15" s="616"/>
+      <c r="Z15" s="459">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="324"/>
       <c r="AB15" s="219"/>
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="630"/>
-      <c r="AF15" s="622"/>
+      <c r="AD15" s="599"/>
+      <c r="AF15" s="591"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8409,10 +8509,10 @@
       <c r="AJ15" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="AK15" s="272"/>
-      <c r="AL15" s="272"/>
-      <c r="AM15" s="617"/>
-      <c r="AN15" s="602"/>
+      <c r="AK15" s="271"/>
+      <c r="AL15" s="271"/>
+      <c r="AM15" s="613"/>
+      <c r="AN15" s="601"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8427,63 +8527,63 @@
       <c r="B16" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="535"/>
+      <c r="C16" s="532"/>
       <c r="D16" s="61" t="s">
         <v>511</v>
       </c>
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="607"/>
-      <c r="G16" s="374" t="s">
+      <c r="F16" s="582"/>
+      <c r="G16" s="373" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="641"/>
-      <c r="R16" s="487" t="s">
+      <c r="O16" s="585"/>
+      <c r="R16" s="485" t="s">
         <v>185</v>
       </c>
       <c r="T16" s="89"/>
       <c r="U16" s="124"/>
       <c r="V16" s="94"/>
       <c r="W16" s="146"/>
-      <c r="X16" s="483" t="s">
+      <c r="X16" s="481" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="620"/>
-      <c r="Z16" s="459">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="325"/>
+      <c r="Y16" s="616"/>
+      <c r="Z16" s="457">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="324"/>
       <c r="AB16" s="219"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
-      <c r="AE16" s="272"/>
-      <c r="AF16" s="272"/>
-      <c r="AG16" s="272"/>
-      <c r="AH16" s="272"/>
+      <c r="AE16" s="271"/>
+      <c r="AF16" s="271"/>
+      <c r="AG16" s="271"/>
+      <c r="AH16" s="271"/>
       <c r="AI16" s="70"/>
       <c r="AJ16" s="251" t="s">
         <v>477</v>
       </c>
-      <c r="AK16" s="272"/>
+      <c r="AK16" s="271"/>
       <c r="AL16" s="80"/>
-      <c r="AM16" s="480" t="s">
+      <c r="AM16" s="478" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="602"/>
+      <c r="AN16" s="601"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="607"/>
+      <c r="F17" s="582"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="641"/>
+      <c r="O17" s="585"/>
       <c r="Q17" s="21" t="s">
         <v>557</v>
       </c>
@@ -8500,12 +8600,12 @@
       <c r="W17" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="X17" s="483" t="s">
+      <c r="X17" s="481" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="620"/>
-      <c r="Z17" s="461"/>
-      <c r="AA17" s="325"/>
+      <c r="Y17" s="616"/>
+      <c r="Z17" s="459"/>
+      <c r="AA17" s="324"/>
       <c r="AB17" s="219"/>
       <c r="AC17" s="76" t="s">
         <v>483</v>
@@ -8513,22 +8613,22 @@
       <c r="AD17" s="251" t="s">
         <v>247</v>
       </c>
-      <c r="AE17" s="272" t="s">
+      <c r="AE17" s="271" t="s">
         <v>520</v>
       </c>
-      <c r="AF17" s="272"/>
+      <c r="AF17" s="271"/>
       <c r="AG17" s="80"/>
       <c r="AH17" s="80" t="s">
         <v>521</v>
       </c>
-      <c r="AI17" s="272" t="s">
+      <c r="AI17" s="271" t="s">
         <v>234</v>
       </c>
       <c r="AJ17" s="80"/>
-      <c r="AK17" s="272"/>
+      <c r="AK17" s="271"/>
       <c r="AL17" s="80"/>
-      <c r="AM17" s="480"/>
-      <c r="AN17" s="602"/>
+      <c r="AM17" s="478"/>
+      <c r="AN17" s="601"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8537,106 +8637,106 @@
       </c>
     </row>
     <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="517" t="s">
+      <c r="A18" s="515" t="s">
         <v>582</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="C18" s="506" t="s">
+      <c r="C18" s="504" t="s">
         <v>540</v>
       </c>
-      <c r="D18" s="435" t="s">
+      <c r="D18" s="433" t="s">
         <v>538</v>
       </c>
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="607"/>
-      <c r="G18" s="374" t="s">
+      <c r="F18" s="582"/>
+      <c r="G18" s="373" t="s">
         <v>554</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="641"/>
+      <c r="O18" s="585"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="635" t="s">
+      <c r="R18" s="577" t="s">
         <v>562</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="580" t="s">
+      <c r="U18" s="621" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
       <c r="W18" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="X18" s="483" t="s">
+      <c r="X18" s="481" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="620"/>
-      <c r="Z18" s="461">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="325"/>
+      <c r="Y18" s="616"/>
+      <c r="Z18" s="459">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="324"/>
       <c r="AB18" s="76" t="s">
         <v>483</v>
       </c>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
-      <c r="AE18" s="272"/>
-      <c r="AF18" s="616" t="s">
+      <c r="AE18" s="271"/>
+      <c r="AF18" s="590" t="s">
         <v>493</v>
       </c>
-      <c r="AG18" s="272"/>
+      <c r="AG18" s="271"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="618" t="s">
+      <c r="AJ18" s="614" t="s">
         <v>322</v>
       </c>
-      <c r="AK18" s="272"/>
+      <c r="AK18" s="271"/>
       <c r="AL18" s="80"/>
-      <c r="AM18" s="480"/>
-      <c r="AN18" s="602"/>
+      <c r="AM18" s="478"/>
+      <c r="AN18" s="601"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="607"/>
-      <c r="O19" s="641"/>
-      <c r="R19" s="636"/>
+      <c r="F19" s="582"/>
+      <c r="O19" s="585"/>
+      <c r="R19" s="578"/>
       <c r="S19" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="U19" s="581"/>
+      <c r="U19" s="622"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
-      <c r="X19" s="483" t="s">
+      <c r="X19" s="481" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="620"/>
-      <c r="Z19" s="459">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="325"/>
+      <c r="Y19" s="616"/>
+      <c r="Z19" s="457">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="324"/>
       <c r="AB19" s="219"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
-      <c r="AE19" s="272"/>
-      <c r="AF19" s="616"/>
-      <c r="AG19" s="272"/>
-      <c r="AH19" s="272"/>
+      <c r="AE19" s="271"/>
+      <c r="AF19" s="590"/>
+      <c r="AG19" s="271"/>
+      <c r="AH19" s="271"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="618"/>
-      <c r="AK19" s="512" t="s">
+      <c r="AJ19" s="614"/>
+      <c r="AK19" s="510" t="s">
         <v>256</v>
       </c>
       <c r="AL19" s="80"/>
-      <c r="AM19" s="480"/>
-      <c r="AN19" s="602"/>
+      <c r="AM19" s="478"/>
+      <c r="AN19" s="601"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8648,58 +8748,58 @@
       <c r="B20" s="227" t="s">
         <v>530</v>
       </c>
-      <c r="C20" s="508" t="s">
+      <c r="C20" s="506" t="s">
         <v>504</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="E20" s="489">
+      <c r="E20" s="487">
         <v>-1</v>
       </c>
-      <c r="F20" s="607"/>
-      <c r="G20" s="374" t="s">
+      <c r="F20" s="582"/>
+      <c r="G20" s="373" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="641"/>
-      <c r="Q20" s="643" t="s">
+      <c r="O20" s="585"/>
+      <c r="Q20" s="587" t="s">
         <v>48</v>
       </c>
-      <c r="T20" s="456" t="s">
+      <c r="T20" s="454" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="582"/>
-      <c r="W20" s="457"/>
-      <c r="X20" s="484" t="s">
+      <c r="U20" s="623"/>
+      <c r="W20" s="455"/>
+      <c r="X20" s="482" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="620"/>
-      <c r="Z20" s="463">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="464">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="271"/>
-      <c r="AC20" s="466"/>
-      <c r="AD20" s="466"/>
-      <c r="AE20" s="376"/>
-      <c r="AF20" s="455"/>
-      <c r="AG20" s="376"/>
-      <c r="AH20" s="377"/>
-      <c r="AI20" s="378" t="s">
+      <c r="Y20" s="616"/>
+      <c r="Z20" s="461">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="462">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="270"/>
+      <c r="AC20" s="464"/>
+      <c r="AD20" s="464"/>
+      <c r="AE20" s="375"/>
+      <c r="AF20" s="453"/>
+      <c r="AG20" s="375"/>
+      <c r="AH20" s="376"/>
+      <c r="AI20" s="377" t="s">
         <v>303</v>
       </c>
-      <c r="AJ20" s="376"/>
-      <c r="AK20" s="513"/>
-      <c r="AL20" s="377" t="s">
+      <c r="AJ20" s="375"/>
+      <c r="AK20" s="511"/>
+      <c r="AL20" s="376" t="s">
         <v>518</v>
       </c>
-      <c r="AM20" s="427" t="s">
+      <c r="AM20" s="425" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="602"/>
-      <c r="AO20" s="375" t="s">
+      <c r="AN20" s="601"/>
+      <c r="AO20" s="374" t="s">
         <v>478</v>
       </c>
       <c r="AQ20" s="100" t="s">
@@ -8713,37 +8813,37 @@
       <c r="B21" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="C21" s="508" t="s">
+      <c r="C21" s="506" t="s">
         <v>504</v>
       </c>
       <c r="D21" s="174" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="281">
-        <v>1</v>
-      </c>
-      <c r="F21" s="607"/>
-      <c r="O21" s="641"/>
-      <c r="Q21" s="644"/>
-      <c r="T21" s="474"/>
+      <c r="E21" s="280">
+        <v>1</v>
+      </c>
+      <c r="F21" s="582"/>
+      <c r="O21" s="585"/>
+      <c r="Q21" s="588"/>
+      <c r="T21" s="472"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="577"/>
-      <c r="W21" s="478" t="s">
+      <c r="V21" s="618"/>
+      <c r="W21" s="476" t="s">
         <v>176</v>
       </c>
-      <c r="X21" s="481" t="s">
+      <c r="X21" s="479" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="620"/>
-      <c r="Z21" s="497">
+      <c r="Y21" s="616"/>
+      <c r="Z21" s="495">
         <v>3</v>
       </c>
-      <c r="AA21" s="498">
+      <c r="AA21" s="496">
         <v>3</v>
       </c>
-      <c r="AB21" s="467"/>
+      <c r="AB21" s="465"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="465" t="s">
+      <c r="AD21" s="463" t="s">
         <v>245</v>
       </c>
       <c r="AE21" s="6"/>
@@ -8758,39 +8858,39 @@
       <c r="AJ21" s="80" t="s">
         <v>320</v>
       </c>
-      <c r="AK21" s="272" t="s">
+      <c r="AK21" s="271" t="s">
         <v>256</v>
       </c>
       <c r="AL21" s="6"/>
-      <c r="AM21" s="480" t="s">
+      <c r="AM21" s="478" t="s">
         <v>572</v>
       </c>
-      <c r="AN21" s="602"/>
+      <c r="AN21" s="601"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="607"/>
-      <c r="G22" s="374" t="s">
+      <c r="F22" s="582"/>
+      <c r="G22" s="373" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="641"/>
-      <c r="R22" s="486" t="s">
+      <c r="O22" s="585"/>
+      <c r="R22" s="484" t="s">
         <v>44</v>
       </c>
-      <c r="T22" s="475" t="s">
+      <c r="T22" s="473" t="s">
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="578"/>
-      <c r="W22" s="478" t="s">
+      <c r="V22" s="619"/>
+      <c r="W22" s="476" t="s">
         <v>176</v>
       </c>
-      <c r="X22" s="481" t="s">
+      <c r="X22" s="479" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="620"/>
-      <c r="Z22" s="467"/>
+      <c r="Y22" s="616"/>
+      <c r="Z22" s="465"/>
       <c r="AA22" s="10"/>
-      <c r="AB22" s="467"/>
+      <c r="AB22" s="465"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
@@ -8798,15 +8898,15 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="616" t="s">
+      <c r="AJ22" s="590" t="s">
         <v>490</v>
       </c>
-      <c r="AK22" s="272"/>
+      <c r="AK22" s="271"/>
       <c r="AL22" s="80" t="s">
         <v>496</v>
       </c>
-      <c r="AM22" s="318"/>
-      <c r="AN22" s="602"/>
+      <c r="AM22" s="317"/>
+      <c r="AN22" s="601"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8815,33 +8915,33 @@
       <c r="B23" s="178" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="507" t="s">
+      <c r="C23" s="505" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="384" t="s">
+      <c r="D23" s="383" t="s">
         <v>136</v>
       </c>
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="607"/>
-      <c r="O23" s="641"/>
-      <c r="Q23" s="643" t="s">
+      <c r="F23" s="582"/>
+      <c r="O23" s="585"/>
+      <c r="Q23" s="587" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
-      <c r="U23" s="472" t="s">
+      <c r="U23" s="470" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="578"/>
+      <c r="V23" s="619"/>
       <c r="W23" s="148"/>
-      <c r="X23" s="481" t="s">
+      <c r="X23" s="479" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="620"/>
+      <c r="Y23" s="616"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
-      <c r="AB23" s="467"/>
+      <c r="AB23" s="465"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
@@ -8849,49 +8949,49 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="616"/>
-      <c r="AK23" s="272"/>
+      <c r="AJ23" s="590"/>
+      <c r="AK23" s="271"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
-      <c r="AM23" s="318"/>
-      <c r="AN23" s="602"/>
+      <c r="AM23" s="317"/>
+      <c r="AN23" s="601"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="492" t="s">
+      <c r="A24" s="490" t="s">
         <v>446</v>
       </c>
       <c r="B24" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="509" t="s">
+      <c r="C24" s="507" t="s">
         <v>155</v>
       </c>
       <c r="D24" s="175" t="s">
         <v>270</v>
       </c>
-      <c r="E24" s="488">
-        <v>1</v>
-      </c>
-      <c r="F24" s="607"/>
+      <c r="E24" s="486">
+        <v>1</v>
+      </c>
+      <c r="F24" s="582"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="641"/>
-      <c r="Q24" s="644"/>
+      <c r="O24" s="585"/>
+      <c r="Q24" s="588"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="578"/>
+      <c r="V24" s="619"/>
       <c r="W24" s="148"/>
-      <c r="X24" s="481" t="s">
+      <c r="X24" s="479" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="620"/>
+      <c r="Y24" s="616"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
-      <c r="AB24" s="467"/>
+      <c r="AB24" s="465"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
@@ -8900,39 +9000,39 @@
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="493" t="s">
+      <c r="AK24" s="491" t="s">
         <v>482</v>
       </c>
       <c r="AL24" s="251" t="s">
         <v>481</v>
       </c>
-      <c r="AM24" s="318"/>
-      <c r="AN24" s="602"/>
+      <c r="AM24" s="317"/>
+      <c r="AN24" s="601"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="607"/>
-      <c r="O25" s="641"/>
+      <c r="F25" s="582"/>
+      <c r="O25" s="585"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
       <c r="Q25" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="479" t="s">
+      <c r="T25" s="477" t="s">
         <v>44</v>
       </c>
-      <c r="U25" s="452" t="s">
+      <c r="U25" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="579"/>
+      <c r="V25" s="620"/>
       <c r="W25" s="148"/>
-      <c r="X25" s="481" t="s">
+      <c r="X25" s="479" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="620"/>
+      <c r="Y25" s="616"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
-      <c r="AB25" s="467"/>
+      <c r="AB25" s="465"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="251" t="s">
@@ -8945,8 +9045,8 @@
       <c r="AJ25" s="6"/>
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
-      <c r="AM25" s="318"/>
-      <c r="AN25" s="602"/>
+      <c r="AM25" s="317"/>
+      <c r="AN25" s="601"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8955,44 +9055,44 @@
       <c r="B26" s="227" t="s">
         <v>422</v>
       </c>
-      <c r="C26" s="508" t="s">
+      <c r="C26" s="506" t="s">
         <v>504</v>
       </c>
       <c r="D26" s="61" t="s">
         <v>569</v>
       </c>
-      <c r="E26" s="424">
-        <v>1</v>
-      </c>
-      <c r="F26" s="607"/>
-      <c r="G26" s="374" t="s">
+      <c r="E26" s="422">
+        <v>1</v>
+      </c>
+      <c r="F26" s="582"/>
+      <c r="G26" s="373" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="641"/>
-      <c r="P26" s="604" t="s">
+      <c r="O26" s="585"/>
+      <c r="P26" s="603" t="s">
         <v>549</v>
       </c>
-      <c r="Q26" s="605"/>
-      <c r="R26" s="637" t="s">
+      <c r="Q26" s="604"/>
+      <c r="R26" s="579" t="s">
         <v>561</v>
       </c>
       <c r="T26" s="183"/>
-      <c r="U26" s="471"/>
+      <c r="U26" s="469"/>
       <c r="V26" s="100" t="s">
         <v>44</v>
       </c>
       <c r="W26" s="148"/>
-      <c r="X26" s="481" t="s">
+      <c r="X26" s="479" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="620"/>
+      <c r="Y26" s="616"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
-      <c r="AB26" s="467"/>
+      <c r="AB26" s="465"/>
       <c r="AC26" s="76" t="s">
         <v>483</v>
       </c>
-      <c r="AD26" s="465" t="s">
+      <c r="AD26" s="463" t="s">
         <v>475</v>
       </c>
       <c r="AE26" s="6"/>
@@ -9009,10 +9109,10 @@
       <c r="AL26" s="80" t="s">
         <v>518</v>
       </c>
-      <c r="AM26" s="494" t="s">
+      <c r="AM26" s="492" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="602"/>
+      <c r="AN26" s="601"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -9021,70 +9121,64 @@
       <c r="D27" s="61" t="s">
         <v>570</v>
       </c>
-      <c r="E27" s="281" t="s">
+      <c r="E27" s="280" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="639"/>
+      <c r="F27" s="583"/>
       <c r="G27" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="O27" s="642"/>
-      <c r="R27" s="638"/>
-      <c r="S27" s="473" t="s">
+      <c r="O27" s="586"/>
+      <c r="R27" s="580"/>
+      <c r="S27" s="471" t="s">
         <v>54</v>
       </c>
-      <c r="T27" s="477" t="s">
+      <c r="T27" s="475" t="s">
         <v>44</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="476"/>
+      <c r="V27" s="474"/>
       <c r="W27" s="149"/>
-      <c r="X27" s="481" t="s">
+      <c r="X27" s="479" t="s">
         <v>556</v>
       </c>
-      <c r="Y27" s="621"/>
+      <c r="Y27" s="617"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="468"/>
-      <c r="AC27" s="469"/>
-      <c r="AD27" s="469"/>
-      <c r="AE27" s="469"/>
-      <c r="AF27" s="469"/>
-      <c r="AG27" s="469"/>
-      <c r="AH27" s="469"/>
-      <c r="AI27" s="469"/>
-      <c r="AJ27" s="469"/>
-      <c r="AK27" s="496"/>
-      <c r="AL27" s="469"/>
-      <c r="AM27" s="427" t="s">
+      <c r="AB27" s="466"/>
+      <c r="AC27" s="467"/>
+      <c r="AD27" s="467"/>
+      <c r="AE27" s="467"/>
+      <c r="AF27" s="467"/>
+      <c r="AG27" s="467"/>
+      <c r="AH27" s="467"/>
+      <c r="AI27" s="467"/>
+      <c r="AJ27" s="467"/>
+      <c r="AK27" s="494"/>
+      <c r="AL27" s="467"/>
+      <c r="AM27" s="425" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="603"/>
+      <c r="AN27" s="602"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -9101,22 +9195,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9126,8 +9226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView topLeftCell="P9" workbookViewId="0">
-      <selection activeCell="AL27" sqref="AL27"/>
+    <sheetView topLeftCell="P5" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9137,7 +9237,7 @@
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="6" max="7" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="417" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="415" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.85546875" style="65" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
@@ -9157,14 +9257,14 @@
     <col min="30" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6" style="417" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6" style="415" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="6" style="112" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" style="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9214,17 +9314,17 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="563" t="s">
+      <c r="T1" s="569" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="661" t="s">
+      <c r="U1" s="646" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="663" t="s">
+      <c r="V1" s="648" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="664"/>
-      <c r="X1" s="324">
+      <c r="W1" s="649"/>
+      <c r="X1" s="323">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
       </c>
@@ -9236,47 +9336,47 @@
         <v>458</v>
       </c>
       <c r="AA1" s="102"/>
-      <c r="AB1" s="320" t="s">
+      <c r="AB1" s="319" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="665" t="s">
+      <c r="AC1" s="650" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="666"/>
-      <c r="AE1" s="667"/>
-      <c r="AF1" s="668" t="s">
+      <c r="AD1" s="651"/>
+      <c r="AE1" s="652"/>
+      <c r="AF1" s="653" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="669"/>
-      <c r="AH1" s="670"/>
-      <c r="AI1" s="657" t="s">
+      <c r="AG1" s="654"/>
+      <c r="AH1" s="655"/>
+      <c r="AI1" s="642" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="658"/>
-      <c r="AK1" s="659"/>
-      <c r="AN1" s="112"/>
+      <c r="AJ1" s="643"/>
+      <c r="AK1" s="644"/>
+      <c r="AN1" s="142"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="649">
+      <c r="J2" s="656">
         <f>SUM(J5:J30)</f>
-        <v>2</v>
-      </c>
-      <c r="K2" s="651">
+        <v>3</v>
+      </c>
+      <c r="K2" s="658">
         <f>SUM(K4:K29)</f>
-        <v>7</v>
-      </c>
-      <c r="L2" s="653">
+        <v>8</v>
+      </c>
+      <c r="L2" s="660">
         <f>SUM(L4:L29)</f>
         <v>7</v>
       </c>
-      <c r="M2" s="628">
+      <c r="M2" s="597">
         <f>SUM(K30:K37)* (-1)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="285" t="s">
+      <c r="N2" s="284" t="s">
         <v>243</v>
       </c>
       <c r="O2" s="21" t="s">
@@ -9291,11 +9391,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="655" t="s">
+      <c r="S2" s="662" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="660"/>
-      <c r="U2" s="662"/>
+      <c r="T2" s="645"/>
+      <c r="U2" s="647"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9305,31 +9405,31 @@
       <c r="X2" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="Y2" s="306" t="s">
+      <c r="Y2" s="305" t="s">
         <v>453</v>
       </c>
-      <c r="Z2" s="323" t="s">
+      <c r="Z2" s="322" t="s">
         <v>457</v>
       </c>
-      <c r="AA2" s="323" t="s">
+      <c r="AA2" s="322" t="s">
         <v>591</v>
       </c>
       <c r="AB2" s="72" t="s">
         <v>455</v>
       </c>
-      <c r="AC2" s="272" t="s">
+      <c r="AC2" s="271" t="s">
         <v>454</v>
       </c>
-      <c r="AD2" s="306" t="s">
+      <c r="AD2" s="305" t="s">
         <v>99</v>
       </c>
-      <c r="AE2" s="306" t="s">
+      <c r="AE2" s="305" t="s">
         <v>317</v>
       </c>
-      <c r="AF2" s="306" t="s">
+      <c r="AF2" s="305" t="s">
         <v>260</v>
       </c>
-      <c r="AG2" s="306" t="s">
+      <c r="AG2" s="305" t="s">
         <v>292</v>
       </c>
       <c r="AH2" s="150" t="s">
@@ -9350,15 +9450,15 @@
       <c r="AM2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AN2" s="61" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="650"/>
-      <c r="K3" s="652"/>
-      <c r="L3" s="654"/>
-      <c r="M3" s="629"/>
+      <c r="J3" s="657"/>
+      <c r="K3" s="659"/>
+      <c r="L3" s="661"/>
+      <c r="M3" s="598"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9372,21 +9472,21 @@
       </c>
       <c r="R3" s="159">
         <f>SUM(R4:R29)</f>
-        <v>40</v>
-      </c>
-      <c r="S3" s="656"/>
-      <c r="T3" s="564"/>
-      <c r="U3" s="331">
+        <v>39</v>
+      </c>
+      <c r="S3" s="663"/>
+      <c r="T3" s="570"/>
+      <c r="U3" s="330">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
       </c>
       <c r="V3" s="159">
         <f t="shared" ref="V3:AA3" si="0">SUM(V4:V29)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9398,7 +9498,7 @@
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
@@ -9424,27 +9524,27 @@
         <f>SUM(AF4:AF29)</f>
         <v>7</v>
       </c>
-      <c r="AG3" s="412">
+      <c r="AG3" s="410">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AH3" s="100">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AJ3" s="329">
+      <c r="AJ3" s="328">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AK3" s="330">
+      <c r="AK3" s="329">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AN3" s="112"/>
+      <c r="AN3" s="142"/>
     </row>
     <row r="4" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
@@ -9459,43 +9559,43 @@
       <c r="E4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="269">
+      <c r="G4" s="268">
         <v>0</v>
       </c>
       <c r="H4" s="111" t="s">
         <v>531</v>
       </c>
-      <c r="I4" s="429" t="s">
+      <c r="I4" s="427" t="s">
         <v>309</v>
       </c>
-      <c r="J4" s="360"/>
+      <c r="J4" s="359"/>
       <c r="K4" s="107">
         <v>0</v>
       </c>
-      <c r="L4" s="310">
+      <c r="L4" s="309">
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="646" t="s">
+      <c r="M4" s="664" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="P4" s="333" t="s">
+      <c r="P4" s="332" t="s">
         <v>204</v>
       </c>
       <c r="Q4" s="165"/>
       <c r="R4" s="160">
         <v>2</v>
       </c>
-      <c r="S4" s="337">
+      <c r="S4" s="336">
         <v>-2</v>
       </c>
       <c r="T4" s="154"/>
-      <c r="U4" s="353"/>
-      <c r="V4" s="342"/>
+      <c r="U4" s="352"/>
+      <c r="V4" s="341"/>
       <c r="W4" s="190">
         <f>SUM(J4:K4)</f>
         <v>0</v>
@@ -9505,122 +9605,122 @@
         <f>L4</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="308">
+      <c r="Z4" s="307">
         <f>(W4+Y4+AD4)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="308">
+      <c r="AA4" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="307">
         <f>IF((AD4+R4+W4+V4+Q4)&lt;AC4,(AC4-(AD4+R4+W4+V4+Q4))*(-1),0)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="321">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="317"/>
-      <c r="AE4" s="315"/>
+      <c r="AC4" s="320">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="316"/>
+      <c r="AE4" s="314"/>
       <c r="AF4" s="159">
         <f>L4</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="413"/>
-      <c r="AH4" s="419"/>
-      <c r="AI4" s="326">
+      <c r="AG4" s="411"/>
+      <c r="AH4" s="417"/>
+      <c r="AI4" s="325">
         <f>AB4+AG4+Y4</f>
         <v>0</v>
       </c>
-      <c r="AJ4" s="327">
+      <c r="AJ4" s="326">
         <f>IF((AC4-AG4)&gt; Y4,AG4-Y4,Y4)</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="328">
+      <c r="AK4" s="327">
         <f>IF((AI4-AJ4)&gt;AJ4,(AI4-AJ4),AJ4)</f>
         <v>0</v>
       </c>
-      <c r="AL4" s="333" t="s">
+      <c r="AL4" s="332" t="s">
         <v>204</v>
       </c>
       <c r="AM4" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="AN4" s="112" t="s">
+      <c r="AN4" s="142" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="430"/>
-      <c r="J5" s="313"/>
+      <c r="I5" s="428"/>
+      <c r="J5" s="312"/>
       <c r="K5" s="107">
         <v>0</v>
       </c>
-      <c r="L5" s="310">
+      <c r="L5" s="309">
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="647"/>
+      <c r="M5" s="665"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="334" t="s">
+      <c r="P5" s="333" t="s">
         <v>244</v>
       </c>
       <c r="Q5" s="192"/>
       <c r="R5" s="157">
         <v>2</v>
       </c>
-      <c r="S5" s="338">
+      <c r="S5" s="337">
         <v>-2</v>
       </c>
       <c r="T5" s="17"/>
-      <c r="U5" s="348"/>
-      <c r="V5" s="343"/>
+      <c r="U5" s="347"/>
+      <c r="V5" s="342"/>
       <c r="W5" s="190">
         <f t="shared" ref="W5:W37" si="2">SUM(J5:K5)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="314"/>
+      <c r="X5" s="313"/>
       <c r="Y5" s="117">
         <f t="shared" ref="Y5:Y37" si="3">L5</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="308">
+      <c r="Z5" s="307">
         <f t="shared" ref="Z5:Z37" si="4">(W5+Y5+AD5)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="308">
+      <c r="AA5" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="307">
         <f t="shared" ref="AB5:AB37" si="5">IF((AD5+R5+W5+V5+Q5)&lt;AC5,(AC5-(AD5+R5+W5+V5+Q5))*(-1),0)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="312"/>
-      <c r="AD5" s="318"/>
-      <c r="AE5" s="314"/>
-      <c r="AF5" s="314">
+      <c r="AC5" s="311"/>
+      <c r="AD5" s="317"/>
+      <c r="AE5" s="313"/>
+      <c r="AF5" s="313">
         <f t="shared" ref="AF5:AF37" si="6">L5</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="373"/>
+      <c r="AG5" s="372"/>
       <c r="AH5" s="158"/>
-      <c r="AI5" s="326">
+      <c r="AI5" s="325">
         <f t="shared" ref="AI5:AI37" si="7">AB5+AG5+Y5</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="327">
+      <c r="AJ5" s="326">
         <f t="shared" ref="AJ5:AJ37" si="8">IF((AC5-AG5)&gt; Y5,AG5-Y5,Y5)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="328">
+      <c r="AK5" s="327">
         <f t="shared" ref="AK5:AK37" si="9">IF((AI5-AJ5)&gt;AJ5,(AI5-AJ5),AJ5)</f>
         <v>0</v>
       </c>
       <c r="AL5" s="6"/>
       <c r="AM5" s="69"/>
-      <c r="AN5" s="112"/>
+      <c r="AN5" s="142"/>
     </row>
     <row r="6" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
@@ -9634,88 +9734,88 @@
         <v>49</v>
       </c>
       <c r="G6" s="209"/>
-      <c r="I6" s="432" t="s">
+      <c r="I6" s="430" t="s">
         <v>312</v>
       </c>
-      <c r="J6" s="361">
+      <c r="J6" s="360">
         <v>0</v>
       </c>
       <c r="K6" s="107">
         <v>0</v>
       </c>
-      <c r="L6" s="311">
+      <c r="L6" s="310">
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="647"/>
+      <c r="M6" s="665"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="P6" s="334" t="s">
+      <c r="P6" s="333" t="s">
         <v>231</v>
       </c>
-      <c r="Q6" s="313">
+      <c r="Q6" s="312">
         <v>2</v>
       </c>
-      <c r="R6" s="286">
+      <c r="R6" s="285">
         <v>2</v>
       </c>
-      <c r="S6" s="338">
+      <c r="S6" s="337">
         <v>-2</v>
       </c>
       <c r="T6" s="17"/>
-      <c r="U6" s="348"/>
-      <c r="V6" s="344">
+      <c r="U6" s="347"/>
+      <c r="V6" s="343">
         <v>2</v>
       </c>
       <c r="W6" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X6" s="314"/>
+      <c r="X6" s="313"/>
       <c r="Y6" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="308">
+      <c r="Z6" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="308">
+      <c r="AA6" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="312">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="318"/>
-      <c r="AE6" s="314"/>
-      <c r="AF6" s="314">
+      <c r="AC6" s="311">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="317"/>
+      <c r="AE6" s="313"/>
+      <c r="AF6" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="373">
+      <c r="AG6" s="372">
         <v>0</v>
       </c>
       <c r="AH6" s="158"/>
-      <c r="AI6" s="326">
+      <c r="AI6" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="327">
+      <c r="AJ6" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK6" s="328">
+      <c r="AK6" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL6" s="6"/>
       <c r="AM6" s="19"/>
-      <c r="AN6" s="80"/>
+      <c r="AN6" s="271"/>
     </row>
     <row r="7" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G7" s="224">
@@ -9724,60 +9824,60 @@
       <c r="H7" s="111" t="s">
         <v>432</v>
       </c>
-      <c r="I7" s="430" t="s">
+      <c r="I7" s="428" t="s">
         <v>311</v>
       </c>
-      <c r="J7" s="361">
+      <c r="J7" s="360">
         <v>0</v>
       </c>
       <c r="K7" s="107">
         <v>0</v>
       </c>
-      <c r="L7" s="311">
+      <c r="L7" s="310">
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="647"/>
+      <c r="M7" s="665"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="P7" s="334" t="s">
+      <c r="P7" s="333" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" s="287"/>
+      <c r="Q7" s="286"/>
       <c r="R7" s="162">
         <v>2</v>
       </c>
-      <c r="S7" s="339">
+      <c r="S7" s="338">
         <v>-2</v>
       </c>
       <c r="T7" s="17"/>
-      <c r="U7" s="348"/>
-      <c r="V7" s="344">
+      <c r="U7" s="347"/>
+      <c r="V7" s="343">
         <v>3</v>
       </c>
       <c r="W7" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X7" s="314"/>
+      <c r="X7" s="313"/>
       <c r="Y7" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="308">
+      <c r="Z7" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="308">
+      <c r="AA7" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="312">
+      <c r="AC7" s="311">
         <v>0</v>
       </c>
       <c r="AD7" s="107">
@@ -9786,27 +9886,27 @@
       <c r="AE7" s="64">
         <v>3</v>
       </c>
-      <c r="AF7" s="314">
+      <c r="AF7" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="373"/>
-      <c r="AH7" s="420"/>
-      <c r="AI7" s="326">
+      <c r="AG7" s="372"/>
+      <c r="AH7" s="418"/>
+      <c r="AI7" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ7" s="327">
+      <c r="AJ7" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="328">
+      <c r="AK7" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL7" s="6"/>
       <c r="AM7" s="231"/>
-      <c r="AN7" s="80"/>
+      <c r="AN7" s="271"/>
     </row>
     <row r="8" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
@@ -9819,7 +9919,7 @@
       <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="279">
+      <c r="F8" s="278">
         <v>0</v>
       </c>
       <c r="G8" s="224">
@@ -9828,7 +9928,7 @@
       <c r="H8" s="111" t="s">
         <v>431</v>
       </c>
-      <c r="I8" s="432" t="s">
+      <c r="I8" s="430" t="s">
         <v>345</v>
       </c>
       <c r="J8" s="107">
@@ -9837,163 +9937,163 @@
       <c r="K8" s="107">
         <v>0</v>
       </c>
-      <c r="L8" s="311">
+      <c r="L8" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="647"/>
+      <c r="M8" s="665"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
       <c r="O8" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="P8" s="335" t="s">
+      <c r="P8" s="334" t="s">
         <v>202</v>
       </c>
-      <c r="Q8" s="332">
+      <c r="Q8" s="331">
         <v>0</v>
       </c>
       <c r="R8" s="64">
         <v>1</v>
       </c>
-      <c r="S8" s="340">
+      <c r="S8" s="339">
         <f>R3</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T8" s="17"/>
-      <c r="U8" s="348"/>
-      <c r="V8" s="344">
+      <c r="U8" s="347"/>
+      <c r="V8" s="343">
         <v>0</v>
       </c>
       <c r="W8" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X8" s="314"/>
+      <c r="X8" s="313"/>
       <c r="Y8" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="308">
+      <c r="Z8" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="308">
+      <c r="AA8" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="312">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="318"/>
-      <c r="AE8" s="314"/>
-      <c r="AF8" s="314">
+      <c r="AC8" s="311">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="317"/>
+      <c r="AE8" s="313"/>
+      <c r="AF8" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="414">
+      <c r="AG8" s="412">
         <v>0</v>
       </c>
       <c r="AH8" s="156"/>
-      <c r="AI8" s="372">
+      <c r="AI8" s="371">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="327">
+      <c r="AJ8" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="328">
+      <c r="AK8" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="19"/>
-      <c r="AN8" s="80"/>
+      <c r="AN8" s="271"/>
     </row>
     <row r="9" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="430" t="s">
+      <c r="I9" s="428" t="s">
         <v>359</v>
       </c>
-      <c r="J9" s="362"/>
+      <c r="J9" s="361"/>
       <c r="K9" s="107">
         <v>0</v>
       </c>
-      <c r="L9" s="311">
+      <c r="L9" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="647"/>
+      <c r="M9" s="665"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="P9" s="335" t="s">
+      <c r="P9" s="334" t="s">
         <v>264</v>
       </c>
       <c r="Q9" s="223"/>
       <c r="R9" s="233">
         <v>2</v>
       </c>
-      <c r="S9" s="341">
+      <c r="S9" s="340">
         <v>-2</v>
       </c>
-      <c r="T9" s="347"/>
-      <c r="U9" s="348"/>
-      <c r="V9" s="345"/>
+      <c r="T9" s="346"/>
+      <c r="U9" s="347"/>
+      <c r="V9" s="344"/>
       <c r="W9" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X9" s="314"/>
+      <c r="X9" s="313"/>
       <c r="Y9" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="308">
+      <c r="Z9" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="308">
+      <c r="AA9" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="312">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="318"/>
-      <c r="AE9" s="314"/>
-      <c r="AF9" s="314">
+      <c r="AC9" s="311">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="317"/>
+      <c r="AE9" s="313"/>
+      <c r="AF9" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="373">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="426">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="326">
+      <c r="AG9" s="372">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="424">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="327">
+      <c r="AJ9" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK9" s="328">
+      <c r="AK9" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL9" s="6"/>
       <c r="AM9" s="19"/>
-      <c r="AN9" s="112"/>
+      <c r="AN9" s="142"/>
     </row>
     <row r="10" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -10014,23 +10114,23 @@
       <c r="H10" s="111" t="s">
         <v>367</v>
       </c>
-      <c r="I10" s="430" t="s">
+      <c r="I10" s="428" t="s">
         <v>363</v>
       </c>
-      <c r="J10" s="363"/>
+      <c r="J10" s="362"/>
       <c r="K10" s="107">
         <v>2</v>
       </c>
-      <c r="L10" s="311">
+      <c r="L10" s="310">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M10" s="647"/>
+      <c r="M10" s="665"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P10" s="334" t="s">
+      <c r="P10" s="333" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="164">
@@ -10039,52 +10139,52 @@
       <c r="R10" s="157">
         <v>0</v>
       </c>
-      <c r="S10" s="338">
+      <c r="S10" s="337">
         <v>-2</v>
       </c>
       <c r="T10" s="17"/>
-      <c r="U10" s="348"/>
-      <c r="V10" s="346"/>
+      <c r="U10" s="347"/>
+      <c r="V10" s="345"/>
       <c r="W10" s="190">
         <f>SUM(J10:K10)</f>
         <v>2</v>
       </c>
-      <c r="X10" s="314"/>
+      <c r="X10" s="313"/>
       <c r="Y10" s="117">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z10" s="308">
+      <c r="Z10" s="307">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AA10" s="308">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="308">
+      <c r="AA10" s="307">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="312">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="318"/>
-      <c r="AE10" s="314"/>
-      <c r="AF10" s="314">
+      <c r="AC10" s="311">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="317"/>
+      <c r="AE10" s="313"/>
+      <c r="AF10" s="313">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AG10" s="373"/>
+      <c r="AG10" s="372"/>
       <c r="AH10" s="158"/>
-      <c r="AI10" s="326">
+      <c r="AI10" s="325">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AJ10" s="327">
+      <c r="AJ10" s="326">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK10" s="328">
+      <c r="AK10" s="327">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -10092,85 +10192,85 @@
         <v>74</v>
       </c>
       <c r="AM10" s="231"/>
-      <c r="AN10" s="80" t="s">
-        <v>191</v>
+      <c r="AN10" s="271" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="430" t="s">
+      <c r="I11" s="428" t="s">
         <v>310</v>
       </c>
-      <c r="J11" s="363"/>
+      <c r="J11" s="362"/>
       <c r="K11" s="107">
         <v>0</v>
       </c>
-      <c r="L11" s="311">
+      <c r="L11" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="647"/>
+      <c r="M11" s="665"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
       <c r="O11" s="16"/>
-      <c r="P11" s="334" t="s">
+      <c r="P11" s="333" t="s">
         <v>241</v>
       </c>
       <c r="Q11" s="164"/>
       <c r="R11" s="157">
         <v>2</v>
       </c>
-      <c r="S11" s="338">
+      <c r="S11" s="337">
         <v>-2</v>
       </c>
       <c r="T11" s="17"/>
-      <c r="U11" s="348"/>
-      <c r="V11" s="346"/>
+      <c r="U11" s="347"/>
+      <c r="V11" s="345"/>
       <c r="W11" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X11" s="314"/>
+      <c r="X11" s="313"/>
       <c r="Y11" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="308">
+      <c r="Z11" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="308"/>
-      <c r="AB11" s="308">
+      <c r="AA11" s="307"/>
+      <c r="AB11" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="312"/>
-      <c r="AD11" s="318"/>
-      <c r="AE11" s="314"/>
-      <c r="AF11" s="314">
+      <c r="AC11" s="311"/>
+      <c r="AD11" s="317"/>
+      <c r="AE11" s="313"/>
+      <c r="AF11" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="373"/>
+      <c r="AG11" s="372"/>
       <c r="AH11" s="158"/>
-      <c r="AI11" s="326">
+      <c r="AI11" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="327">
+      <c r="AJ11" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK11" s="328">
+      <c r="AK11" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL11" s="6"/>
       <c r="AM11" s="19"/>
-      <c r="AN11" s="112"/>
+      <c r="AN11" s="142"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="592" t="s">
+      <c r="A12" s="633" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10179,86 +10279,86 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="643" t="s">
+      <c r="E12" s="587" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="277">
+      <c r="G12" s="276">
         <v>1</v>
       </c>
       <c r="H12" s="61" t="s">
         <v>573</v>
       </c>
-      <c r="I12" s="430" t="s">
+      <c r="I12" s="428" t="s">
         <v>302</v>
       </c>
-      <c r="J12" s="363"/>
+      <c r="J12" s="362"/>
       <c r="K12" s="107">
         <v>2</v>
       </c>
-      <c r="L12" s="311">
+      <c r="L12" s="310">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="647"/>
+      <c r="M12" s="665"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
       <c r="O12" s="16"/>
-      <c r="P12" s="334" t="s">
+      <c r="P12" s="333" t="s">
         <v>240</v>
       </c>
       <c r="Q12" s="164"/>
       <c r="R12" s="157">
         <v>0</v>
       </c>
-      <c r="S12" s="338">
+      <c r="S12" s="337">
         <v>-2</v>
       </c>
       <c r="T12" s="17"/>
-      <c r="U12" s="348"/>
-      <c r="V12" s="346"/>
+      <c r="U12" s="347"/>
+      <c r="V12" s="345"/>
       <c r="W12" s="190">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="X12" s="314"/>
+      <c r="X12" s="313"/>
       <c r="Y12" s="117">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z12" s="308">
+      <c r="Z12" s="307">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AA12" s="308">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="308">
+      <c r="AA12" s="307">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="312">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="318"/>
-      <c r="AE12" s="314"/>
-      <c r="AF12" s="314">
+      <c r="AC12" s="311">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="317"/>
+      <c r="AE12" s="313"/>
+      <c r="AF12" s="313">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AG12" s="373"/>
+      <c r="AG12" s="372"/>
       <c r="AH12" s="158">
         <v>6</v>
       </c>
-      <c r="AI12" s="326">
+      <c r="AI12" s="325">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AJ12" s="327">
+      <c r="AJ12" s="326">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK12" s="328">
+      <c r="AK12" s="327">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -10268,19 +10368,19 @@
       <c r="AM12" s="231" t="s">
         <v>529</v>
       </c>
-      <c r="AN12" s="112" t="s">
-        <v>208</v>
+      <c r="AN12" s="142" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="594"/>
+      <c r="A13" s="635"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="644"/>
+      <c r="E13" s="588"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10290,98 +10390,98 @@
       <c r="H13" s="111" t="s">
         <v>315</v>
       </c>
-      <c r="I13" s="432" t="s">
+      <c r="I13" s="430" t="s">
         <v>307</v>
       </c>
-      <c r="J13" s="363"/>
+      <c r="J13" s="362"/>
       <c r="K13" s="107">
         <v>0</v>
       </c>
-      <c r="L13" s="311">
+      <c r="L13" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="647"/>
+      <c r="M13" s="665"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
       <c r="O13" s="16"/>
-      <c r="P13" s="334" t="s">
+      <c r="P13" s="333" t="s">
         <v>234</v>
       </c>
       <c r="Q13" s="164"/>
       <c r="R13" s="157">
         <v>2</v>
       </c>
-      <c r="S13" s="338">
+      <c r="S13" s="337">
         <v>-2</v>
       </c>
       <c r="T13" s="17"/>
-      <c r="U13" s="348"/>
-      <c r="V13" s="346"/>
+      <c r="U13" s="347"/>
+      <c r="V13" s="345"/>
       <c r="W13" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X13" s="314"/>
+      <c r="X13" s="313"/>
       <c r="Y13" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="308">
+      <c r="Z13" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="308"/>
-      <c r="AB13" s="308">
+      <c r="AA13" s="307"/>
+      <c r="AB13" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="312"/>
-      <c r="AD13" s="318"/>
-      <c r="AE13" s="316"/>
-      <c r="AF13" s="314">
+      <c r="AC13" s="311"/>
+      <c r="AD13" s="317"/>
+      <c r="AE13" s="315"/>
+      <c r="AF13" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="373"/>
+      <c r="AG13" s="372"/>
       <c r="AH13" s="158"/>
-      <c r="AI13" s="326">
+      <c r="AI13" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="327">
+      <c r="AJ13" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK13" s="328">
+      <c r="AK13" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL13" s="16"/>
       <c r="AM13" s="19"/>
-      <c r="AN13" s="112"/>
+      <c r="AN13" s="142"/>
     </row>
     <row r="14" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="278"/>
-      <c r="I14" s="430"/>
-      <c r="J14" s="363"/>
-      <c r="K14" s="309">
-        <v>1</v>
-      </c>
-      <c r="L14" s="311">
+      <c r="H14" s="277"/>
+      <c r="I14" s="428"/>
+      <c r="J14" s="362"/>
+      <c r="K14" s="308">
+        <v>1</v>
+      </c>
+      <c r="L14" s="310">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M14" s="647"/>
+      <c r="M14" s="665"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
       </c>
-      <c r="P14" s="334" t="s">
+      <c r="P14" s="333" t="s">
         <v>246</v>
       </c>
       <c r="Q14" s="164">
@@ -10390,64 +10490,64 @@
       <c r="R14" s="157">
         <v>0</v>
       </c>
-      <c r="S14" s="338">
+      <c r="S14" s="337">
         <v>-1</v>
       </c>
       <c r="T14" s="17"/>
-      <c r="U14" s="348"/>
-      <c r="V14" s="346"/>
+      <c r="U14" s="347"/>
+      <c r="V14" s="345"/>
       <c r="W14" s="190">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X14" s="314"/>
+      <c r="X14" s="313"/>
       <c r="Y14" s="117">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z14" s="308">
+      <c r="Z14" s="307">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AA14" s="308">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="308">
+      <c r="AA14" s="307">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="307">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="AC14" s="312">
+      <c r="AC14" s="311">
         <v>2</v>
       </c>
-      <c r="AD14" s="318"/>
-      <c r="AE14" s="314"/>
-      <c r="AF14" s="314">
+      <c r="AD14" s="317"/>
+      <c r="AE14" s="313"/>
+      <c r="AF14" s="313">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AG14" s="373">
+      <c r="AG14" s="372">
         <v>1</v>
       </c>
       <c r="AH14" s="158"/>
-      <c r="AI14" s="326">
+      <c r="AI14" s="325">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AJ14" s="327">
+      <c r="AJ14" s="326">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK14" s="328">
+      <c r="AK14" s="327">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AL14" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="AM14" s="531" t="s">
+      <c r="AM14" s="528" t="s">
         <v>592</v>
       </c>
-      <c r="AN14" s="112" t="s">
+      <c r="AN14" s="142" t="s">
         <v>516</v>
       </c>
     </row>
@@ -10458,79 +10558,79 @@
       <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="276" t="s">
+      <c r="G15" s="275" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="201"/>
-      <c r="I15" s="432" t="s">
+      <c r="I15" s="430" t="s">
         <v>195</v>
       </c>
-      <c r="J15" s="363"/>
-      <c r="K15" s="309">
-        <v>0</v>
-      </c>
-      <c r="L15" s="311">
+      <c r="J15" s="362"/>
+      <c r="K15" s="308">
+        <v>0</v>
+      </c>
+      <c r="L15" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="647"/>
+      <c r="M15" s="665"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
       </c>
-      <c r="P15" s="334" t="s">
+      <c r="P15" s="333" t="s">
         <v>232</v>
       </c>
       <c r="Q15" s="164"/>
       <c r="R15" s="157">
         <v>2</v>
       </c>
-      <c r="S15" s="338">
+      <c r="S15" s="337">
         <v>-2</v>
       </c>
       <c r="T15" s="17"/>
-      <c r="U15" s="348"/>
-      <c r="V15" s="345"/>
+      <c r="U15" s="347"/>
+      <c r="V15" s="344"/>
       <c r="W15" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X15" s="314"/>
+      <c r="X15" s="313"/>
       <c r="Y15" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="308">
+      <c r="Z15" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="308">
+      <c r="AA15" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="312">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="318"/>
-      <c r="AE15" s="314"/>
-      <c r="AF15" s="314">
+      <c r="AC15" s="311">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="317"/>
+      <c r="AE15" s="313"/>
+      <c r="AF15" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="373"/>
+      <c r="AG15" s="372"/>
       <c r="AH15" s="158"/>
-      <c r="AI15" s="326">
+      <c r="AI15" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="327">
+      <c r="AJ15" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="328">
+      <c r="AK15" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -10540,7 +10640,7 @@
       <c r="AM15" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="AN15" s="112"/>
+      <c r="AN15" s="142"/>
     </row>
     <row r="16" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="21" t="s">
@@ -10549,79 +10649,79 @@
       <c r="E16" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="433"/>
-      <c r="J16" s="363"/>
+      <c r="I16" s="431"/>
+      <c r="J16" s="362"/>
       <c r="K16" s="107">
         <v>0</v>
       </c>
-      <c r="L16" s="311">
+      <c r="L16" s="310">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="647"/>
+      <c r="M16" s="665"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P16" s="334" t="s">
+      <c r="P16" s="333" t="s">
         <v>235</v>
       </c>
       <c r="Q16" s="164"/>
       <c r="R16" s="157">
         <v>3</v>
       </c>
-      <c r="S16" s="338">
+      <c r="S16" s="337">
         <v>-3</v>
       </c>
       <c r="T16" s="17"/>
-      <c r="U16" s="348"/>
-      <c r="V16" s="345"/>
+      <c r="U16" s="347"/>
+      <c r="V16" s="344"/>
       <c r="W16" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X16" s="314"/>
+      <c r="X16" s="313"/>
       <c r="Y16" s="117">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z16" s="308">
+      <c r="Z16" s="307">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AA16" s="308">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="308">
+      <c r="AA16" s="307">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="312">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="318"/>
-      <c r="AE16" s="314"/>
-      <c r="AF16" s="314">
+      <c r="AC16" s="311">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="317"/>
+      <c r="AE16" s="313"/>
+      <c r="AF16" s="313">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AG16" s="373">
+      <c r="AG16" s="372">
         <v>2</v>
       </c>
       <c r="AH16" s="158">
         <v>2</v>
       </c>
-      <c r="AI16" s="326">
+      <c r="AI16" s="325">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AJ16" s="327">
+      <c r="AJ16" s="326">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK16" s="328">
+      <c r="AK16" s="327">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -10631,7 +10731,7 @@
       <c r="AM16" s="68" t="s">
         <v>584</v>
       </c>
-      <c r="AN16" s="112" t="s">
+      <c r="AN16" s="142" t="s">
         <v>513</v>
       </c>
     </row>
@@ -10643,23 +10743,23 @@
         <v>65</v>
       </c>
       <c r="G17" s="143"/>
-      <c r="I17" s="432" t="s">
+      <c r="I17" s="430" t="s">
         <v>316</v>
       </c>
-      <c r="J17" s="363"/>
+      <c r="J17" s="362"/>
       <c r="K17" s="107">
         <v>0</v>
       </c>
-      <c r="L17" s="311">
+      <c r="L17" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="647"/>
+      <c r="M17" s="665"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P17" s="334" t="s">
+      <c r="P17" s="333" t="s">
         <v>97</v>
       </c>
       <c r="Q17" s="164">
@@ -10668,52 +10768,52 @@
       <c r="R17" s="157">
         <v>1</v>
       </c>
-      <c r="S17" s="338">
+      <c r="S17" s="337">
         <v>-1</v>
       </c>
       <c r="T17" s="17"/>
-      <c r="U17" s="348"/>
-      <c r="V17" s="346"/>
+      <c r="U17" s="347"/>
+      <c r="V17" s="345"/>
       <c r="W17" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X17" s="314"/>
+      <c r="X17" s="313"/>
       <c r="Y17" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="308">
+      <c r="Z17" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="308"/>
-      <c r="AB17" s="308">
+      <c r="AA17" s="307"/>
+      <c r="AB17" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="312"/>
-      <c r="AD17" s="318"/>
-      <c r="AE17" s="314"/>
-      <c r="AF17" s="314">
+      <c r="AC17" s="311"/>
+      <c r="AD17" s="317"/>
+      <c r="AE17" s="313"/>
+      <c r="AF17" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="373"/>
+      <c r="AG17" s="372"/>
       <c r="AH17" s="158"/>
-      <c r="AI17" s="326">
+      <c r="AI17" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="327">
+      <c r="AJ17" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="328">
+      <c r="AK17" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="112"/>
+      <c r="AN17" s="142"/>
     </row>
     <row r="18" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21">
@@ -10726,90 +10826,90 @@
       <c r="G18" s="34">
         <v>-1</v>
       </c>
-      <c r="I18" s="432" t="s">
+      <c r="I18" s="430" t="s">
         <v>307</v>
       </c>
-      <c r="J18" s="364"/>
+      <c r="J18" s="363"/>
       <c r="K18" s="107">
         <v>0</v>
       </c>
-      <c r="L18" s="311">
+      <c r="L18" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="647"/>
+      <c r="M18" s="665"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
       <c r="O18" s="16"/>
-      <c r="P18" s="334" t="s">
+      <c r="P18" s="333" t="s">
         <v>248</v>
       </c>
       <c r="Q18" s="164"/>
       <c r="R18" s="157">
         <v>3</v>
       </c>
-      <c r="S18" s="338">
+      <c r="S18" s="337">
         <v>-3</v>
       </c>
-      <c r="T18" s="349">
+      <c r="T18" s="348">
         <v>-3</v>
       </c>
-      <c r="U18" s="350">
+      <c r="U18" s="349">
         <v>3</v>
       </c>
-      <c r="V18" s="343"/>
+      <c r="V18" s="342"/>
       <c r="W18" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X18" s="314"/>
+      <c r="X18" s="313"/>
       <c r="Y18" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="308">
+      <c r="Z18" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="308">
+      <c r="AA18" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="312">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="318"/>
-      <c r="AE18" s="314"/>
-      <c r="AF18" s="314">
+      <c r="AC18" s="311">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="317"/>
+      <c r="AE18" s="313"/>
+      <c r="AF18" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="373"/>
+      <c r="AG18" s="372"/>
       <c r="AH18" s="158"/>
-      <c r="AI18" s="326">
+      <c r="AI18" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ18" s="327">
+      <c r="AJ18" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="328">
+      <c r="AK18" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL18" s="6"/>
-      <c r="AN18" s="112"/>
+      <c r="AN18" s="142"/>
     </row>
     <row r="19" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="432" t="s">
+      <c r="I19" s="430" t="s">
         <v>309</v>
       </c>
       <c r="J19" s="118">
@@ -10818,27 +10918,27 @@
       <c r="K19" s="107">
         <v>0</v>
       </c>
-      <c r="L19" s="311">
+      <c r="L19" s="310">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="647"/>
+      <c r="M19" s="665"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="P19" s="334" t="s">
+      <c r="P19" s="333" t="s">
         <v>247</v>
       </c>
       <c r="Q19" s="164"/>
       <c r="R19" s="157">
         <v>1</v>
       </c>
-      <c r="S19" s="338">
+      <c r="S19" s="337">
         <v>-1</v>
       </c>
       <c r="T19" s="17"/>
-      <c r="U19" s="348"/>
+      <c r="U19" s="347"/>
       <c r="V19" s="118">
         <v>0</v>
       </c>
@@ -10846,49 +10946,49 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="X19" s="314"/>
+      <c r="X19" s="313"/>
       <c r="Y19" s="117">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z19" s="308">
+      <c r="Z19" s="307">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AA19" s="308">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="308">
+      <c r="AA19" s="307">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="312">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="318"/>
-      <c r="AE19" s="314"/>
-      <c r="AF19" s="314">
+      <c r="AC19" s="311">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="317"/>
+      <c r="AE19" s="313"/>
+      <c r="AF19" s="313">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AG19" s="373"/>
+      <c r="AG19" s="372"/>
       <c r="AH19" s="158"/>
-      <c r="AI19" s="326">
+      <c r="AI19" s="325">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AJ19" s="327">
+      <c r="AJ19" s="326">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK19" s="328">
+      <c r="AK19" s="327">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AL19" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="AN19" s="112"/>
+      <c r="AN19" s="142"/>
     </row>
     <row r="20" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
@@ -10906,79 +11006,79 @@
       <c r="H20" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="I20" s="432" t="s">
+      <c r="I20" s="430" t="s">
         <v>195</v>
       </c>
-      <c r="J20" s="362"/>
+      <c r="J20" s="361"/>
       <c r="K20" s="107">
         <v>1</v>
       </c>
-      <c r="L20" s="311">
+      <c r="L20" s="310">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M20" s="648"/>
-      <c r="N20" s="538" t="s">
+      <c r="M20" s="666"/>
+      <c r="N20" s="535" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="645"/>
-      <c r="P20" s="334" t="s">
+      <c r="O20" s="589"/>
+      <c r="P20" s="333" t="s">
         <v>86</v>
       </c>
       <c r="Q20" s="164"/>
       <c r="R20" s="157">
         <v>2</v>
       </c>
-      <c r="S20" s="338">
+      <c r="S20" s="337">
         <v>-3</v>
       </c>
       <c r="T20" s="17"/>
-      <c r="U20" s="348"/>
+      <c r="U20" s="347"/>
       <c r="V20" s="142"/>
       <c r="W20" s="190">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X20" s="314"/>
+      <c r="X20" s="313"/>
       <c r="Y20" s="117">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z20" s="308">
+      <c r="Z20" s="307">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AA20" s="308">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="308">
+      <c r="AA20" s="307">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="312">
+      <c r="AC20" s="311">
         <v>2</v>
       </c>
-      <c r="AD20" s="318"/>
-      <c r="AE20" s="314"/>
-      <c r="AF20" s="314">
+      <c r="AD20" s="317"/>
+      <c r="AE20" s="313"/>
+      <c r="AF20" s="313">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AG20" s="373">
+      <c r="AG20" s="372">
         <v>1</v>
       </c>
       <c r="AH20" s="158">
         <v>2</v>
       </c>
-      <c r="AI20" s="326">
+      <c r="AI20" s="325">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AJ20" s="327">
+      <c r="AJ20" s="326">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK20" s="328">
+      <c r="AK20" s="327">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -10988,7 +11088,7 @@
       <c r="AM20" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="AN20" s="24" t="s">
+      <c r="AN20" s="64" t="s">
         <v>593</v>
       </c>
     </row>
@@ -11006,14 +11106,14 @@
       <c r="H21" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="I21" s="430" t="s">
+      <c r="I21" s="428" t="s">
         <v>308</v>
       </c>
-      <c r="J21" s="365"/>
+      <c r="J21" s="364"/>
       <c r="K21" s="107">
         <v>0</v>
       </c>
-      <c r="L21" s="311">
+      <c r="L21" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11021,7 +11121,7 @@
       <c r="O21" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="P21" s="334" t="s">
+      <c r="P21" s="333" t="s">
         <v>250</v>
       </c>
       <c r="Q21" s="164">
@@ -11030,56 +11130,56 @@
       <c r="R21" s="157">
         <v>1</v>
       </c>
-      <c r="S21" s="338">
+      <c r="S21" s="337">
         <v>-1</v>
       </c>
       <c r="T21" s="17"/>
-      <c r="U21" s="348"/>
-      <c r="V21" s="343"/>
+      <c r="U21" s="347"/>
+      <c r="V21" s="342"/>
       <c r="W21" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X21" s="314"/>
+      <c r="X21" s="313"/>
       <c r="Y21" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="308">
+      <c r="Z21" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="308">
+      <c r="AA21" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="312">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="318"/>
-      <c r="AE21" s="314"/>
-      <c r="AF21" s="314">
+      <c r="AC21" s="311">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="317"/>
+      <c r="AE21" s="313"/>
+      <c r="AF21" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="373">
+      <c r="AG21" s="372">
         <v>0</v>
       </c>
       <c r="AH21" s="158">
         <v>0</v>
       </c>
-      <c r="AI21" s="326">
+      <c r="AI21" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="327">
+      <c r="AJ21" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="328">
+      <c r="AK21" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -11089,191 +11189,201 @@
       <c r="AM21" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="AN21" s="112"/>
+      <c r="AN21" s="142"/>
     </row>
     <row r="22" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="430" t="s">
+      <c r="I22" s="428" t="s">
         <v>305</v>
       </c>
-      <c r="J22" s="366"/>
+      <c r="J22" s="365"/>
       <c r="K22" s="107">
         <v>0</v>
       </c>
-      <c r="L22" s="311">
+      <c r="L22" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N22" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="P22" s="334" t="s">
+      <c r="P22" s="333" t="s">
         <v>265</v>
       </c>
       <c r="Q22" s="164"/>
       <c r="R22" s="157">
         <v>2</v>
       </c>
-      <c r="S22" s="338">
+      <c r="S22" s="337">
         <v>-2</v>
       </c>
-      <c r="T22" s="347">
+      <c r="T22" s="346">
         <v>-2</v>
       </c>
-      <c r="U22" s="348"/>
+      <c r="U22" s="347"/>
       <c r="V22" s="142"/>
       <c r="W22" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X22" s="314"/>
+      <c r="X22" s="313"/>
       <c r="Y22" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="308">
+      <c r="Z22" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="308"/>
-      <c r="AB22" s="308">
+      <c r="AA22" s="307"/>
+      <c r="AB22" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="312"/>
+      <c r="AC22" s="311"/>
       <c r="AD22" s="107">
         <v>0</v>
       </c>
       <c r="AE22" s="64">
         <v>2</v>
       </c>
-      <c r="AF22" s="314">
+      <c r="AF22" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="373"/>
-      <c r="AH22" s="421"/>
-      <c r="AI22" s="326">
+      <c r="AG22" s="372"/>
+      <c r="AH22" s="419"/>
+      <c r="AI22" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ22" s="327">
+      <c r="AJ22" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="328">
+      <c r="AK22" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL22" s="16"/>
-      <c r="AN22" s="112"/>
+      <c r="AN22" s="142"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="599" t="s">
+      <c r="E23" s="640" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
         <v>2</v>
       </c>
-      <c r="I23" s="430" t="s">
+      <c r="I23" s="428" t="s">
         <v>263</v>
       </c>
-      <c r="J23" s="361">
-        <v>0</v>
+      <c r="J23" s="360">
+        <v>1</v>
       </c>
       <c r="K23" s="107">
-        <v>0</v>
-      </c>
-      <c r="L23" s="311">
+        <v>1</v>
+      </c>
+      <c r="L23" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N23" s="20"/>
-      <c r="P23" s="334" t="s">
+      <c r="P23" s="333" t="s">
         <v>252</v>
       </c>
       <c r="Q23" s="164"/>
       <c r="R23" s="157">
-        <v>1</v>
-      </c>
-      <c r="S23" s="338">
+        <v>0</v>
+      </c>
+      <c r="S23" s="337">
         <v>-1</v>
       </c>
-      <c r="T23" s="347">
+      <c r="T23" s="346">
         <v>-1</v>
       </c>
-      <c r="U23" s="348"/>
-      <c r="V23" s="344">
-        <v>1</v>
+      <c r="U23" s="347"/>
+      <c r="V23" s="343">
+        <v>0</v>
       </c>
       <c r="W23" s="190">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="314"/>
+        <v>2</v>
+      </c>
+      <c r="X23" s="313"/>
       <c r="Y23" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="308">
+      <c r="Z23" s="307">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="308">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="312"/>
-      <c r="AD23" s="318"/>
-      <c r="AE23" s="314"/>
-      <c r="AF23" s="314">
+      <c r="AC23" s="311"/>
+      <c r="AD23" s="317"/>
+      <c r="AE23" s="313"/>
+      <c r="AF23" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="373">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="158"/>
-      <c r="AI23" s="326">
+      <c r="AG23" s="372">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="158">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ23" s="327">
+      <c r="AJ23" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="328">
+      <c r="AK23" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="112"/>
+      <c r="AL23" s="726" t="s">
+        <v>598</v>
+      </c>
+      <c r="AM23" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="AN23" s="142" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="24" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="600"/>
+      <c r="E24" s="641"/>
       <c r="F24" s="177"/>
-      <c r="I24" s="430" t="s">
+      <c r="I24" s="428" t="s">
         <v>301</v>
       </c>
-      <c r="J24" s="361">
+      <c r="J24" s="360">
         <v>0</v>
       </c>
       <c r="K24" s="107">
         <v>1</v>
       </c>
-      <c r="L24" s="311">
+      <c r="L24" s="310">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N24" s="538" t="s">
+      <c r="N24" s="535" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="645"/>
-      <c r="P24" s="334" t="s">
+      <c r="O24" s="589"/>
+      <c r="P24" s="333" t="s">
         <v>254</v>
       </c>
       <c r="Q24" s="164">
@@ -11282,35 +11392,35 @@
       <c r="R24" s="157">
         <v>1</v>
       </c>
-      <c r="S24" s="338">
+      <c r="S24" s="337">
         <v>-2</v>
       </c>
-      <c r="T24" s="347">
+      <c r="T24" s="346">
         <v>-2</v>
       </c>
-      <c r="U24" s="348"/>
-      <c r="V24" s="345"/>
+      <c r="U24" s="347"/>
+      <c r="V24" s="344"/>
       <c r="W24" s="190">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X24" s="314"/>
+      <c r="X24" s="313"/>
       <c r="Y24" s="117">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z24" s="308">
+      <c r="Z24" s="307">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AA24" s="308">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="308">
+      <c r="AA24" s="307">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="312">
+      <c r="AC24" s="311">
         <v>1</v>
       </c>
       <c r="AD24" s="107">
@@ -11319,23 +11429,23 @@
       <c r="AE24" s="64">
         <v>2</v>
       </c>
-      <c r="AF24" s="314">
+      <c r="AF24" s="313">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AG24" s="373"/>
+      <c r="AG24" s="372"/>
       <c r="AH24" s="158">
         <v>1</v>
       </c>
-      <c r="AI24" s="326">
+      <c r="AI24" s="325">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AJ24" s="327">
+      <c r="AJ24" s="326">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK24" s="328">
+      <c r="AK24" s="327">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -11343,27 +11453,27 @@
         <v>528</v>
       </c>
       <c r="AM24" s="19"/>
-      <c r="AN24" s="6" t="s">
+      <c r="AN24" s="142" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="359"/>
-      <c r="I25" s="430" t="s">
+      <c r="H25" s="358"/>
+      <c r="I25" s="428" t="s">
         <v>300</v>
       </c>
-      <c r="J25" s="367"/>
+      <c r="J25" s="366"/>
       <c r="K25" s="107">
         <v>0</v>
       </c>
-      <c r="L25" s="311">
+      <c r="L25" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N25" s="86" t="s">
         <v>342</v>
       </c>
-      <c r="P25" s="334" t="s">
+      <c r="P25" s="333" t="s">
         <v>255</v>
       </c>
       <c r="Q25" s="164">
@@ -11372,52 +11482,52 @@
       <c r="R25" s="157">
         <v>2</v>
       </c>
-      <c r="S25" s="338">
+      <c r="S25" s="337">
         <v>-2</v>
       </c>
-      <c r="T25" s="347">
+      <c r="T25" s="346">
         <v>-2</v>
       </c>
-      <c r="U25" s="348"/>
+      <c r="U25" s="347"/>
       <c r="V25" s="142"/>
       <c r="W25" s="190">
         <f>SUM(J25:K25)</f>
         <v>0</v>
       </c>
-      <c r="X25" s="314"/>
+      <c r="X25" s="313"/>
       <c r="Y25" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="308">
+      <c r="Z25" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="308">
+      <c r="AA25" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="312"/>
-      <c r="AD25" s="318"/>
-      <c r="AE25" s="314"/>
-      <c r="AF25" s="314">
+      <c r="AC25" s="311"/>
+      <c r="AD25" s="317"/>
+      <c r="AE25" s="313"/>
+      <c r="AF25" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG25" s="373"/>
+      <c r="AG25" s="372"/>
       <c r="AH25" s="158"/>
-      <c r="AI25" s="326">
+      <c r="AI25" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ25" s="327">
+      <c r="AJ25" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK25" s="328">
+      <c r="AK25" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -11425,7 +11535,7 @@
       <c r="AM25" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="AN25" s="112"/>
+      <c r="AN25" s="142"/>
     </row>
     <row r="26" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="31" t="s">
@@ -11435,16 +11545,16 @@
       <c r="H26" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="I26" s="430" t="s">
+      <c r="I26" s="428" t="s">
         <v>306</v>
       </c>
-      <c r="J26" s="361">
+      <c r="J26" s="360">
         <v>0</v>
       </c>
       <c r="K26" s="107">
         <v>0</v>
       </c>
-      <c r="L26" s="311">
+      <c r="L26" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11452,7 +11562,7 @@
       <c r="O26" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="P26" s="334" t="s">
+      <c r="P26" s="333" t="s">
         <v>256</v>
       </c>
       <c r="Q26" s="164">
@@ -11461,76 +11571,76 @@
       <c r="R26" s="157">
         <v>1</v>
       </c>
-      <c r="S26" s="338">
+      <c r="S26" s="337">
         <v>-2</v>
       </c>
-      <c r="T26" s="347">
+      <c r="T26" s="346">
         <v>-2</v>
       </c>
-      <c r="U26" s="351"/>
-      <c r="V26" s="344">
+      <c r="U26" s="350"/>
+      <c r="V26" s="343">
         <v>1</v>
       </c>
       <c r="W26" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X26" s="314"/>
+      <c r="X26" s="313"/>
       <c r="Y26" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="308">
+      <c r="Z26" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="308">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="308">
+      <c r="AA26" s="307">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="312">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="318"/>
-      <c r="AE26" s="316"/>
-      <c r="AF26" s="314">
+      <c r="AC26" s="311">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="317"/>
+      <c r="AE26" s="315"/>
+      <c r="AF26" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="373"/>
+      <c r="AG26" s="372"/>
       <c r="AH26" s="158"/>
-      <c r="AI26" s="326">
+      <c r="AI26" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ26" s="327">
+      <c r="AJ26" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="328">
+      <c r="AK26" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="522"/>
+      <c r="AL26" s="519"/>
       <c r="AM26" s="19"/>
-      <c r="AN26" s="112"/>
+      <c r="AN26" s="142"/>
     </row>
     <row r="27" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="31" t="s">
         <v>295</v>
       </c>
       <c r="G27" s="181"/>
-      <c r="I27" s="430" t="s">
+      <c r="I27" s="428" t="s">
         <v>261</v>
       </c>
-      <c r="J27" s="368"/>
+      <c r="J27" s="367"/>
       <c r="K27" s="107">
         <v>0</v>
       </c>
-      <c r="L27" s="311">
+      <c r="L27" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11538,7 +11648,7 @@
       <c r="O27" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="P27" s="334" t="s">
+      <c r="P27" s="333" t="s">
         <v>257</v>
       </c>
       <c r="Q27" s="164">
@@ -11547,139 +11657,139 @@
       <c r="R27" s="157">
         <v>2</v>
       </c>
-      <c r="S27" s="338">
+      <c r="S27" s="337">
         <v>-2</v>
       </c>
-      <c r="T27" s="347">
+      <c r="T27" s="346">
         <v>-2</v>
       </c>
-      <c r="U27" s="348"/>
-      <c r="V27" s="345"/>
+      <c r="U27" s="347"/>
+      <c r="V27" s="344"/>
       <c r="W27" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X27" s="314"/>
+      <c r="X27" s="313"/>
       <c r="Y27" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="308">
+      <c r="Z27" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="308"/>
-      <c r="AB27" s="308">
+      <c r="AA27" s="307"/>
+      <c r="AB27" s="307">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="312"/>
-      <c r="AD27" s="318"/>
-      <c r="AE27" s="314"/>
-      <c r="AF27" s="314">
+      <c r="AC27" s="311"/>
+      <c r="AD27" s="317"/>
+      <c r="AE27" s="313"/>
+      <c r="AF27" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG27" s="373"/>
+      <c r="AG27" s="372"/>
       <c r="AH27" s="158"/>
-      <c r="AI27" s="326">
+      <c r="AI27" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ27" s="327">
+      <c r="AJ27" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="328">
+      <c r="AK27" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL27" s="16"/>
-      <c r="AN27" s="112"/>
+      <c r="AN27" s="142"/>
     </row>
     <row r="28" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="432" t="s">
+      <c r="I28" s="430" t="s">
         <v>316</v>
       </c>
-      <c r="J28" s="366"/>
+      <c r="J28" s="365"/>
       <c r="K28" s="107">
         <v>0</v>
       </c>
-      <c r="L28" s="311">
+      <c r="L28" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N28" s="20"/>
-      <c r="P28" s="334" t="s">
+      <c r="P28" s="333" t="s">
         <v>253</v>
       </c>
       <c r="Q28" s="164"/>
       <c r="R28" s="157">
         <v>1</v>
       </c>
-      <c r="S28" s="338">
+      <c r="S28" s="337">
         <v>-1</v>
       </c>
-      <c r="T28" s="347">
+      <c r="T28" s="346">
         <v>-1</v>
       </c>
-      <c r="U28" s="348"/>
-      <c r="V28" s="345"/>
+      <c r="U28" s="347"/>
+      <c r="V28" s="344"/>
       <c r="W28" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X28" s="314"/>
+      <c r="X28" s="313"/>
       <c r="Y28" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="308">
+      <c r="Z28" s="307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="308"/>
+      <c r="AA28" s="307"/>
       <c r="AB28" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="312"/>
-      <c r="AD28" s="318"/>
-      <c r="AE28" s="314"/>
-      <c r="AF28" s="314">
+      <c r="AC28" s="311"/>
+      <c r="AD28" s="317"/>
+      <c r="AE28" s="313"/>
+      <c r="AF28" s="313">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG28" s="373"/>
+      <c r="AG28" s="372"/>
       <c r="AH28" s="158"/>
-      <c r="AI28" s="326">
+      <c r="AI28" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ28" s="327">
+      <c r="AJ28" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="328">
+      <c r="AK28" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="112"/>
+      <c r="AN28" s="142"/>
     </row>
     <row r="29" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="273" t="s">
+      <c r="E29" s="272" t="s">
         <v>297</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="272"/>
-      <c r="I29" s="432" t="s">
+      <c r="H29" s="271"/>
+      <c r="I29" s="430" t="s">
         <v>366</v>
       </c>
-      <c r="J29" s="358"/>
+      <c r="J29" s="357"/>
       <c r="K29" s="64">
         <v>0</v>
       </c>
-      <c r="L29" s="311">
+      <c r="L29" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11687,26 +11797,26 @@
       <c r="O29" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="P29" s="336" t="s">
+      <c r="P29" s="335" t="s">
         <v>266</v>
       </c>
       <c r="Q29" s="192"/>
       <c r="R29" s="162">
         <v>2</v>
       </c>
-      <c r="S29" s="339">
+      <c r="S29" s="338">
         <v>-2</v>
       </c>
-      <c r="T29" s="352">
+      <c r="T29" s="351">
         <v>-2</v>
       </c>
-      <c r="U29" s="354"/>
-      <c r="V29" s="343"/>
+      <c r="U29" s="353"/>
+      <c r="V29" s="342"/>
       <c r="W29" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X29" s="307"/>
+      <c r="X29" s="306"/>
       <c r="Y29" s="117">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11718,49 +11828,48 @@
       <c r="AA29" s="64">
         <v>0</v>
       </c>
-      <c r="AB29" s="319">
+      <c r="AB29" s="318">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="322">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="318"/>
-      <c r="AE29" s="318"/>
-      <c r="AF29" s="318">
+      <c r="AC29" s="321">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="317"/>
+      <c r="AE29" s="317"/>
+      <c r="AF29" s="317">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG29" s="418"/>
+      <c r="AG29" s="416"/>
       <c r="AH29" s="158"/>
-      <c r="AI29" s="326">
+      <c r="AI29" s="325">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ29" s="327">
+      <c r="AJ29" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="328">
+      <c r="AK29" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="16"/>
-      <c r="AN29" s="112"/>
+      <c r="AN29" s="142"/>
     </row>
     <row r="30" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="284">
+      <c r="G30" s="283">
         <v>1</v>
       </c>
       <c r="H30" s="61" t="s">
         <v>511</v>
       </c>
-      <c r="I30" s="433"/>
-      <c r="J30" s="369"/>
-      <c r="K30" s="259">
+      <c r="I30" s="431"/>
+      <c r="J30" s="368"/>
+      <c r="K30" s="258">
         <v>-1</v>
       </c>
-      <c r="L30" s="311">
+      <c r="L30" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11786,32 +11895,32 @@
         <v>-1</v>
       </c>
       <c r="AA30" s="64"/>
-      <c r="AB30" s="319">
+      <c r="AB30" s="318">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="AC30" s="387"/>
-      <c r="AD30" s="389"/>
-      <c r="AE30" s="390"/>
-      <c r="AF30" s="342">
+      <c r="AC30" s="386"/>
+      <c r="AD30" s="388"/>
+      <c r="AE30" s="389"/>
+      <c r="AF30" s="341">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG30" s="415"/>
-      <c r="AH30" s="353"/>
-      <c r="AI30" s="372">
+      <c r="AG30" s="413"/>
+      <c r="AH30" s="352"/>
+      <c r="AI30" s="371">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="AJ30" s="327">
+      <c r="AJ30" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="328">
+      <c r="AK30" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="112"/>
+      <c r="AN30" s="142"/>
     </row>
     <row r="31" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
@@ -11826,12 +11935,12 @@
       <c r="H31" s="111" t="s">
         <v>436</v>
       </c>
-      <c r="I31" s="430"/>
-      <c r="J31" s="370"/>
-      <c r="K31" s="260">
+      <c r="I31" s="428"/>
+      <c r="J31" s="369"/>
+      <c r="K31" s="259">
         <v>-1</v>
       </c>
-      <c r="L31" s="311">
+      <c r="L31" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11857,43 +11966,43 @@
         <v>-1</v>
       </c>
       <c r="AA31" s="64"/>
-      <c r="AB31" s="319">
+      <c r="AB31" s="318">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="AC31" s="387"/>
-      <c r="AD31" s="391"/>
-      <c r="AE31" s="392"/>
-      <c r="AF31" s="346">
+      <c r="AC31" s="386"/>
+      <c r="AD31" s="390"/>
+      <c r="AE31" s="391"/>
+      <c r="AF31" s="345">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG31" s="373"/>
-      <c r="AH31" s="348"/>
-      <c r="AI31" s="372">
+      <c r="AG31" s="372"/>
+      <c r="AH31" s="347"/>
+      <c r="AI31" s="371">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="AJ31" s="327">
+      <c r="AJ31" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="328">
+      <c r="AK31" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="112"/>
+      <c r="AN31" s="142"/>
     </row>
     <row r="32" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H32" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="I32" s="433"/>
-      <c r="J32" s="370"/>
-      <c r="K32" s="264">
-        <v>0</v>
-      </c>
-      <c r="L32" s="311">
+      <c r="I32" s="431"/>
+      <c r="J32" s="369"/>
+      <c r="K32" s="263">
+        <v>0</v>
+      </c>
+      <c r="L32" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11933,32 +12042,32 @@
       <c r="AA32" s="64">
         <v>0</v>
       </c>
-      <c r="AB32" s="319">
+      <c r="AB32" s="318">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="387">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="391"/>
-      <c r="AE32" s="392"/>
-      <c r="AF32" s="346">
+      <c r="AC32" s="386">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="390"/>
+      <c r="AE32" s="391"/>
+      <c r="AF32" s="345">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG32" s="373">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="348"/>
-      <c r="AI32" s="372">
+      <c r="AG32" s="372">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="347"/>
+      <c r="AI32" s="371">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ32" s="327">
+      <c r="AJ32" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="328">
+      <c r="AK32" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -11968,21 +12077,21 @@
       <c r="AM32" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="AN32" s="112"/>
+      <c r="AN32" s="142"/>
     </row>
     <row r="33" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="425">
+      <c r="G33" s="423">
         <v>1</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="I33" s="433"/>
-      <c r="J33" s="370"/>
-      <c r="K33" s="261">
+      <c r="I33" s="431"/>
+      <c r="J33" s="369"/>
+      <c r="K33" s="260">
         <v>-1</v>
       </c>
-      <c r="L33" s="311">
+      <c r="L33" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12008,32 +12117,33 @@
         <v>-1</v>
       </c>
       <c r="AA33" s="64"/>
-      <c r="AB33" s="319">
+      <c r="AB33" s="318">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="AC33" s="387"/>
-      <c r="AD33" s="391"/>
-      <c r="AE33" s="392"/>
-      <c r="AF33" s="346">
+      <c r="AC33" s="386"/>
+      <c r="AD33" s="390"/>
+      <c r="AE33" s="391"/>
+      <c r="AF33" s="345">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG33" s="373"/>
-      <c r="AH33" s="348"/>
-      <c r="AI33" s="372">
+      <c r="AG33" s="372"/>
+      <c r="AH33" s="347"/>
+      <c r="AI33" s="371">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="AJ33" s="327">
+      <c r="AJ33" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="328">
+      <c r="AK33" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="112"/>
+      <c r="AL33" s="6"/>
+      <c r="AN33" s="142"/>
     </row>
     <row r="34" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
@@ -12042,14 +12152,14 @@
       <c r="E34" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="I34" s="430" t="s">
+      <c r="I34" s="428" t="s">
         <v>305</v>
       </c>
-      <c r="J34" s="370"/>
-      <c r="K34" s="262">
-        <v>0</v>
-      </c>
-      <c r="L34" s="311">
+      <c r="J34" s="369"/>
+      <c r="K34" s="261">
+        <v>0</v>
+      </c>
+      <c r="L34" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12087,43 +12197,53 @@
         <v>0</v>
       </c>
       <c r="AA34" s="64"/>
-      <c r="AB34" s="319">
+      <c r="AB34" s="318">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="387"/>
-      <c r="AD34" s="391"/>
-      <c r="AE34" s="392"/>
-      <c r="AF34" s="346">
+      <c r="AC34" s="386"/>
+      <c r="AD34" s="390"/>
+      <c r="AE34" s="391"/>
+      <c r="AF34" s="345">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG34" s="373"/>
-      <c r="AH34" s="348"/>
-      <c r="AI34" s="372">
+      <c r="AG34" s="372"/>
+      <c r="AH34" s="347">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="371">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ34" s="327">
+      <c r="AJ34" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="328">
+      <c r="AK34" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="112"/>
+      <c r="AL34" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM34" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="AN34" s="271" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="35" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="23"/>
-      <c r="I35" s="430" t="s">
+      <c r="I35" s="428" t="s">
         <v>300</v>
       </c>
-      <c r="J35" s="370"/>
-      <c r="K35" s="264">
-        <v>0</v>
-      </c>
-      <c r="L35" s="311">
+      <c r="J35" s="369"/>
+      <c r="K35" s="263">
+        <v>0</v>
+      </c>
+      <c r="L35" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12159,32 +12279,32 @@
       <c r="AA35" s="64">
         <v>0</v>
       </c>
-      <c r="AB35" s="319">
+      <c r="AB35" s="318">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="387">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="391"/>
-      <c r="AE35" s="392"/>
-      <c r="AF35" s="346">
+      <c r="AC35" s="386">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="390"/>
+      <c r="AE35" s="391"/>
+      <c r="AF35" s="345">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG35" s="373"/>
-      <c r="AH35" s="421">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="372">
+      <c r="AG35" s="372"/>
+      <c r="AH35" s="419">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="371">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ35" s="327">
+      <c r="AJ35" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="328">
+      <c r="AK35" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -12192,23 +12312,23 @@
         <v>314</v>
       </c>
       <c r="AM35" s="19"/>
-      <c r="AN35" s="112"/>
+      <c r="AN35" s="142"/>
     </row>
     <row r="36" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="274" t="s">
+      <c r="F36" s="273" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="68">
         <v>-1</v>
       </c>
-      <c r="I36" s="430" t="s">
+      <c r="I36" s="428" t="s">
         <v>300</v>
       </c>
-      <c r="J36" s="370"/>
-      <c r="K36" s="264">
-        <v>1</v>
-      </c>
-      <c r="L36" s="311">
+      <c r="J36" s="369"/>
+      <c r="K36" s="263">
+        <v>1</v>
+      </c>
+      <c r="L36" s="310">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12219,7 +12339,7 @@
       <c r="Q36" s="166">
         <v>1</v>
       </c>
-      <c r="R36" s="268">
+      <c r="R36" s="267">
         <v>0</v>
       </c>
       <c r="S36" s="18">
@@ -12242,50 +12362,52 @@
         <v>1</v>
       </c>
       <c r="AA36" s="64"/>
-      <c r="AB36" s="319">
+      <c r="AB36" s="318">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="387"/>
-      <c r="AD36" s="391"/>
-      <c r="AE36" s="392"/>
-      <c r="AF36" s="346">
+      <c r="AC36" s="386"/>
+      <c r="AD36" s="390"/>
+      <c r="AE36" s="391"/>
+      <c r="AF36" s="345">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AG36" s="373"/>
+      <c r="AG36" s="372"/>
       <c r="AI36" s="68">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AJ36" s="327">
+      <c r="AJ36" s="326">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="328">
+      <c r="AK36" s="327">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL36" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="AN36" s="112"/>
+      <c r="AN36" s="142" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="37" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I37" s="434"/>
-      <c r="J37" s="371"/>
-      <c r="K37" s="263">
-        <v>1</v>
-      </c>
-      <c r="L37" s="311">
+      <c r="I37" s="432"/>
+      <c r="J37" s="370"/>
+      <c r="K37" s="262">
+        <v>1</v>
+      </c>
+      <c r="L37" s="310">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N37" s="20"/>
-      <c r="P37" s="265" t="s">
+      <c r="P37" s="264" t="s">
         <v>486</v>
       </c>
-      <c r="Q37" s="266">
+      <c r="Q37" s="265">
         <v>1</v>
       </c>
       <c r="R37" s="202">
@@ -12295,7 +12417,7 @@
         <v>-1</v>
       </c>
       <c r="T37" s="228"/>
-      <c r="U37" s="267"/>
+      <c r="U37" s="266"/>
       <c r="V37" s="202"/>
       <c r="W37" s="24">
         <f t="shared" si="2"/>
@@ -12313,34 +12435,34 @@
       <c r="AA37" s="64">
         <v>1</v>
       </c>
-      <c r="AB37" s="319">
+      <c r="AB37" s="318">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC37" s="387">
-        <v>1</v>
-      </c>
-      <c r="AD37" s="393"/>
-      <c r="AE37" s="394"/>
-      <c r="AF37" s="388">
+      <c r="AC37" s="386">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="392"/>
+      <c r="AE37" s="393"/>
+      <c r="AF37" s="387">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AG37" s="416">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="354">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="372">
+      <c r="AG37" s="414">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="353">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="371">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AJ37" s="327">
+      <c r="AJ37" s="326">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK37" s="328">
+      <c r="AK37" s="327">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -12350,29 +12472,29 @@
       <c r="AM37" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="AN37" s="24" t="s">
+      <c r="AN37" s="64" t="s">
         <v>593</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="M4:M20"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="M4:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12406,15 +12528,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="538" t="s">
+      <c r="B1" s="535" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="645"/>
+      <c r="C1" s="589"/>
       <c r="D1" s="214"/>
-      <c r="J1" s="538" t="s">
+      <c r="J1" s="535" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="645"/>
+      <c r="K1" s="589"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12452,13 +12574,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="206"/>
-      <c r="M2" s="671"/>
+      <c r="M2" s="667"/>
       <c r="N2" s="154">
         <v>2</v>
       </c>
       <c r="O2" s="155"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="674" t="s">
+      <c r="Q2" s="670" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -12481,13 +12603,13 @@
       <c r="K3" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="M3" s="672"/>
+      <c r="M3" s="668"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="675"/>
+      <c r="Q3" s="671"/>
       <c r="R3" s="231"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12506,13 +12628,13 @@
       <c r="K4" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="672"/>
+      <c r="M4" s="668"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="675"/>
+      <c r="Q4" s="671"/>
       <c r="R4" s="231"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12532,13 +12654,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="206"/>
-      <c r="M5" s="672"/>
+      <c r="M5" s="668"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="675"/>
+      <c r="Q5" s="671"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -12559,13 +12681,13 @@
       <c r="K6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="672"/>
+      <c r="M6" s="668"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="675"/>
+      <c r="Q6" s="671"/>
       <c r="R6" s="231"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12585,13 +12707,13 @@
         <v>334</v>
       </c>
       <c r="L7" s="208"/>
-      <c r="M7" s="672"/>
+      <c r="M7" s="668"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="675"/>
+      <c r="Q7" s="671"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -12612,13 +12734,13 @@
       <c r="K8" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M8" s="672"/>
+      <c r="M8" s="668"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="675"/>
+      <c r="Q8" s="671"/>
       <c r="R8" s="231"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12638,13 +12760,13 @@
         <v>336</v>
       </c>
       <c r="L9" s="186"/>
-      <c r="M9" s="673"/>
+      <c r="M9" s="669"/>
       <c r="N9" s="163"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="676"/>
+      <c r="Q9" s="672"/>
       <c r="R9" s="232"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -12802,10 +12924,10 @@
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="V1" s="538" t="s">
+      <c r="V1" s="535" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="645"/>
+      <c r="W1" s="589"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12824,7 +12946,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="691" t="s">
+      <c r="AD1" s="680" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12841,10 +12963,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="722" t="s">
+      <c r="F2" s="679" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="679" t="s">
+      <c r="G2" s="707" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12872,10 +12994,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="663" t="s">
+      <c r="V2" s="648" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="664"/>
+      <c r="W2" s="649"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12894,7 +13016,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="692"/>
+      <c r="AD2" s="681"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12913,8 +13035,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="596"/>
-      <c r="G3" s="680"/>
+      <c r="F3" s="637"/>
+      <c r="G3" s="708"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12925,13 +13047,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="689" t="s">
+      <c r="O3" s="717" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="710" t="s">
+      <c r="P3" s="699" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="711"/>
+      <c r="Q3" s="700"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12941,15 +13063,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="692"/>
+      <c r="AD3" s="681"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="680"/>
+      <c r="G4" s="708"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="674" t="s">
+      <c r="L4" s="670" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="690"/>
+      <c r="O4" s="718"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12959,12 +13081,12 @@
       <c r="X4" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="538" t="s">
+      <c r="Y4" s="535" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" s="539"/>
-      <c r="AA4" s="645"/>
-      <c r="AD4" s="692"/>
+      <c r="Z4" s="536"/>
+      <c r="AA4" s="589"/>
+      <c r="AD4" s="681"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12979,21 +13101,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="680"/>
+      <c r="G5" s="708"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="697" t="s">
+      <c r="K5" s="686" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="712"/>
+      <c r="L5" s="701"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="690"/>
+      <c r="O5" s="718"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -13009,11 +13131,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="700" t="s">
+      <c r="Y5" s="689" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="701"/>
-      <c r="AD5" s="692"/>
+      <c r="Z5" s="690"/>
+      <c r="AD5" s="681"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -13023,16 +13145,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="680"/>
+      <c r="G6" s="708"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="698"/>
-      <c r="L6" s="712"/>
-      <c r="O6" s="690"/>
+      <c r="K6" s="687"/>
+      <c r="L6" s="701"/>
+      <c r="O6" s="718"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -13042,20 +13164,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="692"/>
+      <c r="AD6" s="681"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="680"/>
+      <c r="G7" s="708"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="698"/>
-      <c r="L7" s="712"/>
+      <c r="K7" s="687"/>
+      <c r="L7" s="701"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="690"/>
+      <c r="O7" s="718"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="692"/>
+      <c r="AD7" s="681"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -13068,7 +13190,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="680"/>
+      <c r="G8" s="708"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -13078,41 +13200,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="698"/>
-      <c r="L8" s="712"/>
-      <c r="O8" s="690"/>
+      <c r="K8" s="687"/>
+      <c r="L8" s="701"/>
+      <c r="O8" s="718"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="694" t="s">
+      <c r="S8" s="683" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="695"/>
-      <c r="U8" s="695"/>
-      <c r="V8" s="695"/>
-      <c r="W8" s="695"/>
-      <c r="X8" s="695"/>
-      <c r="Y8" s="695"/>
-      <c r="Z8" s="695"/>
-      <c r="AA8" s="695"/>
-      <c r="AB8" s="695"/>
-      <c r="AC8" s="696"/>
-      <c r="AD8" s="692"/>
+      <c r="T8" s="684"/>
+      <c r="U8" s="684"/>
+      <c r="V8" s="684"/>
+      <c r="W8" s="684"/>
+      <c r="X8" s="684"/>
+      <c r="Y8" s="684"/>
+      <c r="Z8" s="684"/>
+      <c r="AA8" s="684"/>
+      <c r="AB8" s="684"/>
+      <c r="AC8" s="685"/>
+      <c r="AD8" s="681"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="716"/>
-      <c r="G9" s="680"/>
+      <c r="C9" s="673"/>
+      <c r="G9" s="708"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="698"/>
-      <c r="L9" s="683" t="s">
+      <c r="K9" s="687"/>
+      <c r="L9" s="711" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="684"/>
-      <c r="N9" s="685"/>
-      <c r="O9" s="690"/>
+      <c r="M9" s="712"/>
+      <c r="N9" s="713"/>
+      <c r="O9" s="718"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="692"/>
+      <c r="AD9" s="681"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="717"/>
+      <c r="C10" s="674"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13120,7 +13242,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="680"/>
+      <c r="G10" s="708"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13128,33 +13250,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="698"/>
-      <c r="M10" s="719" t="s">
+      <c r="K10" s="687"/>
+      <c r="M10" s="676" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="720"/>
-      <c r="O10" s="720"/>
-      <c r="P10" s="720"/>
-      <c r="Q10" s="720"/>
-      <c r="R10" s="720"/>
-      <c r="S10" s="720"/>
-      <c r="T10" s="720"/>
-      <c r="U10" s="720"/>
-      <c r="V10" s="720"/>
-      <c r="W10" s="720"/>
-      <c r="X10" s="720"/>
-      <c r="Y10" s="720"/>
-      <c r="Z10" s="720"/>
-      <c r="AA10" s="720"/>
-      <c r="AB10" s="720"/>
-      <c r="AC10" s="721"/>
-      <c r="AD10" s="692"/>
+      <c r="N10" s="677"/>
+      <c r="O10" s="677"/>
+      <c r="P10" s="677"/>
+      <c r="Q10" s="677"/>
+      <c r="R10" s="677"/>
+      <c r="S10" s="677"/>
+      <c r="T10" s="677"/>
+      <c r="U10" s="677"/>
+      <c r="V10" s="677"/>
+      <c r="W10" s="677"/>
+      <c r="X10" s="677"/>
+      <c r="Y10" s="677"/>
+      <c r="Z10" s="677"/>
+      <c r="AA10" s="677"/>
+      <c r="AB10" s="677"/>
+      <c r="AC10" s="678"/>
+      <c r="AD10" s="681"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="718"/>
-      <c r="G11" s="680"/>
+      <c r="C11" s="675"/>
+      <c r="G11" s="708"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="698"/>
+      <c r="K11" s="687"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13165,17 +13287,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="708" t="s">
+      <c r="Z11" s="697" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="709"/>
+      <c r="AA11" s="698"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="692"/>
+      <c r="AD11" s="681"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13188,7 +13310,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="680"/>
+      <c r="G12" s="708"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13196,8 +13318,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="698"/>
-      <c r="L12" s="713" t="s">
+      <c r="K12" s="687"/>
+      <c r="L12" s="702" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13212,7 +13334,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="533" t="s">
+      <c r="S12" s="530" t="s">
         <v>107</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -13228,26 +13350,26 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="702" t="s">
+      <c r="AA12" s="691" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="703"/>
+      <c r="AB12" s="692"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="692"/>
+      <c r="AD12" s="681"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="716"/>
-      <c r="G13" s="680"/>
-      <c r="K13" s="698"/>
-      <c r="L13" s="714"/>
+      <c r="C13" s="673"/>
+      <c r="G13" s="708"/>
+      <c r="K13" s="687"/>
+      <c r="L13" s="703"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="682" t="s">
+      <c r="Q13" s="710" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="605"/>
-      <c r="S13" s="534"/>
+      <c r="R13" s="604"/>
+      <c r="S13" s="531"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>132</v>
@@ -13255,17 +13377,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="704"/>
-      <c r="AB13" s="705"/>
-      <c r="AD13" s="692"/>
+      <c r="AA13" s="693"/>
+      <c r="AB13" s="694"/>
+      <c r="AD13" s="681"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="718"/>
+      <c r="C14" s="675"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="680"/>
+      <c r="G14" s="708"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13273,8 +13395,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="698"/>
-      <c r="L14" s="714"/>
+      <c r="K14" s="687"/>
+      <c r="L14" s="703"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13284,7 +13406,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="534"/>
+      <c r="S14" s="531"/>
       <c r="T14" s="77" t="s">
         <v>130</v>
       </c>
@@ -13295,9 +13417,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="704"/>
-      <c r="AB14" s="705"/>
-      <c r="AD14" s="692"/>
+      <c r="AA14" s="693"/>
+      <c r="AB14" s="694"/>
+      <c r="AD14" s="681"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13312,20 +13434,20 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="680"/>
+      <c r="G15" s="708"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="698"/>
-      <c r="L15" s="715"/>
-      <c r="Q15" s="682" t="s">
+      <c r="K15" s="687"/>
+      <c r="L15" s="704"/>
+      <c r="Q15" s="710" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="605"/>
-      <c r="S15" s="534"/>
+      <c r="R15" s="604"/>
+      <c r="S15" s="531"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -13333,14 +13455,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="704"/>
-      <c r="AB15" s="705"/>
-      <c r="AD15" s="692"/>
+      <c r="AA15" s="693"/>
+      <c r="AB15" s="694"/>
+      <c r="AD15" s="681"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="680"/>
-      <c r="K16" s="698"/>
+      <c r="G16" s="708"/>
+      <c r="K16" s="687"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13348,7 +13470,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="534"/>
+      <c r="S16" s="531"/>
       <c r="T16" s="76" t="s">
         <v>129</v>
       </c>
@@ -13359,34 +13481,34 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="704"/>
-      <c r="AB16" s="705"/>
-      <c r="AD16" s="692"/>
+      <c r="AA16" s="693"/>
+      <c r="AB16" s="694"/>
+      <c r="AD16" s="681"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="677" t="s">
+      <c r="F17" s="705" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="680"/>
+      <c r="G17" s="708"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="698"/>
-      <c r="S17" s="534"/>
+      <c r="K17" s="687"/>
+      <c r="S17" s="531"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="704"/>
-      <c r="AB17" s="705"/>
-      <c r="AD17" s="692"/>
+      <c r="AA17" s="693"/>
+      <c r="AB17" s="694"/>
+      <c r="AD17" s="681"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13396,58 +13518,61 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="678"/>
-      <c r="G18" s="680"/>
+      <c r="F18" s="706"/>
+      <c r="G18" s="708"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="698"/>
+      <c r="K18" s="687"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="534"/>
+      <c r="S18" s="531"/>
       <c r="U18" s="76" t="s">
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="706"/>
-      <c r="AB18" s="707"/>
-      <c r="AD18" s="692"/>
+      <c r="AA18" s="695"/>
+      <c r="AB18" s="696"/>
+      <c r="AD18" s="681"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="681"/>
-      <c r="K19" s="699"/>
+      <c r="G19" s="709"/>
+      <c r="K19" s="688"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="686" t="s">
+      <c r="R19" s="714" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="687"/>
-      <c r="T19" s="688"/>
+      <c r="S19" s="715"/>
+      <c r="T19" s="716"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="693"/>
+      <c r="AD19" s="682"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13459,14 +13584,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDAEBDA-1AA7-4DA3-BFBE-D38C924CFA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E21DE9-C608-4492-A18C-F3C89F3EDB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="602">
   <si>
     <t>Zone</t>
   </si>
@@ -1836,6 +1836,15 @@
   </si>
   <si>
     <t>IndiaTV</t>
+  </si>
+  <si>
+    <t>BSP</t>
+  </si>
+  <si>
+    <t>DMK</t>
+  </si>
+  <si>
+    <t>AIDMK</t>
   </si>
 </sst>
 </file>
@@ -3422,7 +3431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="727">
+  <cellXfs count="730">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4685,585 +4694,596 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5555,15 +5575,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="7" style="171" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="65" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="65" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="20" bestFit="1" customWidth="1"/>
@@ -5580,7 +5600,7 @@
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2.140625" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5588,7 +5608,7 @@
       <c r="B2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="727" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="434" t="s">
@@ -5609,10 +5629,10 @@
       <c r="I2" s="441" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="533" t="s">
+      <c r="J2" s="539" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="534"/>
+      <c r="K2" s="540"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5622,14 +5642,14 @@
       <c r="N2" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="535" t="s">
+      <c r="O2" s="541" t="s">
         <v>385</v>
       </c>
-      <c r="P2" s="722"/>
-      <c r="Q2" s="536"/>
-      <c r="R2" s="536"/>
-      <c r="S2" s="536"/>
-      <c r="T2" s="537" t="s">
+      <c r="P2" s="542"/>
+      <c r="Q2" s="543"/>
+      <c r="R2" s="543"/>
+      <c r="S2" s="543"/>
+      <c r="T2" s="544" t="s">
         <v>386</v>
       </c>
       <c r="V2" s="2" t="s">
@@ -5640,10 +5660,10 @@
       <c r="B3" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="530"/>
+      <c r="D3" s="536"/>
       <c r="E3" s="373"/>
       <c r="F3" s="280" t="s">
         <v>69</v>
@@ -5679,23 +5699,23 @@
       <c r="S3" s="177">
         <v>0</v>
       </c>
-      <c r="T3" s="538"/>
+      <c r="T3" s="545"/>
       <c r="U3" s="19" t="s">
         <v>596</v>
       </c>
       <c r="V3" s="19">
         <f>SUM(P3:P28)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="169" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="531"/>
+      <c r="D4" s="537"/>
       <c r="E4" s="61"/>
       <c r="F4" s="395" t="s">
         <v>42</v>
@@ -5713,16 +5733,16 @@
       <c r="O4" s="6"/>
       <c r="P4" s="333"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="538"/>
+      <c r="T4" s="545"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="532"/>
+      <c r="D5" s="538"/>
       <c r="F5" s="399" t="s">
         <v>42</v>
       </c>
@@ -5740,20 +5760,20 @@
       <c r="N5" s="401" t="s">
         <v>522</v>
       </c>
-      <c r="P5" s="723"/>
-      <c r="Q5" s="214" t="s">
+      <c r="P5" s="533"/>
+      <c r="T5" s="545"/>
+      <c r="U5" s="214" t="s">
         <v>228</v>
       </c>
-      <c r="R5" s="19">
+      <c r="V5" s="19">
         <v>5280</v>
       </c>
-      <c r="T5" s="538"/>
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="169" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="409"/>
@@ -5777,16 +5797,16 @@
       <c r="N6" s="405" t="s">
         <v>522</v>
       </c>
-      <c r="P6" s="723"/>
+      <c r="P6" s="533"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="6"/>
-      <c r="T6" s="538"/>
+      <c r="T6" s="545"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="219" t="s">
         <v>373</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="169" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="61"/>
@@ -5808,16 +5828,16 @@
       <c r="N7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="723"/>
+      <c r="P7" s="533"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="6"/>
-      <c r="T7" s="538"/>
+      <c r="T7" s="545"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="471" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="61"/>
@@ -5837,16 +5857,16 @@
       <c r="N8" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="723"/>
+      <c r="P8" s="533"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="538"/>
+      <c r="T8" s="545"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="471" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="61"/>
@@ -5870,17 +5890,17 @@
         <v>45275</v>
       </c>
       <c r="N9" s="373"/>
-      <c r="O9" s="719" t="s">
+      <c r="O9" s="531" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="723"/>
-      <c r="T9" s="538"/>
+      <c r="P9" s="533"/>
+      <c r="T9" s="545"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="169" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="61"/>
@@ -5903,20 +5923,14 @@
       <c r="N10" s="401" t="s">
         <v>522</v>
       </c>
-      <c r="P10" s="723"/>
-      <c r="Q10" s="214" t="s">
-        <v>227</v>
-      </c>
-      <c r="R10" s="64">
-        <v>88</v>
-      </c>
-      <c r="T10" s="538"/>
+      <c r="P10" s="533"/>
+      <c r="T10" s="545"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="471" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="61"/>
@@ -5942,17 +5956,22 @@
       <c r="N11" s="397" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="723"/>
+      <c r="P11" s="533"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="142"/>
-      <c r="T11" s="538"/>
-      <c r="U11" s="23"/>
+      <c r="T11" s="545"/>
+      <c r="U11" s="214" t="s">
+        <v>227</v>
+      </c>
+      <c r="V11" s="64">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="270" t="s">
         <v>451</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="471" t="s">
         <v>361</v>
       </c>
       <c r="D12" s="61"/>
@@ -5970,16 +5989,16 @@
       <c r="N12" s="398" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="723"/>
+      <c r="P12" s="533"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="142"/>
-      <c r="T12" s="538"/>
+      <c r="T12" s="545"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="270" t="s">
         <v>360</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="169" t="s">
         <v>361</v>
       </c>
       <c r="D13" s="61"/>
@@ -6007,18 +6026,18 @@
       <c r="N13" s="402" t="s">
         <v>522</v>
       </c>
-      <c r="P13" s="723"/>
-      <c r="T13" s="538"/>
+      <c r="P13" s="533"/>
+      <c r="T13" s="545"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P14" s="723"/>
-      <c r="T14" s="538"/>
+      <c r="P14" s="533"/>
+      <c r="T14" s="545"/>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="213" t="s">
+      <c r="C15" s="728" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="61"/>
@@ -6038,24 +6057,24 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="541">
+      <c r="M15" s="549">
         <v>45275</v>
       </c>
-      <c r="N15" s="530" t="s">
+      <c r="N15" s="536" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="719" t="s">
+      <c r="O15" s="531" t="s">
         <v>44</v>
       </c>
-      <c r="P15" s="723"/>
+      <c r="P15" s="533"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="538"/>
+      <c r="T15" s="545"/>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="512" t="s">
         <v>377</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="729" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="408"/>
@@ -6075,16 +6094,16 @@
       <c r="L16" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="542"/>
-      <c r="N16" s="531"/>
-      <c r="P16" s="723"/>
-      <c r="T16" s="538"/>
-    </row>
-    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="550"/>
+      <c r="N16" s="537"/>
+      <c r="P16" s="533"/>
+      <c r="T16" s="545"/>
+    </row>
+    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="213" t="s">
+      <c r="C17" s="728" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="61"/>
@@ -6106,9 +6125,9 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="543"/>
-      <c r="N17" s="532"/>
-      <c r="O17" s="719" t="s">
+      <c r="M17" s="551"/>
+      <c r="N17" s="538"/>
+      <c r="O17" s="531" t="s">
         <v>44</v>
       </c>
       <c r="P17" s="333">
@@ -6123,17 +6142,17 @@
       <c r="S17" s="177">
         <v>0</v>
       </c>
-      <c r="T17" s="538"/>
-    </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P18" s="723"/>
-      <c r="T18" s="538"/>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T17" s="545"/>
+    </row>
+    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P18" s="533"/>
+      <c r="T18" s="545"/>
+    </row>
+    <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="169" t="s">
         <v>368</v>
       </c>
       <c r="D19" s="435" t="s">
@@ -6155,20 +6174,20 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="541">
+      <c r="M19" s="549">
         <v>45275</v>
       </c>
       <c r="N19" s="440" t="s">
         <v>522</v>
       </c>
-      <c r="P19" s="723"/>
-      <c r="T19" s="538"/>
-    </row>
-    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P19" s="533"/>
+      <c r="T19" s="545"/>
+    </row>
+    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="254" t="s">
         <v>533</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="169" t="s">
         <v>368</v>
       </c>
       <c r="D20" s="61"/>
@@ -6188,18 +6207,18 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="542"/>
+      <c r="M20" s="550"/>
       <c r="N20" s="429" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="723"/>
-      <c r="T20" s="538"/>
-    </row>
-    <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="533"/>
+      <c r="T20" s="545"/>
+    </row>
+    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="254" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="169" t="s">
         <v>361</v>
       </c>
       <c r="D21" s="61"/>
@@ -6219,22 +6238,22 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="542"/>
+      <c r="M21" s="550"/>
       <c r="N21" s="429" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="723"/>
-      <c r="Q21" s="721" t="s">
+      <c r="P21" s="533"/>
+      <c r="T21" s="545"/>
+      <c r="U21" s="547" t="s">
         <v>226</v>
       </c>
-      <c r="R21" s="540"/>
-      <c r="T21" s="538"/>
-    </row>
-    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V21" s="548"/>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="287" t="s">
         <v>401</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="169" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="61"/>
@@ -6254,18 +6273,18 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="542"/>
+      <c r="M22" s="550"/>
       <c r="N22" s="408" t="s">
         <v>26</v>
       </c>
-      <c r="P22" s="723"/>
-      <c r="T22" s="538"/>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="533"/>
+      <c r="T22" s="545"/>
+    </row>
+    <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="169" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="409"/>
@@ -6285,18 +6304,18 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="542"/>
+      <c r="M23" s="550"/>
       <c r="N23" s="61" t="s">
         <v>523</v>
       </c>
-      <c r="P23" s="723"/>
-      <c r="T23" s="538"/>
-    </row>
-    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="533"/>
+      <c r="T23" s="545"/>
+    </row>
+    <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="169" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="409"/>
@@ -6316,25 +6335,27 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="542"/>
+      <c r="M24" s="550"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="720" t="s">
+      <c r="O24" s="532" t="s">
         <v>44</v>
       </c>
-      <c r="P24" s="724"/>
+      <c r="P24" s="534"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="538"/>
-    </row>
-    <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T24" s="545"/>
+    </row>
+    <row r="25" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="61" t="s">
+        <v>600</v>
+      </c>
       <c r="E25" s="271"/>
       <c r="F25" s="269" t="s">
         <v>370</v>
@@ -6351,18 +6372,29 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="542"/>
+      <c r="M25" s="550"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="723"/>
-      <c r="T25" s="538"/>
-    </row>
-    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P25" s="533">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="R25" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" s="21">
+        <v>0</v>
+      </c>
+      <c r="T25" s="545"/>
+    </row>
+    <row r="26" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="169" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="435" t="s">
@@ -6382,18 +6414,18 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="542"/>
+      <c r="M26" s="550"/>
       <c r="N26" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="P26" s="723"/>
-      <c r="T26" s="538"/>
-    </row>
-    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P26" s="533"/>
+      <c r="T26" s="545"/>
+    </row>
+    <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="270" t="s">
         <v>406</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="169" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="61"/>
@@ -6409,7 +6441,7 @@
       <c r="J27" s="437"/>
       <c r="K27" s="438"/>
       <c r="L27" s="439"/>
-      <c r="M27" s="542"/>
+      <c r="M27" s="550"/>
       <c r="N27" s="61"/>
       <c r="P27" s="333">
         <v>1</v>
@@ -6423,17 +6455,17 @@
       <c r="S27" s="177">
         <v>0</v>
       </c>
-      <c r="T27" s="538"/>
-    </row>
-    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T27" s="545"/>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="270" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="530" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="435" t="s">
-        <v>20</v>
+      <c r="D28" s="61" t="s">
+        <v>601</v>
       </c>
       <c r="E28" s="442"/>
       <c r="F28" s="433" t="s">
@@ -6451,13 +6483,23 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="543"/>
+      <c r="M28" s="551"/>
       <c r="N28" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="P28" s="725"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="539"/>
+      <c r="P28" s="535">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="R28" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" s="21">
+        <v>0</v>
+      </c>
+      <c r="T28" s="546"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6466,7 +6508,7 @@
     <mergeCell ref="N15:N17"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:T28"/>
-    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="U21:V21"/>
     <mergeCell ref="M19:M28"/>
     <mergeCell ref="M15:M17"/>
   </mergeCells>
@@ -6476,10 +6518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6507,10 +6549,11 @@
     <col min="22" max="22" width="3.7109375" style="20" customWidth="1"/>
     <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.85546875" style="20" customWidth="1"/>
-    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" style="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.5703125" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="243" t="s">
         <v>134</v>
       </c>
@@ -6535,7 +6578,7 @@
       <c r="P1" s="448" t="s">
         <v>408</v>
       </c>
-      <c r="Q1" s="544" t="s">
+      <c r="Q1" s="571" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -6547,37 +6590,40 @@
       <c r="T1" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="24" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="557">
+      <c r="AA1" s="24" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="555">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="559" t="s">
+      <c r="B2" s="557" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="571" t="s">
+      <c r="C2" s="569" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="561" t="s">
+      <c r="D2" s="559" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="563" t="s">
+      <c r="E2" s="561" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="569" t="s">
+      <c r="G2" s="567" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="551" t="s">
+      <c r="I2" s="578" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="446" t="s">
@@ -6601,7 +6647,7 @@
       <c r="P2" s="449">
         <v>40</v>
       </c>
-      <c r="Q2" s="545"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
         <v>8</v>
@@ -6612,25 +6658,29 @@
       </c>
       <c r="T2" s="177">
         <f>SUM(T4:T16)</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="521"/>
       <c r="X2" s="521"/>
-      <c r="Z2" s="19">
+      <c r="Z2" s="24">
         <f>BoardRW!V3</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="558"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="572"/>
-      <c r="D3" s="562"/>
-      <c r="E3" s="564"/>
-      <c r="G3" s="570"/>
+        <v>5</v>
+      </c>
+      <c r="AA2" s="68">
+        <f>Z2+T2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="556"/>
+      <c r="B3" s="558"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="562"/>
+      <c r="G3" s="568"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="552"/>
+      <c r="I3" s="579"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -6645,15 +6695,15 @@
       <c r="V3" s="522"/>
       <c r="X3" s="522"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="249" t="s">
         <v>390</v>
       </c>
       <c r="B4" s="256"/>
-      <c r="C4" s="565" t="s">
+      <c r="C4" s="563" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="552"/>
+      <c r="I4" s="579"/>
       <c r="R4" s="524" t="s">
         <v>585</v>
       </c>
@@ -6669,14 +6719,14 @@
       </c>
       <c r="X4" s="522"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="234" t="s">
         <v>194</v>
       </c>
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="566"/>
+      <c r="C5" s="564"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6686,13 +6736,13 @@
       <c r="F5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="530" t="s">
+      <c r="G5" s="536" t="s">
         <v>276</v>
       </c>
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="552"/>
+      <c r="I5" s="579"/>
       <c r="J5" s="447" t="s">
         <v>273</v>
       </c>
@@ -6728,23 +6778,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="554" t="s">
+    <row r="6" spans="1:27" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="552" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="567"/>
-      <c r="D6" s="568"/>
+      <c r="C6" s="565"/>
+      <c r="D6" s="566"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="531"/>
-      <c r="I6" s="552"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="555"/>
+      <c r="G6" s="537"/>
+      <c r="I6" s="579"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="553"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6754,8 +6804,8 @@
       <c r="D7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="531"/>
-      <c r="I7" s="552"/>
+      <c r="G7" s="537"/>
+      <c r="I7" s="579"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6792,8 +6842,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="556"/>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="554"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6801,8 +6851,8 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="531"/>
-      <c r="I8" s="552"/>
+      <c r="G8" s="537"/>
+      <c r="I8" s="579"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
@@ -6813,7 +6863,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="518"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="244" t="s">
         <v>438</v>
       </c>
@@ -6826,9 +6876,9 @@
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="531"/>
+      <c r="G9" s="537"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="552"/>
+      <c r="I9" s="579"/>
       <c r="M9" s="19" t="s">
         <v>548</v>
       </c>
@@ -6841,7 +6891,7 @@
       </c>
       <c r="X9" s="518"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
         <v>553</v>
       </c>
@@ -6852,10 +6902,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!S8</f>
-        <v>39</v>
-      </c>
-      <c r="G10" s="531"/>
-      <c r="I10" s="552"/>
+        <v>38</v>
+      </c>
+      <c r="G10" s="537"/>
+      <c r="I10" s="579"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6879,11 +6929,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="530" t="s">
+      <c r="B11" s="536" t="s">
         <v>392</v>
       </c>
       <c r="C11" s="176" t="s">
@@ -6892,8 +6942,8 @@
       <c r="D11" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="531"/>
-      <c r="I11" s="552"/>
+      <c r="G11" s="537"/>
+      <c r="I11" s="579"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6919,23 +6969,23 @@
       <c r="S11" s="24">
         <v>0</v>
       </c>
-      <c r="U11" s="546" t="s">
+      <c r="U11" s="573" t="s">
         <v>588</v>
       </c>
-      <c r="V11" s="547"/>
-      <c r="W11" s="547"/>
-      <c r="X11" s="548"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V11" s="574"/>
+      <c r="W11" s="574"/>
+      <c r="X11" s="575"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="532"/>
+      <c r="B12" s="538"/>
       <c r="E12" s="242">
         <v>3</v>
       </c>
-      <c r="G12" s="531"/>
-      <c r="I12" s="552"/>
+      <c r="G12" s="537"/>
+      <c r="I12" s="579"/>
       <c r="J12" s="24" t="s">
         <v>539</v>
       </c>
@@ -6956,19 +7006,19 @@
       <c r="V12" s="112"/>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="490" t="s">
         <v>446</v>
       </c>
       <c r="B13" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="530" t="s">
+      <c r="C13" s="536" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="531"/>
-      <c r="I13" s="552"/>
+      <c r="G13" s="537"/>
+      <c r="I13" s="579"/>
       <c r="J13" s="108" t="s">
         <v>577</v>
       </c>
@@ -6988,14 +7038,14 @@
       <c r="V13" s="112"/>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="244" t="s">
         <v>578</v>
       </c>
       <c r="B14" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="532"/>
+      <c r="C14" s="538"/>
       <c r="D14" s="214" t="s">
         <v>154</v>
       </c>
@@ -7005,16 +7055,16 @@
       <c r="F14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="532"/>
+      <c r="G14" s="538"/>
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="552"/>
+      <c r="I14" s="579"/>
       <c r="U14" s="6"/>
       <c r="V14" s="112"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="248" t="s">
         <v>543</v>
       </c>
@@ -7027,7 +7077,7 @@
       <c r="H15" s="288">
         <v>0</v>
       </c>
-      <c r="I15" s="552"/>
+      <c r="I15" s="579"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -7045,20 +7095,20 @@
       </c>
       <c r="T15" s="24">
         <f>IF((R18-SUM(V18:V23))&lt;0,R18-SUM(V18:V23),0)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="112"/>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="552"/>
+      <c r="I16" s="579"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -7092,7 +7142,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="552"/>
+      <c r="I17" s="579"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -7104,13 +7154,13 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="552"/>
+      <c r="I18" s="579"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="549" t="s">
+      <c r="O18" s="576" t="s">
         <v>540</v>
       </c>
-      <c r="P18" s="550"/>
+      <c r="P18" s="577"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -7136,7 +7186,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="552"/>
+      <c r="I19" s="579"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -7168,7 +7218,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="552"/>
+      <c r="I20" s="579"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -7190,17 +7240,19 @@
       <c r="X20" s="522">
         <v>1</v>
       </c>
-      <c r="Z20" s="6"/>
+      <c r="Z20" s="112"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="552"/>
+      <c r="I21" s="579"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="V21" s="24"/>
+        <v>235</v>
+      </c>
+      <c r="V21" s="24">
+        <v>1</v>
+      </c>
       <c r="W21" s="6" t="s">
         <v>88</v>
       </c>
@@ -7227,7 +7279,7 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="552"/>
+      <c r="I22" s="579"/>
       <c r="U22" s="6" t="s">
         <v>589</v>
       </c>
@@ -7251,7 +7303,7 @@
       <c r="E23" s="300" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="552"/>
+      <c r="I23" s="579"/>
       <c r="U23" s="6" t="s">
         <v>74</v>
       </c>
@@ -7261,7 +7313,7 @@
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="552"/>
+      <c r="I24" s="579"/>
       <c r="U24" s="378"/>
       <c r="V24" s="523">
         <v>-1</v>
@@ -7289,7 +7341,7 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="552"/>
+      <c r="I25" s="579"/>
       <c r="J25" s="447" t="s">
         <v>274</v>
       </c>
@@ -7334,7 +7386,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="552"/>
+      <c r="I26" s="579"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -7369,7 +7421,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="552"/>
+      <c r="I27" s="579"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -7396,7 +7448,7 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="552"/>
+      <c r="I28" s="579"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -7418,7 +7470,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="553"/>
+      <c r="I29" s="580"/>
       <c r="J29" s="357"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7462,6 +7514,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -7473,11 +7530,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7553,7 +7605,7 @@
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="569" t="s">
+      <c r="I1" s="567" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7589,7 +7641,7 @@
       <c r="X1" s="480" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="615" t="s">
+      <c r="Y1" s="623" t="s">
         <v>555</v>
       </c>
       <c r="Z1" s="456">
@@ -7614,7 +7666,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="452"/>
-      <c r="AN1" s="600"/>
+      <c r="AN1" s="605"/>
       <c r="AO1" s="374" t="s">
         <v>487</v>
       </c>
@@ -7623,23 +7675,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="624">
+      <c r="A2" s="587">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="626" t="s">
+      <c r="B2" s="589" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="571" t="s">
+      <c r="C2" s="569" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="628" t="s">
+      <c r="D2" s="591" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="573" t="s">
+      <c r="E2" s="635" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="581" t="s">
+      <c r="F2" s="610" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="443" t="s">
@@ -7648,31 +7700,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="570"/>
+      <c r="I2" s="568"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="575" t="s">
+      <c r="K2" s="637" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="576"/>
-      <c r="M2" s="581" t="s">
+      <c r="L2" s="638"/>
+      <c r="M2" s="610" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="607" t="s">
+      <c r="O2" s="614" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="571" t="s">
+      <c r="Q2" s="569" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="530"/>
-      <c r="S2" s="594" t="s">
+      <c r="R2" s="536"/>
+      <c r="S2" s="627" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7682,7 +7734,7 @@
       <c r="X2" s="481" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="616"/>
+      <c r="Y2" s="624"/>
       <c r="Z2" s="457">
         <v>1</v>
       </c>
@@ -7705,15 +7757,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="478"/>
-      <c r="AN2" s="601"/>
+      <c r="AN2" s="606"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="625"/>
-      <c r="B3" s="627"/>
-      <c r="C3" s="572"/>
-      <c r="D3" s="629"/>
-      <c r="E3" s="574"/>
-      <c r="F3" s="582"/>
+      <c r="A3" s="588"/>
+      <c r="B3" s="590"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="592"/>
+      <c r="E3" s="636"/>
+      <c r="F3" s="611"/>
       <c r="G3" s="444" t="s">
         <v>28</v>
       </c>
@@ -7732,17 +7784,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="582"/>
+      <c r="M3" s="611"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="608"/>
+      <c r="O3" s="615"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="572"/>
-      <c r="R3" s="532"/>
-      <c r="S3" s="596"/>
+      <c r="Q3" s="570"/>
+      <c r="R3" s="538"/>
+      <c r="S3" s="628"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7750,7 +7802,7 @@
       <c r="X3" s="481" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="616"/>
+      <c r="Y3" s="624"/>
       <c r="Z3" s="458">
         <v>1</v>
       </c>
@@ -7759,7 +7811,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="591" t="s">
+      <c r="AD3" s="626" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="271"/>
@@ -7771,16 +7823,16 @@
       <c r="AK3" s="271"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="478"/>
-      <c r="AN3" s="601"/>
+      <c r="AN3" s="606"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="640" t="s">
+      <c r="B4" s="603" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="571" t="s">
+      <c r="C4" s="569" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="383" t="s">
@@ -7789,7 +7841,7 @@
       <c r="E4" s="420">
         <v>1</v>
       </c>
-      <c r="F4" s="582"/>
+      <c r="F4" s="611"/>
       <c r="G4" s="425" t="s">
         <v>203</v>
       </c>
@@ -7806,11 +7858,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="582"/>
+      <c r="M4" s="611"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="608"/>
+      <c r="O4" s="615"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7832,12 +7884,12 @@
       <c r="X4" s="481" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="616"/>
+      <c r="Y4" s="624"/>
       <c r="Z4" s="459"/>
       <c r="AA4" s="324"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="591"/>
+      <c r="AD4" s="626"/>
       <c r="AE4" s="271"/>
       <c r="AF4" s="271"/>
       <c r="AG4" s="16"/>
@@ -7847,37 +7899,37 @@
       <c r="AK4" s="271"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="478"/>
-      <c r="AN4" s="601"/>
+      <c r="AN4" s="606"/>
       <c r="AO4" s="374" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="569" t="s">
+      <c r="A5" s="567" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="641"/>
-      <c r="C5" s="572"/>
+      <c r="B5" s="604"/>
+      <c r="C5" s="570"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="421">
         <v>1</v>
       </c>
-      <c r="F5" s="582"/>
-      <c r="G5" s="632" t="s">
+      <c r="F5" s="611"/>
+      <c r="G5" s="595" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="632"/>
-      <c r="I5" s="632"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="633"/>
-      <c r="M5" s="582"/>
+      <c r="H5" s="595"/>
+      <c r="I5" s="595"/>
+      <c r="J5" s="595"/>
+      <c r="K5" s="595"/>
+      <c r="L5" s="596"/>
+      <c r="M5" s="611"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="608"/>
+      <c r="O5" s="615"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7885,7 +7937,7 @@
       <c r="X5" s="481" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="616"/>
+      <c r="Y5" s="624"/>
       <c r="Z5" s="459">
         <v>1</v>
       </c>
@@ -7908,24 +7960,24 @@
       <c r="AK5" s="271"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="478"/>
-      <c r="AN5" s="601"/>
+      <c r="AN5" s="606"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="570"/>
-      <c r="B6" s="638" t="s">
+      <c r="A6" s="568"/>
+      <c r="B6" s="601" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="567"/>
-      <c r="D6" s="568"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="634"/>
-      <c r="H6" s="634"/>
-      <c r="I6" s="634"/>
-      <c r="J6" s="634"/>
-      <c r="K6" s="634"/>
-      <c r="L6" s="635"/>
-      <c r="M6" s="582"/>
-      <c r="O6" s="608"/>
+      <c r="C6" s="565"/>
+      <c r="D6" s="566"/>
+      <c r="F6" s="611"/>
+      <c r="G6" s="597"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="597"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="597"/>
+      <c r="L6" s="598"/>
+      <c r="M6" s="611"/>
+      <c r="O6" s="615"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7935,7 +7987,7 @@
       <c r="X6" s="481" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="616"/>
+      <c r="Y6" s="624"/>
       <c r="Z6" s="457">
         <v>1</v>
       </c>
@@ -7949,16 +8001,16 @@
       <c r="AF6" s="271"/>
       <c r="AG6" s="271"/>
       <c r="AH6" s="271"/>
-      <c r="AI6" s="590"/>
+      <c r="AI6" s="620"/>
       <c r="AJ6" s="491" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="590" t="s">
+      <c r="AK6" s="620" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="271"/>
       <c r="AM6" s="478"/>
-      <c r="AN6" s="601"/>
+      <c r="AN6" s="606"/>
       <c r="AO6" s="374" t="s">
         <v>488</v>
       </c>
@@ -7967,7 +8019,7 @@
       <c r="A7" s="245" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="639"/>
+      <c r="B7" s="602"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7977,7 +8029,7 @@
       <c r="E7" s="280">
         <v>3</v>
       </c>
-      <c r="F7" s="582"/>
+      <c r="F7" s="611"/>
       <c r="G7" s="445">
         <v>0</v>
       </c>
@@ -7990,14 +8042,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="530">
+      <c r="K7" s="536">
         <v>1</v>
       </c>
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="582"/>
-      <c r="O7" s="608"/>
+      <c r="M7" s="611"/>
+      <c r="O7" s="615"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -8011,7 +8063,7 @@
       <c r="X7" s="481" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="616"/>
+      <c r="Y7" s="624"/>
       <c r="Z7" s="457">
         <v>1</v>
       </c>
@@ -8021,18 +8073,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="271"/>
       <c r="AF7" s="271"/>
-      <c r="AG7" s="591" t="s">
+      <c r="AG7" s="626" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="271"/>
-      <c r="AI7" s="590"/>
+      <c r="AI7" s="620"/>
       <c r="AJ7" s="271"/>
-      <c r="AK7" s="590"/>
+      <c r="AK7" s="620"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="478"/>
-      <c r="AN7" s="601"/>
+      <c r="AN7" s="606"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -8049,27 +8101,27 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="582"/>
-      <c r="G8" s="633">
-        <v>0</v>
-      </c>
-      <c r="H8" s="630" t="s">
+      <c r="F8" s="611"/>
+      <c r="G8" s="596">
+        <v>0</v>
+      </c>
+      <c r="H8" s="593" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="530">
-        <v>0</v>
-      </c>
-      <c r="J8" s="630" t="s">
+      <c r="I8" s="536">
+        <v>0</v>
+      </c>
+      <c r="J8" s="593" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="636"/>
-      <c r="L8" s="592"/>
-      <c r="M8" s="605"/>
-      <c r="N8" s="597">
+      <c r="K8" s="599"/>
+      <c r="L8" s="629"/>
+      <c r="M8" s="612"/>
+      <c r="N8" s="632">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="608"/>
+      <c r="O8" s="615"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -8079,7 +8131,7 @@
       <c r="X8" s="481" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="616"/>
+      <c r="Y8" s="624"/>
       <c r="Z8" s="459"/>
       <c r="AA8" s="324"/>
       <c r="AB8" s="219"/>
@@ -8087,14 +8139,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="271"/>
       <c r="AF8" s="271"/>
-      <c r="AG8" s="591"/>
+      <c r="AG8" s="626"/>
       <c r="AH8" s="271"/>
-      <c r="AI8" s="590"/>
+      <c r="AI8" s="620"/>
       <c r="AJ8" s="271"/>
       <c r="AK8" s="271"/>
       <c r="AL8" s="271"/>
       <c r="AM8" s="478"/>
-      <c r="AN8" s="601"/>
+      <c r="AN8" s="606"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -8109,17 +8161,17 @@
       <c r="D9" s="384" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="582"/>
-      <c r="G9" s="635"/>
-      <c r="H9" s="631"/>
-      <c r="I9" s="532"/>
-      <c r="J9" s="631"/>
-      <c r="K9" s="637"/>
-      <c r="L9" s="593"/>
-      <c r="M9" s="606"/>
-      <c r="N9" s="598"/>
-      <c r="O9" s="609"/>
-      <c r="S9" s="594" t="s">
+      <c r="F9" s="611"/>
+      <c r="G9" s="598"/>
+      <c r="H9" s="594"/>
+      <c r="I9" s="538"/>
+      <c r="J9" s="594"/>
+      <c r="K9" s="600"/>
+      <c r="L9" s="630"/>
+      <c r="M9" s="613"/>
+      <c r="N9" s="633"/>
+      <c r="O9" s="616"/>
+      <c r="S9" s="627" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -8131,7 +8183,7 @@
       <c r="X9" s="481" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="616"/>
+      <c r="Y9" s="624"/>
       <c r="Z9" s="460"/>
       <c r="AA9" s="324"/>
       <c r="AB9" s="219"/>
@@ -8141,16 +8193,16 @@
       </c>
       <c r="AE9" s="271"/>
       <c r="AF9" s="271"/>
-      <c r="AG9" s="591"/>
+      <c r="AG9" s="626"/>
       <c r="AH9" s="271"/>
-      <c r="AI9" s="590"/>
+      <c r="AI9" s="620"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="590" t="s">
+      <c r="AK9" s="620" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="271"/>
       <c r="AM9" s="478"/>
-      <c r="AN9" s="601"/>
+      <c r="AN9" s="606"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -8165,22 +8217,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="250">
         <f>Boat!S8</f>
-        <v>39</v>
-      </c>
-      <c r="F10" s="582"/>
+        <v>38</v>
+      </c>
+      <c r="F10" s="611"/>
       <c r="N10" s="468" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="584" t="s">
+      <c r="O10" s="644" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="610" t="s">
+      <c r="P10" s="617" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="595"/>
+      <c r="S10" s="631"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8192,7 +8244,7 @@
       <c r="X10" s="481" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="616"/>
+      <c r="Y10" s="624"/>
       <c r="Z10" s="459">
         <v>0</v>
       </c>
@@ -8210,16 +8262,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="591"/>
+      <c r="AG10" s="626"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="590"/>
+      <c r="AI10" s="620"/>
       <c r="AJ10" s="271"/>
-      <c r="AK10" s="590"/>
+      <c r="AK10" s="620"/>
       <c r="AL10" s="271"/>
       <c r="AM10" s="492" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="601"/>
+      <c r="AN10" s="606"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -8228,7 +8280,7 @@
       <c r="A11" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="530" t="s">
+      <c r="B11" s="536" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="507" t="s">
@@ -8237,18 +8289,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="582"/>
+      <c r="F11" s="611"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="585"/>
-      <c r="P11" s="611"/>
+      <c r="O11" s="645"/>
+      <c r="P11" s="618"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="595"/>
+      <c r="S11" s="631"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -8258,7 +8310,7 @@
       <c r="X11" s="481" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="616"/>
+      <c r="Y11" s="624"/>
       <c r="Z11" s="459"/>
       <c r="AA11" s="324">
         <v>1</v>
@@ -8272,14 +8324,14 @@
       <c r="AF11" s="271" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="591"/>
+      <c r="AG11" s="626"/>
       <c r="AH11" s="271"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="271"/>
       <c r="AK11" s="271"/>
       <c r="AL11" s="271"/>
       <c r="AM11" s="478"/>
-      <c r="AN11" s="601"/>
+      <c r="AN11" s="606"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -8288,7 +8340,7 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="532"/>
+      <c r="B12" s="538"/>
       <c r="C12" s="508" t="s">
         <v>394</v>
       </c>
@@ -8298,25 +8350,25 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="582"/>
+      <c r="F12" s="611"/>
       <c r="G12" s="373" t="s">
         <v>411</v>
       </c>
-      <c r="H12" s="535" t="s">
+      <c r="H12" s="541" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="536"/>
-      <c r="J12" s="536"/>
-      <c r="K12" s="589"/>
+      <c r="I12" s="543"/>
+      <c r="J12" s="543"/>
+      <c r="K12" s="649"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="585"/>
-      <c r="P12" s="611"/>
+      <c r="O12" s="645"/>
+      <c r="P12" s="618"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="596"/>
+      <c r="S12" s="628"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -8326,7 +8378,7 @@
       <c r="X12" s="481" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="616"/>
+      <c r="Y12" s="624"/>
       <c r="Z12" s="457">
         <v>1</v>
       </c>
@@ -8337,16 +8389,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="599" t="s">
+      <c r="AD12" s="634" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="491" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="591" t="s">
+      <c r="AF12" s="626" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="591"/>
+      <c r="AG12" s="626"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -8356,10 +8408,10 @@
       <c r="AJ12" s="271"/>
       <c r="AK12" s="271"/>
       <c r="AL12" s="271"/>
-      <c r="AM12" s="613" t="s">
+      <c r="AM12" s="621" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="601"/>
+      <c r="AN12" s="606"/>
       <c r="AO12" s="374" t="s">
         <v>97</v>
       </c>
@@ -8371,17 +8423,17 @@
       <c r="E13" s="498">
         <v>-3</v>
       </c>
-      <c r="F13" s="582"/>
-      <c r="G13" s="536" t="s">
+      <c r="F13" s="611"/>
+      <c r="G13" s="543" t="s">
         <v>448</v>
       </c>
-      <c r="H13" s="536"/>
-      <c r="I13" s="536"/>
-      <c r="J13" s="589"/>
+      <c r="H13" s="543"/>
+      <c r="I13" s="543"/>
+      <c r="J13" s="649"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="585"/>
-      <c r="P13" s="612"/>
+      <c r="O13" s="645"/>
+      <c r="P13" s="619"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8391,7 +8443,7 @@
       <c r="X13" s="481" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="616"/>
+      <c r="Y13" s="624"/>
       <c r="Z13" s="457">
         <v>1</v>
       </c>
@@ -8402,8 +8454,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="599"/>
-      <c r="AF13" s="591"/>
+      <c r="AD13" s="634"/>
+      <c r="AF13" s="626"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8414,8 +8466,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="271"/>
       <c r="AL13" s="271"/>
-      <c r="AM13" s="613"/>
-      <c r="AN13" s="601"/>
+      <c r="AM13" s="621"/>
+      <c r="AN13" s="606"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="500"/>
@@ -8423,18 +8475,18 @@
       <c r="C14" s="509"/>
       <c r="D14" s="502"/>
       <c r="E14" s="503"/>
-      <c r="F14" s="582"/>
-      <c r="G14" s="536" t="s">
+      <c r="F14" s="611"/>
+      <c r="G14" s="543" t="s">
         <v>447</v>
       </c>
-      <c r="H14" s="536"/>
-      <c r="I14" s="536"/>
-      <c r="J14" s="589"/>
+      <c r="H14" s="543"/>
+      <c r="I14" s="543"/>
+      <c r="J14" s="649"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="585"/>
+      <c r="O14" s="645"/>
       <c r="Q14" s="61" t="s">
         <v>559</v>
       </c>
@@ -8448,34 +8500,34 @@
       <c r="X14" s="481" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="616"/>
+      <c r="Y14" s="624"/>
       <c r="Z14" s="457">
         <v>1</v>
       </c>
       <c r="AA14" s="324"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="599"/>
+      <c r="AD14" s="634"/>
       <c r="AE14" s="271"/>
-      <c r="AF14" s="591"/>
+      <c r="AF14" s="626"/>
       <c r="AG14" s="271"/>
       <c r="AH14" s="271"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="271"/>
       <c r="AK14" s="271"/>
       <c r="AL14" s="271"/>
-      <c r="AM14" s="613"/>
-      <c r="AN14" s="601"/>
+      <c r="AM14" s="621"/>
+      <c r="AN14" s="606"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="499" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="530" t="s">
+      <c r="C15" s="536" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="582"/>
-      <c r="O15" s="585"/>
+      <c r="F15" s="611"/>
+      <c r="O15" s="645"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8488,7 +8540,7 @@
       <c r="X15" s="481" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="616"/>
+      <c r="Y15" s="624"/>
       <c r="Z15" s="459">
         <v>1</v>
       </c>
@@ -8497,8 +8549,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="599"/>
-      <c r="AF15" s="591"/>
+      <c r="AD15" s="634"/>
+      <c r="AF15" s="626"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8511,8 +8563,8 @@
       </c>
       <c r="AK15" s="271"/>
       <c r="AL15" s="271"/>
-      <c r="AM15" s="613"/>
-      <c r="AN15" s="601"/>
+      <c r="AM15" s="621"/>
+      <c r="AN15" s="606"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8527,20 +8579,20 @@
       <c r="B16" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="532"/>
+      <c r="C16" s="538"/>
       <c r="D16" s="61" t="s">
         <v>511</v>
       </c>
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="582"/>
+      <c r="F16" s="611"/>
       <c r="G16" s="373" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="585"/>
+      <c r="O16" s="645"/>
       <c r="R16" s="485" t="s">
         <v>185</v>
       </c>
@@ -8551,7 +8603,7 @@
       <c r="X16" s="481" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="616"/>
+      <c r="Y16" s="624"/>
       <c r="Z16" s="457">
         <v>1</v>
       </c>
@@ -8572,18 +8624,18 @@
       <c r="AM16" s="478" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="601"/>
+      <c r="AN16" s="606"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="582"/>
+      <c r="F17" s="611"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="585"/>
+      <c r="O17" s="645"/>
       <c r="Q17" s="21" t="s">
         <v>557</v>
       </c>
@@ -8603,7 +8655,7 @@
       <c r="X17" s="481" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="616"/>
+      <c r="Y17" s="624"/>
       <c r="Z17" s="459"/>
       <c r="AA17" s="324"/>
       <c r="AB17" s="219"/>
@@ -8628,7 +8680,7 @@
       <c r="AK17" s="271"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="478"/>
-      <c r="AN17" s="601"/>
+      <c r="AN17" s="606"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8652,21 +8704,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="582"/>
+      <c r="F18" s="611"/>
       <c r="G18" s="373" t="s">
         <v>554</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="585"/>
+      <c r="O18" s="645"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="577" t="s">
+      <c r="R18" s="639" t="s">
         <v>562</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="621" t="s">
+      <c r="U18" s="584" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8676,7 +8728,7 @@
       <c r="X18" s="481" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="616"/>
+      <c r="Y18" s="624"/>
       <c r="Z18" s="459">
         <v>1</v>
       </c>
@@ -8687,37 +8739,37 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="271"/>
-      <c r="AF18" s="590" t="s">
+      <c r="AF18" s="620" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="271"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="614" t="s">
+      <c r="AJ18" s="622" t="s">
         <v>322</v>
       </c>
       <c r="AK18" s="271"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="478"/>
-      <c r="AN18" s="601"/>
+      <c r="AN18" s="606"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="582"/>
-      <c r="O19" s="585"/>
-      <c r="R19" s="578"/>
+      <c r="F19" s="611"/>
+      <c r="O19" s="645"/>
+      <c r="R19" s="640"/>
       <c r="S19" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="U19" s="622"/>
+      <c r="U19" s="585"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="481" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="616"/>
+      <c r="Y19" s="624"/>
       <c r="Z19" s="457">
         <v>1</v>
       </c>
@@ -8726,17 +8778,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="271"/>
-      <c r="AF19" s="590"/>
+      <c r="AF19" s="620"/>
       <c r="AG19" s="271"/>
       <c r="AH19" s="271"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="614"/>
+      <c r="AJ19" s="622"/>
       <c r="AK19" s="510" t="s">
         <v>256</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="478"/>
-      <c r="AN19" s="601"/>
+      <c r="AN19" s="606"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8757,23 +8809,23 @@
       <c r="E20" s="487">
         <v>-1</v>
       </c>
-      <c r="F20" s="582"/>
+      <c r="F20" s="611"/>
       <c r="G20" s="373" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="585"/>
-      <c r="Q20" s="587" t="s">
+      <c r="O20" s="645"/>
+      <c r="Q20" s="647" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="454" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="623"/>
+      <c r="U20" s="586"/>
       <c r="W20" s="455"/>
       <c r="X20" s="482" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="616"/>
+      <c r="Y20" s="624"/>
       <c r="Z20" s="461">
         <v>1</v>
       </c>
@@ -8798,7 +8850,7 @@
       <c r="AM20" s="425" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="601"/>
+      <c r="AN20" s="606"/>
       <c r="AO20" s="374" t="s">
         <v>478</v>
       </c>
@@ -8822,19 +8874,19 @@
       <c r="E21" s="280">
         <v>1</v>
       </c>
-      <c r="F21" s="582"/>
-      <c r="O21" s="585"/>
-      <c r="Q21" s="588"/>
+      <c r="F21" s="611"/>
+      <c r="O21" s="645"/>
+      <c r="Q21" s="648"/>
       <c r="T21" s="472"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="618"/>
+      <c r="V21" s="581"/>
       <c r="W21" s="476" t="s">
         <v>176</v>
       </c>
       <c r="X21" s="479" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="616"/>
+      <c r="Y21" s="624"/>
       <c r="Z21" s="495">
         <v>3</v>
       </c>
@@ -8865,14 +8917,14 @@
       <c r="AM21" s="478" t="s">
         <v>572</v>
       </c>
-      <c r="AN21" s="601"/>
+      <c r="AN21" s="606"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="582"/>
+      <c r="F22" s="611"/>
       <c r="G22" s="373" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="585"/>
+      <c r="O22" s="645"/>
       <c r="R22" s="484" t="s">
         <v>44</v>
       </c>
@@ -8880,14 +8932,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="619"/>
+      <c r="V22" s="582"/>
       <c r="W22" s="476" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="479" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="616"/>
+      <c r="Y22" s="624"/>
       <c r="Z22" s="465"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="465"/>
@@ -8898,7 +8950,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="590" t="s">
+      <c r="AJ22" s="620" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="271"/>
@@ -8906,7 +8958,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="317"/>
-      <c r="AN22" s="601"/>
+      <c r="AN22" s="606"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8924,21 +8976,21 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="582"/>
-      <c r="O23" s="585"/>
-      <c r="Q23" s="587" t="s">
+      <c r="F23" s="611"/>
+      <c r="O23" s="645"/>
+      <c r="Q23" s="647" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="470" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="619"/>
+      <c r="V23" s="582"/>
       <c r="W23" s="148"/>
       <c r="X23" s="479" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="616"/>
+      <c r="Y23" s="624"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="465"/>
@@ -8949,13 +9001,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="590"/>
+      <c r="AJ23" s="620"/>
       <c r="AK23" s="271"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="317"/>
-      <c r="AN23" s="601"/>
+      <c r="AN23" s="606"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="490" t="s">
@@ -8973,22 +9025,22 @@
       <c r="E24" s="486">
         <v>1</v>
       </c>
-      <c r="F24" s="582"/>
+      <c r="F24" s="611"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="585"/>
-      <c r="Q24" s="588"/>
+      <c r="O24" s="645"/>
+      <c r="Q24" s="648"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="619"/>
+      <c r="V24" s="582"/>
       <c r="W24" s="148"/>
       <c r="X24" s="479" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="616"/>
+      <c r="Y24" s="624"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="465"/>
@@ -9007,11 +9059,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="317"/>
-      <c r="AN24" s="601"/>
+      <c r="AN24" s="606"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="582"/>
-      <c r="O25" s="585"/>
+      <c r="F25" s="611"/>
+      <c r="O25" s="645"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -9024,12 +9076,12 @@
       <c r="U25" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="620"/>
+      <c r="V25" s="583"/>
       <c r="W25" s="148"/>
       <c r="X25" s="479" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="616"/>
+      <c r="Y25" s="624"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="465"/>
@@ -9046,7 +9098,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="317"/>
-      <c r="AN25" s="601"/>
+      <c r="AN25" s="606"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -9064,16 +9116,16 @@
       <c r="E26" s="422">
         <v>1</v>
       </c>
-      <c r="F26" s="582"/>
+      <c r="F26" s="611"/>
       <c r="G26" s="373" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="585"/>
-      <c r="P26" s="603" t="s">
+      <c r="O26" s="645"/>
+      <c r="P26" s="608" t="s">
         <v>549</v>
       </c>
-      <c r="Q26" s="604"/>
-      <c r="R26" s="579" t="s">
+      <c r="Q26" s="609"/>
+      <c r="R26" s="641" t="s">
         <v>561</v>
       </c>
       <c r="T26" s="183"/>
@@ -9085,7 +9137,7 @@
       <c r="X26" s="479" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="616"/>
+      <c r="Y26" s="624"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="465"/>
@@ -9112,7 +9164,7 @@
       <c r="AM26" s="492" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="601"/>
+      <c r="AN26" s="606"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -9124,12 +9176,12 @@
       <c r="E27" s="280" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="583"/>
+      <c r="F27" s="643"/>
       <c r="G27" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="O27" s="586"/>
-      <c r="R27" s="580"/>
+      <c r="O27" s="646"/>
+      <c r="R27" s="642"/>
       <c r="S27" s="471" t="s">
         <v>54</v>
       </c>
@@ -9142,7 +9194,7 @@
       <c r="X27" s="479" t="s">
         <v>556</v>
       </c>
-      <c r="Y27" s="617"/>
+      <c r="Y27" s="625"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="466"/>
@@ -9159,10 +9211,48 @@
       <c r="AM27" s="425" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="602"/>
+      <c r="AN27" s="607"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -9179,44 +9269,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9226,8 +9278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView topLeftCell="P5" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9314,16 +9366,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="569" t="s">
+      <c r="T1" s="567" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="646" t="s">
+      <c r="U1" s="665" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="648" t="s">
+      <c r="V1" s="667" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="649"/>
+      <c r="W1" s="668"/>
       <c r="X1" s="323">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -9339,40 +9391,40 @@
       <c r="AB1" s="319" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="650" t="s">
+      <c r="AC1" s="669" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="651"/>
-      <c r="AE1" s="652"/>
-      <c r="AF1" s="653" t="s">
+      <c r="AD1" s="670"/>
+      <c r="AE1" s="671"/>
+      <c r="AF1" s="672" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="654"/>
-      <c r="AH1" s="655"/>
-      <c r="AI1" s="642" t="s">
+      <c r="AG1" s="673"/>
+      <c r="AH1" s="674"/>
+      <c r="AI1" s="661" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="643"/>
-      <c r="AK1" s="644"/>
+      <c r="AJ1" s="662"/>
+      <c r="AK1" s="663"/>
       <c r="AN1" s="142"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="656">
+      <c r="J2" s="653">
         <f>SUM(J5:J30)</f>
         <v>3</v>
       </c>
-      <c r="K2" s="658">
+      <c r="K2" s="655">
         <f>SUM(K4:K29)</f>
-        <v>8</v>
-      </c>
-      <c r="L2" s="660">
+        <v>9</v>
+      </c>
+      <c r="L2" s="657">
         <f>SUM(L4:L29)</f>
         <v>7</v>
       </c>
-      <c r="M2" s="597">
+      <c r="M2" s="632">
         <f>SUM(K30:K37)* (-1)</f>
         <v>1</v>
       </c>
@@ -9391,11 +9443,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="662" t="s">
+      <c r="S2" s="659" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="645"/>
-      <c r="U2" s="647"/>
+      <c r="T2" s="664"/>
+      <c r="U2" s="666"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9455,10 +9507,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="657"/>
-      <c r="K3" s="659"/>
-      <c r="L3" s="661"/>
-      <c r="M3" s="598"/>
+      <c r="J3" s="654"/>
+      <c r="K3" s="656"/>
+      <c r="L3" s="658"/>
+      <c r="M3" s="633"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9472,10 +9524,10 @@
       </c>
       <c r="R3" s="159">
         <f>SUM(R4:R29)</f>
-        <v>39</v>
-      </c>
-      <c r="S3" s="663"/>
-      <c r="T3" s="570"/>
+        <v>38</v>
+      </c>
+      <c r="S3" s="660"/>
+      <c r="T3" s="568"/>
       <c r="U3" s="330">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9486,7 +9538,7 @@
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9498,7 +9550,7 @@
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
@@ -9576,7 +9628,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="664" t="s">
+      <c r="M4" s="650" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9659,7 +9711,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="665"/>
+      <c r="M5" s="651"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9747,7 +9799,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="665"/>
+      <c r="M6" s="651"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9837,7 +9889,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="665"/>
+      <c r="M7" s="651"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9941,7 +9993,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="665"/>
+      <c r="M8" s="651"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9959,7 +10011,7 @@
       </c>
       <c r="S8" s="339">
         <f>R3</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="347"/>
@@ -10027,7 +10079,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="665"/>
+      <c r="M9" s="651"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -10125,7 +10177,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M10" s="665"/>
+      <c r="M10" s="651"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -10208,7 +10260,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="665"/>
+      <c r="M11" s="651"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -10270,7 +10322,7 @@
       <c r="AN11" s="142"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="633" t="s">
+      <c r="A12" s="596" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10279,7 +10331,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="587" t="s">
+      <c r="E12" s="647" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="276">
@@ -10299,7 +10351,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="665"/>
+      <c r="M12" s="651"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10373,14 +10425,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="635"/>
+      <c r="A13" s="598"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="588"/>
+      <c r="E13" s="648"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10401,7 +10453,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="665"/>
+      <c r="M13" s="651"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10476,7 +10528,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M14" s="665"/>
+      <c r="M14" s="651"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10573,7 +10625,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="665"/>
+      <c r="M15" s="651"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10652,13 +10704,13 @@
       <c r="I16" s="431"/>
       <c r="J16" s="362"/>
       <c r="K16" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="310">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="665"/>
+      <c r="M16" s="651"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10670,7 +10722,7 @@
       </c>
       <c r="Q16" s="164"/>
       <c r="R16" s="157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S16" s="337">
         <v>-3</v>
@@ -10680,7 +10732,7 @@
       <c r="V16" s="344"/>
       <c r="W16" s="190">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="313"/>
       <c r="Y16" s="117">
@@ -10689,7 +10741,7 @@
       </c>
       <c r="Z16" s="307">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="307">
         <v>1</v>
@@ -10754,7 +10806,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="665"/>
+      <c r="M17" s="651"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10837,7 +10889,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="665"/>
+      <c r="M18" s="651"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10922,7 +10974,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="665"/>
+      <c r="M19" s="651"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -11017,11 +11069,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M20" s="666"/>
-      <c r="N20" s="535" t="s">
+      <c r="M20" s="652"/>
+      <c r="N20" s="541" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="589"/>
+      <c r="O20" s="649"/>
       <c r="P20" s="333" t="s">
         <v>86</v>
       </c>
@@ -11268,7 +11320,7 @@
       <c r="AN22" s="142"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="640" t="s">
+      <c r="E23" s="603" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -11350,7 +11402,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="726" t="s">
+      <c r="AL23" s="6" t="s">
         <v>598</v>
       </c>
       <c r="AM23" s="19" t="s">
@@ -11364,7 +11416,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="641"/>
+      <c r="E24" s="604"/>
       <c r="F24" s="177"/>
       <c r="I24" s="428" t="s">
         <v>301</v>
@@ -11379,10 +11431,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N24" s="535" t="s">
+      <c r="N24" s="541" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="589"/>
+      <c r="O24" s="649"/>
       <c r="P24" s="333" t="s">
         <v>254</v>
       </c>
@@ -12478,23 +12530,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="M4:M20"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12528,15 +12580,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="535" t="s">
+      <c r="B1" s="541" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="589"/>
+      <c r="C1" s="649"/>
       <c r="D1" s="214"/>
-      <c r="J1" s="535" t="s">
+      <c r="J1" s="541" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="589"/>
+      <c r="K1" s="649"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12574,13 +12626,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="206"/>
-      <c r="M2" s="667"/>
+      <c r="M2" s="675"/>
       <c r="N2" s="154">
         <v>2</v>
       </c>
       <c r="O2" s="155"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="670" t="s">
+      <c r="Q2" s="678" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -12603,13 +12655,13 @@
       <c r="K3" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="M3" s="668"/>
+      <c r="M3" s="676"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="671"/>
+      <c r="Q3" s="679"/>
       <c r="R3" s="231"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12628,13 +12680,13 @@
       <c r="K4" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="668"/>
+      <c r="M4" s="676"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="671"/>
+      <c r="Q4" s="679"/>
       <c r="R4" s="231"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12654,13 +12706,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="206"/>
-      <c r="M5" s="668"/>
+      <c r="M5" s="676"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="671"/>
+      <c r="Q5" s="679"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -12681,13 +12733,13 @@
       <c r="K6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="668"/>
+      <c r="M6" s="676"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="671"/>
+      <c r="Q6" s="679"/>
       <c r="R6" s="231"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12707,13 +12759,13 @@
         <v>334</v>
       </c>
       <c r="L7" s="208"/>
-      <c r="M7" s="668"/>
+      <c r="M7" s="676"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="671"/>
+      <c r="Q7" s="679"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -12734,13 +12786,13 @@
       <c r="K8" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M8" s="668"/>
+      <c r="M8" s="676"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="671"/>
+      <c r="Q8" s="679"/>
       <c r="R8" s="231"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12760,13 +12812,13 @@
         <v>336</v>
       </c>
       <c r="L9" s="186"/>
-      <c r="M9" s="669"/>
+      <c r="M9" s="677"/>
       <c r="N9" s="163"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="672"/>
+      <c r="Q9" s="680"/>
       <c r="R9" s="232"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -12924,10 +12976,10 @@
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="V1" s="535" t="s">
+      <c r="V1" s="541" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="589"/>
+      <c r="W1" s="649"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12946,7 +12998,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="680" t="s">
+      <c r="AD1" s="695" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12963,10 +13015,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="679" t="s">
+      <c r="F2" s="726" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="707" t="s">
+      <c r="G2" s="683" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12994,10 +13046,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="648" t="s">
+      <c r="V2" s="667" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="649"/>
+      <c r="W2" s="668"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -13016,7 +13068,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="681"/>
+      <c r="AD2" s="696"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -13035,8 +13087,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="637"/>
-      <c r="G3" s="708"/>
+      <c r="F3" s="600"/>
+      <c r="G3" s="684"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -13047,13 +13099,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="717" t="s">
+      <c r="O3" s="693" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="699" t="s">
+      <c r="P3" s="714" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="700"/>
+      <c r="Q3" s="715"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -13063,15 +13115,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="681"/>
+      <c r="AD3" s="696"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="708"/>
+      <c r="G4" s="684"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="670" t="s">
+      <c r="L4" s="678" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="718"/>
+      <c r="O4" s="694"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -13081,12 +13133,12 @@
       <c r="X4" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="535" t="s">
+      <c r="Y4" s="541" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" s="536"/>
-      <c r="AA4" s="589"/>
-      <c r="AD4" s="681"/>
+      <c r="Z4" s="543"/>
+      <c r="AA4" s="649"/>
+      <c r="AD4" s="696"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -13101,21 +13153,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="708"/>
+      <c r="G5" s="684"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="686" t="s">
+      <c r="K5" s="701" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="701"/>
+      <c r="L5" s="716"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="718"/>
+      <c r="O5" s="694"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -13131,11 +13183,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="689" t="s">
+      <c r="Y5" s="704" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="690"/>
-      <c r="AD5" s="681"/>
+      <c r="Z5" s="705"/>
+      <c r="AD5" s="696"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -13145,16 +13197,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="708"/>
+      <c r="G6" s="684"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="687"/>
-      <c r="L6" s="701"/>
-      <c r="O6" s="718"/>
+      <c r="K6" s="702"/>
+      <c r="L6" s="716"/>
+      <c r="O6" s="694"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -13164,20 +13216,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="681"/>
+      <c r="AD6" s="696"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="708"/>
+      <c r="G7" s="684"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="687"/>
-      <c r="L7" s="701"/>
+      <c r="K7" s="702"/>
+      <c r="L7" s="716"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="718"/>
+      <c r="O7" s="694"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="681"/>
+      <c r="AD7" s="696"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -13190,7 +13242,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="708"/>
+      <c r="G8" s="684"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -13200,41 +13252,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="687"/>
-      <c r="L8" s="701"/>
-      <c r="O8" s="718"/>
+      <c r="K8" s="702"/>
+      <c r="L8" s="716"/>
+      <c r="O8" s="694"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="683" t="s">
+      <c r="S8" s="698" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="684"/>
-      <c r="U8" s="684"/>
-      <c r="V8" s="684"/>
-      <c r="W8" s="684"/>
-      <c r="X8" s="684"/>
-      <c r="Y8" s="684"/>
-      <c r="Z8" s="684"/>
-      <c r="AA8" s="684"/>
-      <c r="AB8" s="684"/>
-      <c r="AC8" s="685"/>
-      <c r="AD8" s="681"/>
+      <c r="T8" s="699"/>
+      <c r="U8" s="699"/>
+      <c r="V8" s="699"/>
+      <c r="W8" s="699"/>
+      <c r="X8" s="699"/>
+      <c r="Y8" s="699"/>
+      <c r="Z8" s="699"/>
+      <c r="AA8" s="699"/>
+      <c r="AB8" s="699"/>
+      <c r="AC8" s="700"/>
+      <c r="AD8" s="696"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="673"/>
-      <c r="G9" s="708"/>
+      <c r="C9" s="720"/>
+      <c r="G9" s="684"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="687"/>
-      <c r="L9" s="711" t="s">
+      <c r="K9" s="702"/>
+      <c r="L9" s="687" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="712"/>
-      <c r="N9" s="713"/>
-      <c r="O9" s="718"/>
+      <c r="M9" s="688"/>
+      <c r="N9" s="689"/>
+      <c r="O9" s="694"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="681"/>
+      <c r="AD9" s="696"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="674"/>
+      <c r="C10" s="721"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13242,7 +13294,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="708"/>
+      <c r="G10" s="684"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13250,33 +13302,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="687"/>
-      <c r="M10" s="676" t="s">
+      <c r="K10" s="702"/>
+      <c r="M10" s="723" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="677"/>
-      <c r="O10" s="677"/>
-      <c r="P10" s="677"/>
-      <c r="Q10" s="677"/>
-      <c r="R10" s="677"/>
-      <c r="S10" s="677"/>
-      <c r="T10" s="677"/>
-      <c r="U10" s="677"/>
-      <c r="V10" s="677"/>
-      <c r="W10" s="677"/>
-      <c r="X10" s="677"/>
-      <c r="Y10" s="677"/>
-      <c r="Z10" s="677"/>
-      <c r="AA10" s="677"/>
-      <c r="AB10" s="677"/>
-      <c r="AC10" s="678"/>
-      <c r="AD10" s="681"/>
+      <c r="N10" s="724"/>
+      <c r="O10" s="724"/>
+      <c r="P10" s="724"/>
+      <c r="Q10" s="724"/>
+      <c r="R10" s="724"/>
+      <c r="S10" s="724"/>
+      <c r="T10" s="724"/>
+      <c r="U10" s="724"/>
+      <c r="V10" s="724"/>
+      <c r="W10" s="724"/>
+      <c r="X10" s="724"/>
+      <c r="Y10" s="724"/>
+      <c r="Z10" s="724"/>
+      <c r="AA10" s="724"/>
+      <c r="AB10" s="724"/>
+      <c r="AC10" s="725"/>
+      <c r="AD10" s="696"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="675"/>
-      <c r="G11" s="708"/>
+      <c r="C11" s="722"/>
+      <c r="G11" s="684"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="687"/>
+      <c r="K11" s="702"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13287,17 +13339,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="697" t="s">
+      <c r="Z11" s="712" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="698"/>
+      <c r="AA11" s="713"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="681"/>
+      <c r="AD11" s="696"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13310,7 +13362,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="708"/>
+      <c r="G12" s="684"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13318,8 +13370,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="687"/>
-      <c r="L12" s="702" t="s">
+      <c r="K12" s="702"/>
+      <c r="L12" s="717" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13334,7 +13386,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="530" t="s">
+      <c r="S12" s="536" t="s">
         <v>107</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -13350,26 +13402,26 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="691" t="s">
+      <c r="AA12" s="706" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="692"/>
+      <c r="AB12" s="707"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="681"/>
+      <c r="AD12" s="696"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="673"/>
-      <c r="G13" s="708"/>
-      <c r="K13" s="687"/>
-      <c r="L13" s="703"/>
+      <c r="C13" s="720"/>
+      <c r="G13" s="684"/>
+      <c r="K13" s="702"/>
+      <c r="L13" s="718"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="710" t="s">
+      <c r="Q13" s="686" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="604"/>
-      <c r="S13" s="531"/>
+      <c r="R13" s="609"/>
+      <c r="S13" s="537"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>132</v>
@@ -13377,17 +13429,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="693"/>
-      <c r="AB13" s="694"/>
-      <c r="AD13" s="681"/>
+      <c r="AA13" s="708"/>
+      <c r="AB13" s="709"/>
+      <c r="AD13" s="696"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="675"/>
+      <c r="C14" s="722"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="708"/>
+      <c r="G14" s="684"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13395,8 +13447,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="687"/>
-      <c r="L14" s="703"/>
+      <c r="K14" s="702"/>
+      <c r="L14" s="718"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13406,7 +13458,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="531"/>
+      <c r="S14" s="537"/>
       <c r="T14" s="77" t="s">
         <v>130</v>
       </c>
@@ -13417,9 +13469,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="693"/>
-      <c r="AB14" s="694"/>
-      <c r="AD14" s="681"/>
+      <c r="AA14" s="708"/>
+      <c r="AB14" s="709"/>
+      <c r="AD14" s="696"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13434,20 +13486,20 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="708"/>
+      <c r="G15" s="684"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="687"/>
-      <c r="L15" s="704"/>
-      <c r="Q15" s="710" t="s">
+      <c r="K15" s="702"/>
+      <c r="L15" s="719"/>
+      <c r="Q15" s="686" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="604"/>
-      <c r="S15" s="531"/>
+      <c r="R15" s="609"/>
+      <c r="S15" s="537"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -13455,14 +13507,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="693"/>
-      <c r="AB15" s="694"/>
-      <c r="AD15" s="681"/>
+      <c r="AA15" s="708"/>
+      <c r="AB15" s="709"/>
+      <c r="AD15" s="696"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="708"/>
-      <c r="K16" s="687"/>
+      <c r="G16" s="684"/>
+      <c r="K16" s="702"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13470,7 +13522,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="531"/>
+      <c r="S16" s="537"/>
       <c r="T16" s="76" t="s">
         <v>129</v>
       </c>
@@ -13481,34 +13533,34 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="693"/>
-      <c r="AB16" s="694"/>
-      <c r="AD16" s="681"/>
+      <c r="AA16" s="708"/>
+      <c r="AB16" s="709"/>
+      <c r="AD16" s="696"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="705" t="s">
+      <c r="F17" s="681" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="708"/>
+      <c r="G17" s="684"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="687"/>
-      <c r="S17" s="531"/>
+      <c r="K17" s="702"/>
+      <c r="S17" s="537"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="693"/>
-      <c r="AB17" s="694"/>
-      <c r="AD17" s="681"/>
+      <c r="AA17" s="708"/>
+      <c r="AB17" s="709"/>
+      <c r="AD17" s="696"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13518,61 +13570,58 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="706"/>
-      <c r="G18" s="708"/>
+      <c r="F18" s="682"/>
+      <c r="G18" s="684"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="687"/>
+      <c r="K18" s="702"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="531"/>
+      <c r="S18" s="537"/>
       <c r="U18" s="76" t="s">
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="695"/>
-      <c r="AB18" s="696"/>
-      <c r="AD18" s="681"/>
+      <c r="AA18" s="710"/>
+      <c r="AB18" s="711"/>
+      <c r="AD18" s="696"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="709"/>
-      <c r="K19" s="688"/>
+      <c r="G19" s="685"/>
+      <c r="K19" s="703"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="714" t="s">
+      <c r="R19" s="690" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="715"/>
-      <c r="T19" s="716"/>
+      <c r="S19" s="691"/>
+      <c r="T19" s="692"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="682"/>
+      <c r="AD19" s="697"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13584,11 +13633,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E21DE9-C608-4492-A18C-F3C89F3EDB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B49AED-6815-4BC7-A353-A0D778D635BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="603">
   <si>
     <t>Zone</t>
   </si>
@@ -1649,9 +1649,6 @@
     <t>IT_X_MP_X_Media</t>
   </si>
   <si>
-    <t>Excise_X_Media</t>
-  </si>
-  <si>
     <t>Excise_X_Police</t>
   </si>
   <si>
@@ -1845,6 +1842,12 @@
   </si>
   <si>
     <t>AIDMK</t>
+  </si>
+  <si>
+    <t>Excise_X_Polimer</t>
+  </si>
+  <si>
+    <t>X_Polimer_X</t>
   </si>
 </sst>
 </file>
@@ -4702,6 +4705,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4750,6 +4762,36 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4807,34 +4849,139 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4909,140 +5056,71 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -5053,130 +5131,43 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5254,35 +5245,47 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5575,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5608,7 +5611,7 @@
       <c r="B2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="727" t="s">
+      <c r="C2" s="536" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="434" t="s">
@@ -5629,10 +5632,10 @@
       <c r="I2" s="441" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="539" t="s">
+      <c r="J2" s="542" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="540"/>
+      <c r="K2" s="543"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5642,14 +5645,14 @@
       <c r="N2" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="541" t="s">
+      <c r="O2" s="544" t="s">
         <v>385</v>
       </c>
-      <c r="P2" s="542"/>
-      <c r="Q2" s="543"/>
-      <c r="R2" s="543"/>
-      <c r="S2" s="543"/>
-      <c r="T2" s="544" t="s">
+      <c r="P2" s="545"/>
+      <c r="Q2" s="546"/>
+      <c r="R2" s="546"/>
+      <c r="S2" s="546"/>
+      <c r="T2" s="547" t="s">
         <v>386</v>
       </c>
       <c r="V2" s="2" t="s">
@@ -5663,7 +5666,7 @@
       <c r="C3" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="536"/>
+      <c r="D3" s="539"/>
       <c r="E3" s="373"/>
       <c r="F3" s="280" t="s">
         <v>69</v>
@@ -5694,14 +5697,14 @@
         <v>208</v>
       </c>
       <c r="R3" s="100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S3" s="177">
         <v>0</v>
       </c>
-      <c r="T3" s="545"/>
+      <c r="T3" s="548"/>
       <c r="U3" s="19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="V3" s="19">
         <f>SUM(P3:P28)</f>
@@ -5715,7 +5718,7 @@
       <c r="C4" s="169" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="537"/>
+      <c r="D4" s="540"/>
       <c r="E4" s="61"/>
       <c r="F4" s="395" t="s">
         <v>42</v>
@@ -5733,7 +5736,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="333"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="545"/>
+      <c r="T4" s="548"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -5742,7 +5745,7 @@
       <c r="C5" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="538"/>
+      <c r="D5" s="541"/>
       <c r="F5" s="399" t="s">
         <v>42</v>
       </c>
@@ -5761,7 +5764,7 @@
         <v>522</v>
       </c>
       <c r="P5" s="533"/>
-      <c r="T5" s="545"/>
+      <c r="T5" s="548"/>
       <c r="U5" s="214" t="s">
         <v>228</v>
       </c>
@@ -5800,7 +5803,7 @@
       <c r="P6" s="533"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="6"/>
-      <c r="T6" s="545"/>
+      <c r="T6" s="548"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="219" t="s">
@@ -5818,7 +5821,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I7" s="61"/>
       <c r="J7" s="298"/>
@@ -5831,7 +5834,7 @@
       <c r="P7" s="533"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="6"/>
-      <c r="T7" s="545"/>
+      <c r="T7" s="548"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -5860,7 +5863,7 @@
       <c r="P8" s="533"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="545"/>
+      <c r="T8" s="548"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -5878,7 +5881,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="296"/>
@@ -5894,7 +5897,7 @@
         <v>44</v>
       </c>
       <c r="P9" s="533"/>
-      <c r="T9" s="545"/>
+      <c r="T9" s="548"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -5909,7 +5912,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="296"/>
@@ -5924,7 +5927,7 @@
         <v>522</v>
       </c>
       <c r="P10" s="533"/>
-      <c r="T10" s="545"/>
+      <c r="T10" s="548"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -5942,7 +5945,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I11" s="373"/>
       <c r="J11" s="294"/>
@@ -5959,7 +5962,7 @@
       <c r="P11" s="533"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="142"/>
-      <c r="T11" s="545"/>
+      <c r="T11" s="548"/>
       <c r="U11" s="214" t="s">
         <v>227</v>
       </c>
@@ -5992,7 +5995,7 @@
       <c r="P12" s="533"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="142"/>
-      <c r="T12" s="545"/>
+      <c r="T12" s="548"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="270" t="s">
@@ -6003,7 +6006,7 @@
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F13" s="280" t="s">
         <v>370</v>
@@ -6012,7 +6015,7 @@
         <v>402</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="184"/>
@@ -6027,29 +6030,29 @@
         <v>522</v>
       </c>
       <c r="P13" s="533"/>
-      <c r="T13" s="545"/>
+      <c r="T13" s="548"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P14" s="533"/>
-      <c r="T14" s="545"/>
+      <c r="T14" s="548"/>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="728" t="s">
+      <c r="C15" s="537" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="61"/>
       <c r="E15" s="66"/>
       <c r="F15" s="34" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G15" s="136" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I15" s="61"/>
       <c r="J15" s="136"/>
@@ -6057,10 +6060,10 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="549">
+      <c r="M15" s="552">
         <v>45275</v>
       </c>
-      <c r="N15" s="536" t="s">
+      <c r="N15" s="539" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="531" t="s">
@@ -6068,13 +6071,13 @@
       </c>
       <c r="P15" s="533"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="545"/>
+      <c r="T15" s="548"/>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="512" t="s">
         <v>377</v>
       </c>
-      <c r="C16" s="729" t="s">
+      <c r="C16" s="538" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="408"/>
@@ -6086,7 +6089,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I16" s="61"/>
       <c r="J16" s="203"/>
@@ -6094,16 +6097,16 @@
       <c r="L16" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="550"/>
-      <c r="N16" s="537"/>
+      <c r="M16" s="553"/>
+      <c r="N16" s="540"/>
       <c r="P16" s="533"/>
-      <c r="T16" s="545"/>
+      <c r="T16" s="548"/>
     </row>
     <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="728" t="s">
+      <c r="C17" s="537" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="61"/>
@@ -6125,8 +6128,8 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="551"/>
-      <c r="N17" s="538"/>
+      <c r="M17" s="554"/>
+      <c r="N17" s="541"/>
       <c r="O17" s="531" t="s">
         <v>44</v>
       </c>
@@ -6137,16 +6140,16 @@
         <v>208</v>
       </c>
       <c r="R17" s="100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S17" s="177">
         <v>0</v>
       </c>
-      <c r="T17" s="545"/>
+      <c r="T17" s="548"/>
     </row>
     <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="533"/>
-      <c r="T18" s="545"/>
+      <c r="T18" s="548"/>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6174,14 +6177,14 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="549">
+      <c r="M19" s="552">
         <v>45275</v>
       </c>
       <c r="N19" s="440" t="s">
         <v>522</v>
       </c>
       <c r="P19" s="533"/>
-      <c r="T19" s="545"/>
+      <c r="T19" s="548"/>
     </row>
     <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="254" t="s">
@@ -6199,7 +6202,7 @@
         <v>391</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I20" s="61"/>
       <c r="J20" s="167"/>
@@ -6207,12 +6210,12 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="550"/>
+      <c r="M20" s="553"/>
       <c r="N20" s="429" t="s">
         <v>26</v>
       </c>
       <c r="P20" s="533"/>
-      <c r="T20" s="545"/>
+      <c r="T20" s="548"/>
     </row>
     <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="254" t="s">
@@ -6230,7 +6233,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="8"/>
@@ -6238,16 +6241,16 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="550"/>
+      <c r="M21" s="553"/>
       <c r="N21" s="429" t="s">
         <v>18</v>
       </c>
       <c r="P21" s="533"/>
-      <c r="T21" s="545"/>
-      <c r="U21" s="547" t="s">
+      <c r="T21" s="548"/>
+      <c r="U21" s="550" t="s">
         <v>226</v>
       </c>
-      <c r="V21" s="548"/>
+      <c r="V21" s="551"/>
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="287" t="s">
@@ -6273,12 +6276,12 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="550"/>
+      <c r="M22" s="553"/>
       <c r="N22" s="408" t="s">
         <v>26</v>
       </c>
       <c r="P22" s="533"/>
-      <c r="T22" s="545"/>
+      <c r="T22" s="548"/>
     </row>
     <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6304,12 +6307,12 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="550"/>
+      <c r="M23" s="553"/>
       <c r="N23" s="61" t="s">
         <v>523</v>
       </c>
       <c r="P23" s="533"/>
-      <c r="T23" s="545"/>
+      <c r="T23" s="548"/>
     </row>
     <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -6335,7 +6338,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="550"/>
+      <c r="M24" s="553"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6344,7 +6347,7 @@
       </c>
       <c r="P24" s="534"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="545"/>
+      <c r="T24" s="548"/>
     </row>
     <row r="25" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6354,7 +6357,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E25" s="271"/>
       <c r="F25" s="269" t="s">
@@ -6364,7 +6367,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="I25" s="61"/>
       <c r="J25" s="139"/>
@@ -6372,7 +6375,7 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="550"/>
+      <c r="M25" s="553"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
@@ -6380,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R25" s="100" t="s">
         <v>42</v>
@@ -6388,7 +6391,7 @@
       <c r="S25" s="21">
         <v>0</v>
       </c>
-      <c r="T25" s="545"/>
+      <c r="T25" s="548"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -6414,12 +6417,12 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="550"/>
+      <c r="M26" s="553"/>
       <c r="N26" s="61" t="s">
         <v>524</v>
       </c>
       <c r="P26" s="533"/>
-      <c r="T26" s="545"/>
+      <c r="T26" s="548"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="270" t="s">
@@ -6435,27 +6438,27 @@
         <v>530</v>
       </c>
       <c r="H27" s="220" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I27" s="61"/>
       <c r="J27" s="437"/>
       <c r="K27" s="438"/>
       <c r="L27" s="439"/>
-      <c r="M27" s="550"/>
+      <c r="M27" s="553"/>
       <c r="N27" s="61"/>
       <c r="P27" s="333">
         <v>1</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R27" s="100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S27" s="177">
         <v>0</v>
       </c>
-      <c r="T27" s="545"/>
+      <c r="T27" s="548"/>
     </row>
     <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="270" t="s">
@@ -6465,7 +6468,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E28" s="442"/>
       <c r="F28" s="433" t="s">
@@ -6475,7 +6478,7 @@
         <v>436</v>
       </c>
       <c r="H28" s="220" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="I28" s="61"/>
       <c r="J28" s="18"/>
@@ -6483,7 +6486,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="551"/>
+      <c r="M28" s="554"/>
       <c r="N28" s="61" t="s">
         <v>524</v>
       </c>
@@ -6499,18 +6502,18 @@
       <c r="S28" s="21">
         <v>0</v>
       </c>
-      <c r="T28" s="546"/>
+      <c r="T28" s="549"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="M19:M28"/>
+    <mergeCell ref="M15:M17"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="N15:N17"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:T28"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="M19:M28"/>
-    <mergeCell ref="M15:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6521,7 +6524,7 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6578,7 +6581,7 @@
       <c r="P1" s="448" t="s">
         <v>408</v>
       </c>
-      <c r="Q1" s="571" t="s">
+      <c r="Q1" s="555" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -6588,42 +6591,42 @@
         <v>81</v>
       </c>
       <c r="T1" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z1" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="Z1" s="24" t="s">
-        <v>596</v>
-      </c>
       <c r="AA1" s="24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="555">
+      <c r="A2" s="568">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="557" t="s">
+      <c r="B2" s="570" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="569" t="s">
+      <c r="C2" s="582" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="559" t="s">
+      <c r="D2" s="572" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="561" t="s">
+      <c r="E2" s="574" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="567" t="s">
+      <c r="G2" s="580" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="578" t="s">
+      <c r="I2" s="562" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="446" t="s">
@@ -6647,7 +6650,7 @@
       <c r="P2" s="449">
         <v>40</v>
       </c>
-      <c r="Q2" s="572"/>
+      <c r="Q2" s="556"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
         <v>8</v>
@@ -6658,7 +6661,7 @@
       </c>
       <c r="T2" s="177">
         <f>SUM(T4:T16)</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="521"/>
@@ -6669,18 +6672,18 @@
       </c>
       <c r="AA2" s="68">
         <f>Z2+T2</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="556"/>
-      <c r="B3" s="558"/>
-      <c r="C3" s="570"/>
-      <c r="D3" s="560"/>
-      <c r="E3" s="562"/>
-      <c r="G3" s="568"/>
+      <c r="A3" s="569"/>
+      <c r="B3" s="571"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="573"/>
+      <c r="E3" s="575"/>
+      <c r="G3" s="581"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="579"/>
+      <c r="I3" s="563"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -6700,19 +6703,19 @@
         <v>390</v>
       </c>
       <c r="B4" s="256"/>
-      <c r="C4" s="563" t="s">
+      <c r="C4" s="576" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="579"/>
+      <c r="I4" s="563"/>
       <c r="R4" s="524" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T4" s="24">
         <f>IF((R7-SUM(V2:V10)&lt;0),R7-SUM(V2:V10),0)</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V4" s="522">
         <v>1</v>
@@ -6726,7 +6729,7 @@
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="564"/>
+      <c r="C5" s="577"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6736,13 +6739,13 @@
       <c r="F5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="536" t="s">
+      <c r="G5" s="539" t="s">
         <v>276</v>
       </c>
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="579"/>
+      <c r="I5" s="563"/>
       <c r="J5" s="447" t="s">
         <v>273</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>317</v>
       </c>
       <c r="S5" s="524" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T5" s="24">
         <f>IF((S7-SUM(X2:X10))&lt;0,S7-SUM(X2:X10),0)</f>
@@ -6779,22 +6782,22 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="552" t="s">
+      <c r="A6" s="565" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="565"/>
-      <c r="D6" s="566"/>
+      <c r="C6" s="578"/>
+      <c r="D6" s="579"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="537"/>
-      <c r="I6" s="579"/>
+      <c r="G6" s="540"/>
+      <c r="I6" s="563"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="553"/>
+      <c r="A7" s="566"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6804,8 +6807,8 @@
       <c r="D7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="537"/>
-      <c r="I7" s="579"/>
+      <c r="G7" s="540"/>
+      <c r="I7" s="563"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>103</v>
       </c>
       <c r="P7" s="99" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Q7" s="127" t="s">
         <v>44</v>
@@ -6843,7 +6846,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="554"/>
+      <c r="A8" s="567"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6851,8 +6854,8 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="537"/>
-      <c r="I8" s="579"/>
+      <c r="G8" s="540"/>
+      <c r="I8" s="563"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
@@ -6876,24 +6879,24 @@
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="537"/>
+      <c r="G9" s="540"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="579"/>
+      <c r="I9" s="563"/>
       <c r="M9" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N9" s="80"/>
       <c r="U9" s="6" t="s">
         <v>247</v>
       </c>
       <c r="V9" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9" s="518"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>391</v>
@@ -6902,10 +6905,10 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!S8</f>
-        <v>38</v>
-      </c>
-      <c r="G10" s="537"/>
-      <c r="I10" s="579"/>
+        <v>37</v>
+      </c>
+      <c r="G10" s="540"/>
+      <c r="I10" s="563"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>44</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N10" s="80"/>
       <c r="U10" s="6" t="s">
@@ -6933,7 +6936,7 @@
       <c r="A11" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="536" t="s">
+      <c r="B11" s="539" t="s">
         <v>392</v>
       </c>
       <c r="C11" s="176" t="s">
@@ -6942,8 +6945,8 @@
       <c r="D11" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="537"/>
-      <c r="I11" s="579"/>
+      <c r="G11" s="540"/>
+      <c r="I11" s="563"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6951,14 +6954,14 @@
         <v>0</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16" t="s">
         <v>424</v>
       </c>
       <c r="P11" s="99" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Q11" s="127" t="s">
         <v>44</v>
@@ -6969,31 +6972,31 @@
       <c r="S11" s="24">
         <v>0</v>
       </c>
-      <c r="U11" s="573" t="s">
-        <v>588</v>
-      </c>
-      <c r="V11" s="574"/>
-      <c r="W11" s="574"/>
-      <c r="X11" s="575"/>
+      <c r="U11" s="557" t="s">
+        <v>587</v>
+      </c>
+      <c r="V11" s="558"/>
+      <c r="W11" s="558"/>
+      <c r="X11" s="559"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="538"/>
+      <c r="B12" s="541"/>
       <c r="E12" s="242">
         <v>3</v>
       </c>
-      <c r="G12" s="537"/>
-      <c r="I12" s="579"/>
+      <c r="G12" s="540"/>
+      <c r="I12" s="563"/>
       <c r="J12" s="24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K12" s="30">
         <v>0</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16" t="s">
@@ -7013,26 +7016,26 @@
       <c r="B13" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="536" t="s">
+      <c r="C13" s="539" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="537"/>
-      <c r="I13" s="579"/>
+      <c r="G13" s="540"/>
+      <c r="I13" s="563"/>
       <c r="J13" s="108" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K13" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M13" s="30" t="s">
         <v>365</v>
       </c>
       <c r="N13" s="451" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="112"/>
@@ -7040,12 +7043,12 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="244" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B14" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="538"/>
+      <c r="C14" s="541"/>
       <c r="D14" s="214" t="s">
         <v>154</v>
       </c>
@@ -7055,18 +7058,18 @@
       <c r="F14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="538"/>
+      <c r="G14" s="541"/>
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="579"/>
+      <c r="I14" s="563"/>
       <c r="U14" s="6"/>
       <c r="V14" s="112"/>
       <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="248" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B15" s="247" t="s">
         <v>286</v>
@@ -7077,7 +7080,7 @@
       <c r="H15" s="288">
         <v>0</v>
       </c>
-      <c r="I15" s="579"/>
+      <c r="I15" s="563"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -7085,13 +7088,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>417</v>
       </c>
       <c r="R15" s="524" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T15" s="24">
         <f>IF((R18-SUM(V18:V23))&lt;0,R18-SUM(V18:V23),0)</f>
@@ -7108,13 +7111,13 @@
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="579"/>
+      <c r="I16" s="563"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="6"/>
       <c r="S16" s="524" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="T16" s="24">
         <f>IF((S18-SUM(X18:X22))&lt;0,S18-SUM(X18:X22),0)</f>
@@ -7142,7 +7145,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="579"/>
+      <c r="I17" s="563"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -7154,13 +7157,13 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="579"/>
+      <c r="I18" s="563"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="576" t="s">
-        <v>540</v>
-      </c>
-      <c r="P18" s="577"/>
+      <c r="O18" s="560" t="s">
+        <v>539</v>
+      </c>
+      <c r="P18" s="561"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -7186,7 +7189,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="579"/>
+      <c r="I19" s="563"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -7201,7 +7204,7 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B20" s="227" t="s">
         <v>530</v>
@@ -7210,7 +7213,7 @@
         <v>445</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E20" s="426">
         <v>-1</v>
@@ -7218,7 +7221,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="579"/>
+      <c r="I20" s="563"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="X20" s="522">
         <v>1</v>
@@ -7243,7 +7246,7 @@
       <c r="Z20" s="112"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="579"/>
+      <c r="I21" s="563"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -7271,7 +7274,7 @@
         <v>445</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E22" s="381">
         <v>1</v>
@@ -7279,9 +7282,9 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="579"/>
+      <c r="I22" s="563"/>
       <c r="U22" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V22" s="520">
         <v>1</v>
@@ -7295,7 +7298,7 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>417</v>
@@ -7303,7 +7306,7 @@
       <c r="E23" s="300" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="579"/>
+      <c r="I23" s="563"/>
       <c r="U23" s="6" t="s">
         <v>74</v>
       </c>
@@ -7313,7 +7316,7 @@
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="579"/>
+      <c r="I24" s="563"/>
       <c r="U24" s="378"/>
       <c r="V24" s="523">
         <v>-1</v>
@@ -7341,7 +7344,7 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="579"/>
+      <c r="I25" s="563"/>
       <c r="J25" s="447" t="s">
         <v>274</v>
       </c>
@@ -7367,16 +7370,16 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C26" s="489" t="s">
         <v>155</v>
       </c>
       <c r="D26" s="433" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E26" s="488" t="s">
         <v>44</v>
@@ -7386,7 +7389,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="579"/>
+      <c r="I26" s="563"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>99</v>
       </c>
       <c r="M26" s="433" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P26" s="516"/>
       <c r="Q26" s="127" t="s">
@@ -7407,21 +7410,21 @@
         <v>1</v>
       </c>
       <c r="T26" s="61" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="U26" s="35"/>
       <c r="V26" s="112">
         <v>-1</v>
       </c>
       <c r="W26" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X26" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="579"/>
+      <c r="I27" s="563"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -7448,7 +7451,7 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="579"/>
+      <c r="I28" s="563"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -7470,7 +7473,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="580"/>
+      <c r="I29" s="564"/>
       <c r="J29" s="357"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7500,7 +7503,7 @@
         <v>415</v>
       </c>
       <c r="U30" s="525" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="V30" s="526">
         <v>0</v>
@@ -7514,11 +7517,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -7530,6 +7528,11 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7605,7 +7608,7 @@
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="567" t="s">
+      <c r="I1" s="580" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7641,8 +7644,8 @@
       <c r="X1" s="480" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="623" t="s">
-        <v>555</v>
+      <c r="Y1" s="626" t="s">
+        <v>554</v>
       </c>
       <c r="Z1" s="456">
         <v>1</v>
@@ -7666,7 +7669,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="452"/>
-      <c r="AN1" s="605"/>
+      <c r="AN1" s="611"/>
       <c r="AO1" s="374" t="s">
         <v>487</v>
       </c>
@@ -7675,23 +7678,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="587">
+      <c r="A2" s="635">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="589" t="s">
+      <c r="B2" s="637" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="569" t="s">
+      <c r="C2" s="582" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="591" t="s">
+      <c r="D2" s="639" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="635" t="s">
+      <c r="E2" s="584" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="610" t="s">
+      <c r="F2" s="592" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="443" t="s">
@@ -7700,31 +7703,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="568"/>
+      <c r="I2" s="581"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="637" t="s">
+      <c r="K2" s="586" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="638"/>
-      <c r="M2" s="610" t="s">
+      <c r="L2" s="587"/>
+      <c r="M2" s="592" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="614" t="s">
+      <c r="O2" s="618" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="569" t="s">
+      <c r="Q2" s="582" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="536"/>
-      <c r="S2" s="627" t="s">
+      <c r="R2" s="539"/>
+      <c r="S2" s="605" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7734,7 +7737,7 @@
       <c r="X2" s="481" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="624"/>
+      <c r="Y2" s="627"/>
       <c r="Z2" s="457">
         <v>1</v>
       </c>
@@ -7757,15 +7760,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="478"/>
-      <c r="AN2" s="606"/>
+      <c r="AN2" s="612"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="588"/>
-      <c r="B3" s="590"/>
-      <c r="C3" s="570"/>
-      <c r="D3" s="592"/>
-      <c r="E3" s="636"/>
-      <c r="F3" s="611"/>
+      <c r="A3" s="636"/>
+      <c r="B3" s="638"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="640"/>
+      <c r="E3" s="585"/>
+      <c r="F3" s="593"/>
       <c r="G3" s="444" t="s">
         <v>28</v>
       </c>
@@ -7784,17 +7787,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="611"/>
+      <c r="M3" s="593"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="615"/>
+      <c r="O3" s="619"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="570"/>
-      <c r="R3" s="538"/>
-      <c r="S3" s="628"/>
+      <c r="Q3" s="583"/>
+      <c r="R3" s="541"/>
+      <c r="S3" s="607"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7802,7 +7805,7 @@
       <c r="X3" s="481" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="624"/>
+      <c r="Y3" s="627"/>
       <c r="Z3" s="458">
         <v>1</v>
       </c>
@@ -7811,7 +7814,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="626" t="s">
+      <c r="AD3" s="602" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="271"/>
@@ -7823,16 +7826,16 @@
       <c r="AK3" s="271"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="478"/>
-      <c r="AN3" s="606"/>
+      <c r="AN3" s="612"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="603" t="s">
+      <c r="B4" s="651" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="569" t="s">
+      <c r="C4" s="582" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="383" t="s">
@@ -7841,7 +7844,7 @@
       <c r="E4" s="420">
         <v>1</v>
       </c>
-      <c r="F4" s="611"/>
+      <c r="F4" s="593"/>
       <c r="G4" s="425" t="s">
         <v>203</v>
       </c>
@@ -7858,11 +7861,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="611"/>
+      <c r="M4" s="593"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="615"/>
+      <c r="O4" s="619"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7884,12 +7887,12 @@
       <c r="X4" s="481" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="624"/>
+      <c r="Y4" s="627"/>
       <c r="Z4" s="459"/>
       <c r="AA4" s="324"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="626"/>
+      <c r="AD4" s="602"/>
       <c r="AE4" s="271"/>
       <c r="AF4" s="271"/>
       <c r="AG4" s="16"/>
@@ -7899,37 +7902,37 @@
       <c r="AK4" s="271"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="478"/>
-      <c r="AN4" s="606"/>
+      <c r="AN4" s="612"/>
       <c r="AO4" s="374" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="567" t="s">
+      <c r="A5" s="580" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="604"/>
-      <c r="C5" s="570"/>
+      <c r="B5" s="652"/>
+      <c r="C5" s="583"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="421">
         <v>1</v>
       </c>
-      <c r="F5" s="611"/>
-      <c r="G5" s="595" t="s">
+      <c r="F5" s="593"/>
+      <c r="G5" s="643" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="595"/>
-      <c r="I5" s="595"/>
-      <c r="J5" s="595"/>
-      <c r="K5" s="595"/>
-      <c r="L5" s="596"/>
-      <c r="M5" s="611"/>
+      <c r="H5" s="643"/>
+      <c r="I5" s="643"/>
+      <c r="J5" s="643"/>
+      <c r="K5" s="643"/>
+      <c r="L5" s="644"/>
+      <c r="M5" s="593"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="615"/>
+      <c r="O5" s="619"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7937,7 +7940,7 @@
       <c r="X5" s="481" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="624"/>
+      <c r="Y5" s="627"/>
       <c r="Z5" s="459">
         <v>1</v>
       </c>
@@ -7960,24 +7963,24 @@
       <c r="AK5" s="271"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="478"/>
-      <c r="AN5" s="606"/>
+      <c r="AN5" s="612"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="568"/>
-      <c r="B6" s="601" t="s">
+      <c r="A6" s="581"/>
+      <c r="B6" s="649" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="565"/>
-      <c r="D6" s="566"/>
-      <c r="F6" s="611"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="597"/>
-      <c r="J6" s="597"/>
-      <c r="K6" s="597"/>
-      <c r="L6" s="598"/>
-      <c r="M6" s="611"/>
-      <c r="O6" s="615"/>
+      <c r="C6" s="578"/>
+      <c r="D6" s="579"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="645"/>
+      <c r="H6" s="645"/>
+      <c r="I6" s="645"/>
+      <c r="J6" s="645"/>
+      <c r="K6" s="645"/>
+      <c r="L6" s="646"/>
+      <c r="M6" s="593"/>
+      <c r="O6" s="619"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7987,7 +7990,7 @@
       <c r="X6" s="481" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="624"/>
+      <c r="Y6" s="627"/>
       <c r="Z6" s="457">
         <v>1</v>
       </c>
@@ -8001,25 +8004,25 @@
       <c r="AF6" s="271"/>
       <c r="AG6" s="271"/>
       <c r="AH6" s="271"/>
-      <c r="AI6" s="620"/>
+      <c r="AI6" s="601"/>
       <c r="AJ6" s="491" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="620" t="s">
+      <c r="AK6" s="601" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="271"/>
       <c r="AM6" s="478"/>
-      <c r="AN6" s="606"/>
+      <c r="AN6" s="612"/>
       <c r="AO6" s="374" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="245" t="s">
-        <v>552</v>
-      </c>
-      <c r="B7" s="602"/>
+        <v>551</v>
+      </c>
+      <c r="B7" s="650"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -8029,7 +8032,7 @@
       <c r="E7" s="280">
         <v>3</v>
       </c>
-      <c r="F7" s="611"/>
+      <c r="F7" s="593"/>
       <c r="G7" s="445">
         <v>0</v>
       </c>
@@ -8042,14 +8045,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="536">
+      <c r="K7" s="539">
         <v>1</v>
       </c>
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="611"/>
-      <c r="O7" s="615"/>
+      <c r="M7" s="593"/>
+      <c r="O7" s="619"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -8063,7 +8066,7 @@
       <c r="X7" s="481" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="624"/>
+      <c r="Y7" s="627"/>
       <c r="Z7" s="457">
         <v>1</v>
       </c>
@@ -8073,18 +8076,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="271"/>
       <c r="AF7" s="271"/>
-      <c r="AG7" s="626" t="s">
+      <c r="AG7" s="602" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="271"/>
-      <c r="AI7" s="620"/>
+      <c r="AI7" s="601"/>
       <c r="AJ7" s="271"/>
-      <c r="AK7" s="620"/>
+      <c r="AK7" s="601"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="478"/>
-      <c r="AN7" s="606"/>
+      <c r="AN7" s="612"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -8101,27 +8104,27 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="611"/>
-      <c r="G8" s="596">
-        <v>0</v>
-      </c>
-      <c r="H8" s="593" t="s">
+      <c r="F8" s="593"/>
+      <c r="G8" s="644">
+        <v>0</v>
+      </c>
+      <c r="H8" s="641" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="536">
-        <v>0</v>
-      </c>
-      <c r="J8" s="593" t="s">
+      <c r="I8" s="539">
+        <v>0</v>
+      </c>
+      <c r="J8" s="641" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="599"/>
-      <c r="L8" s="629"/>
-      <c r="M8" s="612"/>
-      <c r="N8" s="632">
+      <c r="K8" s="647"/>
+      <c r="L8" s="603"/>
+      <c r="M8" s="616"/>
+      <c r="N8" s="608">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="615"/>
+      <c r="O8" s="619"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -8131,7 +8134,7 @@
       <c r="X8" s="481" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="624"/>
+      <c r="Y8" s="627"/>
       <c r="Z8" s="459"/>
       <c r="AA8" s="324"/>
       <c r="AB8" s="219"/>
@@ -8139,18 +8142,18 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="271"/>
       <c r="AF8" s="271"/>
-      <c r="AG8" s="626"/>
+      <c r="AG8" s="602"/>
       <c r="AH8" s="271"/>
-      <c r="AI8" s="620"/>
+      <c r="AI8" s="601"/>
       <c r="AJ8" s="271"/>
       <c r="AK8" s="271"/>
       <c r="AL8" s="271"/>
       <c r="AM8" s="478"/>
-      <c r="AN8" s="606"/>
+      <c r="AN8" s="612"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B9" s="106" t="s">
         <v>197</v>
@@ -8161,17 +8164,17 @@
       <c r="D9" s="384" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="611"/>
-      <c r="G9" s="598"/>
-      <c r="H9" s="594"/>
-      <c r="I9" s="538"/>
-      <c r="J9" s="594"/>
-      <c r="K9" s="600"/>
-      <c r="L9" s="630"/>
-      <c r="M9" s="613"/>
-      <c r="N9" s="633"/>
-      <c r="O9" s="616"/>
-      <c r="S9" s="627" t="s">
+      <c r="F9" s="593"/>
+      <c r="G9" s="646"/>
+      <c r="H9" s="642"/>
+      <c r="I9" s="541"/>
+      <c r="J9" s="642"/>
+      <c r="K9" s="648"/>
+      <c r="L9" s="604"/>
+      <c r="M9" s="617"/>
+      <c r="N9" s="609"/>
+      <c r="O9" s="620"/>
+      <c r="S9" s="605" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -8183,7 +8186,7 @@
       <c r="X9" s="481" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="624"/>
+      <c r="Y9" s="627"/>
       <c r="Z9" s="460"/>
       <c r="AA9" s="324"/>
       <c r="AB9" s="219"/>
@@ -8193,23 +8196,23 @@
       </c>
       <c r="AE9" s="271"/>
       <c r="AF9" s="271"/>
-      <c r="AG9" s="626"/>
+      <c r="AG9" s="602"/>
       <c r="AH9" s="271"/>
-      <c r="AI9" s="620"/>
+      <c r="AI9" s="601"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="620" t="s">
+      <c r="AK9" s="601" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="271"/>
       <c r="AM9" s="478"/>
-      <c r="AN9" s="606"/>
+      <c r="AN9" s="612"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B10" s="105" t="s">
         <v>199</v>
@@ -8217,22 +8220,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="250">
         <f>Boat!S8</f>
-        <v>38</v>
-      </c>
-      <c r="F10" s="611"/>
+        <v>37</v>
+      </c>
+      <c r="F10" s="593"/>
       <c r="N10" s="468" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="644" t="s">
+      <c r="O10" s="595" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="617" t="s">
+      <c r="P10" s="621" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="631"/>
+      <c r="S10" s="606"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8244,7 +8247,7 @@
       <c r="X10" s="481" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="624"/>
+      <c r="Y10" s="627"/>
       <c r="Z10" s="459">
         <v>0</v>
       </c>
@@ -8262,16 +8265,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="626"/>
+      <c r="AG10" s="602"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="620"/>
+      <c r="AI10" s="601"/>
       <c r="AJ10" s="271"/>
-      <c r="AK10" s="620"/>
+      <c r="AK10" s="601"/>
       <c r="AL10" s="271"/>
       <c r="AM10" s="492" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="606"/>
+      <c r="AN10" s="612"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -8280,7 +8283,7 @@
       <c r="A11" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="536" t="s">
+      <c r="B11" s="539" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="507" t="s">
@@ -8289,18 +8292,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="611"/>
+      <c r="F11" s="593"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="645"/>
-      <c r="P11" s="618"/>
+      <c r="O11" s="596"/>
+      <c r="P11" s="622"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="631"/>
+      <c r="S11" s="606"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -8310,7 +8313,7 @@
       <c r="X11" s="481" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="624"/>
+      <c r="Y11" s="627"/>
       <c r="Z11" s="459"/>
       <c r="AA11" s="324">
         <v>1</v>
@@ -8324,14 +8327,14 @@
       <c r="AF11" s="271" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="626"/>
+      <c r="AG11" s="602"/>
       <c r="AH11" s="271"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="271"/>
       <c r="AK11" s="271"/>
       <c r="AL11" s="271"/>
       <c r="AM11" s="478"/>
-      <c r="AN11" s="606"/>
+      <c r="AN11" s="612"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -8340,7 +8343,7 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="538"/>
+      <c r="B12" s="541"/>
       <c r="C12" s="508" t="s">
         <v>394</v>
       </c>
@@ -8350,25 +8353,25 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="611"/>
+      <c r="F12" s="593"/>
       <c r="G12" s="373" t="s">
         <v>411</v>
       </c>
-      <c r="H12" s="541" t="s">
+      <c r="H12" s="544" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="543"/>
-      <c r="J12" s="543"/>
-      <c r="K12" s="649"/>
+      <c r="I12" s="546"/>
+      <c r="J12" s="546"/>
+      <c r="K12" s="600"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="645"/>
-      <c r="P12" s="618"/>
+      <c r="O12" s="596"/>
+      <c r="P12" s="622"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="628"/>
+      <c r="S12" s="607"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -8378,7 +8381,7 @@
       <c r="X12" s="481" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="624"/>
+      <c r="Y12" s="627"/>
       <c r="Z12" s="457">
         <v>1</v>
       </c>
@@ -8389,16 +8392,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="634" t="s">
+      <c r="AD12" s="610" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="491" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="626" t="s">
+      <c r="AF12" s="602" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="626"/>
+      <c r="AG12" s="602"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -8408,10 +8411,10 @@
       <c r="AJ12" s="271"/>
       <c r="AK12" s="271"/>
       <c r="AL12" s="271"/>
-      <c r="AM12" s="621" t="s">
+      <c r="AM12" s="624" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="606"/>
+      <c r="AN12" s="612"/>
       <c r="AO12" s="374" t="s">
         <v>97</v>
       </c>
@@ -8423,17 +8426,17 @@
       <c r="E13" s="498">
         <v>-3</v>
       </c>
-      <c r="F13" s="611"/>
-      <c r="G13" s="543" t="s">
+      <c r="F13" s="593"/>
+      <c r="G13" s="546" t="s">
         <v>448</v>
       </c>
-      <c r="H13" s="543"/>
-      <c r="I13" s="543"/>
-      <c r="J13" s="649"/>
+      <c r="H13" s="546"/>
+      <c r="I13" s="546"/>
+      <c r="J13" s="600"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="645"/>
-      <c r="P13" s="619"/>
+      <c r="O13" s="596"/>
+      <c r="P13" s="623"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8443,7 +8446,7 @@
       <c r="X13" s="481" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="624"/>
+      <c r="Y13" s="627"/>
       <c r="Z13" s="457">
         <v>1</v>
       </c>
@@ -8454,8 +8457,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="634"/>
-      <c r="AF13" s="626"/>
+      <c r="AD13" s="610"/>
+      <c r="AF13" s="602"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8466,8 +8469,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="271"/>
       <c r="AL13" s="271"/>
-      <c r="AM13" s="621"/>
-      <c r="AN13" s="606"/>
+      <c r="AM13" s="624"/>
+      <c r="AN13" s="612"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="500"/>
@@ -8475,20 +8478,20 @@
       <c r="C14" s="509"/>
       <c r="D14" s="502"/>
       <c r="E14" s="503"/>
-      <c r="F14" s="611"/>
-      <c r="G14" s="543" t="s">
+      <c r="F14" s="593"/>
+      <c r="G14" s="546" t="s">
         <v>447</v>
       </c>
-      <c r="H14" s="543"/>
-      <c r="I14" s="543"/>
-      <c r="J14" s="649"/>
+      <c r="H14" s="546"/>
+      <c r="I14" s="546"/>
+      <c r="J14" s="600"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="645"/>
+      <c r="O14" s="596"/>
       <c r="Q14" s="61" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S14" s="169" t="s">
         <v>28</v>
@@ -8500,34 +8503,34 @@
       <c r="X14" s="481" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="624"/>
+      <c r="Y14" s="627"/>
       <c r="Z14" s="457">
         <v>1</v>
       </c>
       <c r="AA14" s="324"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="634"/>
+      <c r="AD14" s="610"/>
       <c r="AE14" s="271"/>
-      <c r="AF14" s="626"/>
+      <c r="AF14" s="602"/>
       <c r="AG14" s="271"/>
       <c r="AH14" s="271"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="271"/>
       <c r="AK14" s="271"/>
       <c r="AL14" s="271"/>
-      <c r="AM14" s="621"/>
-      <c r="AN14" s="606"/>
+      <c r="AM14" s="624"/>
+      <c r="AN14" s="612"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="499" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="536" t="s">
+      <c r="C15" s="539" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="611"/>
-      <c r="O15" s="645"/>
+      <c r="F15" s="593"/>
+      <c r="O15" s="596"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8540,7 +8543,7 @@
       <c r="X15" s="481" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="624"/>
+      <c r="Y15" s="627"/>
       <c r="Z15" s="459">
         <v>1</v>
       </c>
@@ -8549,8 +8552,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="634"/>
-      <c r="AF15" s="626"/>
+      <c r="AD15" s="610"/>
+      <c r="AF15" s="602"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8563,8 +8566,8 @@
       </c>
       <c r="AK15" s="271"/>
       <c r="AL15" s="271"/>
-      <c r="AM15" s="621"/>
-      <c r="AN15" s="606"/>
+      <c r="AM15" s="624"/>
+      <c r="AN15" s="612"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8574,25 +8577,25 @@
     </row>
     <row r="16" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="538"/>
+      <c r="C16" s="541"/>
       <c r="D16" s="61" t="s">
         <v>511</v>
       </c>
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="611"/>
+      <c r="F16" s="593"/>
       <c r="G16" s="373" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="645"/>
+      <c r="O16" s="596"/>
       <c r="R16" s="485" t="s">
         <v>185</v>
       </c>
@@ -8603,7 +8606,7 @@
       <c r="X16" s="481" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="624"/>
+      <c r="Y16" s="627"/>
       <c r="Z16" s="457">
         <v>1</v>
       </c>
@@ -8624,20 +8627,20 @@
       <c r="AM16" s="478" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="606"/>
+      <c r="AN16" s="612"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="611"/>
+      <c r="F17" s="593"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="645"/>
+      <c r="O17" s="596"/>
       <c r="Q17" s="21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S17" s="169" t="s">
         <v>183</v>
@@ -8655,7 +8658,7 @@
       <c r="X17" s="481" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="624"/>
+      <c r="Y17" s="627"/>
       <c r="Z17" s="459"/>
       <c r="AA17" s="324"/>
       <c r="AB17" s="219"/>
@@ -8680,7 +8683,7 @@
       <c r="AK17" s="271"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="478"/>
-      <c r="AN17" s="606"/>
+      <c r="AN17" s="612"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8690,35 +8693,35 @@
     </row>
     <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="515" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C18" s="504" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D18" s="433" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="611"/>
+      <c r="F18" s="593"/>
       <c r="G18" s="373" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="645"/>
+      <c r="O18" s="596"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="639" t="s">
-        <v>562</v>
+      <c r="R18" s="588" t="s">
+        <v>561</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="584" t="s">
+      <c r="U18" s="632" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8728,7 +8731,7 @@
       <c r="X18" s="481" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="624"/>
+      <c r="Y18" s="627"/>
       <c r="Z18" s="459">
         <v>1</v>
       </c>
@@ -8739,37 +8742,37 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="271"/>
-      <c r="AF18" s="620" t="s">
+      <c r="AF18" s="601" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="271"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="622" t="s">
+      <c r="AJ18" s="625" t="s">
         <v>322</v>
       </c>
       <c r="AK18" s="271"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="478"/>
-      <c r="AN18" s="606"/>
+      <c r="AN18" s="612"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="611"/>
-      <c r="O19" s="645"/>
-      <c r="R19" s="640"/>
+      <c r="F19" s="593"/>
+      <c r="O19" s="596"/>
+      <c r="R19" s="589"/>
       <c r="S19" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="U19" s="585"/>
+        <v>559</v>
+      </c>
+      <c r="U19" s="633"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="481" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="624"/>
+      <c r="Y19" s="627"/>
       <c r="Z19" s="457">
         <v>1</v>
       </c>
@@ -8778,24 +8781,24 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="271"/>
-      <c r="AF19" s="620"/>
+      <c r="AF19" s="601"/>
       <c r="AG19" s="271"/>
       <c r="AH19" s="271"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="622"/>
+      <c r="AJ19" s="625"/>
       <c r="AK19" s="510" t="s">
         <v>256</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="478"/>
-      <c r="AN19" s="606"/>
+      <c r="AN19" s="612"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B20" s="227" t="s">
         <v>530</v>
@@ -8804,28 +8807,28 @@
         <v>504</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E20" s="487">
         <v>-1</v>
       </c>
-      <c r="F20" s="611"/>
+      <c r="F20" s="593"/>
       <c r="G20" s="373" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="645"/>
-      <c r="Q20" s="647" t="s">
+      <c r="O20" s="596"/>
+      <c r="Q20" s="598" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="454" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="586"/>
+      <c r="U20" s="634"/>
       <c r="W20" s="455"/>
       <c r="X20" s="482" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="624"/>
+      <c r="Y20" s="627"/>
       <c r="Z20" s="461">
         <v>1</v>
       </c>
@@ -8850,7 +8853,7 @@
       <c r="AM20" s="425" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="606"/>
+      <c r="AN20" s="612"/>
       <c r="AO20" s="374" t="s">
         <v>478</v>
       </c>
@@ -8860,10 +8863,10 @@
     </row>
     <row r="21" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="244" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C21" s="506" t="s">
         <v>504</v>
@@ -8874,19 +8877,19 @@
       <c r="E21" s="280">
         <v>1</v>
       </c>
-      <c r="F21" s="611"/>
-      <c r="O21" s="645"/>
-      <c r="Q21" s="648"/>
+      <c r="F21" s="593"/>
+      <c r="O21" s="596"/>
+      <c r="Q21" s="599"/>
       <c r="T21" s="472"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="581"/>
+      <c r="V21" s="629"/>
       <c r="W21" s="476" t="s">
         <v>176</v>
       </c>
       <c r="X21" s="479" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="624"/>
+      <c r="Y21" s="627"/>
       <c r="Z21" s="495">
         <v>3</v>
       </c>
@@ -8900,7 +8903,7 @@
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="251" t="s">
@@ -8915,16 +8918,16 @@
       </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="478" t="s">
-        <v>572</v>
-      </c>
-      <c r="AN21" s="606"/>
+        <v>571</v>
+      </c>
+      <c r="AN21" s="612"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="611"/>
+      <c r="F22" s="593"/>
       <c r="G22" s="373" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="645"/>
+      <c r="O22" s="596"/>
       <c r="R22" s="484" t="s">
         <v>44</v>
       </c>
@@ -8932,14 +8935,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="582"/>
+      <c r="V22" s="630"/>
       <c r="W22" s="476" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="479" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="624"/>
+      <c r="Y22" s="627"/>
       <c r="Z22" s="465"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="465"/>
@@ -8950,7 +8953,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="620" t="s">
+      <c r="AJ22" s="601" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="271"/>
@@ -8958,11 +8961,11 @@
         <v>496</v>
       </c>
       <c r="AM22" s="317"/>
-      <c r="AN22" s="606"/>
+      <c r="AN22" s="612"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B23" s="178" t="s">
         <v>367</v>
@@ -8976,21 +8979,21 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="611"/>
-      <c r="O23" s="645"/>
-      <c r="Q23" s="647" t="s">
+      <c r="F23" s="593"/>
+      <c r="O23" s="596"/>
+      <c r="Q23" s="598" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="470" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="582"/>
+      <c r="V23" s="630"/>
       <c r="W23" s="148"/>
       <c r="X23" s="479" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="624"/>
+      <c r="Y23" s="627"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="465"/>
@@ -9001,13 +9004,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="620"/>
+      <c r="AJ23" s="601"/>
       <c r="AK23" s="271"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="317"/>
-      <c r="AN23" s="606"/>
+      <c r="AN23" s="612"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="490" t="s">
@@ -9025,22 +9028,22 @@
       <c r="E24" s="486">
         <v>1</v>
       </c>
-      <c r="F24" s="611"/>
+      <c r="F24" s="593"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="645"/>
-      <c r="Q24" s="648"/>
+      <c r="O24" s="596"/>
+      <c r="Q24" s="599"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="582"/>
+      <c r="V24" s="630"/>
       <c r="W24" s="148"/>
       <c r="X24" s="479" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="624"/>
+      <c r="Y24" s="627"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="465"/>
@@ -9059,11 +9062,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="317"/>
-      <c r="AN24" s="606"/>
+      <c r="AN24" s="612"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="611"/>
-      <c r="O25" s="645"/>
+      <c r="F25" s="593"/>
+      <c r="O25" s="596"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -9076,12 +9079,12 @@
       <c r="U25" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="583"/>
+      <c r="V25" s="631"/>
       <c r="W25" s="148"/>
       <c r="X25" s="479" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="624"/>
+      <c r="Y25" s="627"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="465"/>
@@ -9098,7 +9101,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="317"/>
-      <c r="AN25" s="606"/>
+      <c r="AN25" s="612"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -9111,22 +9114,22 @@
         <v>504</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E26" s="422">
         <v>1</v>
       </c>
-      <c r="F26" s="611"/>
+      <c r="F26" s="593"/>
       <c r="G26" s="373" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="645"/>
-      <c r="P26" s="608" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q26" s="609"/>
-      <c r="R26" s="641" t="s">
-        <v>561</v>
+      <c r="O26" s="596"/>
+      <c r="P26" s="614" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q26" s="615"/>
+      <c r="R26" s="590" t="s">
+        <v>560</v>
       </c>
       <c r="T26" s="183"/>
       <c r="U26" s="469"/>
@@ -9137,7 +9140,7 @@
       <c r="X26" s="479" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="624"/>
+      <c r="Y26" s="627"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="465"/>
@@ -9164,24 +9167,24 @@
       <c r="AM26" s="492" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="606"/>
+      <c r="AN26" s="612"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
         <v>418</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E27" s="280" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="643"/>
+      <c r="F27" s="594"/>
       <c r="G27" s="61" t="s">
-        <v>571</v>
-      </c>
-      <c r="O27" s="646"/>
-      <c r="R27" s="642"/>
+        <v>570</v>
+      </c>
+      <c r="O27" s="597"/>
+      <c r="R27" s="591"/>
       <c r="S27" s="471" t="s">
         <v>54</v>
       </c>
@@ -9192,9 +9195,9 @@
       <c r="V27" s="474"/>
       <c r="W27" s="149"/>
       <c r="X27" s="479" t="s">
-        <v>556</v>
-      </c>
-      <c r="Y27" s="625"/>
+        <v>555</v>
+      </c>
+      <c r="Y27" s="628"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="466"/>
@@ -9211,32 +9214,26 @@
       <c r="AM27" s="425" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="607"/>
+      <c r="AN27" s="613"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -9253,22 +9250,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9278,8 +9281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+    <sheetView topLeftCell="P6" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9366,16 +9369,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="567" t="s">
+      <c r="T1" s="580" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="665" t="s">
+      <c r="U1" s="657" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="667" t="s">
+      <c r="V1" s="659" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="668"/>
+      <c r="W1" s="660"/>
       <c r="X1" s="323">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -9391,40 +9394,40 @@
       <c r="AB1" s="319" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="669" t="s">
+      <c r="AC1" s="661" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="670"/>
-      <c r="AE1" s="671"/>
-      <c r="AF1" s="672" t="s">
+      <c r="AD1" s="662"/>
+      <c r="AE1" s="663"/>
+      <c r="AF1" s="664" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="673"/>
-      <c r="AH1" s="674"/>
-      <c r="AI1" s="661" t="s">
+      <c r="AG1" s="665"/>
+      <c r="AH1" s="666"/>
+      <c r="AI1" s="653" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="662"/>
-      <c r="AK1" s="663"/>
+      <c r="AJ1" s="654"/>
+      <c r="AK1" s="655"/>
       <c r="AN1" s="142"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="653">
+      <c r="J2" s="667">
         <f>SUM(J5:J30)</f>
         <v>3</v>
       </c>
-      <c r="K2" s="655">
+      <c r="K2" s="669">
         <f>SUM(K4:K29)</f>
-        <v>9</v>
-      </c>
-      <c r="L2" s="657">
+        <v>10</v>
+      </c>
+      <c r="L2" s="671">
         <f>SUM(L4:L29)</f>
         <v>7</v>
       </c>
-      <c r="M2" s="632">
+      <c r="M2" s="608">
         <f>SUM(K30:K37)* (-1)</f>
         <v>1</v>
       </c>
@@ -9443,11 +9446,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="659" t="s">
+      <c r="S2" s="673" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="664"/>
-      <c r="U2" s="666"/>
+      <c r="T2" s="656"/>
+      <c r="U2" s="658"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9464,7 +9467,7 @@
         <v>457</v>
       </c>
       <c r="AA2" s="322" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB2" s="72" t="s">
         <v>455</v>
@@ -9507,10 +9510,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="654"/>
-      <c r="K3" s="656"/>
-      <c r="L3" s="658"/>
-      <c r="M3" s="633"/>
+      <c r="J3" s="668"/>
+      <c r="K3" s="670"/>
+      <c r="L3" s="672"/>
+      <c r="M3" s="609"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9524,10 +9527,10 @@
       </c>
       <c r="R3" s="159">
         <f>SUM(R4:R29)</f>
-        <v>38</v>
-      </c>
-      <c r="S3" s="660"/>
-      <c r="T3" s="568"/>
+        <v>37</v>
+      </c>
+      <c r="S3" s="674"/>
+      <c r="T3" s="581"/>
       <c r="U3" s="330">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9538,7 +9541,7 @@
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9550,7 +9553,7 @@
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
@@ -9582,7 +9585,7 @@
       </c>
       <c r="AH3" s="100">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
@@ -9628,7 +9631,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="650" t="s">
+      <c r="M4" s="675" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9695,10 +9698,10 @@
         <v>204</v>
       </c>
       <c r="AM4" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AN4" s="142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9711,7 +9714,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="651"/>
+      <c r="M5" s="676"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9799,7 +9802,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="651"/>
+      <c r="M6" s="676"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9889,7 +9892,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="651"/>
+      <c r="M7" s="676"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9993,7 +9996,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="651"/>
+      <c r="M8" s="676"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -10011,7 +10014,7 @@
       </c>
       <c r="S8" s="339">
         <f>R3</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="347"/>
@@ -10050,8 +10053,8 @@
       <c r="AG8" s="412">
         <v>0</v>
       </c>
-      <c r="AH8" s="156"/>
-      <c r="AI8" s="371">
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="68">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10079,7 +10082,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="651"/>
+      <c r="M9" s="676"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -10177,7 +10180,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M10" s="651"/>
+      <c r="M10" s="676"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -10245,7 +10248,7 @@
       </c>
       <c r="AM10" s="231"/>
       <c r="AN10" s="271" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10260,7 +10263,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="651"/>
+      <c r="M11" s="676"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -10322,7 +10325,7 @@
       <c r="AN11" s="142"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="596" t="s">
+      <c r="A12" s="644" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10331,14 +10334,14 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="647" t="s">
+      <c r="E12" s="598" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="276">
         <v>1</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I12" s="428" t="s">
         <v>302</v>
@@ -10351,7 +10354,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="651"/>
+      <c r="M12" s="676"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10421,18 +10424,18 @@
         <v>529</v>
       </c>
       <c r="AN12" s="142" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="598"/>
+      <c r="A13" s="646"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="648"/>
+      <c r="E13" s="599"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10453,7 +10456,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="651"/>
+      <c r="M13" s="676"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10528,7 +10531,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M14" s="651"/>
+      <c r="M14" s="676"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10594,10 +10597,10 @@
         <v>1</v>
       </c>
       <c r="AL14" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AM14" s="528" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AN14" s="142" t="s">
         <v>516</v>
@@ -10625,7 +10628,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="651"/>
+      <c r="M15" s="676"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10710,7 +10713,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="651"/>
+      <c r="M16" s="676"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10763,7 +10766,7 @@
         <v>2</v>
       </c>
       <c r="AH16" s="158">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI16" s="325">
         <f t="shared" si="7"/>
@@ -10781,7 +10784,7 @@
         <v>235</v>
       </c>
       <c r="AM16" s="68" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AN16" s="142" t="s">
         <v>513</v>
@@ -10806,7 +10809,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="651"/>
+      <c r="M17" s="676"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10889,7 +10892,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="651"/>
+      <c r="M18" s="676"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10968,13 +10971,13 @@
         <v>2</v>
       </c>
       <c r="K19" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="310">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="651"/>
+      <c r="M19" s="676"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10984,7 +10987,7 @@
       </c>
       <c r="Q19" s="164"/>
       <c r="R19" s="157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="337">
         <v>-1</v>
@@ -10996,7 +10999,7 @@
       </c>
       <c r="W19" s="190">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X19" s="313"/>
       <c r="Y19" s="117">
@@ -11005,7 +11008,7 @@
       </c>
       <c r="Z19" s="307">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA19" s="307">
         <v>1</v>
@@ -11038,8 +11041,9 @@
         <v>1</v>
       </c>
       <c r="AL19" s="16" t="s">
-        <v>580</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="AM19" s="19"/>
       <c r="AN19" s="142"/>
     </row>
     <row r="20" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11069,11 +11073,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M20" s="652"/>
-      <c r="N20" s="541" t="s">
+      <c r="M20" s="677"/>
+      <c r="N20" s="544" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="649"/>
+      <c r="O20" s="600"/>
       <c r="P20" s="333" t="s">
         <v>86</v>
       </c>
@@ -11141,7 +11145,7 @@
         <v>465</v>
       </c>
       <c r="AN20" s="64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11320,7 +11324,7 @@
       <c r="AN22" s="142"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="603" t="s">
+      <c r="E23" s="651" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -11403,20 +11407,20 @@
         <v>0</v>
       </c>
       <c r="AL23" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM23" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN23" s="142" t="s">
         <v>595</v>
-      </c>
-      <c r="AN23" s="142" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="604"/>
+      <c r="E24" s="652"/>
       <c r="F24" s="177"/>
       <c r="I24" s="428" t="s">
         <v>301</v>
@@ -11431,10 +11435,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N24" s="541" t="s">
+      <c r="N24" s="544" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="649"/>
+      <c r="O24" s="600"/>
       <c r="P24" s="333" t="s">
         <v>254</v>
       </c>
@@ -12280,7 +12284,7 @@
         <v>303</v>
       </c>
       <c r="AM34" s="19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AN34" s="271" t="s">
         <v>191</v>
@@ -12442,7 +12446,7 @@
         <v>313</v>
       </c>
       <c r="AN36" s="142" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12522,31 +12526,31 @@
         <v>486</v>
       </c>
       <c r="AM37" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AN37" s="64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="M4:M20"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="M4:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12580,15 +12584,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="541" t="s">
+      <c r="B1" s="544" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="649"/>
+      <c r="C1" s="600"/>
       <c r="D1" s="214"/>
-      <c r="J1" s="541" t="s">
+      <c r="J1" s="544" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="649"/>
+      <c r="K1" s="600"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12626,13 +12630,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="206"/>
-      <c r="M2" s="675"/>
+      <c r="M2" s="678"/>
       <c r="N2" s="154">
         <v>2</v>
       </c>
       <c r="O2" s="155"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="678" t="s">
+      <c r="Q2" s="681" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -12655,13 +12659,13 @@
       <c r="K3" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="M3" s="676"/>
+      <c r="M3" s="679"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="679"/>
+      <c r="Q3" s="682"/>
       <c r="R3" s="231"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12680,13 +12684,13 @@
       <c r="K4" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="676"/>
+      <c r="M4" s="679"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="679"/>
+      <c r="Q4" s="682"/>
       <c r="R4" s="231"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12706,13 +12710,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="206"/>
-      <c r="M5" s="676"/>
+      <c r="M5" s="679"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="679"/>
+      <c r="Q5" s="682"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -12733,13 +12737,13 @@
       <c r="K6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="676"/>
+      <c r="M6" s="679"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="679"/>
+      <c r="Q6" s="682"/>
       <c r="R6" s="231"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12759,13 +12763,13 @@
         <v>334</v>
       </c>
       <c r="L7" s="208"/>
-      <c r="M7" s="676"/>
+      <c r="M7" s="679"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="679"/>
+      <c r="Q7" s="682"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -12786,13 +12790,13 @@
       <c r="K8" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M8" s="676"/>
+      <c r="M8" s="679"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="679"/>
+      <c r="Q8" s="682"/>
       <c r="R8" s="231"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12812,13 +12816,13 @@
         <v>336</v>
       </c>
       <c r="L9" s="186"/>
-      <c r="M9" s="677"/>
+      <c r="M9" s="680"/>
       <c r="N9" s="163"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="680"/>
+      <c r="Q9" s="683"/>
       <c r="R9" s="232"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -12976,10 +12980,10 @@
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="V1" s="541" t="s">
+      <c r="V1" s="544" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="649"/>
+      <c r="W1" s="600"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12998,7 +13002,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="695" t="s">
+      <c r="AD1" s="691" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13015,10 +13019,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="726" t="s">
+      <c r="F2" s="690" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="683" t="s">
+      <c r="G2" s="718" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13046,10 +13050,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="667" t="s">
+      <c r="V2" s="659" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="668"/>
+      <c r="W2" s="660"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -13068,7 +13072,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="696"/>
+      <c r="AD2" s="692"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -13087,8 +13091,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="600"/>
-      <c r="G3" s="684"/>
+      <c r="F3" s="648"/>
+      <c r="G3" s="719"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -13099,13 +13103,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="693" t="s">
+      <c r="O3" s="728" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="714" t="s">
+      <c r="P3" s="710" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="715"/>
+      <c r="Q3" s="711"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -13115,15 +13119,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="696"/>
+      <c r="AD3" s="692"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="684"/>
+      <c r="G4" s="719"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="678" t="s">
+      <c r="L4" s="681" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="694"/>
+      <c r="O4" s="729"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -13133,12 +13137,12 @@
       <c r="X4" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="541" t="s">
+      <c r="Y4" s="544" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" s="543"/>
-      <c r="AA4" s="649"/>
-      <c r="AD4" s="696"/>
+      <c r="Z4" s="546"/>
+      <c r="AA4" s="600"/>
+      <c r="AD4" s="692"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -13153,21 +13157,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="684"/>
+      <c r="G5" s="719"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="701" t="s">
+      <c r="K5" s="697" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="716"/>
+      <c r="L5" s="712"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="694"/>
+      <c r="O5" s="729"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -13183,11 +13187,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="704" t="s">
+      <c r="Y5" s="700" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="705"/>
-      <c r="AD5" s="696"/>
+      <c r="Z5" s="701"/>
+      <c r="AD5" s="692"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -13197,16 +13201,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="684"/>
+      <c r="G6" s="719"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="702"/>
-      <c r="L6" s="716"/>
-      <c r="O6" s="694"/>
+      <c r="K6" s="698"/>
+      <c r="L6" s="712"/>
+      <c r="O6" s="729"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -13216,20 +13220,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="696"/>
+      <c r="AD6" s="692"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="684"/>
+      <c r="G7" s="719"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="702"/>
-      <c r="L7" s="716"/>
+      <c r="K7" s="698"/>
+      <c r="L7" s="712"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="694"/>
+      <c r="O7" s="729"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="696"/>
+      <c r="AD7" s="692"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -13242,7 +13246,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="684"/>
+      <c r="G8" s="719"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -13252,41 +13256,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="702"/>
-      <c r="L8" s="716"/>
-      <c r="O8" s="694"/>
+      <c r="K8" s="698"/>
+      <c r="L8" s="712"/>
+      <c r="O8" s="729"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="698" t="s">
+      <c r="S8" s="694" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="699"/>
-      <c r="U8" s="699"/>
-      <c r="V8" s="699"/>
-      <c r="W8" s="699"/>
-      <c r="X8" s="699"/>
-      <c r="Y8" s="699"/>
-      <c r="Z8" s="699"/>
-      <c r="AA8" s="699"/>
-      <c r="AB8" s="699"/>
-      <c r="AC8" s="700"/>
-      <c r="AD8" s="696"/>
+      <c r="T8" s="695"/>
+      <c r="U8" s="695"/>
+      <c r="V8" s="695"/>
+      <c r="W8" s="695"/>
+      <c r="X8" s="695"/>
+      <c r="Y8" s="695"/>
+      <c r="Z8" s="695"/>
+      <c r="AA8" s="695"/>
+      <c r="AB8" s="695"/>
+      <c r="AC8" s="696"/>
+      <c r="AD8" s="692"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="720"/>
-      <c r="G9" s="684"/>
+      <c r="C9" s="684"/>
+      <c r="G9" s="719"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="702"/>
-      <c r="L9" s="687" t="s">
+      <c r="K9" s="698"/>
+      <c r="L9" s="722" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="688"/>
-      <c r="N9" s="689"/>
-      <c r="O9" s="694"/>
+      <c r="M9" s="723"/>
+      <c r="N9" s="724"/>
+      <c r="O9" s="729"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="696"/>
+      <c r="AD9" s="692"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="721"/>
+      <c r="C10" s="685"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13294,7 +13298,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="684"/>
+      <c r="G10" s="719"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13302,33 +13306,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="702"/>
-      <c r="M10" s="723" t="s">
+      <c r="K10" s="698"/>
+      <c r="M10" s="687" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="724"/>
-      <c r="O10" s="724"/>
-      <c r="P10" s="724"/>
-      <c r="Q10" s="724"/>
-      <c r="R10" s="724"/>
-      <c r="S10" s="724"/>
-      <c r="T10" s="724"/>
-      <c r="U10" s="724"/>
-      <c r="V10" s="724"/>
-      <c r="W10" s="724"/>
-      <c r="X10" s="724"/>
-      <c r="Y10" s="724"/>
-      <c r="Z10" s="724"/>
-      <c r="AA10" s="724"/>
-      <c r="AB10" s="724"/>
-      <c r="AC10" s="725"/>
-      <c r="AD10" s="696"/>
+      <c r="N10" s="688"/>
+      <c r="O10" s="688"/>
+      <c r="P10" s="688"/>
+      <c r="Q10" s="688"/>
+      <c r="R10" s="688"/>
+      <c r="S10" s="688"/>
+      <c r="T10" s="688"/>
+      <c r="U10" s="688"/>
+      <c r="V10" s="688"/>
+      <c r="W10" s="688"/>
+      <c r="X10" s="688"/>
+      <c r="Y10" s="688"/>
+      <c r="Z10" s="688"/>
+      <c r="AA10" s="688"/>
+      <c r="AB10" s="688"/>
+      <c r="AC10" s="689"/>
+      <c r="AD10" s="692"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="722"/>
-      <c r="G11" s="684"/>
+      <c r="C11" s="686"/>
+      <c r="G11" s="719"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="702"/>
+      <c r="K11" s="698"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13339,17 +13343,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="712" t="s">
+      <c r="Z11" s="708" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="713"/>
+      <c r="AA11" s="709"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="696"/>
+      <c r="AD11" s="692"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13362,7 +13366,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="684"/>
+      <c r="G12" s="719"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13370,8 +13374,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="702"/>
-      <c r="L12" s="717" t="s">
+      <c r="K12" s="698"/>
+      <c r="L12" s="713" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13386,7 +13390,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="536" t="s">
+      <c r="S12" s="539" t="s">
         <v>107</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -13402,26 +13406,26 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="706" t="s">
+      <c r="AA12" s="702" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="707"/>
+      <c r="AB12" s="703"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="696"/>
+      <c r="AD12" s="692"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="720"/>
-      <c r="G13" s="684"/>
-      <c r="K13" s="702"/>
-      <c r="L13" s="718"/>
+      <c r="C13" s="684"/>
+      <c r="G13" s="719"/>
+      <c r="K13" s="698"/>
+      <c r="L13" s="714"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="686" t="s">
+      <c r="Q13" s="721" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="609"/>
-      <c r="S13" s="537"/>
+      <c r="R13" s="615"/>
+      <c r="S13" s="540"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>132</v>
@@ -13429,17 +13433,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="708"/>
-      <c r="AB13" s="709"/>
-      <c r="AD13" s="696"/>
+      <c r="AA13" s="704"/>
+      <c r="AB13" s="705"/>
+      <c r="AD13" s="692"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="722"/>
+      <c r="C14" s="686"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="684"/>
+      <c r="G14" s="719"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13447,8 +13451,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="702"/>
-      <c r="L14" s="718"/>
+      <c r="K14" s="698"/>
+      <c r="L14" s="714"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13458,7 +13462,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="537"/>
+      <c r="S14" s="540"/>
       <c r="T14" s="77" t="s">
         <v>130</v>
       </c>
@@ -13469,9 +13473,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="708"/>
-      <c r="AB14" s="709"/>
-      <c r="AD14" s="696"/>
+      <c r="AA14" s="704"/>
+      <c r="AB14" s="705"/>
+      <c r="AD14" s="692"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13486,20 +13490,20 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="684"/>
+      <c r="G15" s="719"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="702"/>
-      <c r="L15" s="719"/>
-      <c r="Q15" s="686" t="s">
+      <c r="K15" s="698"/>
+      <c r="L15" s="715"/>
+      <c r="Q15" s="721" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="609"/>
-      <c r="S15" s="537"/>
+      <c r="R15" s="615"/>
+      <c r="S15" s="540"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -13507,14 +13511,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="708"/>
-      <c r="AB15" s="709"/>
-      <c r="AD15" s="696"/>
+      <c r="AA15" s="704"/>
+      <c r="AB15" s="705"/>
+      <c r="AD15" s="692"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="684"/>
-      <c r="K16" s="702"/>
+      <c r="G16" s="719"/>
+      <c r="K16" s="698"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13522,7 +13526,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="537"/>
+      <c r="S16" s="540"/>
       <c r="T16" s="76" t="s">
         <v>129</v>
       </c>
@@ -13533,34 +13537,34 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="708"/>
-      <c r="AB16" s="709"/>
-      <c r="AD16" s="696"/>
+      <c r="AA16" s="704"/>
+      <c r="AB16" s="705"/>
+      <c r="AD16" s="692"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="681" t="s">
+      <c r="F17" s="716" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="684"/>
+      <c r="G17" s="719"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="702"/>
-      <c r="S17" s="537"/>
+      <c r="K17" s="698"/>
+      <c r="S17" s="540"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="708"/>
-      <c r="AB17" s="709"/>
-      <c r="AD17" s="696"/>
+      <c r="AA17" s="704"/>
+      <c r="AB17" s="705"/>
+      <c r="AD17" s="692"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13570,58 +13574,61 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="682"/>
-      <c r="G18" s="684"/>
+      <c r="F18" s="717"/>
+      <c r="G18" s="719"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="702"/>
+      <c r="K18" s="698"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="537"/>
+      <c r="S18" s="540"/>
       <c r="U18" s="76" t="s">
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="710"/>
-      <c r="AB18" s="711"/>
-      <c r="AD18" s="696"/>
+      <c r="AA18" s="706"/>
+      <c r="AB18" s="707"/>
+      <c r="AD18" s="692"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="685"/>
-      <c r="K19" s="703"/>
+      <c r="G19" s="720"/>
+      <c r="K19" s="699"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="690" t="s">
+      <c r="R19" s="725" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="691"/>
-      <c r="T19" s="692"/>
+      <c r="S19" s="726"/>
+      <c r="T19" s="727"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="697"/>
+      <c r="AD19" s="693"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13633,14 +13640,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B49AED-6815-4BC7-A353-A0D778D635BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F294BC12-6BA2-4102-8FA0-9E7FECACA6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4714,6 +4714,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4747,19 +4762,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4792,62 +4849,167 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4873,12 +5035,6 @@
     <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4900,161 +5056,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5098,39 +5131,6 @@
     <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5149,25 +5149,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5245,46 +5266,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5578,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5632,10 +5632,10 @@
       <c r="I2" s="441" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="542" t="s">
+      <c r="J2" s="547" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="543"/>
+      <c r="K2" s="548"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5645,14 +5645,14 @@
       <c r="N2" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="544" t="s">
+      <c r="O2" s="549" t="s">
         <v>385</v>
       </c>
-      <c r="P2" s="545"/>
-      <c r="Q2" s="546"/>
-      <c r="R2" s="546"/>
-      <c r="S2" s="546"/>
-      <c r="T2" s="547" t="s">
+      <c r="P2" s="550"/>
+      <c r="Q2" s="551"/>
+      <c r="R2" s="551"/>
+      <c r="S2" s="551"/>
+      <c r="T2" s="552" t="s">
         <v>386</v>
       </c>
       <c r="V2" s="2" t="s">
@@ -5666,7 +5666,7 @@
       <c r="C3" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="539"/>
+      <c r="D3" s="544"/>
       <c r="E3" s="373"/>
       <c r="F3" s="280" t="s">
         <v>69</v>
@@ -5702,7 +5702,7 @@
       <c r="S3" s="177">
         <v>0</v>
       </c>
-      <c r="T3" s="548"/>
+      <c r="T3" s="553"/>
       <c r="U3" s="19" t="s">
         <v>595</v>
       </c>
@@ -5718,7 +5718,7 @@
       <c r="C4" s="169" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="540"/>
+      <c r="D4" s="545"/>
       <c r="E4" s="61"/>
       <c r="F4" s="395" t="s">
         <v>42</v>
@@ -5736,7 +5736,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="333"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="548"/>
+      <c r="T4" s="553"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -5745,7 +5745,7 @@
       <c r="C5" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="541"/>
+      <c r="D5" s="546"/>
       <c r="F5" s="399" t="s">
         <v>42</v>
       </c>
@@ -5764,12 +5764,12 @@
         <v>522</v>
       </c>
       <c r="P5" s="533"/>
-      <c r="T5" s="548"/>
+      <c r="T5" s="553"/>
       <c r="U5" s="214" t="s">
         <v>228</v>
       </c>
       <c r="V5" s="19">
-        <v>5280</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5803,7 +5803,7 @@
       <c r="P6" s="533"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="6"/>
-      <c r="T6" s="548"/>
+      <c r="T6" s="553"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="219" t="s">
@@ -5834,7 +5834,7 @@
       <c r="P7" s="533"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="6"/>
-      <c r="T7" s="548"/>
+      <c r="T7" s="553"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -5863,7 +5863,7 @@
       <c r="P8" s="533"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="548"/>
+      <c r="T8" s="553"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -5897,7 +5897,7 @@
         <v>44</v>
       </c>
       <c r="P9" s="533"/>
-      <c r="T9" s="548"/>
+      <c r="T9" s="553"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -5927,7 +5927,7 @@
         <v>522</v>
       </c>
       <c r="P10" s="533"/>
-      <c r="T10" s="548"/>
+      <c r="T10" s="553"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -5962,12 +5962,12 @@
       <c r="P11" s="533"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="142"/>
-      <c r="T11" s="548"/>
+      <c r="T11" s="553"/>
       <c r="U11" s="214" t="s">
         <v>227</v>
       </c>
       <c r="V11" s="64">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5995,7 +5995,7 @@
       <c r="P12" s="533"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="142"/>
-      <c r="T12" s="548"/>
+      <c r="T12" s="553"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="270" t="s">
@@ -6030,11 +6030,11 @@
         <v>522</v>
       </c>
       <c r="P13" s="533"/>
-      <c r="T13" s="548"/>
+      <c r="T13" s="553"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P14" s="533"/>
-      <c r="T14" s="548"/>
+      <c r="T14" s="553"/>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -6060,10 +6060,10 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="552">
+      <c r="M15" s="541">
         <v>45275</v>
       </c>
-      <c r="N15" s="539" t="s">
+      <c r="N15" s="544" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="531" t="s">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="P15" s="533"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="548"/>
+      <c r="T15" s="553"/>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="512" t="s">
@@ -6097,10 +6097,10 @@
       <c r="L16" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="553"/>
-      <c r="N16" s="540"/>
+      <c r="M16" s="542"/>
+      <c r="N16" s="545"/>
       <c r="P16" s="533"/>
-      <c r="T16" s="548"/>
+      <c r="T16" s="553"/>
     </row>
     <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -6128,8 +6128,8 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="554"/>
-      <c r="N17" s="541"/>
+      <c r="M17" s="543"/>
+      <c r="N17" s="546"/>
       <c r="O17" s="531" t="s">
         <v>44</v>
       </c>
@@ -6145,11 +6145,11 @@
       <c r="S17" s="177">
         <v>0</v>
       </c>
-      <c r="T17" s="548"/>
+      <c r="T17" s="553"/>
     </row>
     <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="533"/>
-      <c r="T18" s="548"/>
+      <c r="T18" s="553"/>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6177,14 +6177,14 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="552">
+      <c r="M19" s="541">
         <v>45275</v>
       </c>
       <c r="N19" s="440" t="s">
         <v>522</v>
       </c>
       <c r="P19" s="533"/>
-      <c r="T19" s="548"/>
+      <c r="T19" s="553"/>
     </row>
     <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="254" t="s">
@@ -6210,12 +6210,12 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="553"/>
+      <c r="M20" s="542"/>
       <c r="N20" s="429" t="s">
         <v>26</v>
       </c>
       <c r="P20" s="533"/>
-      <c r="T20" s="548"/>
+      <c r="T20" s="553"/>
     </row>
     <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="254" t="s">
@@ -6241,16 +6241,16 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="553"/>
+      <c r="M21" s="542"/>
       <c r="N21" s="429" t="s">
         <v>18</v>
       </c>
       <c r="P21" s="533"/>
-      <c r="T21" s="548"/>
-      <c r="U21" s="550" t="s">
+      <c r="T21" s="553"/>
+      <c r="U21" s="539" t="s">
         <v>226</v>
       </c>
-      <c r="V21" s="551"/>
+      <c r="V21" s="540"/>
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="287" t="s">
@@ -6276,12 +6276,12 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="553"/>
+      <c r="M22" s="542"/>
       <c r="N22" s="408" t="s">
         <v>26</v>
       </c>
       <c r="P22" s="533"/>
-      <c r="T22" s="548"/>
+      <c r="T22" s="553"/>
     </row>
     <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6307,12 +6307,12 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="553"/>
+      <c r="M23" s="542"/>
       <c r="N23" s="61" t="s">
         <v>523</v>
       </c>
       <c r="P23" s="533"/>
-      <c r="T23" s="548"/>
+      <c r="T23" s="553"/>
     </row>
     <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -6338,7 +6338,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="553"/>
+      <c r="M24" s="542"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="P24" s="534"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="548"/>
+      <c r="T24" s="553"/>
     </row>
     <row r="25" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6375,7 +6375,7 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="553"/>
+      <c r="M25" s="542"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
@@ -6391,7 +6391,7 @@
       <c r="S25" s="21">
         <v>0</v>
       </c>
-      <c r="T25" s="548"/>
+      <c r="T25" s="553"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -6417,12 +6417,12 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="553"/>
+      <c r="M26" s="542"/>
       <c r="N26" s="61" t="s">
         <v>524</v>
       </c>
       <c r="P26" s="533"/>
-      <c r="T26" s="548"/>
+      <c r="T26" s="553"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="270" t="s">
@@ -6444,7 +6444,7 @@
       <c r="J27" s="437"/>
       <c r="K27" s="438"/>
       <c r="L27" s="439"/>
-      <c r="M27" s="553"/>
+      <c r="M27" s="542"/>
       <c r="N27" s="61"/>
       <c r="P27" s="333">
         <v>1</v>
@@ -6458,7 +6458,7 @@
       <c r="S27" s="177">
         <v>0</v>
       </c>
-      <c r="T27" s="548"/>
+      <c r="T27" s="553"/>
     </row>
     <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="270" t="s">
@@ -6486,7 +6486,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="554"/>
+      <c r="M28" s="543"/>
       <c r="N28" s="61" t="s">
         <v>524</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="S28" s="21">
         <v>0</v>
       </c>
-      <c r="T28" s="549"/>
+      <c r="T28" s="554"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6581,7 +6581,7 @@
       <c r="P1" s="448" t="s">
         <v>408</v>
       </c>
-      <c r="Q1" s="555" t="s">
+      <c r="Q1" s="574" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -6601,32 +6601,32 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="568">
+      <c r="A2" s="558">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="570" t="s">
+      <c r="B2" s="560" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="582" t="s">
+      <c r="C2" s="572" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="572" t="s">
+      <c r="D2" s="562" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="574" t="s">
+      <c r="E2" s="564" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="580" t="s">
+      <c r="G2" s="570" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="562" t="s">
+      <c r="I2" s="581" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="446" t="s">
@@ -6650,7 +6650,7 @@
       <c r="P2" s="449">
         <v>40</v>
       </c>
-      <c r="Q2" s="556"/>
+      <c r="Q2" s="575"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
         <v>8</v>
@@ -6676,14 +6676,14 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="569"/>
-      <c r="B3" s="571"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="573"/>
-      <c r="E3" s="575"/>
-      <c r="G3" s="581"/>
+      <c r="A3" s="559"/>
+      <c r="B3" s="561"/>
+      <c r="C3" s="573"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="565"/>
+      <c r="G3" s="571"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="563"/>
+      <c r="I3" s="582"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -6703,10 +6703,10 @@
         <v>390</v>
       </c>
       <c r="B4" s="256"/>
-      <c r="C4" s="576" t="s">
+      <c r="C4" s="566" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="563"/>
+      <c r="I4" s="582"/>
       <c r="R4" s="524" t="s">
         <v>584</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="577"/>
+      <c r="C5" s="567"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6739,13 +6739,13 @@
       <c r="F5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="539" t="s">
+      <c r="G5" s="544" t="s">
         <v>276</v>
       </c>
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="563"/>
+      <c r="I5" s="582"/>
       <c r="J5" s="447" t="s">
         <v>273</v>
       </c>
@@ -6782,22 +6782,22 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="565" t="s">
+      <c r="A6" s="555" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="578"/>
-      <c r="D6" s="579"/>
+      <c r="C6" s="568"/>
+      <c r="D6" s="569"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="540"/>
-      <c r="I6" s="563"/>
+      <c r="G6" s="545"/>
+      <c r="I6" s="582"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="566"/>
+      <c r="A7" s="556"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6807,8 +6807,8 @@
       <c r="D7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="540"/>
-      <c r="I7" s="563"/>
+      <c r="G7" s="545"/>
+      <c r="I7" s="582"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6846,7 +6846,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="567"/>
+      <c r="A8" s="557"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6854,8 +6854,8 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="540"/>
-      <c r="I8" s="563"/>
+      <c r="G8" s="545"/>
+      <c r="I8" s="582"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
@@ -6879,9 +6879,9 @@
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="540"/>
+      <c r="G9" s="545"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="563"/>
+      <c r="I9" s="582"/>
       <c r="M9" s="19" t="s">
         <v>547</v>
       </c>
@@ -6907,8 +6907,8 @@
         <f>Boat!S8</f>
         <v>37</v>
       </c>
-      <c r="G10" s="540"/>
-      <c r="I10" s="563"/>
+      <c r="G10" s="545"/>
+      <c r="I10" s="582"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6936,7 +6936,7 @@
       <c r="A11" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="539" t="s">
+      <c r="B11" s="544" t="s">
         <v>392</v>
       </c>
       <c r="C11" s="176" t="s">
@@ -6945,8 +6945,8 @@
       <c r="D11" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="540"/>
-      <c r="I11" s="563"/>
+      <c r="G11" s="545"/>
+      <c r="I11" s="582"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6972,23 +6972,23 @@
       <c r="S11" s="24">
         <v>0</v>
       </c>
-      <c r="U11" s="557" t="s">
+      <c r="U11" s="576" t="s">
         <v>587</v>
       </c>
-      <c r="V11" s="558"/>
-      <c r="W11" s="558"/>
-      <c r="X11" s="559"/>
+      <c r="V11" s="577"/>
+      <c r="W11" s="577"/>
+      <c r="X11" s="578"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="541"/>
+      <c r="B12" s="546"/>
       <c r="E12" s="242">
         <v>3</v>
       </c>
-      <c r="G12" s="540"/>
-      <c r="I12" s="563"/>
+      <c r="G12" s="545"/>
+      <c r="I12" s="582"/>
       <c r="J12" s="24" t="s">
         <v>538</v>
       </c>
@@ -7016,12 +7016,12 @@
       <c r="B13" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="539" t="s">
+      <c r="C13" s="544" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="540"/>
-      <c r="I13" s="563"/>
+      <c r="G13" s="545"/>
+      <c r="I13" s="582"/>
       <c r="J13" s="108" t="s">
         <v>576</v>
       </c>
@@ -7048,7 +7048,7 @@
       <c r="B14" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="541"/>
+      <c r="C14" s="546"/>
       <c r="D14" s="214" t="s">
         <v>154</v>
       </c>
@@ -7058,11 +7058,11 @@
       <c r="F14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="541"/>
+      <c r="G14" s="546"/>
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="563"/>
+      <c r="I14" s="582"/>
       <c r="U14" s="6"/>
       <c r="V14" s="112"/>
       <c r="W14" s="6"/>
@@ -7080,7 +7080,7 @@
       <c r="H15" s="288">
         <v>0</v>
       </c>
-      <c r="I15" s="563"/>
+      <c r="I15" s="582"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -7111,7 +7111,7 @@
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="563"/>
+      <c r="I16" s="582"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -7145,7 +7145,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="563"/>
+      <c r="I17" s="582"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -7157,13 +7157,13 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="563"/>
+      <c r="I18" s="582"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="560" t="s">
+      <c r="O18" s="579" t="s">
         <v>539</v>
       </c>
-      <c r="P18" s="561"/>
+      <c r="P18" s="580"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -7189,7 +7189,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="563"/>
+      <c r="I19" s="582"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -7221,7 +7221,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="563"/>
+      <c r="I20" s="582"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="Z20" s="112"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="563"/>
+      <c r="I21" s="582"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="563"/>
+      <c r="I22" s="582"/>
       <c r="U22" s="6" t="s">
         <v>588</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="E23" s="300" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="563"/>
+      <c r="I23" s="582"/>
       <c r="U23" s="6" t="s">
         <v>74</v>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="563"/>
+      <c r="I24" s="582"/>
       <c r="U24" s="378"/>
       <c r="V24" s="523">
         <v>-1</v>
@@ -7344,7 +7344,7 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="563"/>
+      <c r="I25" s="582"/>
       <c r="J25" s="447" t="s">
         <v>274</v>
       </c>
@@ -7389,7 +7389,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="563"/>
+      <c r="I26" s="582"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -7424,7 +7424,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="563"/>
+      <c r="I27" s="582"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="563"/>
+      <c r="I28" s="582"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -7473,7 +7473,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="564"/>
+      <c r="I29" s="583"/>
       <c r="J29" s="357"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7517,6 +7517,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -7528,11 +7533,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7608,7 +7608,7 @@
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="580" t="s">
+      <c r="I1" s="570" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7669,7 +7669,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="452"/>
-      <c r="AN1" s="611"/>
+      <c r="AN1" s="608"/>
       <c r="AO1" s="374" t="s">
         <v>487</v>
       </c>
@@ -7678,23 +7678,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="635">
+      <c r="A2" s="590">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="637" t="s">
+      <c r="B2" s="592" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="582" t="s">
+      <c r="C2" s="572" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="639" t="s">
+      <c r="D2" s="594" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="584" t="s">
+      <c r="E2" s="638" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="592" t="s">
+      <c r="F2" s="613" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="443" t="s">
@@ -7703,31 +7703,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="581"/>
+      <c r="I2" s="571"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="586" t="s">
+      <c r="K2" s="640" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="587"/>
-      <c r="M2" s="592" t="s">
+      <c r="L2" s="641"/>
+      <c r="M2" s="613" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="618" t="s">
+      <c r="O2" s="617" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="582" t="s">
+      <c r="Q2" s="572" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="539"/>
-      <c r="S2" s="605" t="s">
+      <c r="R2" s="544"/>
+      <c r="S2" s="630" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7760,15 +7760,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="478"/>
-      <c r="AN2" s="612"/>
+      <c r="AN2" s="609"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="636"/>
-      <c r="B3" s="638"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="640"/>
-      <c r="E3" s="585"/>
-      <c r="F3" s="593"/>
+      <c r="A3" s="591"/>
+      <c r="B3" s="593"/>
+      <c r="C3" s="573"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="639"/>
+      <c r="F3" s="614"/>
       <c r="G3" s="444" t="s">
         <v>28</v>
       </c>
@@ -7787,17 +7787,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="593"/>
+      <c r="M3" s="614"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="619"/>
+      <c r="O3" s="618"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="583"/>
-      <c r="R3" s="541"/>
-      <c r="S3" s="607"/>
+      <c r="Q3" s="573"/>
+      <c r="R3" s="546"/>
+      <c r="S3" s="631"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7814,7 +7814,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="602" t="s">
+      <c r="AD3" s="629" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="271"/>
@@ -7826,16 +7826,16 @@
       <c r="AK3" s="271"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="478"/>
-      <c r="AN3" s="612"/>
+      <c r="AN3" s="609"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="651" t="s">
+      <c r="B4" s="606" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="582" t="s">
+      <c r="C4" s="572" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="383" t="s">
@@ -7844,7 +7844,7 @@
       <c r="E4" s="420">
         <v>1</v>
       </c>
-      <c r="F4" s="593"/>
+      <c r="F4" s="614"/>
       <c r="G4" s="425" t="s">
         <v>203</v>
       </c>
@@ -7861,11 +7861,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="593"/>
+      <c r="M4" s="614"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="619"/>
+      <c r="O4" s="618"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7892,7 +7892,7 @@
       <c r="AA4" s="324"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="602"/>
+      <c r="AD4" s="629"/>
       <c r="AE4" s="271"/>
       <c r="AF4" s="271"/>
       <c r="AG4" s="16"/>
@@ -7902,37 +7902,37 @@
       <c r="AK4" s="271"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="478"/>
-      <c r="AN4" s="612"/>
+      <c r="AN4" s="609"/>
       <c r="AO4" s="374" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="580" t="s">
+      <c r="A5" s="570" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="652"/>
-      <c r="C5" s="583"/>
+      <c r="B5" s="607"/>
+      <c r="C5" s="573"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="421">
         <v>1</v>
       </c>
-      <c r="F5" s="593"/>
-      <c r="G5" s="643" t="s">
+      <c r="F5" s="614"/>
+      <c r="G5" s="598" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="643"/>
-      <c r="I5" s="643"/>
-      <c r="J5" s="643"/>
-      <c r="K5" s="643"/>
-      <c r="L5" s="644"/>
-      <c r="M5" s="593"/>
+      <c r="H5" s="598"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="598"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="599"/>
+      <c r="M5" s="614"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="619"/>
+      <c r="O5" s="618"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7963,24 +7963,24 @@
       <c r="AK5" s="271"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="478"/>
-      <c r="AN5" s="612"/>
+      <c r="AN5" s="609"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="581"/>
-      <c r="B6" s="649" t="s">
+      <c r="A6" s="571"/>
+      <c r="B6" s="604" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="578"/>
-      <c r="D6" s="579"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="645"/>
-      <c r="H6" s="645"/>
-      <c r="I6" s="645"/>
-      <c r="J6" s="645"/>
-      <c r="K6" s="645"/>
-      <c r="L6" s="646"/>
-      <c r="M6" s="593"/>
-      <c r="O6" s="619"/>
+      <c r="C6" s="568"/>
+      <c r="D6" s="569"/>
+      <c r="F6" s="614"/>
+      <c r="G6" s="600"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="600"/>
+      <c r="J6" s="600"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="601"/>
+      <c r="M6" s="614"/>
+      <c r="O6" s="618"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -8004,16 +8004,16 @@
       <c r="AF6" s="271"/>
       <c r="AG6" s="271"/>
       <c r="AH6" s="271"/>
-      <c r="AI6" s="601"/>
+      <c r="AI6" s="623"/>
       <c r="AJ6" s="491" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="601" t="s">
+      <c r="AK6" s="623" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="271"/>
       <c r="AM6" s="478"/>
-      <c r="AN6" s="612"/>
+      <c r="AN6" s="609"/>
       <c r="AO6" s="374" t="s">
         <v>488</v>
       </c>
@@ -8022,7 +8022,7 @@
       <c r="A7" s="245" t="s">
         <v>551</v>
       </c>
-      <c r="B7" s="650"/>
+      <c r="B7" s="605"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -8032,7 +8032,7 @@
       <c r="E7" s="280">
         <v>3</v>
       </c>
-      <c r="F7" s="593"/>
+      <c r="F7" s="614"/>
       <c r="G7" s="445">
         <v>0</v>
       </c>
@@ -8045,14 +8045,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="539">
+      <c r="K7" s="544">
         <v>1</v>
       </c>
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="593"/>
-      <c r="O7" s="619"/>
+      <c r="M7" s="614"/>
+      <c r="O7" s="618"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -8076,18 +8076,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="271"/>
       <c r="AF7" s="271"/>
-      <c r="AG7" s="602" t="s">
+      <c r="AG7" s="629" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="271"/>
-      <c r="AI7" s="601"/>
+      <c r="AI7" s="623"/>
       <c r="AJ7" s="271"/>
-      <c r="AK7" s="601"/>
+      <c r="AK7" s="623"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="478"/>
-      <c r="AN7" s="612"/>
+      <c r="AN7" s="609"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -8104,27 +8104,27 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="593"/>
-      <c r="G8" s="644">
-        <v>0</v>
-      </c>
-      <c r="H8" s="641" t="s">
+      <c r="F8" s="614"/>
+      <c r="G8" s="599">
+        <v>0</v>
+      </c>
+      <c r="H8" s="596" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="539">
-        <v>0</v>
-      </c>
-      <c r="J8" s="641" t="s">
+      <c r="I8" s="544">
+        <v>0</v>
+      </c>
+      <c r="J8" s="596" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="647"/>
-      <c r="L8" s="603"/>
-      <c r="M8" s="616"/>
-      <c r="N8" s="608">
+      <c r="K8" s="602"/>
+      <c r="L8" s="632"/>
+      <c r="M8" s="615"/>
+      <c r="N8" s="635">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="619"/>
+      <c r="O8" s="618"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -8142,14 +8142,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="271"/>
       <c r="AF8" s="271"/>
-      <c r="AG8" s="602"/>
+      <c r="AG8" s="629"/>
       <c r="AH8" s="271"/>
-      <c r="AI8" s="601"/>
+      <c r="AI8" s="623"/>
       <c r="AJ8" s="271"/>
       <c r="AK8" s="271"/>
       <c r="AL8" s="271"/>
       <c r="AM8" s="478"/>
-      <c r="AN8" s="612"/>
+      <c r="AN8" s="609"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -8164,17 +8164,17 @@
       <c r="D9" s="384" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="593"/>
-      <c r="G9" s="646"/>
-      <c r="H9" s="642"/>
-      <c r="I9" s="541"/>
-      <c r="J9" s="642"/>
-      <c r="K9" s="648"/>
-      <c r="L9" s="604"/>
-      <c r="M9" s="617"/>
-      <c r="N9" s="609"/>
-      <c r="O9" s="620"/>
-      <c r="S9" s="605" t="s">
+      <c r="F9" s="614"/>
+      <c r="G9" s="601"/>
+      <c r="H9" s="597"/>
+      <c r="I9" s="546"/>
+      <c r="J9" s="597"/>
+      <c r="K9" s="603"/>
+      <c r="L9" s="633"/>
+      <c r="M9" s="616"/>
+      <c r="N9" s="636"/>
+      <c r="O9" s="619"/>
+      <c r="S9" s="630" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -8196,16 +8196,16 @@
       </c>
       <c r="AE9" s="271"/>
       <c r="AF9" s="271"/>
-      <c r="AG9" s="602"/>
+      <c r="AG9" s="629"/>
       <c r="AH9" s="271"/>
-      <c r="AI9" s="601"/>
+      <c r="AI9" s="623"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="601" t="s">
+      <c r="AK9" s="623" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="271"/>
       <c r="AM9" s="478"/>
-      <c r="AN9" s="612"/>
+      <c r="AN9" s="609"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -8222,20 +8222,20 @@
         <f>Boat!S8</f>
         <v>37</v>
       </c>
-      <c r="F10" s="593"/>
+      <c r="F10" s="614"/>
       <c r="N10" s="468" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="595" t="s">
+      <c r="O10" s="647" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="621" t="s">
+      <c r="P10" s="620" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="606"/>
+      <c r="S10" s="634"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8265,16 +8265,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="602"/>
+      <c r="AG10" s="629"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="601"/>
+      <c r="AI10" s="623"/>
       <c r="AJ10" s="271"/>
-      <c r="AK10" s="601"/>
+      <c r="AK10" s="623"/>
       <c r="AL10" s="271"/>
       <c r="AM10" s="492" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="612"/>
+      <c r="AN10" s="609"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -8283,7 +8283,7 @@
       <c r="A11" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="539" t="s">
+      <c r="B11" s="544" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="507" t="s">
@@ -8292,18 +8292,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="593"/>
+      <c r="F11" s="614"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="596"/>
-      <c r="P11" s="622"/>
+      <c r="O11" s="648"/>
+      <c r="P11" s="621"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="606"/>
+      <c r="S11" s="634"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -8327,14 +8327,14 @@
       <c r="AF11" s="271" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="602"/>
+      <c r="AG11" s="629"/>
       <c r="AH11" s="271"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="271"/>
       <c r="AK11" s="271"/>
       <c r="AL11" s="271"/>
       <c r="AM11" s="478"/>
-      <c r="AN11" s="612"/>
+      <c r="AN11" s="609"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -8343,7 +8343,7 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="541"/>
+      <c r="B12" s="546"/>
       <c r="C12" s="508" t="s">
         <v>394</v>
       </c>
@@ -8353,25 +8353,25 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="593"/>
+      <c r="F12" s="614"/>
       <c r="G12" s="373" t="s">
         <v>411</v>
       </c>
-      <c r="H12" s="544" t="s">
+      <c r="H12" s="549" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="546"/>
-      <c r="J12" s="546"/>
-      <c r="K12" s="600"/>
+      <c r="I12" s="551"/>
+      <c r="J12" s="551"/>
+      <c r="K12" s="652"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="596"/>
-      <c r="P12" s="622"/>
+      <c r="O12" s="648"/>
+      <c r="P12" s="621"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="607"/>
+      <c r="S12" s="631"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -8392,16 +8392,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="610" t="s">
+      <c r="AD12" s="637" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="491" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="602" t="s">
+      <c r="AF12" s="629" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="602"/>
+      <c r="AG12" s="629"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="AM12" s="624" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="612"/>
+      <c r="AN12" s="609"/>
       <c r="AO12" s="374" t="s">
         <v>97</v>
       </c>
@@ -8426,17 +8426,17 @@
       <c r="E13" s="498">
         <v>-3</v>
       </c>
-      <c r="F13" s="593"/>
-      <c r="G13" s="546" t="s">
+      <c r="F13" s="614"/>
+      <c r="G13" s="551" t="s">
         <v>448</v>
       </c>
-      <c r="H13" s="546"/>
-      <c r="I13" s="546"/>
-      <c r="J13" s="600"/>
+      <c r="H13" s="551"/>
+      <c r="I13" s="551"/>
+      <c r="J13" s="652"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="596"/>
-      <c r="P13" s="623"/>
+      <c r="O13" s="648"/>
+      <c r="P13" s="622"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8457,8 +8457,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="610"/>
-      <c r="AF13" s="602"/>
+      <c r="AD13" s="637"/>
+      <c r="AF13" s="629"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8470,7 +8470,7 @@
       <c r="AK13" s="271"/>
       <c r="AL13" s="271"/>
       <c r="AM13" s="624"/>
-      <c r="AN13" s="612"/>
+      <c r="AN13" s="609"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="500"/>
@@ -8478,18 +8478,18 @@
       <c r="C14" s="509"/>
       <c r="D14" s="502"/>
       <c r="E14" s="503"/>
-      <c r="F14" s="593"/>
-      <c r="G14" s="546" t="s">
+      <c r="F14" s="614"/>
+      <c r="G14" s="551" t="s">
         <v>447</v>
       </c>
-      <c r="H14" s="546"/>
-      <c r="I14" s="546"/>
-      <c r="J14" s="600"/>
+      <c r="H14" s="551"/>
+      <c r="I14" s="551"/>
+      <c r="J14" s="652"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="596"/>
+      <c r="O14" s="648"/>
       <c r="Q14" s="61" t="s">
         <v>558</v>
       </c>
@@ -8510,9 +8510,9 @@
       <c r="AA14" s="324"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="610"/>
+      <c r="AD14" s="637"/>
       <c r="AE14" s="271"/>
-      <c r="AF14" s="602"/>
+      <c r="AF14" s="629"/>
       <c r="AG14" s="271"/>
       <c r="AH14" s="271"/>
       <c r="AI14" s="70"/>
@@ -8520,17 +8520,17 @@
       <c r="AK14" s="271"/>
       <c r="AL14" s="271"/>
       <c r="AM14" s="624"/>
-      <c r="AN14" s="612"/>
+      <c r="AN14" s="609"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="499" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="539" t="s">
+      <c r="C15" s="544" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="593"/>
-      <c r="O15" s="596"/>
+      <c r="F15" s="614"/>
+      <c r="O15" s="648"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8552,8 +8552,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="610"/>
-      <c r="AF15" s="602"/>
+      <c r="AD15" s="637"/>
+      <c r="AF15" s="629"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8567,7 +8567,7 @@
       <c r="AK15" s="271"/>
       <c r="AL15" s="271"/>
       <c r="AM15" s="624"/>
-      <c r="AN15" s="612"/>
+      <c r="AN15" s="609"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8582,20 +8582,20 @@
       <c r="B16" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="541"/>
+      <c r="C16" s="546"/>
       <c r="D16" s="61" t="s">
         <v>511</v>
       </c>
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="593"/>
+      <c r="F16" s="614"/>
       <c r="G16" s="373" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="596"/>
+      <c r="O16" s="648"/>
       <c r="R16" s="485" t="s">
         <v>185</v>
       </c>
@@ -8627,18 +8627,18 @@
       <c r="AM16" s="478" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="612"/>
+      <c r="AN16" s="609"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="593"/>
+      <c r="F17" s="614"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="596"/>
+      <c r="O17" s="648"/>
       <c r="Q17" s="21" t="s">
         <v>556</v>
       </c>
@@ -8683,7 +8683,7 @@
       <c r="AK17" s="271"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="478"/>
-      <c r="AN17" s="612"/>
+      <c r="AN17" s="609"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8707,21 +8707,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="593"/>
+      <c r="F18" s="614"/>
       <c r="G18" s="373" t="s">
         <v>553</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="596"/>
+      <c r="O18" s="648"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="588" t="s">
+      <c r="R18" s="642" t="s">
         <v>561</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="632" t="s">
+      <c r="U18" s="587" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8742,7 +8742,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="271"/>
-      <c r="AF18" s="601" t="s">
+      <c r="AF18" s="623" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="271"/>
@@ -8754,19 +8754,19 @@
       <c r="AK18" s="271"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="478"/>
-      <c r="AN18" s="612"/>
+      <c r="AN18" s="609"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="593"/>
-      <c r="O19" s="596"/>
-      <c r="R19" s="589"/>
+      <c r="F19" s="614"/>
+      <c r="O19" s="648"/>
+      <c r="R19" s="643"/>
       <c r="S19" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="U19" s="633"/>
+      <c r="U19" s="588"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="481" t="s">
@@ -8781,7 +8781,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="271"/>
-      <c r="AF19" s="601"/>
+      <c r="AF19" s="623"/>
       <c r="AG19" s="271"/>
       <c r="AH19" s="271"/>
       <c r="AI19" s="70"/>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="478"/>
-      <c r="AN19" s="612"/>
+      <c r="AN19" s="609"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8812,18 +8812,18 @@
       <c r="E20" s="487">
         <v>-1</v>
       </c>
-      <c r="F20" s="593"/>
+      <c r="F20" s="614"/>
       <c r="G20" s="373" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="596"/>
-      <c r="Q20" s="598" t="s">
+      <c r="O20" s="648"/>
+      <c r="Q20" s="650" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="454" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="634"/>
+      <c r="U20" s="589"/>
       <c r="W20" s="455"/>
       <c r="X20" s="482" t="s">
         <v>175</v>
@@ -8853,7 +8853,7 @@
       <c r="AM20" s="425" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="612"/>
+      <c r="AN20" s="609"/>
       <c r="AO20" s="374" t="s">
         <v>478</v>
       </c>
@@ -8877,12 +8877,12 @@
       <c r="E21" s="280">
         <v>1</v>
       </c>
-      <c r="F21" s="593"/>
-      <c r="O21" s="596"/>
-      <c r="Q21" s="599"/>
+      <c r="F21" s="614"/>
+      <c r="O21" s="648"/>
+      <c r="Q21" s="651"/>
       <c r="T21" s="472"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="629"/>
+      <c r="V21" s="584"/>
       <c r="W21" s="476" t="s">
         <v>176</v>
       </c>
@@ -8920,14 +8920,14 @@
       <c r="AM21" s="478" t="s">
         <v>571</v>
       </c>
-      <c r="AN21" s="612"/>
+      <c r="AN21" s="609"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="593"/>
+      <c r="F22" s="614"/>
       <c r="G22" s="373" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="596"/>
+      <c r="O22" s="648"/>
       <c r="R22" s="484" t="s">
         <v>44</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="630"/>
+      <c r="V22" s="585"/>
       <c r="W22" s="476" t="s">
         <v>176</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="601" t="s">
+      <c r="AJ22" s="623" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="271"/>
@@ -8961,7 +8961,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="317"/>
-      <c r="AN22" s="612"/>
+      <c r="AN22" s="609"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8979,16 +8979,16 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="593"/>
-      <c r="O23" s="596"/>
-      <c r="Q23" s="598" t="s">
+      <c r="F23" s="614"/>
+      <c r="O23" s="648"/>
+      <c r="Q23" s="650" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="470" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="630"/>
+      <c r="V23" s="585"/>
       <c r="W23" s="148"/>
       <c r="X23" s="479" t="s">
         <v>189</v>
@@ -9004,13 +9004,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="601"/>
+      <c r="AJ23" s="623"/>
       <c r="AK23" s="271"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="317"/>
-      <c r="AN23" s="612"/>
+      <c r="AN23" s="609"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="490" t="s">
@@ -9028,17 +9028,17 @@
       <c r="E24" s="486">
         <v>1</v>
       </c>
-      <c r="F24" s="593"/>
+      <c r="F24" s="614"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="596"/>
-      <c r="Q24" s="599"/>
+      <c r="O24" s="648"/>
+      <c r="Q24" s="651"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="630"/>
+      <c r="V24" s="585"/>
       <c r="W24" s="148"/>
       <c r="X24" s="479" t="s">
         <v>186</v>
@@ -9062,11 +9062,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="317"/>
-      <c r="AN24" s="612"/>
+      <c r="AN24" s="609"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="593"/>
-      <c r="O25" s="596"/>
+      <c r="F25" s="614"/>
+      <c r="O25" s="648"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -9079,7 +9079,7 @@
       <c r="U25" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="631"/>
+      <c r="V25" s="586"/>
       <c r="W25" s="148"/>
       <c r="X25" s="479" t="s">
         <v>190</v>
@@ -9101,7 +9101,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="317"/>
-      <c r="AN25" s="612"/>
+      <c r="AN25" s="609"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -9119,16 +9119,16 @@
       <c r="E26" s="422">
         <v>1</v>
       </c>
-      <c r="F26" s="593"/>
+      <c r="F26" s="614"/>
       <c r="G26" s="373" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="596"/>
-      <c r="P26" s="614" t="s">
+      <c r="O26" s="648"/>
+      <c r="P26" s="611" t="s">
         <v>548</v>
       </c>
-      <c r="Q26" s="615"/>
-      <c r="R26" s="590" t="s">
+      <c r="Q26" s="612"/>
+      <c r="R26" s="644" t="s">
         <v>560</v>
       </c>
       <c r="T26" s="183"/>
@@ -9167,7 +9167,7 @@
       <c r="AM26" s="492" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="612"/>
+      <c r="AN26" s="609"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -9179,12 +9179,12 @@
       <c r="E27" s="280" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="594"/>
+      <c r="F27" s="646"/>
       <c r="G27" s="61" t="s">
         <v>570</v>
       </c>
-      <c r="O27" s="597"/>
-      <c r="R27" s="591"/>
+      <c r="O27" s="649"/>
+      <c r="R27" s="645"/>
       <c r="S27" s="471" t="s">
         <v>54</v>
       </c>
@@ -9214,10 +9214,48 @@
       <c r="AM27" s="425" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="613"/>
+      <c r="AN27" s="610"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -9234,44 +9272,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9369,16 +9369,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="580" t="s">
+      <c r="T1" s="570" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="657" t="s">
+      <c r="U1" s="668" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="659" t="s">
+      <c r="V1" s="670" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="660"/>
+      <c r="W1" s="671"/>
       <c r="X1" s="323">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -9394,40 +9394,40 @@
       <c r="AB1" s="319" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="661" t="s">
+      <c r="AC1" s="672" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="662"/>
-      <c r="AE1" s="663"/>
-      <c r="AF1" s="664" t="s">
+      <c r="AD1" s="673"/>
+      <c r="AE1" s="674"/>
+      <c r="AF1" s="675" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="665"/>
-      <c r="AH1" s="666"/>
-      <c r="AI1" s="653" t="s">
+      <c r="AG1" s="676"/>
+      <c r="AH1" s="677"/>
+      <c r="AI1" s="664" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="654"/>
-      <c r="AK1" s="655"/>
+      <c r="AJ1" s="665"/>
+      <c r="AK1" s="666"/>
       <c r="AN1" s="142"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="667">
+      <c r="J2" s="656">
         <f>SUM(J5:J30)</f>
         <v>3</v>
       </c>
-      <c r="K2" s="669">
+      <c r="K2" s="658">
         <f>SUM(K4:K29)</f>
         <v>10</v>
       </c>
-      <c r="L2" s="671">
+      <c r="L2" s="660">
         <f>SUM(L4:L29)</f>
         <v>7</v>
       </c>
-      <c r="M2" s="608">
+      <c r="M2" s="635">
         <f>SUM(K30:K37)* (-1)</f>
         <v>1</v>
       </c>
@@ -9446,11 +9446,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="673" t="s">
+      <c r="S2" s="662" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="656"/>
-      <c r="U2" s="658"/>
+      <c r="T2" s="667"/>
+      <c r="U2" s="669"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9510,10 +9510,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="668"/>
-      <c r="K3" s="670"/>
-      <c r="L3" s="672"/>
-      <c r="M3" s="609"/>
+      <c r="J3" s="657"/>
+      <c r="K3" s="659"/>
+      <c r="L3" s="661"/>
+      <c r="M3" s="636"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9529,8 +9529,8 @@
         <f>SUM(R4:R29)</f>
         <v>37</v>
       </c>
-      <c r="S3" s="674"/>
-      <c r="T3" s="581"/>
+      <c r="S3" s="663"/>
+      <c r="T3" s="571"/>
       <c r="U3" s="330">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9631,7 +9631,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="675" t="s">
+      <c r="M4" s="653" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9714,7 +9714,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="676"/>
+      <c r="M5" s="654"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9802,7 +9802,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="676"/>
+      <c r="M6" s="654"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9892,7 +9892,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="676"/>
+      <c r="M7" s="654"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9996,7 +9996,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="676"/>
+      <c r="M8" s="654"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -10082,7 +10082,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="676"/>
+      <c r="M9" s="654"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -10180,7 +10180,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M10" s="676"/>
+      <c r="M10" s="654"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -10263,7 +10263,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="676"/>
+      <c r="M11" s="654"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -10325,7 +10325,7 @@
       <c r="AN11" s="142"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="644" t="s">
+      <c r="A12" s="599" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10334,7 +10334,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="598" t="s">
+      <c r="E12" s="650" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="276">
@@ -10354,7 +10354,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="676"/>
+      <c r="M12" s="654"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10428,14 +10428,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="646"/>
+      <c r="A13" s="601"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="599"/>
+      <c r="E13" s="651"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10456,7 +10456,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="676"/>
+      <c r="M13" s="654"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10531,7 +10531,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M14" s="676"/>
+      <c r="M14" s="654"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10628,7 +10628,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="676"/>
+      <c r="M15" s="654"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10713,7 +10713,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="676"/>
+      <c r="M16" s="654"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10809,7 +10809,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="676"/>
+      <c r="M17" s="654"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10892,7 +10892,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="676"/>
+      <c r="M18" s="654"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10977,7 +10977,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="676"/>
+      <c r="M19" s="654"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -11073,11 +11073,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M20" s="677"/>
-      <c r="N20" s="544" t="s">
+      <c r="M20" s="655"/>
+      <c r="N20" s="549" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="600"/>
+      <c r="O20" s="652"/>
       <c r="P20" s="333" t="s">
         <v>86</v>
       </c>
@@ -11324,7 +11324,7 @@
       <c r="AN22" s="142"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="651" t="s">
+      <c r="E23" s="606" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -11420,7 +11420,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="652"/>
+      <c r="E24" s="607"/>
       <c r="F24" s="177"/>
       <c r="I24" s="428" t="s">
         <v>301</v>
@@ -11435,10 +11435,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N24" s="544" t="s">
+      <c r="N24" s="549" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="600"/>
+      <c r="O24" s="652"/>
       <c r="P24" s="333" t="s">
         <v>254</v>
       </c>
@@ -12534,23 +12534,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="M4:M20"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12584,15 +12584,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="544" t="s">
+      <c r="B1" s="549" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="600"/>
+      <c r="C1" s="652"/>
       <c r="D1" s="214"/>
-      <c r="J1" s="544" t="s">
+      <c r="J1" s="549" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="600"/>
+      <c r="K1" s="652"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12980,10 +12980,10 @@
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="V1" s="544" t="s">
+      <c r="V1" s="549" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="600"/>
+      <c r="W1" s="652"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -13002,7 +13002,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="691" t="s">
+      <c r="AD1" s="698" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13019,10 +13019,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="690" t="s">
+      <c r="F2" s="729" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="718" t="s">
+      <c r="G2" s="686" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13050,10 +13050,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="659" t="s">
+      <c r="V2" s="670" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="660"/>
+      <c r="W2" s="671"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -13072,7 +13072,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="692"/>
+      <c r="AD2" s="699"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -13091,8 +13091,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="648"/>
-      <c r="G3" s="719"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="687"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -13103,13 +13103,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="728" t="s">
+      <c r="O3" s="696" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="710" t="s">
+      <c r="P3" s="717" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="711"/>
+      <c r="Q3" s="718"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -13119,15 +13119,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="692"/>
+      <c r="AD3" s="699"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="719"/>
+      <c r="G4" s="687"/>
       <c r="H4" s="6"/>
       <c r="L4" s="681" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="729"/>
+      <c r="O4" s="697"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -13137,12 +13137,12 @@
       <c r="X4" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="544" t="s">
+      <c r="Y4" s="549" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" s="546"/>
-      <c r="AA4" s="600"/>
-      <c r="AD4" s="692"/>
+      <c r="Z4" s="551"/>
+      <c r="AA4" s="652"/>
+      <c r="AD4" s="699"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -13157,21 +13157,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="719"/>
+      <c r="G5" s="687"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="697" t="s">
+      <c r="K5" s="704" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="712"/>
+      <c r="L5" s="719"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="729"/>
+      <c r="O5" s="697"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -13187,11 +13187,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="700" t="s">
+      <c r="Y5" s="707" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="701"/>
-      <c r="AD5" s="692"/>
+      <c r="Z5" s="708"/>
+      <c r="AD5" s="699"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -13201,16 +13201,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="719"/>
+      <c r="G6" s="687"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="698"/>
-      <c r="L6" s="712"/>
-      <c r="O6" s="729"/>
+      <c r="K6" s="705"/>
+      <c r="L6" s="719"/>
+      <c r="O6" s="697"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -13220,20 +13220,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="692"/>
+      <c r="AD6" s="699"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="719"/>
+      <c r="G7" s="687"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="698"/>
-      <c r="L7" s="712"/>
+      <c r="K7" s="705"/>
+      <c r="L7" s="719"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="729"/>
+      <c r="O7" s="697"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="692"/>
+      <c r="AD7" s="699"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -13246,7 +13246,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="719"/>
+      <c r="G8" s="687"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -13256,41 +13256,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="698"/>
-      <c r="L8" s="712"/>
-      <c r="O8" s="729"/>
+      <c r="K8" s="705"/>
+      <c r="L8" s="719"/>
+      <c r="O8" s="697"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="694" t="s">
+      <c r="S8" s="701" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="695"/>
-      <c r="U8" s="695"/>
-      <c r="V8" s="695"/>
-      <c r="W8" s="695"/>
-      <c r="X8" s="695"/>
-      <c r="Y8" s="695"/>
-      <c r="Z8" s="695"/>
-      <c r="AA8" s="695"/>
-      <c r="AB8" s="695"/>
-      <c r="AC8" s="696"/>
-      <c r="AD8" s="692"/>
+      <c r="T8" s="702"/>
+      <c r="U8" s="702"/>
+      <c r="V8" s="702"/>
+      <c r="W8" s="702"/>
+      <c r="X8" s="702"/>
+      <c r="Y8" s="702"/>
+      <c r="Z8" s="702"/>
+      <c r="AA8" s="702"/>
+      <c r="AB8" s="702"/>
+      <c r="AC8" s="703"/>
+      <c r="AD8" s="699"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="684"/>
-      <c r="G9" s="719"/>
+      <c r="C9" s="723"/>
+      <c r="G9" s="687"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="698"/>
-      <c r="L9" s="722" t="s">
+      <c r="K9" s="705"/>
+      <c r="L9" s="690" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="723"/>
-      <c r="N9" s="724"/>
-      <c r="O9" s="729"/>
+      <c r="M9" s="691"/>
+      <c r="N9" s="692"/>
+      <c r="O9" s="697"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="692"/>
+      <c r="AD9" s="699"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="685"/>
+      <c r="C10" s="724"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13298,7 +13298,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="719"/>
+      <c r="G10" s="687"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13306,33 +13306,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="698"/>
-      <c r="M10" s="687" t="s">
+      <c r="K10" s="705"/>
+      <c r="M10" s="726" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="688"/>
-      <c r="O10" s="688"/>
-      <c r="P10" s="688"/>
-      <c r="Q10" s="688"/>
-      <c r="R10" s="688"/>
-      <c r="S10" s="688"/>
-      <c r="T10" s="688"/>
-      <c r="U10" s="688"/>
-      <c r="V10" s="688"/>
-      <c r="W10" s="688"/>
-      <c r="X10" s="688"/>
-      <c r="Y10" s="688"/>
-      <c r="Z10" s="688"/>
-      <c r="AA10" s="688"/>
-      <c r="AB10" s="688"/>
-      <c r="AC10" s="689"/>
-      <c r="AD10" s="692"/>
+      <c r="N10" s="727"/>
+      <c r="O10" s="727"/>
+      <c r="P10" s="727"/>
+      <c r="Q10" s="727"/>
+      <c r="R10" s="727"/>
+      <c r="S10" s="727"/>
+      <c r="T10" s="727"/>
+      <c r="U10" s="727"/>
+      <c r="V10" s="727"/>
+      <c r="W10" s="727"/>
+      <c r="X10" s="727"/>
+      <c r="Y10" s="727"/>
+      <c r="Z10" s="727"/>
+      <c r="AA10" s="727"/>
+      <c r="AB10" s="727"/>
+      <c r="AC10" s="728"/>
+      <c r="AD10" s="699"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="686"/>
-      <c r="G11" s="719"/>
+      <c r="C11" s="725"/>
+      <c r="G11" s="687"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="698"/>
+      <c r="K11" s="705"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13343,17 +13343,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="708" t="s">
+      <c r="Z11" s="715" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="709"/>
+      <c r="AA11" s="716"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="692"/>
+      <c r="AD11" s="699"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13366,7 +13366,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="719"/>
+      <c r="G12" s="687"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13374,8 +13374,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="698"/>
-      <c r="L12" s="713" t="s">
+      <c r="K12" s="705"/>
+      <c r="L12" s="720" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13390,7 +13390,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="539" t="s">
+      <c r="S12" s="544" t="s">
         <v>107</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -13406,26 +13406,26 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="702" t="s">
+      <c r="AA12" s="709" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="703"/>
+      <c r="AB12" s="710"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="692"/>
+      <c r="AD12" s="699"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="684"/>
-      <c r="G13" s="719"/>
-      <c r="K13" s="698"/>
-      <c r="L13" s="714"/>
+      <c r="C13" s="723"/>
+      <c r="G13" s="687"/>
+      <c r="K13" s="705"/>
+      <c r="L13" s="721"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="721" t="s">
+      <c r="Q13" s="689" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="615"/>
-      <c r="S13" s="540"/>
+      <c r="R13" s="612"/>
+      <c r="S13" s="545"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>132</v>
@@ -13433,17 +13433,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="704"/>
-      <c r="AB13" s="705"/>
-      <c r="AD13" s="692"/>
+      <c r="AA13" s="711"/>
+      <c r="AB13" s="712"/>
+      <c r="AD13" s="699"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="686"/>
+      <c r="C14" s="725"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="719"/>
+      <c r="G14" s="687"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13451,8 +13451,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="698"/>
-      <c r="L14" s="714"/>
+      <c r="K14" s="705"/>
+      <c r="L14" s="721"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13462,7 +13462,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="540"/>
+      <c r="S14" s="545"/>
       <c r="T14" s="77" t="s">
         <v>130</v>
       </c>
@@ -13473,9 +13473,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="704"/>
-      <c r="AB14" s="705"/>
-      <c r="AD14" s="692"/>
+      <c r="AA14" s="711"/>
+      <c r="AB14" s="712"/>
+      <c r="AD14" s="699"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13490,20 +13490,20 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="719"/>
+      <c r="G15" s="687"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="698"/>
-      <c r="L15" s="715"/>
-      <c r="Q15" s="721" t="s">
+      <c r="K15" s="705"/>
+      <c r="L15" s="722"/>
+      <c r="Q15" s="689" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="615"/>
-      <c r="S15" s="540"/>
+      <c r="R15" s="612"/>
+      <c r="S15" s="545"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -13511,14 +13511,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="704"/>
-      <c r="AB15" s="705"/>
-      <c r="AD15" s="692"/>
+      <c r="AA15" s="711"/>
+      <c r="AB15" s="712"/>
+      <c r="AD15" s="699"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="719"/>
-      <c r="K16" s="698"/>
+      <c r="G16" s="687"/>
+      <c r="K16" s="705"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13526,7 +13526,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="540"/>
+      <c r="S16" s="545"/>
       <c r="T16" s="76" t="s">
         <v>129</v>
       </c>
@@ -13537,34 +13537,34 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="704"/>
-      <c r="AB16" s="705"/>
-      <c r="AD16" s="692"/>
+      <c r="AA16" s="711"/>
+      <c r="AB16" s="712"/>
+      <c r="AD16" s="699"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="716" t="s">
+      <c r="F17" s="684" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="719"/>
+      <c r="G17" s="687"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="698"/>
-      <c r="S17" s="540"/>
+      <c r="K17" s="705"/>
+      <c r="S17" s="545"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="704"/>
-      <c r="AB17" s="705"/>
-      <c r="AD17" s="692"/>
+      <c r="AA17" s="711"/>
+      <c r="AB17" s="712"/>
+      <c r="AD17" s="699"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13574,61 +13574,58 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="717"/>
-      <c r="G18" s="719"/>
+      <c r="F18" s="685"/>
+      <c r="G18" s="687"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="698"/>
+      <c r="K18" s="705"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="540"/>
+      <c r="S18" s="545"/>
       <c r="U18" s="76" t="s">
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="706"/>
-      <c r="AB18" s="707"/>
-      <c r="AD18" s="692"/>
+      <c r="AA18" s="713"/>
+      <c r="AB18" s="714"/>
+      <c r="AD18" s="699"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="720"/>
-      <c r="K19" s="699"/>
+      <c r="G19" s="688"/>
+      <c r="K19" s="706"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="725" t="s">
+      <c r="R19" s="693" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="726"/>
-      <c r="T19" s="727"/>
+      <c r="S19" s="694"/>
+      <c r="T19" s="695"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="693"/>
+      <c r="AD19" s="700"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13640,11 +13637,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.3.xlsx
+++ b/System_2.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F294BC12-6BA2-4102-8FA0-9E7FECACA6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AD941F-E110-4040-A323-34C1D1B01701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -4762,6 +4762,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4819,34 +4849,139 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4921,140 +5056,71 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -5065,130 +5131,43 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5266,25 +5245,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5578,7 +5578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
@@ -6581,7 +6581,7 @@
       <c r="P1" s="448" t="s">
         <v>408</v>
       </c>
-      <c r="Q1" s="574" t="s">
+      <c r="Q1" s="555" t="s">
         <v>181</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -6601,32 +6601,32 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="558">
+      <c r="A2" s="568">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="560" t="s">
+      <c r="B2" s="570" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="572" t="s">
+      <c r="C2" s="582" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="562" t="s">
+      <c r="D2" s="572" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="564" t="s">
+      <c r="E2" s="574" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="570" t="s">
+      <c r="G2" s="580" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="581" t="s">
+      <c r="I2" s="562" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="446" t="s">
@@ -6650,7 +6650,7 @@
       <c r="P2" s="449">
         <v>40</v>
       </c>
-      <c r="Q2" s="575"/>
+      <c r="Q2" s="556"/>
       <c r="R2" s="21">
         <f>R7+R18</f>
         <v>8</v>
@@ -6676,14 +6676,14 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="559"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="573"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="565"/>
-      <c r="G3" s="571"/>
+      <c r="A3" s="569"/>
+      <c r="B3" s="571"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="573"/>
+      <c r="E3" s="575"/>
+      <c r="G3" s="581"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="582"/>
+      <c r="I3" s="563"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -6703,10 +6703,10 @@
         <v>390</v>
       </c>
       <c r="B4" s="256"/>
-      <c r="C4" s="566" t="s">
+      <c r="C4" s="576" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="582"/>
+      <c r="I4" s="563"/>
       <c r="R4" s="524" t="s">
         <v>584</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="567"/>
+      <c r="C5" s="577"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="582"/>
+      <c r="I5" s="563"/>
       <c r="J5" s="447" t="s">
         <v>273</v>
       </c>
@@ -6782,22 +6782,22 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="555" t="s">
+      <c r="A6" s="565" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="568"/>
-      <c r="D6" s="569"/>
+      <c r="C6" s="578"/>
+      <c r="D6" s="579"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="545"/>
-      <c r="I6" s="582"/>
+      <c r="I6" s="563"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="556"/>
+      <c r="A7" s="566"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>136</v>
       </c>
       <c r="G7" s="545"/>
-      <c r="I7" s="582"/>
+      <c r="I7" s="563"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6846,7 +6846,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="557"/>
+      <c r="A8" s="567"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="545"/>
-      <c r="I8" s="582"/>
+      <c r="I8" s="563"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="G9" s="545"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="582"/>
+      <c r="I9" s="563"/>
       <c r="M9" s="19" t="s">
         <v>547</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="545"/>
-      <c r="I10" s="582"/>
+      <c r="I10" s="563"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>270</v>
       </c>
       <c r="G11" s="545"/>
-      <c r="I11" s="582"/>
+      <c r="I11" s="563"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6972,12 +6972,12 @@
       <c r="S11" s="24">
         <v>0</v>
       </c>
-      <c r="U11" s="576" t="s">
+      <c r="U11" s="557" t="s">
         <v>587</v>
       </c>
-      <c r="V11" s="577"/>
-      <c r="W11" s="577"/>
-      <c r="X11" s="578"/>
+      <c r="V11" s="558"/>
+      <c r="W11" s="558"/>
+      <c r="X11" s="559"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
@@ -6988,7 +6988,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="545"/>
-      <c r="I12" s="582"/>
+      <c r="I12" s="563"/>
       <c r="J12" s="24" t="s">
         <v>538</v>
       </c>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="545"/>
-      <c r="I13" s="582"/>
+      <c r="I13" s="563"/>
       <c r="J13" s="108" t="s">
         <v>576</v>
       </c>
@@ -7062,7 +7062,7 @@
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="582"/>
+      <c r="I14" s="563"/>
       <c r="U14" s="6"/>
       <c r="V14" s="112"/>
       <c r="W14" s="6"/>
@@ -7080,7 +7080,7 @@
       <c r="H15" s="288">
         <v>0</v>
       </c>
-      <c r="I15" s="582"/>
+      <c r="I15" s="563"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -7111,7 +7111,7 @@
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="582"/>
+      <c r="I16" s="563"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -7145,7 +7145,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="582"/>
+      <c r="I17" s="563"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -7157,13 +7157,13 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="582"/>
+      <c r="I18" s="563"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="579" t="s">
+      <c r="O18" s="560" t="s">
         <v>539</v>
       </c>
-      <c r="P18" s="580"/>
+      <c r="P18" s="561"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -7189,7 +7189,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="582"/>
+      <c r="I19" s="563"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -7221,7 +7221,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="582"/>
+      <c r="I20" s="563"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -7246,7 +7246,7 @@
       <c r="Z20" s="112"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="582"/>
+      <c r="I21" s="563"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="582"/>
+      <c r="I22" s="563"/>
       <c r="U22" s="6" t="s">
         <v>588</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="E23" s="300" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="582"/>
+      <c r="I23" s="563"/>
       <c r="U23" s="6" t="s">
         <v>74</v>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="582"/>
+      <c r="I24" s="563"/>
       <c r="U24" s="378"/>
       <c r="V24" s="523">
         <v>-1</v>
@@ -7344,7 +7344,7 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="582"/>
+      <c r="I25" s="563"/>
       <c r="J25" s="447" t="s">
         <v>274</v>
       </c>
@@ -7389,7 +7389,7 @@
       <c r="H26" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I26" s="582"/>
+      <c r="I26" s="563"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -7424,7 +7424,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="582"/>
+      <c r="I27" s="563"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="582"/>
+      <c r="I28" s="563"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -7473,7 +7473,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="583"/>
+      <c r="I29" s="564"/>
       <c r="J29" s="357"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7517,11 +7517,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -7533,6 +7528,11 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7542,8 +7542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFE6D2-5300-4D31-9A66-EC93F2A54B69}">
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7608,7 +7608,7 @@
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="570" t="s">
+      <c r="I1" s="580" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7669,7 +7669,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="452"/>
-      <c r="AN1" s="608"/>
+      <c r="AN1" s="611"/>
       <c r="AO1" s="374" t="s">
         <v>487</v>
       </c>
@@ -7678,23 +7678,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="590">
+      <c r="A2" s="635">
         <f ca="1">TODAY()</f>
         <v>45277</v>
       </c>
-      <c r="B2" s="592" t="s">
+      <c r="B2" s="637" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="572" t="s">
+      <c r="C2" s="582" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="594" t="s">
+      <c r="D2" s="639" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="638" t="s">
+      <c r="E2" s="584" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="613" t="s">
+      <c r="F2" s="592" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="443" t="s">
@@ -7703,31 +7703,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="571"/>
+      <c r="I2" s="581"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="640" t="s">
+      <c r="K2" s="586" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="641"/>
-      <c r="M2" s="613" t="s">
+      <c r="L2" s="587"/>
+      <c r="M2" s="592" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="617" t="s">
+      <c r="O2" s="618" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="572" t="s">
+      <c r="Q2" s="582" t="s">
         <v>144</v>
       </c>
       <c r="R2" s="544"/>
-      <c r="S2" s="630" t="s">
+      <c r="S2" s="605" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7760,15 +7760,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="478"/>
-      <c r="AN2" s="609"/>
+      <c r="AN2" s="612"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="591"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="573"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="639"/>
-      <c r="F3" s="614"/>
+      <c r="A3" s="636"/>
+      <c r="B3" s="638"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="640"/>
+      <c r="E3" s="585"/>
+      <c r="F3" s="593"/>
       <c r="G3" s="444" t="s">
         <v>28</v>
       </c>
@@ -7787,17 +7787,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="614"/>
+      <c r="M3" s="593"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="618"/>
+      <c r="O3" s="619"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="573"/>
+      <c r="Q3" s="583"/>
       <c r="R3" s="546"/>
-      <c r="S3" s="631"/>
+      <c r="S3" s="607"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7814,7 +7814,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="629" t="s">
+      <c r="AD3" s="602" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="271"/>
@@ -7826,16 +7826,16 @@
       <c r="AK3" s="271"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="478"/>
-      <c r="AN3" s="609"/>
+      <c r="AN3" s="612"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="606" t="s">
+      <c r="B4" s="651" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="572" t="s">
+      <c r="C4" s="582" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="383" t="s">
@@ -7844,7 +7844,7 @@
       <c r="E4" s="420">
         <v>1</v>
       </c>
-      <c r="F4" s="614"/>
+      <c r="F4" s="593"/>
       <c r="G4" s="425" t="s">
         <v>203</v>
       </c>
@@ -7861,11 +7861,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="614"/>
+      <c r="M4" s="593"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="618"/>
+      <c r="O4" s="619"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7892,7 +7892,7 @@
       <c r="AA4" s="324"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="629"/>
+      <c r="AD4" s="602"/>
       <c r="AE4" s="271"/>
       <c r="AF4" s="271"/>
       <c r="AG4" s="16"/>
@@ -7902,37 +7902,37 @@
       <c r="AK4" s="271"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="478"/>
-      <c r="AN4" s="609"/>
+      <c r="AN4" s="612"/>
       <c r="AO4" s="374" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="570" t="s">
+      <c r="A5" s="580" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="607"/>
-      <c r="C5" s="573"/>
+      <c r="B5" s="652"/>
+      <c r="C5" s="583"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="421">
         <v>1</v>
       </c>
-      <c r="F5" s="614"/>
-      <c r="G5" s="598" t="s">
+      <c r="F5" s="593"/>
+      <c r="G5" s="643" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="598"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="598"/>
-      <c r="K5" s="598"/>
-      <c r="L5" s="599"/>
-      <c r="M5" s="614"/>
+      <c r="H5" s="643"/>
+      <c r="I5" s="643"/>
+      <c r="J5" s="643"/>
+      <c r="K5" s="643"/>
+      <c r="L5" s="644"/>
+      <c r="M5" s="593"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="618"/>
+      <c r="O5" s="619"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7963,24 +7963,24 @@
       <c r="AK5" s="271"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="478"/>
-      <c r="AN5" s="609"/>
+      <c r="AN5" s="612"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="571"/>
-      <c r="B6" s="604" t="s">
+      <c r="A6" s="581"/>
+      <c r="B6" s="649" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="568"/>
-      <c r="D6" s="569"/>
-      <c r="F6" s="614"/>
-      <c r="G6" s="600"/>
-      <c r="H6" s="600"/>
-      <c r="I6" s="600"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="601"/>
-      <c r="M6" s="614"/>
-      <c r="O6" s="618"/>
+      <c r="C6" s="578"/>
+      <c r="D6" s="579"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="645"/>
+      <c r="H6" s="645"/>
+      <c r="I6" s="645"/>
+      <c r="J6" s="645"/>
+      <c r="K6" s="645"/>
+      <c r="L6" s="646"/>
+      <c r="M6" s="593"/>
+      <c r="O6" s="619"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -8004,16 +8004,16 @@
       <c r="AF6" s="271"/>
       <c r="AG6" s="271"/>
       <c r="AH6" s="271"/>
-      <c r="AI6" s="623"/>
+      <c r="AI6" s="601"/>
       <c r="AJ6" s="491" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="623" t="s">
+      <c r="AK6" s="601" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="271"/>
       <c r="AM6" s="478"/>
-      <c r="AN6" s="609"/>
+      <c r="AN6" s="612"/>
       <c r="AO6" s="374" t="s">
         <v>488</v>
       </c>
@@ -8022,7 +8022,7 @@
       <c r="A7" s="245" t="s">
         <v>551</v>
       </c>
-      <c r="B7" s="605"/>
+      <c r="B7" s="650"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -8032,7 +8032,7 @@
       <c r="E7" s="280">
         <v>3</v>
       </c>
-      <c r="F7" s="614"/>
+      <c r="F7" s="593"/>
       <c r="G7" s="445">
         <v>0</v>
       </c>
@@ -8051,8 +8051,8 @@
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="614"/>
-      <c r="O7" s="618"/>
+      <c r="M7" s="593"/>
+      <c r="O7" s="619"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -8076,18 +8076,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="271"/>
       <c r="AF7" s="271"/>
-      <c r="AG7" s="629" t="s">
+      <c r="AG7" s="602" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="271"/>
-      <c r="AI7" s="623"/>
+      <c r="AI7" s="601"/>
       <c r="AJ7" s="271"/>
-      <c r="AK7" s="623"/>
+      <c r="AK7" s="601"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="478"/>
-      <c r="AN7" s="609"/>
+      <c r="AN7" s="612"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -8104,27 +8104,27 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="614"/>
-      <c r="G8" s="599">
-        <v>0</v>
-      </c>
-      <c r="H8" s="596" t="s">
+      <c r="F8" s="593"/>
+      <c r="G8" s="644">
+        <v>0</v>
+      </c>
+      <c r="H8" s="641" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="544">
         <v>0</v>
       </c>
-      <c r="J8" s="596" t="s">
+      <c r="J8" s="641" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="602"/>
-      <c r="L8" s="632"/>
-      <c r="M8" s="615"/>
-      <c r="N8" s="635">
+      <c r="K8" s="647"/>
+      <c r="L8" s="603"/>
+      <c r="M8" s="616"/>
+      <c r="N8" s="608">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="618"/>
+      <c r="O8" s="619"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -8142,14 +8142,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="271"/>
       <c r="AF8" s="271"/>
-      <c r="AG8" s="629"/>
+      <c r="AG8" s="602"/>
       <c r="AH8" s="271"/>
-      <c r="AI8" s="623"/>
+      <c r="AI8" s="601"/>
       <c r="AJ8" s="271"/>
       <c r="AK8" s="271"/>
       <c r="AL8" s="271"/>
       <c r="AM8" s="478"/>
-      <c r="AN8" s="609"/>
+      <c r="AN8" s="612"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -8164,17 +8164,17 @@
       <c r="D9" s="384" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="614"/>
-      <c r="G9" s="601"/>
-      <c r="H9" s="597"/>
+      <c r="F9" s="593"/>
+      <c r="G9" s="646"/>
+      <c r="H9" s="642"/>
       <c r="I9" s="546"/>
-      <c r="J9" s="597"/>
-      <c r="K9" s="603"/>
-      <c r="L9" s="633"/>
-      <c r="M9" s="616"/>
-      <c r="N9" s="636"/>
-      <c r="O9" s="619"/>
-      <c r="S9" s="630" t="s">
+      <c r="J9" s="642"/>
+      <c r="K9" s="648"/>
+      <c r="L9" s="604"/>
+      <c r="M9" s="617"/>
+      <c r="N9" s="609"/>
+      <c r="O9" s="620"/>
+      <c r="S9" s="605" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -8196,16 +8196,16 @@
       </c>
       <c r="AE9" s="271"/>
       <c r="AF9" s="271"/>
-      <c r="AG9" s="629"/>
+      <c r="AG9" s="602"/>
       <c r="AH9" s="271"/>
-      <c r="AI9" s="623"/>
+      <c r="AI9" s="601"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="623" t="s">
+      <c r="AK9" s="601" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="271"/>
       <c r="AM9" s="478"/>
-      <c r="AN9" s="609"/>
+      <c r="AN9" s="612"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -8222,20 +8222,20 @@
         <f>Boat!S8</f>
         <v>37</v>
       </c>
-      <c r="F10" s="614"/>
+      <c r="F10" s="593"/>
       <c r="N10" s="468" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="647" t="s">
+      <c r="O10" s="595" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="620" t="s">
+      <c r="P10" s="621" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="634"/>
+      <c r="S10" s="606"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -8265,16 +8265,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="629"/>
+      <c r="AG10" s="602"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="623"/>
+      <c r="AI10" s="601"/>
       <c r="AJ10" s="271"/>
-      <c r="AK10" s="623"/>
+      <c r="AK10" s="601"/>
       <c r="AL10" s="271"/>
       <c r="AM10" s="492" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="609"/>
+      <c r="AN10" s="612"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -8292,18 +8292,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="614"/>
+      <c r="F11" s="593"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="648"/>
-      <c r="P11" s="621"/>
+      <c r="O11" s="596"/>
+      <c r="P11" s="622"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="634"/>
+      <c r="S11" s="606"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -8327,14 +8327,14 @@
       <c r="AF11" s="271" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="629"/>
+      <c r="AG11" s="602"/>
       <c r="AH11" s="271"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="271"/>
       <c r="AK11" s="271"/>
       <c r="AL11" s="271"/>
       <c r="AM11" s="478"/>
-      <c r="AN11" s="609"/>
+      <c r="AN11" s="612"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -8353,7 +8353,7 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="614"/>
+      <c r="F12" s="593"/>
       <c r="G12" s="373" t="s">
         <v>411</v>
       </c>
@@ -8362,16 +8362,16 @@
       </c>
       <c r="I12" s="551"/>
       <c r="J12" s="551"/>
-      <c r="K12" s="652"/>
+      <c r="K12" s="600"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="648"/>
-      <c r="P12" s="621"/>
+      <c r="O12" s="596"/>
+      <c r="P12" s="622"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="631"/>
+      <c r="S12" s="607"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -8392,16 +8392,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="637" t="s">
+      <c r="AD12" s="610" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="491" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="629" t="s">
+      <c r="AF12" s="602" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="629"/>
+      <c r="AG12" s="602"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="AM12" s="624" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="609"/>
+      <c r="AN12" s="612"/>
       <c r="AO12" s="374" t="s">
         <v>97</v>
       </c>
@@ -8426,17 +8426,17 @@
       <c r="E13" s="498">
         <v>-3</v>
       </c>
-      <c r="F13" s="614"/>
+      <c r="F13" s="593"/>
       <c r="G13" s="551" t="s">
         <v>448</v>
       </c>
       <c r="H13" s="551"/>
       <c r="I13" s="551"/>
-      <c r="J13" s="652"/>
+      <c r="J13" s="600"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="648"/>
-      <c r="P13" s="622"/>
+      <c r="O13" s="596"/>
+      <c r="P13" s="623"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8457,8 +8457,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="637"/>
-      <c r="AF13" s="629"/>
+      <c r="AD13" s="610"/>
+      <c r="AF13" s="602"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8470,7 +8470,7 @@
       <c r="AK13" s="271"/>
       <c r="AL13" s="271"/>
       <c r="AM13" s="624"/>
-      <c r="AN13" s="609"/>
+      <c r="AN13" s="612"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="500"/>
@@ -8478,18 +8478,18 @@
       <c r="C14" s="509"/>
       <c r="D14" s="502"/>
       <c r="E14" s="503"/>
-      <c r="F14" s="614"/>
+      <c r="F14" s="593"/>
       <c r="G14" s="551" t="s">
         <v>447</v>
       </c>
       <c r="H14" s="551"/>
       <c r="I14" s="551"/>
-      <c r="J14" s="652"/>
+      <c r="J14" s="600"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="648"/>
+      <c r="O14" s="596"/>
       <c r="Q14" s="61" t="s">
         <v>558</v>
       </c>
@@ -8510,9 +8510,9 @@
       <c r="AA14" s="324"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="637"/>
+      <c r="AD14" s="610"/>
       <c r="AE14" s="271"/>
-      <c r="AF14" s="629"/>
+      <c r="AF14" s="602"/>
       <c r="AG14" s="271"/>
       <c r="AH14" s="271"/>
       <c r="AI14" s="70"/>
@@ -8520,7 +8520,7 @@
       <c r="AK14" s="271"/>
       <c r="AL14" s="271"/>
       <c r="AM14" s="624"/>
-      <c r="AN14" s="609"/>
+      <c r="AN14" s="612"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="499" t="s">
@@ -8529,8 +8529,8 @@
       <c r="C15" s="544" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="614"/>
-      <c r="O15" s="648"/>
+      <c r="F15" s="593"/>
+      <c r="O15" s="596"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8552,8 +8552,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="637"/>
-      <c r="AF15" s="629"/>
+      <c r="AD15" s="610"/>
+      <c r="AF15" s="602"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8567,7 +8567,7 @@
       <c r="AK15" s="271"/>
       <c r="AL15" s="271"/>
       <c r="AM15" s="624"/>
-      <c r="AN15" s="609"/>
+      <c r="AN15" s="612"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8589,13 +8589,13 @@
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="614"/>
+      <c r="F16" s="593"/>
       <c r="G16" s="373" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="648"/>
+      <c r="O16" s="596"/>
       <c r="R16" s="485" t="s">
         <v>185</v>
       </c>
@@ -8627,18 +8627,18 @@
       <c r="AM16" s="478" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="609"/>
+      <c r="AN16" s="612"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="614"/>
+      <c r="F17" s="593"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="648"/>
+      <c r="O17" s="596"/>
       <c r="Q17" s="21" t="s">
         <v>556</v>
       </c>
@@ -8683,7 +8683,7 @@
       <c r="AK17" s="271"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="478"/>
-      <c r="AN17" s="609"/>
+      <c r="AN17" s="612"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8707,21 +8707,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="614"/>
+      <c r="F18" s="593"/>
       <c r="G18" s="373" t="s">
         <v>553</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="648"/>
+      <c r="O18" s="596"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="642" t="s">
+      <c r="R18" s="588" t="s">
         <v>561</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="587" t="s">
+      <c r="U18" s="632" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8742,7 +8742,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="271"/>
-      <c r="AF18" s="623" t="s">
+      <c r="AF18" s="601" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="271"/>
@@ -8754,19 +8754,19 @@
       <c r="AK18" s="271"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="478"/>
-      <c r="AN18" s="609"/>
+      <c r="AN18" s="612"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="614"/>
-      <c r="O19" s="648"/>
-      <c r="R19" s="643"/>
+      <c r="F19" s="593"/>
+      <c r="O19" s="596"/>
+      <c r="R19" s="589"/>
       <c r="S19" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="U19" s="588"/>
+      <c r="U19" s="633"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="481" t="s">
@@ -8781,7 +8781,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="271"/>
-      <c r="AF19" s="623"/>
+      <c r="AF19" s="601"/>
       <c r="AG19" s="271"/>
       <c r="AH19" s="271"/>
       <c r="AI19" s="70"/>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="478"/>
-      <c r="AN19" s="609"/>
+      <c r="AN19" s="612"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8812,18 +8812,18 @@
       <c r="E20" s="487">
         <v>-1</v>
       </c>
-      <c r="F20" s="614"/>
+      <c r="F20" s="593"/>
       <c r="G20" s="373" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="648"/>
-      <c r="Q20" s="650" t="s">
+      <c r="O20" s="596"/>
+      <c r="Q20" s="598" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="454" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="589"/>
+      <c r="U20" s="634"/>
       <c r="W20" s="455"/>
       <c r="X20" s="482" t="s">
         <v>175</v>
@@ -8853,7 +8853,7 @@
       <c r="AM20" s="425" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="609"/>
+      <c r="AN20" s="612"/>
       <c r="AO20" s="374" t="s">
         <v>478</v>
       </c>
@@ -8877,12 +8877,12 @@
       <c r="E21" s="280">
         <v>1</v>
       </c>
-      <c r="F21" s="614"/>
-      <c r="O21" s="648"/>
-      <c r="Q21" s="651"/>
+      <c r="F21" s="593"/>
+      <c r="O21" s="596"/>
+      <c r="Q21" s="599"/>
       <c r="T21" s="472"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="584"/>
+      <c r="V21" s="629"/>
       <c r="W21" s="476" t="s">
         <v>176</v>
       </c>
@@ -8920,14 +8920,14 @@
       <c r="AM21" s="478" t="s">
         <v>571</v>
       </c>
-      <c r="AN21" s="609"/>
+      <c r="AN21" s="612"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="614"/>
+      <c r="F22" s="593"/>
       <c r="G22" s="373" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="648"/>
+      <c r="O22" s="596"/>
       <c r="R22" s="484" t="s">
         <v>44</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="585"/>
+      <c r="V22" s="630"/>
       <c r="W22" s="476" t="s">
         <v>176</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="623" t="s">
+      <c r="AJ22" s="601" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="271"/>
@@ -8961,7 +8961,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="317"/>
-      <c r="AN22" s="609"/>
+      <c r="AN22" s="612"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8979,16 +8979,16 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="614"/>
-      <c r="O23" s="648"/>
-      <c r="Q23" s="650" t="s">
+      <c r="F23" s="593"/>
+      <c r="O23" s="596"/>
+      <c r="Q23" s="598" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="470" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="585"/>
+      <c r="V23" s="630"/>
       <c r="W23" s="148"/>
       <c r="X23" s="479" t="s">
         <v>189</v>
@@ -9004,13 +9004,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="623"/>
+      <c r="AJ23" s="601"/>
       <c r="AK23" s="271"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="317"/>
-      <c r="AN23" s="609"/>
+      <c r="AN23" s="612"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="490" t="s">
@@ -9028,17 +9028,17 @@
       <c r="E24" s="486">
         <v>1</v>
       </c>
-      <c r="F24" s="614"/>
+      <c r="F24" s="593"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="648"/>
-      <c r="Q24" s="651"/>
+      <c r="O24" s="596"/>
+      <c r="Q24" s="599"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="585"/>
+      <c r="V24" s="630"/>
       <c r="W24" s="148"/>
       <c r="X24" s="479" t="s">
         <v>186</v>
@@ -9062,11 +9062,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="317"/>
-      <c r="AN24" s="609"/>
+      <c r="AN24" s="612"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="614"/>
-      <c r="O25" s="648"/>
+      <c r="F25" s="593"/>
+      <c r="O25" s="596"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -9079,7 +9079,7 @@
       <c r="U25" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="586"/>
+      <c r="V25" s="631"/>
       <c r="W25" s="148"/>
       <c r="X25" s="479" t="s">
         <v>190</v>
@@ -9101,7 +9101,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="317"/>
-      <c r="AN25" s="609"/>
+      <c r="AN25" s="612"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -9119,16 +9119,16 @@
       <c r="E26" s="422">
         <v>1</v>
       </c>
-      <c r="F26" s="614"/>
+      <c r="F26" s="593"/>
       <c r="G26" s="373" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="648"/>
-      <c r="P26" s="611" t="s">
+      <c r="O26" s="596"/>
+      <c r="P26" s="614" t="s">
         <v>548</v>
       </c>
-      <c r="Q26" s="612"/>
-      <c r="R26" s="644" t="s">
+      <c r="Q26" s="615"/>
+      <c r="R26" s="590" t="s">
         <v>560</v>
       </c>
       <c r="T26" s="183"/>
@@ -9167,7 +9167,7 @@
       <c r="AM26" s="492" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="609"/>
+      <c r="AN26" s="612"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -9179,12 +9179,12 @@
       <c r="E27" s="280" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="646"/>
+      <c r="F27" s="594"/>
       <c r="G27" s="61" t="s">
         <v>570</v>
       </c>
-      <c r="O27" s="649"/>
-      <c r="R27" s="645"/>
+      <c r="O27" s="597"/>
+      <c r="R27" s="591"/>
       <c r="S27" s="471" t="s">
         <v>54</v>
       </c>
@@ -9214,32 +9214,26 @@
       <c r="AM27" s="425" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="610"/>
+      <c r="AN27" s="613"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -9256,22 +9250,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9281,8 +9281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView topLeftCell="P6" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView tabSelected="1" topLeftCell="P10" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9369,16 +9369,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="570" t="s">
+      <c r="T1" s="580" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="668" t="s">
+      <c r="U1" s="657" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="670" t="s">
+      <c r="V1" s="659" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="671"/>
+      <c r="W1" s="660"/>
       <c r="X1" s="323">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -9394,40 +9394,40 @@
       <c r="AB1" s="319" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="672" t="s">
+      <c r="AC1" s="661" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="673"/>
-      <c r="AE1" s="674"/>
-      <c r="AF1" s="675" t="s">
+      <c r="AD1" s="662"/>
+      <c r="AE1" s="663"/>
+      <c r="AF1" s="664" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="676"/>
-      <c r="AH1" s="677"/>
-      <c r="AI1" s="664" t="s">
+      <c r="AG1" s="665"/>
+      <c r="AH1" s="666"/>
+      <c r="AI1" s="653" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="665"/>
-      <c r="AK1" s="666"/>
+      <c r="AJ1" s="654"/>
+      <c r="AK1" s="655"/>
       <c r="AN1" s="142"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="656">
+      <c r="J2" s="667">
         <f>SUM(J5:J30)</f>
         <v>3</v>
       </c>
-      <c r="K2" s="658">
+      <c r="K2" s="669">
         <f>SUM(K4:K29)</f>
         <v>10</v>
       </c>
-      <c r="L2" s="660">
+      <c r="L2" s="671">
         <f>SUM(L4:L29)</f>
         <v>7</v>
       </c>
-      <c r="M2" s="635">
+      <c r="M2" s="608">
         <f>SUM(K30:K37)* (-1)</f>
         <v>1</v>
       </c>
@@ -9446,11 +9446,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="662" t="s">
+      <c r="S2" s="673" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="667"/>
-      <c r="U2" s="669"/>
+      <c r="T2" s="656"/>
+      <c r="U2" s="658"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9510,10 +9510,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="657"/>
-      <c r="K3" s="659"/>
-      <c r="L3" s="661"/>
-      <c r="M3" s="636"/>
+      <c r="J3" s="668"/>
+      <c r="K3" s="670"/>
+      <c r="L3" s="672"/>
+      <c r="M3" s="609"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9529,8 +9529,8 @@
         <f>SUM(R4:R29)</f>
         <v>37</v>
       </c>
-      <c r="S3" s="663"/>
-      <c r="T3" s="571"/>
+      <c r="S3" s="674"/>
+      <c r="T3" s="581"/>
       <c r="U3" s="330">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9631,7 +9631,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="653" t="s">
+      <c r="M4" s="675" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9714,7 +9714,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="654"/>
+      <c r="M5" s="676"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9802,7 +9802,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="654"/>
+      <c r="M6" s="676"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9892,7 +9892,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="654"/>
+      <c r="M7" s="676"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9996,7 +9996,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="654"/>
+      <c r="M8" s="676"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -10082,7 +10082,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="654"/>
+      <c r="M9" s="676"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -10180,7 +10180,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M10" s="654"/>
+      <c r="M10" s="676"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -10263,7 +10263,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="654"/>
+      <c r="M11" s="676"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -10325,7 +10325,7 @@
       <c r="AN11" s="142"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="599" t="s">
+      <c r="A12" s="644" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -10334,7 +10334,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="650" t="s">
+      <c r="E12" s="598" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="276">
@@ -10354,7 +10354,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="654"/>
+      <c r="M12" s="676"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10428,14 +10428,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="601"/>
+      <c r="A13" s="646"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="651"/>
+      <c r="E13" s="599"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10456,7 +10456,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="654"/>
+      <c r="M13" s="676"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10531,7 +10531,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M14" s="654"/>
+      <c r="M14" s="676"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10628,7 +10628,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="654"/>
+      <c r="M15" s="676"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10713,7 +10713,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="654"/>
+      <c r="M16" s="676"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10809,7 +10809,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="654"/>
+      <c r="M17" s="676"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10892,7 +10892,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="654"/>
+      <c r="M18" s="676"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10977,7 +10977,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="654"/>
+      <c r="M19" s="676"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -11073,11 +11073,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M20" s="655"/>
+      <c r="M20" s="677"/>
       <c r="N20" s="549" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="652"/>
+      <c r="O20" s="600"/>
       <c r="P20" s="333" t="s">
         <v>86</v>
       </c>
@@ -11324,7 +11324,7 @@
       <c r="AN22" s="142"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="606" t="s">
+      <c r="E23" s="651" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -11420,7 +11420,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="607"/>
+      <c r="E24" s="652"/>
       <c r="F24" s="177"/>
       <c r="I24" s="428" t="s">
         <v>301</v>
@@ -11438,7 +11438,7 @@
       <c r="N24" s="549" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="652"/>
+      <c r="O24" s="600"/>
       <c r="P24" s="333" t="s">
         <v>254</v>
       </c>
@@ -12534,23 +12534,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="M4:M20"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="M4:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12587,12 +12587,12 @@
       <c r="B1" s="549" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="652"/>
+      <c r="C1" s="600"/>
       <c r="D1" s="214"/>
       <c r="J1" s="549" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="652"/>
+      <c r="K1" s="600"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12983,7 +12983,7 @@
       <c r="V1" s="549" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="652"/>
+      <c r="W1" s="600"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -13002,7 +13002,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="698" t="s">
+      <c r="AD1" s="691" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13019,10 +13019,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="729" t="s">
+      <c r="F2" s="690" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="686" t="s">
+      <c r="G2" s="718" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13050,10 +13050,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="670" t="s">
+      <c r="V2" s="659" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="671"/>
+      <c r="W2" s="660"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -13072,7 +13072,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="699"/>
+      <c r="AD2" s="692"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -13091,8 +13091,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="687"/>
+      <c r="F3" s="648"/>
+      <c r="G3" s="719"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -13103,13 +13103,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="696" t="s">
+      <c r="O3" s="728" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="717" t="s">
+      <c r="P3" s="710" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="718"/>
+      <c r="Q3" s="711"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -13119,15 +13119,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="699"/>
+      <c r="AD3" s="692"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="687"/>
+      <c r="G4" s="719"/>
       <c r="H4" s="6"/>
       <c r="L4" s="681" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="697"/>
+      <c r="O4" s="729"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -13141,8 +13141,8 @@
         <v>195</v>
       </c>
       <c r="Z4" s="551"/>
-      <c r="AA4" s="652"/>
-      <c r="AD4" s="699"/>
+      <c r="AA4" s="600"/>
+      <c r="AD4" s="692"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -13157,21 +13157,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="687"/>
+      <c r="G5" s="719"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="704" t="s">
+      <c r="K5" s="697" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="719"/>
+      <c r="L5" s="712"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="697"/>
+      <c r="O5" s="729"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -13187,11 +13187,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="707" t="s">
+      <c r="Y5" s="700" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="708"/>
-      <c r="AD5" s="699"/>
+      <c r="Z5" s="701"/>
+      <c r="AD5" s="692"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -13201,16 +13201,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="687"/>
+      <c r="G6" s="719"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="705"/>
-      <c r="L6" s="719"/>
-      <c r="O6" s="697"/>
+      <c r="K6" s="698"/>
+      <c r="L6" s="712"/>
+      <c r="O6" s="729"/>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -13220,20 +13220,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="699"/>
+      <c r="AD6" s="692"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="687"/>
+      <c r="G7" s="719"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="705"/>
-      <c r="L7" s="719"/>
+      <c r="K7" s="698"/>
+      <c r="L7" s="712"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="697"/>
+      <c r="O7" s="729"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="699"/>
+      <c r="AD7" s="692"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -13246,7 +13246,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="687"/>
+      <c r="G8" s="719"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -13256,41 +13256,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="705"/>
-      <c r="L8" s="719"/>
-      <c r="O8" s="697"/>
+      <c r="K8" s="698"/>
+      <c r="L8" s="712"/>
+      <c r="O8" s="729"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="701" t="s">
+      <c r="S8" s="694" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="702"/>
-      <c r="U8" s="702"/>
-      <c r="V8" s="702"/>
-      <c r="W8" s="702"/>
-      <c r="X8" s="702"/>
-      <c r="Y8" s="702"/>
-      <c r="Z8" s="702"/>
-      <c r="AA8" s="702"/>
-      <c r="AB8" s="702"/>
-      <c r="AC8" s="703"/>
-      <c r="AD8" s="699"/>
+      <c r="T8" s="695"/>
+      <c r="U8" s="695"/>
+      <c r="V8" s="695"/>
+      <c r="W8" s="695"/>
+      <c r="X8" s="695"/>
+      <c r="Y8" s="695"/>
+      <c r="Z8" s="695"/>
+      <c r="AA8" s="695"/>
+      <c r="AB8" s="695"/>
+      <c r="AC8" s="696"/>
+      <c r="AD8" s="692"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="723"/>
-      <c r="G9" s="687"/>
+      <c r="C9" s="684"/>
+      <c r="G9" s="719"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="705"/>
-      <c r="L9" s="690" t="s">
+      <c r="K9" s="698"/>
+      <c r="L9" s="722" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="691"/>
-      <c r="N9" s="692"/>
-      <c r="O9" s="697"/>
+      <c r="M9" s="723"/>
+      <c r="N9" s="724"/>
+      <c r="O9" s="729"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="699"/>
+      <c r="AD9" s="692"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="724"/>
+      <c r="C10" s="685"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -13298,7 +13298,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="687"/>
+      <c r="G10" s="719"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -13306,33 +13306,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="705"/>
-      <c r="M10" s="726" t="s">
+      <c r="K10" s="698"/>
+      <c r="M10" s="687" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="727"/>
-      <c r="O10" s="727"/>
-      <c r="P10" s="727"/>
-      <c r="Q10" s="727"/>
-      <c r="R10" s="727"/>
-      <c r="S10" s="727"/>
-      <c r="T10" s="727"/>
-      <c r="U10" s="727"/>
-      <c r="V10" s="727"/>
-      <c r="W10" s="727"/>
-      <c r="X10" s="727"/>
-      <c r="Y10" s="727"/>
-      <c r="Z10" s="727"/>
-      <c r="AA10" s="727"/>
-      <c r="AB10" s="727"/>
-      <c r="AC10" s="728"/>
-      <c r="AD10" s="699"/>
+      <c r="N10" s="688"/>
+      <c r="O10" s="688"/>
+      <c r="P10" s="688"/>
+      <c r="Q10" s="688"/>
+      <c r="R10" s="688"/>
+      <c r="S10" s="688"/>
+      <c r="T10" s="688"/>
+      <c r="U10" s="688"/>
+      <c r="V10" s="688"/>
+      <c r="W10" s="688"/>
+      <c r="X10" s="688"/>
+      <c r="Y10" s="688"/>
+      <c r="Z10" s="688"/>
+      <c r="AA10" s="688"/>
+      <c r="AB10" s="688"/>
+      <c r="AC10" s="689"/>
+      <c r="AD10" s="692"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="725"/>
-      <c r="G11" s="687"/>
+      <c r="C11" s="686"/>
+      <c r="G11" s="719"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="705"/>
+      <c r="K11" s="698"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -13343,17 +13343,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="715" t="s">
+      <c r="Z11" s="708" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="716"/>
+      <c r="AA11" s="709"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="699"/>
+      <c r="AD11" s="692"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -13366,7 +13366,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="687"/>
+      <c r="G12" s="719"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -13374,8 +13374,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="705"/>
-      <c r="L12" s="720" t="s">
+      <c r="K12" s="698"/>
+      <c r="L12" s="713" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -13406,25 +13406,25 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="709" t="s">
+      <c r="AA12" s="702" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="710"/>
+      <c r="AB12" s="703"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="699"/>
+      <c r="AD12" s="692"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="723"/>
-      <c r="G13" s="687"/>
-      <c r="K13" s="705"/>
-      <c r="L13" s="721"/>
+      <c r="C13" s="684"/>
+      <c r="G13" s="719"/>
+      <c r="K13" s="698"/>
+      <c r="L13" s="714"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="689" t="s">
+      <c r="Q13" s="721" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="612"/>
+      <c r="R13" s="615"/>
       <c r="S13" s="545"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -13433,17 +13433,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="711"/>
-      <c r="AB13" s="712"/>
-      <c r="AD13" s="699"/>
+      <c r="AA13" s="704"/>
+      <c r="AB13" s="705"/>
+      <c r="AD13" s="692"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="725"/>
+      <c r="C14" s="686"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="687"/>
+      <c r="G14" s="719"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -13451,8 +13451,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="705"/>
-      <c r="L14" s="721"/>
+      <c r="K14" s="698"/>
+      <c r="L14" s="714"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -13473,9 +13473,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="711"/>
-      <c r="AB14" s="712"/>
-      <c r="AD14" s="699"/>
+      <c r="AA14" s="704"/>
+      <c r="AB14" s="705"/>
+      <c r="AD14" s="692"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13490,19 +13490,19 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="687"/>
+      <c r="G15" s="719"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="705"/>
-      <c r="L15" s="722"/>
-      <c r="Q15" s="689" t="s">
+      <c r="K15" s="698"/>
+      <c r="L15" s="715"/>
+      <c r="Q15" s="721" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="612"/>
+      <c r="R15" s="615"/>
       <c r="S15" s="545"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -13511,14 +13511,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="711"/>
-      <c r="AB15" s="712"/>
-      <c r="AD15" s="699"/>
+      <c r="AA15" s="704"/>
+      <c r="AB15" s="705"/>
+      <c r="AD15" s="692"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="687"/>
-      <c r="K16" s="705"/>
+      <c r="G16" s="719"/>
+      <c r="K16" s="698"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13537,24 +13537,24 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="711"/>
-      <c r="AB16" s="712"/>
-      <c r="AD16" s="699"/>
+      <c r="AA16" s="704"/>
+      <c r="AB16" s="705"/>
+      <c r="AD16" s="692"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="684" t="s">
+      <c r="F17" s="716" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="687"/>
+      <c r="G17" s="719"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="705"/>
+      <c r="K17" s="698"/>
       <c r="S17" s="545"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -13562,9 +13562,9 @@
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="711"/>
-      <c r="AB17" s="712"/>
-      <c r="AD17" s="699"/>
+      <c r="AA17" s="704"/>
+      <c r="AB17" s="705"/>
+      <c r="AD17" s="692"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13574,15 +13574,15 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="685"/>
-      <c r="G18" s="687"/>
+      <c r="F18" s="717"/>
+      <c r="G18" s="719"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="705"/>
+      <c r="K18" s="698"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
@@ -13593,39 +13593,42 @@
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="713"/>
-      <c r="AB18" s="714"/>
-      <c r="AD18" s="699"/>
+      <c r="AA18" s="706"/>
+      <c r="AB18" s="707"/>
+      <c r="AD18" s="692"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="688"/>
-      <c r="K19" s="706"/>
+      <c r="G19" s="720"/>
+      <c r="K19" s="699"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="693" t="s">
+      <c r="R19" s="725" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="694"/>
-      <c r="T19" s="695"/>
+      <c r="S19" s="726"/>
+      <c r="T19" s="727"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="700"/>
+      <c r="AD19" s="693"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13637,14 +13640,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
